--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>article</t>
   </si>
@@ -64,18 +64,22 @@
     <t>malta-beton-temnyi.png</t>
   </si>
   <si>
-    <t>суума в расчрочку от банка на 6 месяцев</t>
+    <t>сумма в рассрочку от банка на 6 месяцев</t>
+  </si>
+  <si>
+    <t>Металл: 1.5 мм;Наружняя отделка: серебро антик;
+Внутренняя отделка: фрезерованная панель 6 мм, цвет бетон светлый;Коробка двери: сложный гнутый открытый короб;Полотно двери: 80 мм;Карман: под замки из листа 1,5 мм с двух сторон;Противосъемные ригеля: 3шт;Петли: на подшипниках 3 шт;Замок верхний: Гардиан 30.01 с накладкой;Замок нижний: Гардиан 32.11 с накладкой;Эксцентрик;Ключ: Цилиндр ключ/вертух с перфокартой;Декоративные накладки на замок: цвет хром;Ручка на розетке: цвет хром;Два контура уплотнения;Утепление полотна: Минеральная плита KNAUF;Глазок: цвет хром;Размеры: 2050х860 мм, 2050х960 мм;</t>
+  </si>
+  <si>
+    <t>Мальта бетон светлый</t>
+  </si>
+  <si>
+    <t>malta-beton-svetlyi.png</t>
   </si>
   <si>
     <t xml:space="preserve">Металл: 1.5 мм;Наружняя отделка: серебро антик;
 Внутренняя отделка: фрезерованная панель 6 мм, цвет бетон светлый;Коробка двери: сложный гнутый открытый короб;Полотно двери: 80 мм;Карман: под замки из листа 1,5 мм с двух сторон;Противосъемные ригеля: 3шт;Петли: на подшипниках 3 шт;Замок верхний: Гардиан 30.01 с накладкой;Замок нижний: Гардиан 32.11 с накладкой;Эксцентрик;Ключ: Цилиндр ключ/вертух с перфокартой;Декоративные накладки на замок: цвет хром;Ручка на розетке: цвет хром;Два контура уплотнения;Утепление полотна: Минеральная плита KNAUF;Глазок: цвет хром;Размеры: 2050х860 мм, 2050х960 мм;
 </t>
-  </si>
-  <si>
-    <t>Мальта бетон светлый</t>
-  </si>
-  <si>
-    <t>malta-beton-svetlyi.png</t>
   </si>
   <si>
     <t>Мальта бетон матовый</t>
@@ -733,7 +737,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" ht="93.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>13</v>
@@ -755,12 +759,16 @@
       <c r="I2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="11"/>
-      <c r="M2" s="5"/>
+      <c r="M2" s="10">
+        <v>0.0</v>
+      </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -789,12 +797,16 @@
       <c r="I3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K3" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L3" s="11"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="10">
+        <v>0.0</v>
+      </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -804,7 +816,7 @@
     <row r="4" ht="15.0" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>14</v>
@@ -815,7 +827,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
       <c r="G4" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="9">
         <v>5308.0</v>
@@ -823,12 +835,16 @@
       <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L4" s="11"/>
-      <c r="M4" s="5"/>
+      <c r="M4" s="10">
+        <v>0.0</v>
+      </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -837,7 +853,7 @@
     </row>
     <row r="5" ht="15.0" customHeight="1">
       <c r="B5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>14</v>
@@ -847,7 +863,7 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="13">
         <v>9050.0</v>
@@ -855,15 +871,21 @@
       <c r="I5" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J5" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K5" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" s="14"/>
+      <c r="M5" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
@@ -873,7 +895,7 @@
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="16">
         <v>8666.0</v>
@@ -881,15 +903,21 @@
       <c r="I6" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J6" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K6" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" s="15"/>
+      <c r="M6" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>14</v>
@@ -898,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="16">
         <v>8666.0</v>
@@ -906,14 +934,20 @@
       <c r="I7" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J7" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K7" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" s="15"/>
+      <c r="M7" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
@@ -923,7 +957,7 @@
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="18">
         <v>8195.0</v>
@@ -931,14 +965,20 @@
       <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J8" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K8" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L8" s="15"/>
+      <c r="M8" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>14</v>
@@ -948,7 +988,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="18">
         <v>8195.0</v>
@@ -956,13 +996,19 @@
       <c r="I9" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J9" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K9" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
@@ -972,7 +1018,7 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="18">
         <v>8195.0</v>
@@ -980,14 +1026,20 @@
       <c r="I10" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J10" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K10" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L10" s="14"/>
+      <c r="M10" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -997,7 +1049,7 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="13">
         <v>6000.0</v>
@@ -1005,14 +1057,20 @@
       <c r="I11" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J11" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K11" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L11" s="14"/>
+      <c r="M11" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -1022,7 +1080,7 @@
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" s="13">
         <v>6000.0</v>
@@ -1030,14 +1088,20 @@
       <c r="I12" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J12" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K12" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L12" s="14"/>
+      <c r="M12" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
@@ -1047,7 +1111,7 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="13">
         <v>8195.0</v>
@@ -1055,14 +1119,20 @@
       <c r="I13" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J13" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K13" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="14"/>
+      <c r="M13" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>14</v>
@@ -1072,7 +1142,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" s="13">
         <v>6325.0</v>
@@ -1080,14 +1150,20 @@
       <c r="I14" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J14" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K14" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L14" s="14"/>
+      <c r="M14" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
@@ -1097,7 +1173,7 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" s="13">
         <v>6325.0</v>
@@ -1105,14 +1181,20 @@
       <c r="I15" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J15" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K15" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L15" s="14"/>
+      <c r="M15" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -1122,7 +1204,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" s="13">
         <v>6492.0</v>
@@ -1130,14 +1212,20 @@
       <c r="I16" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J16" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K16" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L16" s="14"/>
+      <c r="M16" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="B17" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>14</v>
@@ -1147,7 +1235,7 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" s="13">
         <v>6492.0</v>
@@ -1155,14 +1243,20 @@
       <c r="I17" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J17" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K17" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L17" s="14"/>
+      <c r="M17" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>14</v>
@@ -1172,7 +1266,7 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H18" s="13">
         <v>6525.0</v>
@@ -1180,14 +1274,20 @@
       <c r="I18" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J18" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K18" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L18" s="14"/>
+      <c r="M18" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>14</v>
@@ -1197,7 +1297,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H19" s="13">
         <v>6525.0</v>
@@ -1205,14 +1305,20 @@
       <c r="I19" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J19" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K19" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L19" s="14"/>
+      <c r="M19" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>14</v>
@@ -1222,7 +1328,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H20" s="13">
         <v>7650.0</v>
@@ -1230,13 +1336,19 @@
       <c r="I20" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J20" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K20" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>14</v>
@@ -1246,7 +1358,7 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H21" s="13">
         <v>7650.0</v>
@@ -1254,14 +1366,20 @@
       <c r="I21" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J21" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K21" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L21" s="14"/>
+      <c r="M21" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>14</v>
@@ -1271,7 +1389,7 @@
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H22" s="13">
         <v>7184.0</v>
@@ -1279,14 +1397,20 @@
       <c r="I22" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J22" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K22" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L22" s="14"/>
+      <c r="M22" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23" ht="15.0" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>14</v>
@@ -1296,7 +1420,7 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23" s="13">
         <v>7008.0</v>
@@ -1304,14 +1428,20 @@
       <c r="I23" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J23" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K23" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L23" s="14"/>
+      <c r="M23" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24" ht="15.0" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -1321,7 +1451,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H24" s="13">
         <v>7000.0</v>
@@ -1329,14 +1459,20 @@
       <c r="I24" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J24" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K24" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L24" s="14"/>
+      <c r="M24" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25" ht="15.0" customHeight="1">
       <c r="B25" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -1346,7 +1482,7 @@
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" s="13">
         <v>7000.0</v>
@@ -1354,14 +1490,20 @@
       <c r="I25" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J25" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K25" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L25" s="14"/>
+      <c r="M25" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="B26" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -1371,7 +1513,7 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="13">
         <v>11000.0</v>
@@ -1379,14 +1521,20 @@
       <c r="I26" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J26" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K26" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L26" s="14"/>
+      <c r="M26" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>14</v>
@@ -1396,7 +1544,7 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H27" s="13">
         <v>5666.0</v>
@@ -1404,14 +1552,20 @@
       <c r="I27" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J27" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K27" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L27" s="14"/>
+      <c r="M27" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
@@ -1421,7 +1575,7 @@
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" s="13">
         <v>5666.0</v>
@@ -1429,14 +1583,20 @@
       <c r="I28" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J28" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K28" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L28" s="14"/>
+      <c r="M28" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>14</v>
@@ -1446,7 +1606,7 @@
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" s="13">
         <v>5666.0</v>
@@ -1454,14 +1614,20 @@
       <c r="I29" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J29" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K29" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L29" s="14"/>
+      <c r="M29" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -1471,7 +1637,7 @@
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H30" s="13">
         <v>8666.0</v>
@@ -1479,10 +1645,16 @@
       <c r="I30" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J30" s="10">
+        <v>0.0</v>
+      </c>
       <c r="K30" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L30" s="14"/>
+      <c r="M30" s="10">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="14"/>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="316">
   <si>
     <t>article</t>
   </si>
@@ -320,13 +320,13 @@
     <t>aphina-belyi-yasen.jpg</t>
   </si>
   <si>
-    <t>Контур уплотнители: 2 контура,Толщина полотна: 70мм,Короб: 90мм открытый,Внутренняя панель МДФ 6мм с Фрезировкой,Основной замок: Галион 811,Дополнительный замок: Галион 812,Цильндр: Ключ\вертушок,Ночник: Есть,Ручка: Раздельная,Заполнение Двери: Пенополистирол,Размер: 860х2050мм,960х2050м,</t>
+    <t>Контур уплотнители: 2 контура;Толщина полотна: 70мм;Короб: 90мм открытый;Внутренняя панель МДФ 6мм с Фрезировкой;Основной замок: Галион 811;Дополнительный замок: Галион 812;Цильндр: Ключ\вертушок;Ночник: Есть;Ручка: Раздельная;Заполнение Двери: Пенополистирол;Размер: 860х2050мм,960х2050м;</t>
   </si>
   <si>
     <t>Алтай Беленный дуб</t>
   </si>
   <si>
-    <t>Контур уплотнители: 2 контура,Толщина полотна: 60мм,Короб: 78мм Открыт,Внутренняя панель МДФ 6мм с Фрезировкой,Основной замок: Галион 811,Дополнительный замок: Галион 812,Цильндр: Ключ\вертушок,Ночник: Есть,Ручка: Раздельная,Заполнение Двери: Миниральная плита,Размер: 860х2050мм,960х2050м,</t>
+    <t>Контур уплотнители: 2 контура;Толщина полотна: 60мм;Короб: 78мм Открыт;Внутренняя панель МДФ 6мм с Фрезировкой;Основной замок: Галион 811;Дополнительный замок: Галион 812;Цильндр: Ключ\вертушок;Ночник: Есть;Ручка: Раздельная;Заполнение Двери: Миниральная плита;Размер: 860х2050мм,960х2050м;</t>
   </si>
   <si>
     <t>Рокка Белый Ясень</t>
@@ -335,17 +335,17 @@
     <t>rokka-belyi-yasen.jpg</t>
   </si>
   <si>
-    <t>Контур уплотнители: 2 контура,
-Толщина полотна: 70мм,
-Короб: 85мм Закрыт утеплен,
-Внутренняя панель: МДФ 12мм с Фрезировкой,
-Основной замок: Гардиан 3001,
-Дополнительный замок: Гардиан 3211,
-Цильндр: Ключ\вертушок,
-Ночник: Есть,
-Ручка: Раздельная,
-Заполнение Двери: Минеральная плита,
-Размер: 860х2050мм,960х2050м,</t>
+    <t>Контур уплотнители: 2 контура;
+Толщина полотна: 70мм;
+Короб: 85мм Закрыт утеплен;
+Внутренняя панель: МДФ 12мм с Фрезировкой;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Минеральная плита;
+Размер: 860х2050мм,960х2050м;</t>
   </si>
   <si>
     <t>Лига металл/металл</t>
@@ -354,17 +354,17 @@
     <t>liga.jpg</t>
   </si>
   <si>
-    <t>Контур уплотнители: 2 контура,
-Толщина полотна: 60мм,
-Короб: 78мм Открыт,
-Внутренняя металл,
-Основной замок: Гардиан 3001,
-Дополнительный замок: Гардиан 3211,
-Цильндр: Ключ\вертушок,
-Ночник: Есть,
-Ручка: Раздельная,
-Заполнение Двери: Пенополистирол,
-Размер: 860х2050мм,960х2050м,</t>
+    <t>Контур уплотнители: 2 контура;
+Толщина полотна: 60мм;
+Короб: 78мм Открыт;
+Внутренняя металл;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Пенополистирол;
+Размер: 860х2050мм,960х2050м;</t>
   </si>
   <si>
     <t xml:space="preserve">Амур Ясень белый </t>
@@ -373,17 +373,17 @@
     <t>amur-yasen-belyi.jpg</t>
   </si>
   <si>
-    <t>Контур уплотнители: 2 контура,
-Толщина полотна: 700мм,
-Короб: 90мм,
-Внутренняя панель: МДФ 12мм с Фрезировкой, 
-Основной замок: Галион 811,
-Дополнительный замок: Галион 812,
-Цильндр: Ключ\вертушок,
-Ночник: Есть,
-Ручка: Раздельная,
-Заполнение Двери: Пенополистирол,
-Размер: 860х2050мм,960х2050м,</t>
+    <t>Контур уплотнители: 2 контура;
+Толщина полотна: 700мм;
+Короб: 90мм;
+Внутренняя панель: МДФ 12мм с Фрезировкой; 
+Основной замок: Галион 811;
+Дополнительный замок: Галион 812;
+Цильндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Пенополистирол;
+Размер: 860х2050мм,960х2050м;</t>
   </si>
   <si>
     <t>Стиль Лиственница Бежевая</t>
@@ -392,17 +392,17 @@
     <t>stil-listvenica-bezhevaya.jpg</t>
   </si>
   <si>
-    <t>Контур уплотнители: 2 контура,
-Толщина полотна: 70мм,
-Короб: 85мм Открыт,
-Внутренняя панель: МДФ 16мм с Фрезировкой,
-Основной замок: Галион 811,
-Дополнительный замок: Галион 812,
-Цильндр: Ключ\вертушок,
-Ночник: Есть,
-Ручка: Раздельная,
-Заполнение Двери: Пенополистирол,
-Размер: 860х2050мм,960х2050м,</t>
+    <t>Контур уплотнители: 2 контура;
+Толщина полотна: 70мм;
+Короб: 85мм Открыт;
+Внутренняя панель: МДФ 16мм с Фрезировкой;
+Основной замок: Галион 811;
+Дополнительный замок: Галион 812;
+Цильндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Пенополистирол;
+Размер: 860х2050мм,960х2050м;</t>
   </si>
   <si>
     <t xml:space="preserve"> Рим Белый Ясень</t>
@@ -423,17 +423,17 @@
     <t>latina-listvenica-bezhevaya.jpg</t>
   </si>
   <si>
-    <t>Контур уплотнители: 2 контура,
-Толщина полотна: 70мм,
-Короб: 90мм Закрыт утеплен,
-Внутренняя панель: МДФ 12мм с Зеркалом,
-Основной замок: Гардиан 3001,
-Дополнительный замок: Гардиан 3211,
-Цильндр: Ключ\вертушок,
-Ночник: Есть,
-Ручка: Раздельная,
-Заполнение Двери: Минеральная плита,
-Размер: 860х2050мм,960х2050м,</t>
+    <t>Контур уплотнители: 2 контура;
+Толщина полотна: 70мм;
+Короб: 90мм Закрыт утеплен;
+Внутренняя панель: МДФ 12мм с Зеркалом;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр: Ключ\вертушок;
+Ночник: Есть
+Ручка: Раздельная;
+Заполнение Двери: Минеральная плита;
+Размер: 860х2050мм,960х2050м;</t>
   </si>
   <si>
     <t>Рига Белый матовый</t>
@@ -442,25 +442,25 @@
     <t>riga-belyi-matovyi.jpg</t>
   </si>
   <si>
-    <t>Тип двери (полотно и короб): К5А/90 п4.1 Косяк мет 1,0мм, полотно 1,0мм 2-контурная  дверь на открытом косяке, 
-ТОЛЩИНА ПОЛОТНА: 90ММ,
+    <t>Тип двери (полотно и короб): К5А/90 п4.1 Косяк мет 1,0мм, полотно 1,0мм 2-контурная  дверь на открытом косяке;
+ТОЛЩИНА ПОЛОТНА: 90ММ;
 Размеры двери: стандарт 2050*960/ 2050*860,
-Открывание: наружное,
+Открывание: наружное;
 Тип петель: (левые, правые) на подшипниках 3шт,
-Цвет покраски: АНТИК СЕРЕБРО ТЕМНОЕ,
-Наружная отделка: АНТИК СЕРЕБРО ТЕМНОЕ,
-Внутренняя отделка: фл 6мм фл-290 империя белый матовый+ДВП 3мм,
-Замок основной: Г3211 цилиндр + эксцентрик,
-Накладки броня врезная: 16-21 black/ накл под цилиндр z21-HL black + вставка под шток,
-Цилиндр.механизм: Аверс перф ключ-шток,
-Ручка: FZ21-241 black,
-Замок дополнительный: Г3001 сув,
-Накладки: сув zs-21-Х black с автошторк,
-Глазок: квадратный черный, 1500мм,
-Задвижка: мех-зм задв + верт FZ21-177 black,
-Утепление: косяка есть,
-НАПОЛНЕНИЕ: БАЗАЛЬТ,
-Упаковка: гофрокартон,</t>
+Цвет покраски: АНТИК СЕРЕБРО ТЕМНОЕ;
+Наружная отделка: АНТИК СЕРЕБРО ТЕМНОЕ;
+Внутренняя отделка: фл 6мм фл-290 империя белый матовый+ДВП 3мм;
+Замок основной: Г3211 цилиндр + эксцентрик;
+Накладки броня врезная: 16-21 black/ накл под цилиндр z21-HL black + вставка под шток;
+Цилиндр.механизм: Аверс перф ключ-шток;
+Ручка: FZ21-241 black;
+Замок дополнительный: Г3001 сув;
+Накладки: сув zs-21-Х black с автошторк;
+Глазок: квадратный черный, 1500мм;
+Задвижка: мех-зм задв + верт FZ21-177 black;
+Утепление: косяка есть;
+НАПОЛНЕНИЕ: БАЗАЛЬТ;
+Упаковка: гофрокартон;</t>
   </si>
   <si>
     <t>Альфа Антик медь</t>
@@ -482,17 +482,17 @@
     <t>korsika-alon.jpg</t>
   </si>
   <si>
-    <t>Контур уплотнители: 3 контура,
-Толщина полотна: 90мм,
-Короб: 105мм,
-Внутренняя панель: МДФ 16мм с Фрезировкой,
-Основной замок: Гардиан 3001,
-Дополнительный замок: Гардиан 3211,
-Цильндр: Есть,
-Ночник: Есть,
-Ручка: Раздельная,
-Заполнение Двери: Минеральная плита,
-Размер: 860х2050мм,960х2050м,</t>
+    <t>Контур уплотнители: 3 контура;
+Толщина полотна: 90мм;
+Короб: 105мм;
+Внутренняя панель: МДФ 16мм с Фрезировкой;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр: Есть;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Минеральная плита;
+Размер: 860х2050мм,960х2050м;</t>
   </si>
   <si>
     <t>Венеция Дуб Венгерский</t>
@@ -501,17 +501,17 @@
     <t>veneciya-vengerskiy-dub.jpg</t>
   </si>
   <si>
-    <t>Контур уплотнители: 3 контура,
-Толщина полотна: 90мм,
-Короб: 105мм Закрыт утеплен,
-Внутренняя панель: МДФ 16мм с Фрезировкой,
-Основной замок: Гардиан 3001
-Дополнительный замок: Гардиан 3211,
-Цильндр: Ключ\вертушок,
-Ночник: Есть,
-Ручка: Раздельная,
-Заполнение Двери: Минеральная плита,
-Размер: 860х2050мм,960х2050м,</t>
+    <t>Контур уплотнители: 3 контура;
+Толщина полотна: 90мм;
+Короб: 105мм Закрыт утеплен;
+Внутренняя панель: МДФ 16мм с Фрезировкой;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Минеральная плита;
+Размер: 860х2050мм,960х2050м;</t>
   </si>
   <si>
     <t>Грасса Венге Эко</t>
@@ -520,17 +520,17 @@
     <t>grassa-venge-eco.jpg</t>
   </si>
   <si>
-    <t>Контур уплотнители: 3 контура,
-Толщина полотна: 100мм,
-Короб: 105мм Закрыт утеплен,
-Внутренняя панель: МДФ 16мм Царга с Фрезировкой, 
-Основной замок: Гардиан 3001,
-Дополнительный замок: Гардиан 3211,
-Цильндр: Ключ\вертушок,
-Ночник: Есть,
-Ручка: Раздельная,
-Заполнение Двери: Минеральная плита,
-Размер: 860х2050мм,960х2050м,</t>
+    <t>Контур уплотнители: 3 контура;
+Толщина полотна: 100мм;
+Короб: 105мм Закрыт утеплен;
+Внутренняя панель: МДФ 16мм Царга с Фрезировкой;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Минеральная плита;
+Размер: 860х2050мм,960х2050м;</t>
   </si>
   <si>
     <t>Барселона Венге</t>
@@ -539,17 +539,16 @@
     <t>barcelona-venge.jpg</t>
   </si>
   <si>
-    <t>Контур уплотнители: 3 контура,
-Толщина полотна: 90мм,
-Короб: 105мм Закрыт утеплен,
-Внутренняя панель: МДФ 12 мм  Венге,
-Основной замок: Гардиан 3001,
-Дополнительный замок: Гардиан 3211,
-Цильндр: Ключ\вертушок,
-Ночник: Есть,
-Ручка: Раздельная,
-Заполнение Двери: Минеральная плита,
-Размер: 860х2050мм,960х2050м,</t>
+    <t>Контур уплотнители: 3 контура;
+Толщина полотна: 90мм;
+Короб: 105мм Закрыт утеплен;
+Внутренняя панель: МДФ 12 мм  Венге;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Минеральная плита;Размер: 860х2050мм,960х2050м;</t>
   </si>
   <si>
     <t>Прима Софи Грей</t>
@@ -558,17 +557,17 @@
     <t>prima-sofi-grey.jpg</t>
   </si>
   <si>
-    <t>Контур уплотнители: 3 контура,
-Толщина полотна: 90мм,
-Короб: 105мм Закрыт утеплен,
-Внутренняя панель: МДФ 16мм с Фрезировкой 3,
-Основной замок: Гардиан 3001,
-Дополнительный замок: Гардиан 3211,
-Цильндр: Ключ\вертушок,
-Ночник: Есть,
-Ручка: Раздельная,
-Заполнение Двери: Минеральная плита,
-Размер: 860х2050мм,960х2050м,</t>
+    <t>Контур уплотнители: 3 контура;
+Толщина полотна: 90мм;
+Короб: 105мм Закрыт утеплен;
+Внутренняя панель: МДФ 16мм с Фрезировкой 3;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Минеральная плита;
+Размер: 860х2050мм,960х2050м</t>
   </si>
   <si>
     <t>Невада Ясень белый</t>
@@ -577,18 +576,18 @@
     <t>nevada-yasen.jpg</t>
   </si>
   <si>
-    <t>Контур уплотнители: 3 контура,
-Толщина полотна: 90мм,
-Короб: 105мм Закрыт утеплен,
-Внутренняя панель: МДФ 16мм с Фрезеровкой 3,
-Основной замок: Гардиан 3001,
-Дополнительный замок: Гардиан 3211,
-Броненакладка: врезная,
-Цилиндр: Ключ\вертушок,
-Ночник: Есть,
-Ручка: Раздельная,
-Заполнение Двери: Минеральная плита,
-Размер: 860х2050мм,960х2050м,</t>
+    <t>Контур уплотнители: 3 контура;
+Толщина полотна: 90мм;
+Короб: 105мм Закрыт утеплен;
+Внутренняя панель: МДФ 16мм с Фрезеровкой 3;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Броненакладка: врезная;
+Цилиндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Минеральная плита;
+Размер: 860х2050мм,960х2050м;</t>
   </si>
   <si>
     <t>Термо прима Белый матовый</t>
@@ -603,18 +602,18 @@
     <t>termo-trento.png</t>
   </si>
   <si>
-    <t>Контур уплотнители: 3 контура,
-Толщина полотна: 107мм,
-Внешнее покрытие: грунт + муар коричневый 8019,
-Внутренняя панель: МДФ 16мм с Фрезеровкой, Капучино,
-Стеклопакет: с тонировкой,
-Основной замок: Гардиан 3211 + эксцентрик,
-Дополнительный замок: Гардиан 3001, 
-Цилиндр: Гардиан Basic Термо со штоком , черная вертушка,
-Ночник: Фуаро Тор Редлайн , черная,
-Ручка: Фуаро Тор Редлайн, черная,
-Заполнение Двери: Пенополистирол+мин плита
-Размер: 860х2050мм,960х2050м</t>
+    <t>Контур уплотнители: 3 контура;
+Толщина полотна: 107мм;
+Внешнее покрытие: грунт + муар коричневый 8019;
+Внутренняя панель: МДФ 16мм с Фрезеровкой, Капучино;
+Стеклопакет: с тонировкой;
+Основной замок: Гардиан 3211 + эксцентрик;
+Дополнительный замок: Гардиан 3001;
+Цилиндр: Гардиан Basic Термо со штоком , черная вертушка;
+Ночник: Фуаро Тор Редлайн , черная;
+Ручка: Фуаро Тор Редлайн, черная;
+Заполнение Двери: Пенополистирол+мин плита;
+Размер: 860х2050мм,960х2050м;</t>
   </si>
   <si>
     <t>Вега</t>
@@ -623,19 +622,19 @@
     <t>vega.png</t>
   </si>
   <si>
-    <t>Контур уплотнители: 3 контура,
-Толщина полотна: 90 мм,
-Короб: 113 мм Закрыт утеплен,
-Внутренняя панель: МДФ 12 мм , белая/пацифик,
-Наружния панель: МДФ 10мм,
-Основной замок: Гардиан 3001,
-Дополнительный замок: Гардиан 3211,
-Броненакладка: врезная,
-Цилиндр: Ключ\вертушок,
-Ночник: Есть,
-Ручка: Раздельная,
-Заполнение Двери: Базальтовая плита повышенной плотности,
-Размер: 860х2050мм, 960х2050м,</t>
+    <t>Контур уплотнители: 3 контура;
+Толщина полотна: 90 мм;
+Короб: 113 мм Закрыт утеплен;
+Внутренняя панель: МДФ 12 мм , белая/пацифик;
+Наружния панель: МДФ 10мм;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211
+Броненакладка: врезная;
+Цилиндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Базальтовая плита повышенной плотности;
+Размер: 860х2050мм, 960х2050м;</t>
   </si>
   <si>
     <t>Арабика</t>
@@ -644,19 +643,19 @@
     <t>arabika.jpg</t>
   </si>
   <si>
-    <t>Контур уплотнители: 3 контура,
-Толщина полотна: 100 мм,
-Короб: 100мм Закрыт утеплен,
-Внутренняя панель: МДФ 22мм Белый матовый,
-Наружния панель: МДФ 10мм Бетон темный,
-Основной замок: Гардиан 3001,
-Дополнительный замок: Гардиан 3211,
-Броненакладка: врезная,
-Цилиндр: Ключ\вертушок,
-Ночник: Есть,
-Ручка: Раздельная,
-Заполнение Двери: Минеральная плита,
-Размер: 860х2050мм,960х2050м,</t>
+    <t>Контур уплотнители: 3 контура;
+Толщина полотна: 100 мм;
+Короб: 100мм Закрыт утеплен;
+Внутренняя панель: МДФ 22мм Белый матовый;
+Наружния панель: МДФ 10мм Бетон темный;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Броненакладка: врезная;
+Цилиндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Минеральная плита;
+Размер: 860х2050мм,960х2050м;</t>
   </si>
   <si>
     <t>Марсель</t>
@@ -665,20 +664,6 @@
     <t>marsel.png</t>
   </si>
   <si>
-    <t>Контур уплотнители: 3 контура,
-Толщина полотна: 90мм,
-Короб: 105мм Закрыт утеплен,
-Внутренняя панель: МДФ 16мм с Фрезеровкой 3,
-Основной замок: Гардиан 3001,
-Дополнительный замок: Гардиан 3211,
-Броненакладка: врезная,
-Цилиндр: Ключ\вертушок,
-Ночник: Есть,
-Ручка: Раздельная,
-Заполнение Двери: Минеральная плита,
-Размер: 860х2050мм,960х2050м,</t>
-  </si>
-  <si>
     <t>ДМ ISOTERMA 11 см Медный антик Астана милки</t>
   </si>
   <si>
@@ -688,21 +673,19 @@
     <t>dm-isoterma-mednyi-antik-astana-milki.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Медный антик»,
-Внутреннее покрытие: МДФ-панель цвет-астана милки,
-Толщина дверного полотна: 110 мм,
-Глубина дверного короба: 141 мм,
-Терморазрыв 24 мм: двухкамерный спейсер
-из ПВХ,
-Наполнитель: пенополистирол,
-Уплотнитель: 3 контура уплотнителя из вспененной резины,
-Основной замок: сувальдный MONARCH, IV,
-(наивысший) класс взломостойкости, диаметр, ригелей: 16 мм,
-Дополнительный замок: сувальдный KALE, IV,
-(наивысший) класс взломостойкости, диаметр, ригелей: 16 мм
-Независимая ночная задвижка,
-Регулировка прижима притвора: металлический эксцентрик для защёлки на основном замке,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Медный антик»;
+Внутреннее покрытие: МДФ-панель цвет-астана милки;
+Толщина дверного полотна: 110 мм;
+Глубина дверного короба: 141 мм;
+Терморазрыв 24 мм: двухкамерный спейсе из ПВХ;
+Наполнитель: пенополистирол;
+Уплотнитель: 3 контура уплотнителя из вспененной резины;
+Основной замок: сувальдный MONARCH, IV;
+(наивысший) класс взломостойкости, диаметр, ригелей: 16 мм;
+Дополнительный замок: сувальдный KALE, IV (наивысший) класс взломостойкости, диаметр, ригелей: 16 мм;
+Независимая ночная задвижка;
+Регулировка прижима притвора: металлический эксцентрик для защёлки на основном замке;
+Размеры: 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ 11 см ISOTERMA Серебро лиственница беж царга</t>
@@ -714,21 +697,19 @@
     <t>dm-isoterma-serebro-listvenica-bezh.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»,
-Внутреннее покрытие: МДФ-панель 22 мм,
-Царга-лиственница беж,
-Толщина дверного полотна: 110 мм,
-Глубина дверного короба: 141 мм,
-Терморазрыв 24 мм: двухкамерный спейсер из ПВХ,
-Наполнитель: PIR плита,
-Уплотнитель: 3 контура уплотнителя из вспененной резины,
-Основной замок: сувальдный MONARCH, IV,
-(наивысший) класс взломостойкости, диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный KALE, IV,
-(наивысший) класс взломостойкости, диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Регулировка прижима притвора: металлический эксцентрик для защёлки на основном замке,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»;
+Внутреннее покрытие: МДФ-панель 22 мм;
+Царга-лиственница беж;
+Толщина дверного полотна: 110 мм;
+Глубина дверного короба: 141 мм;
+Терморазрыв 24 мм: двухкамерный спейсер из ПВХ;
+Наполнитель: PIR плита;
+Уплотнитель: 3 контура уплотнителя из вспененной резины;
+Основной замок: сувальдный MONARCH, IV, (наивысший) класс взломостойкости, диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный KALE, IV,(наивысший) класс взломостойкости, диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Регулировка прижима притвора: металлический эксцентрик для защёлки на основном замке;
+Размеры: 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ 7,5 см Флорида эмалит белый зеркало</t>
@@ -740,18 +721,16 @@
     <t>emalit-florida.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: фрезерованная МДФпанель 10 мм, цвет «Черный кварц»,
-Внутреннее покрытие: МДФ-панель 10 мм, накладное зеркало с защитной плёнкой и декоративной обработкой внешней кромки (фацет), цвет «Эмалит белый»,
-Толщина дверного полотна: 90 мм,
-Толщина дверной коробки: 105 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнения из вспененной резины,
-Основной замок: цилиндровый КАРАТ, IV,
-(наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный КАРАТ,
-IV (наивысший) класс взломостойкости, диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: фрезерованная МДФпанель 10 мм, цвет «Черный кварц»;
+Внутреннее покрытие: МДФ-панель 10 мм, накладное зеркало с защитной плёнкой и декоративной обработкой внешней кромки (фацет), цвет «Эмалит белый»;
+Толщина дверного полотна: 90 мм;
+Толщина дверной коробки: 105 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнения из вспененной резины;
+Основной замок: цилиндровый КАРАТ, IV,(наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный КАРАТ,IV (наивысший) класс взломостойкости, диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ 9 см Серебро эмалит белый зеркало</t>
@@ -760,16 +739,16 @@
     <t>dm-9-serebro-emalit-belyi-zerkalo.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: Атмосферостойкое порошково-полимерное, «Антик серебро»
-Внутреннее покрытие: МДФ-панель 10 мм, встроенное зеркало с защитной плёнкой, цвет: эмалит белый,
-Толщина дверного полотна: 95 мм,
-Толщина дверной коробки: 117 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 3 контура уплотнения из вспененной резины
-Основной замок: цилиндровый КАРАТ , IV (наивысший) класс взломостойкости, диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный КАРАТ IV (наивысший) класс взломостойкости, диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: Атмосферостойкое порошково-полимерное, «Антик серебро»;
+Внутреннее покрытие: МДФ-панель 10 мм, встроенное зеркало с защитной плёнкой, цвет: эмалит белый;
+Толщина дверного полотна: 95 мм;
+Толщина дверной коробки: 117 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 3 контура уплотнения из вспененной резин;
+Основной замок: цилиндровый КАРАТ , IV (наивысший) класс взломостойкости, диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный КАРАТ IV (наивысший) класс взломостойкости, диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ 6 см Царское зеркало белый ясень</t>
@@ -778,16 +757,16 @@
     <t>dm-6-carskoe-belyi-yasen.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»,
-Внутреннее покрытие: Зеркало Белый ясень,
-Толщина дверного полотна: 60 мм,
-Толщина дверной коробки: 90 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнения из вспененной резины,
-Основной замок: цилиндровый RIGGER, диаметр ригелей: 14 мм,
-Дополнительный замок: сувальдный RIGGER, диаметр ригелей: 14 мм,
-Независимая ночная задвижка,
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»;
+Внутреннее покрытие: Зеркало Белый ясень;
+Толщина дверного полотна: 60 мм;
+Толщина дверной коробки: 90 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнения из вспененной резины;
+Основной замок: цилиндровый RIGGER, диаметр ригелей: 14 мм;
+Дополнительный замок: сувальдный RIGGER, диаметр ригелей: 14 мм;
+Независимая ночная задвижка;
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Гарда 7,5 см Серебро зеркало фацет белый ясень</t>
@@ -796,16 +775,16 @@
     <t>dm-facet.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»,
-Внутреннее покрытие: Зеркало фацет Белый ясень,
-Толщина дверного полотна: 75 мм,
-Толщина дверной коробки: 105 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнения из вспененной резины,
-Основной замок: цилиндровый КАРАТ, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм.
-Дополнительный замок: сувальдный КАРАТ, IV (наивысший) класс взломостойкости, диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»;
+Внутреннее покрытие: Зеркало фацет Белый ясень;
+Толщина дверного полотна: 75 мм;
+Толщина дверной коробки: 105 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнения из вспененной резины;
+Основной замок: цилиндровый КАРАТ, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный КАРАТ, IV (наивысший) класс взломостойкости, диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Черное зеркало</t>
@@ -814,16 +793,16 @@
     <t>dm-chernoe-zerkalo.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: фрезерованная МДФпанель, цвет-сатин черный,
-Внутреннее покрытие: МДФ-панель, цветсатин черный, накладное зеркало с защитной плёнкой,
-Толщина дверного полотна: 90 мм,
-Глубина дверного короба: 105 мм,
-Наполнитель: пенополистирол,
-Уплотнитель:2 контура уплотнителя из вспененной резины,
-Основной замок: цилиндровый KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры:860х2050мм,960х2050мм,</t>
+    <t>Внешнее покрытие: фрезерованная МДФпанель, цвет-сатин черный;
+Внутреннее покрытие: МДФ-панель, цветсатин черный, накладное зеркало с защитной плёнкой;
+Толщина дверного полотна: 90 мм;
+Глубина дверного короба: 105 мм;
+Наполнитель: пенополистирол;
+Уплотнитель:2 контура уплотнителя из вспененной резины;
+Основной замок: цилиндровый KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры:860х2050мм,960х2050мм;</t>
   </si>
   <si>
     <t>ДМ 9 см Серебро Лиственница беж Царга</t>
@@ -835,16 +814,16 @@
     <t>dm-9-srebro-listvenica-bezh-carga.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»,
-Внутреннее покрытие: царговая МДФ-панель 22 мм, вставки из стекла Лакобель,
-Толщина дверного полотна: 95 мм,
-Толщина дверной коробки: 117 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 3 контура уплотнения из вспененной резины,
-Основной замок: цилиндровый КАРАТ, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный КАРАТ, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»;
+Внутреннее покрытие: царговая МДФ-панель 22 мм, вставки из стекла Лакобель;
+Толщина дверного полотна: 95 мм;
+Толщина дверной коробки: 117 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 3 контура уплотнения из вспененной резины;
+Основной замок: цилиндровый КАРАТ, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный КАРАТ, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Толстяк Букле Черный Белый Ясень</t>
@@ -853,16 +832,16 @@
     <t>dm-toltyk-bukle-chernyi-belyi.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное Букле Черный,
-Внутреннее покрытие: фрезерованная МДФ панель 8 мм,
-Толщина дверного полотна: 90 мм,
-Толщина дверной коробки: 117 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 3 контура уплотнения из вспененной резины,
-Основной замок: цилиндровый MONARCH IV класс взломостойкости; диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное Букле Черный;
+Внутреннее покрытие: фрезерованная МДФ панель 8 мм;
+Толщина дверного полотна: 90 мм;
+Толщина дверной коробки: 117 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 3 контура уплотнения из вспененной резины;
+Основной замок: цилиндровый MONARCH IV класс взломостойкости; диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ 7,5 см Гарда муар лиственница беж царга</t>
@@ -871,17 +850,17 @@
     <t>garda-muar-listvenica-bezh-carga.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое, порошково-полимерное «Черный муар»,
-Внутреннее покрытие: царговая МДФ-панель 22 мм, цвет «Лиственница беж». Вставки из глянцевого стекла лакобель,
-Толщина дверного полотна: 75 мм,
-Толщина дверной коробки: 105 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнения из вспененной резины,
-Основной замок: цилиндровый KALE, 4-ый (Наивысший) класс взломостойкости, диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный KALE, 4-ый (Наивысший) класс взломостойкости,
-диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое, порошково-полимерное «Черный муар»;
+Внутреннее покрытие: царговая МДФ-панель 22 мм, цвет «Лиственница беж». Вставки из глянцевого стекла лакобель;
+Толщина дверного полотна: 75 мм;
+Толщина дверной коробки: 105 мм
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнения из вспененной резины;
+Основной замок: цилиндровый KALE, 4-ый (Наивысший) класс взломостойкости, диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный KALE, 4-ый (Наивысший) класс взломостойкости;
+диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ Гарда 7,5 см Серебро Бетон снежный Царга</t>
@@ -890,16 +869,16 @@
     <t>dm-garda-7-5-serebro-beton-snezhnyi.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»,
-Внутреннее покрытие: царговая МДФ-панель 22 мм, цвет Бетон снежный царга. Вставки из глянцевого стекла лакобель,
-Толщина дверного полотна: 75 мм,
-Толщина дверной коробки: 105 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнения из вспененной резины,
-Основной замок: цилиндровый KALE, 4-ый (Наивысший) класс взломостойкости, диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный KALE, 4-ый (Наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»;
+Внутреннее покрытие: царговая МДФ-панель 22 мм, цвет Бетон снежный царга. Вставки из глянцевого стекла лакобель;
+Толщина дверного полотна: 75 мм;
+Толщина дверной коробки: 105 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнения из вспененной резины;
+Основной замок: цилиндровый KALE, 4-ый (Наивысший) класс взломостойкости, диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный KALE, 4-ый (Наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ 7,5 см Гарда муар белый ясень / венге тобакко</t>
@@ -908,16 +887,16 @@
     <t>venge-tabako-belyi-yasen.webp</t>
   </si>
   <si>
-    <t>Внешнее покрытие: фрезерованная МДФпанель 10 мм, цвет «Черный кварц»,
-Внутреннее покрытие: МДФ-панель 10 мм, накладное зеркало с защитной плёнкой и декоративной обработкой внешней кромки (фацет), цвет «Эмалит белый»,
-Толщина дверного полотна: 90 мм,
-Толщина дверной коробки: 105 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнения из вспененной резины,
-Основной замок: цилиндровый КАРАТ, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный КАРАТ, IV (наивысший) класс взломостойкости, диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: фрезерованная МДФпанель 10 мм, цвет «Черный кварц»;
+Внутреннее покрытие: МДФ-панель 10 мм, накладное зеркало с защитной плёнкой и декоративной обработкой внешней кромки (фацет), цвет «Эмалит белый»;
+Толщина дверного полотна: 90 мм;
+Толщина дверной коробки: 105 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнения из вспененной резины;
+Основной замок: цилиндровый КАРАТ, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный КАРАТ, IV (наивысший) класс взломостойкости, диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 2050*860 мм, 2050*960 мм</t>
   </si>
   <si>
     <t>ДМ Гарда антик 8 мм белый ясень / венге / рустикальный дуб</t>
@@ -926,14 +905,14 @@
     <t>garda-antik-belyi-yasen-venge-rustik.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое, порошково-полимерное, «медный антик»,
-Внутреннее покрытие: МДФ-панель 8 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнения из вспененной резины,
-Основной замок: цилиндровый, BORDER, 3-я серия,
-Дополнительный замок: сувальдный, BORDER, 3-я серия,
-Независимая ночная задвижка,
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое, порошково-полимерное, «медный антик»;
+Внутреннее покрытие: МДФ-панель 8 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнения из вспененной резины;
+Основной замок: цилиндровый, BORDER, 3-я серия;
+Дополнительный замок: сувальдный, BORDER, 3-я серия;
+Независимая ночная задвижка;
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Гарда 8 мм муар белый ясень / венге</t>
@@ -942,14 +921,14 @@
     <t>dm-garda-8-mm-muar-belyi-yasen-venge.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: порошково-полимерное, «черный муар»,
-Внутреннее покрытие: МДФ-панель 8 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнения из вспененной резины,
-Основной замок: цилиндровый, BORDER,
-Дополнительный замок: сувальдный, BORDER,
-Независимая ночная задвижка,
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: порошково-полимерное, «черный муар»;
+Внутреннее покрытие: МДФ-панель 8 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнения из вспененной резины;
+Основной замок: цилиндровый, BORDER;
+Дополнительный замок: сувальдный, BORDER;
+Независимая ночная задвижка;
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Гарда mini венге</t>
@@ -958,17 +937,17 @@
     <t>dm-garda-mini.webp</t>
   </si>
   <si>
-    <t>Высота двери 1800 мм, 1900 мм
-Внешнее покрытие: атмосферостойкое порошково-полимерное «Медный антик»,
-Внутреннее покрытие: фрезерованная МДФпанель 6 мм,
-Толщина дверного полотна: 60 мм,
-Глубина дверного короба: 90 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнителя из вспененной резины,
-Основной замок: цилиндровый BORDER, IV (наивысший) класс взломостойкости, диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный BORDER, IV (наивысший) класс взломостойкости, диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 860х1800 мм, 960х1800 мм, 860х1900 мм, 960х1900 мм,</t>
+    <t>Высота двери 1800 мм, 1900 мм;
+Внешнее покрытие: атмосферостойкое порошково-полимерное «Медный антик»;
+Внутреннее покрытие: фрезерованная МДФпанель 6 мм;
+Толщина дверного полотна: 60 мм;
+Глубина дверного короба: 90 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнителя из вспененной резины;
+Основной замок: цилиндровый BORDER, IV (наивысший) класс взломостойкости, диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный BORDER, IV (наивысший) класс взломостойкости, диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 860х1800 мм, 960х1800 мм, 860х1900 мм, 960х1900 мм;</t>
   </si>
   <si>
     <t>ДМ прораб 1 (стройгост 5 РФ) рустикальный дуб</t>
@@ -995,16 +974,16 @@
     <t>dm-garda-serebro-velur-belyi-soft.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»,
-Внутреннее покрытие: фрезерованная МДФпанель,
-Толщина дверного полотна: 75 мм,
-Глубина дверного короба: 105 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнителя из вспененной резины,
-Основной замок: цилиндровый KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей:16мм,
-Дополнительный замок: сувальдный  KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»;
+Внутреннее покрытие: фрезерованная МДФпанель;
+Толщина дверного полотна: 75 мм;
+Глубина дверного короба: 105 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотителя из вспененной резины;
+Основной замок: цилиндровый KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей:16мм;
+Дополнительный замок: сувальдный  KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ 9 см Серебро Ривьера айс царга</t>
@@ -1013,17 +992,17 @@
     <t>9-sm-serebro-carga_listvenica-bezh.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: «Антик серебро»,
-Внутреннее покрытие: царговая МДФпанель, цвет-ривьера айс., вставки из стекла Лакобель,
-Толщина дверного полотна: 90мм,
-Глубина дверного короба: 117 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 3 контура уплотнителя,
-Основной замок: цилиндровый KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей:16мм,
-Дополнительный замок: сувальдный KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Накладки: врезная броне накладка основного замка и декоративная накладка дополнительного замка с защитой от сквозняка; цвет-сатин. хром,
-Независимая ночная задвижка,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: «Антик серебро»;
+Внутреннее покрытие: царговая МДФпанель, цвет-ривьера айс., вставки из стекла Лакобель;
+Толщина дверного полотна: 90мм;
+Глубина дверного короба: 117 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 3 контура уплотнителя;
+Основной замок: цилиндровый KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей:16мм;
+Дополнительный замок: сувальдный KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Накладки: врезная броне накладка основного замка и декоративная накладка дополнительного замка с защитой от сквозняка; цвет-сатин. хром;
+Независимая ночная задвижка;
+Размеры: 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ 7,5 см Венеция серебро белый ясень</t>
@@ -1035,17 +1014,17 @@
     <t>сумма в рассрочку от банка на 6 месяцев, под заказ</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»,
-Внутреннее покрытие: фрезерованная МДФ-панель, цвет-белый ясень,
-Толщина дверного полотна: 75 мм,
-Глубина дверного короба: 105 мм,
-Наполнитель: минеральная плита,
-Двухкамерный стеклопакет: 35 мм,тонированный,
-Уплотнитель: 2 контура,
-Основной замок: цилиндровый KARAT/MONARCH IV (наивысший)класс взломостойкости; диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»;
+Внутреннее покрытие: фрезерованная МДФ-панель, цвет-белый ясень;
+Толщина дверного полотна: 75 мм;
+Глубина дверного короба: 105 мм;
+Наполнитель: минеральная плита;
+Двухкамерный стеклопакет: 35 мм,тонированный;
+Уплотнитель: 2 контура;
+Основной замок: цилиндровый KARAT/MONARCH IV (наивысший)класс взломостойкости; диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 860х2050 мм, 960х2050 мм</t>
   </si>
   <si>
     <t>ДМ Толстяк букле черный ясень серый эмаль</t>
@@ -1054,16 +1033,16 @@
     <t>dm-tolstyk-bukle.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Букле черный»,
-Внутреннее покрытие: фрезерованная МДФ-панель, цвет-ясень серый эмаль,
-Толщина дверного полотна: 90 мм,
-Глубина дверного короба: 117 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 3 контура уплотнителя из вспененной резины,
-Основной замок: цилиндровый KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Букле черный»;
+Внутреннее покрытие: фрезерованная МДФ-панель, цвет-ясень серый эмаль;
+Толщина дверного полотна: 90 мм;
+Глубина дверного короба: 117 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 3 контура уплотнителя из вспененной резины;
+Основной замок: цилиндровый KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ 7,5 см Гарда муар темный кипарис царга</t>
@@ -1072,16 +1051,16 @@
     <t>garda-muar-temnyi-kiparis.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Чёрный муар»,
-Внутреннее покрытие: царговая МДФпанель, цвет-темный кипарис, вставки из глянцевого стекла Лакобель,
-Толщина дверного полотна: 75 мм,
-Глубина дверного короба: 105 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнителя из вспененной резины,
-Основной замок: цилиндровый KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Чёрный муар»;
+Внутреннее покрытие: царговая МДФпанель, цвет-темный кипарис, вставки из глянцевого стекла Лакобель;
+Толщина дверного полотна: 75 мм;
+Глубина дверного короба: 105 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнителя из вспененной резины;
+Основной замок: цилиндровый KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ 7,5 см Гарда серебро белый ясень</t>
@@ -1090,16 +1069,16 @@
     <t>dm-garda-belyi-yasen-1.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»,
-Внутреннее покрытие: фрезерованная, МДФ-панель, цвет-белый ясень,
-Толщина дверного полотна: 75 мм,
-Глубина дверного короба: 105 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнителя из вспененной резины,
-Основной замок: цилиндровый KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»;
+Внутреннее покрытие: фрезерованная, МДФ-панель, цвет-белый ясень;
+Толщина дверного полотна: 75 мм;
+Глубина дверного короба: 105 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнителя из вспененной резины;
+Основной замок: цилиндровый KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ 7,5 см Гарда серебро темный кипарис</t>
@@ -1108,16 +1087,16 @@
     <t>garda-temnyi-keparis.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»,
-Внутреннее покрытие: фрезерованная МДФ-панель, цвет-темный кипарис,
-Толщина дверного полотна: 75 мм,
-Глубина дверного короба: 105 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнителя из вспененной резины,
-Основной замок: цилиндровый KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»;
+Внутреннее покрытие: фрезерованная МДФ-панель, цвет-темный кипарис;
+Толщина дверного полотна: 75 мм;
+Глубина дверного короба: 105 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнителя из вспененной резины;
+Основной замок: цилиндровый KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный KARAT/MONARCH IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ Гарда метал/метал</t>
@@ -1129,14 +1108,14 @@
     <t>garda-metal-metal.jpg</t>
   </si>
   <si>
-    <t>Внешнее и внутреннее покрытие: атмосферостойкое порошково-полимерное Медный антик»,
-Толщина дверного полотна: 60 мм,
-Глубина дверного короба: 90 мм,
-Наполнитель: минеральная плит,а
-Уплотнитель: 2 контура уплотнителя из вспененной резины,
-Основной замок: цилиндровый RIGGER, диаметр ригелей: 14 мм,
-Дополнительный замок: сувальдный RIGGER, диаметр ригелей: 14 мм,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее и внутреннее покрытие: атмосферостойкое порошково-полимерное Медный антик»;
+Толщина дверного полотна: 60 мм;
+Глубина дверного короба: 90 мм;
+Наполнитель: минеральная плита;
+Уплотнитель: 2 контура уплотнителя из вспененной резины;
+Основной замок: цилиндровый RIGGER, диаметр ригелей: 14 мм;
+Дополнительный замок: сувальдный RIGGER, диаметр ригелей: 14 мм;
+Размеры: 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ Гарда mini метал/метал</t>
@@ -1145,14 +1124,14 @@
     <t>garda-mini-metal-metal.jpg</t>
   </si>
   <si>
-    <t>Внешнее и внутреннее покрытие: атмосферостойкое порошково-полимерное Медный антик»,
-Толщина дверного полотна: 60 мм,
-Глубина дверного короба: 90 мм,
-Наполнитель: минеральная плита,
-Уплотнитель: 2 контура уплотнителя из вспененной резины,
-Основной замок: цилиндровый RIGGER, диаметр ригелей: 14 мм,
-Дополнительный замок: сувальдный RIGGER, диаметр ригелей: 14 мм,
-Размеры: 860х1800 мм, 960х1800 мм, 860х1900 мм, 960х1900 мм,</t>
+    <t>Внешнее и внутреннее покрытие: атмосферостойкое порошково-полимерное Медный антик»;
+Толщина дверного полотна: 60 мм;
+Глубина дверного короба: 90 мм;
+Наполнитель: минеральная плита;
+Уплотнитель: 2 контура уплотнителя из вспененной резины;
+Основной замок: цилиндровый RIGGER, диаметр ригелей: 14 мм;
+Дополнительный замок: сувальдный RIGGER, диаметр ригелей: 14 мм;
+Размеры: 860х1800 мм, 960х1800 мм, 860х1900 мм, 960х1900 мм</t>
   </si>
   <si>
     <t>ДМ 7,5 см Гарда метал/метал</t>
@@ -1161,15 +1140,15 @@
     <t>dm-7-5-garda-matal-metal.jpg</t>
   </si>
   <si>
-    <t>Внешнее и внутреннее покрытие: атмосферостойкое порошково-полимерное Медный антик»,
-Толщина дверного полотна: 75 мм,
-Глубина дверного короба: 105 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнителя из вспененной резины,
-Основной замок: цилиндровый KARAT/ MONARCH, диаметр ригелей: 14 мм,
-Дополнительный замок: сувальдный KARAT/MONARCH, диаметр ригелей: 14 мм,
-Независимая ночная задвижка,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее и внутреннее покрытие: атмосферостойкое порошково-полимерное Медный антик»;
+Толщина дверного полотна: 75 мм;
+Глубина дверного короба: 105 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнителя из вспененной резины;
+Основной замок: цилиндровый KARAT/ MONARCH, диаметр ригелей: 14 мм;
+Дополнительный замок: сувальдный KARAT/MONARCH, диаметр ригелей: 14 мм;
+Независимая ночная задвижка;
+Размеры: 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ Феникс линии велюр белый софт</t>
@@ -1181,15 +1160,15 @@
     <t>dm-pheonix-linii-velur-belyi-soft.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: фрезерованная МДФпанель, цвет-бетон графит,
-Внутреннее покрытие: фрезерованная МДФ-панель, цвет-велюр белый софт,
-Толщина дверного полотна: 90 мм,
-Глубина дверного короба: 105 мм,
-Наполнитель: пенополистирол Уплотнитель: 2 контура уплотнителя из вспененной резины,
-Основной замок: цилиндровый KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: фрезерованная МДФпанель, цвет-бетон графит;
+Внутреннее покрытие: фрезерованная МДФ-панель, цвет-велюр белый софт;
+Толщина дверного полотна: 90 мм;
+Глубина дверного короба: 105 мм;
+Наполнитель: пенополистирол Уплотнитель: 2 контура уплотнителя из вспененной резины;
+Основной замок: цилиндровый KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Независимая ночная задвижка
+Размеры: 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ 7,5 см Бостон бетон снежный царга</t>
@@ -1198,16 +1177,16 @@
     <t>dm-7-5-boston-beton-snezhnyi-carga.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: фрезерованная МДФпанель, цвет-сатин графит,
-Внутреннее покрытие: царговая МДФпанель, цвет-бетон снежный, вставки из сатинированного стекла Лакобель,
-Толщина дверного полотна: 100 мм,
-Глубина дверного короба: 105 мм,
-Наполнитель: пенополистирол,
-Уплотнитель: 2 контура уплотнителя из вспененной резины,
-Основной замок: цилиндровый KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Дополнительный замок: сувальдный KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм,
-Независимая ночная задвижка,
-Размеры: 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: фрезерованная МДФпанель, цвет-сатин графит;
+Внутреннее покрытие: царговая МДФпанель, цвет-бетон снежный, вставки из сатинированного стекла Лакобель;
+Толщина дверного полотна: 100 мм;
+Глубина дверного короба: 105 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнителя из вспененной резины;
+Основной замок: цилиндровый KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Дополнительный замок: сувальдный KARAT/MONARCH, IV (наивысший) класс взломостойкости; диаметр ригелей: 16 мм;
+Независимая ночная задвижка;
+Размеры: 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ Рона черный муар бетон графит/бетон снежный</t>
@@ -1216,12 +1195,12 @@
     <t>rono-chernyi-muar.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: Чёрный муар Бетон графит,
-Внутреннее покрытие: Бетон снежный,
-Толщина дверного полотна: 91 мм,
-Количество контуров уплотнения (шт.): 3,
-Наполнитель: Пенополистирол,
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: Чёрный муар Бетон графит;
+Внутреннее покрытие: Бетон снежный;
+Толщина дверного полотна: 91 мм;
+Количество контуров уплотнения (шт.): 3;
+Наполнитель: Пенополистирол;
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t xml:space="preserve">ДМ Барьер серебро № 74 акaция светлая/ № 74 тиковое дерево
@@ -1234,16 +1213,16 @@
     <t>dm-barier-akacia-svetlaya.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: порошковополимерное, «Антик серебро»,
-Внутреннее покрытие: фрезерованная МДФ-панель 10 мм,
-Покрытие панели МДФ: влагостойкая пленка ПВХ Короб открытый,
-Толщина дверного полотна: 80 мм,
-Толщина металла: 1,5 мм,
-Наполнитель: Базальтовая плита+пенополистерол,
-Уплотнитель: 3 контура уплотнения В образные из вспененной резины,
-Основной замок: Гардиан 30.11 сувальдный,
-Дополнительный замок: Гардиан 32.01 (цилиндровый),
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: порошковополимерное, «Антик серебро»;
+Внутреннее покрытие: фрезерованная МДФ-панель 10 мм;
+Покрытие панели МДФ: влагостойкая пленка ПВХ Короб открытый;
+Толщина дверного полотна: 80 мм;
+Толщина металла: 1,5 мм;
+Наполнитель: Базальтовая плита+пенополистерол;
+Уплотнитель: 3 контура уплотнения В образные из вспененной резины;
+Основной замок: Гардиан 30.11 сувальдный;
+Дополнительный замок: Гардиан 32.01 (цилиндровый);
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ мини металл</t>
@@ -1252,20 +1231,19 @@
     <t>dm-mini-metall.jpg</t>
   </si>
   <si>
-    <t>Модель: МИНИ металл 2 замка,
-Внешняя отделка: Металл антик МЕДЬ,
-Внутренняя отделка: Металл антик медь,
-Короб закрытый,
-Количество контуров уплотнения (шт.): 2,
-Наполнитель: Базальтовая плита,
-Толщина полотна (мм): 60,
-Эксцентрик: Нет,
-Броне накладка: Нет,
-Замок цилиндровый: Галеон 811 Вылет ригеля (мм): 26,
-Замок сувальдный: Галеон 812,
-Ночная задвижка: Да,
-Размеры: 1800/1900*860 мм, 1800/1900*960,
-мм</t>
+    <t>Модель: МИНИ металл 2 замка;
+Внешняя отделка: Металл антик МЕДЬ;
+Внутренняя отделка: Металл антик медь;
+Короб закрытый;
+Количество контуров уплотнения (шт.): 2;
+Наполнитель: Базальтовая плита;
+Толщина полотна (мм): 60;
+Эксцентрик: Нет;
+Броне накладка: Нет;
+Замок цилиндровый: Галеон 811 Вылет ригеля (мм): 26;
+Замок сувальдный: Галеон 812;
+Ночная задвижка: Да;
+Размеры: 1800/1900*860 мм, 1800/1900*960мм;</t>
   </si>
   <si>
     <t>ДМ Нео Классика серебро № 328 белая</t>
@@ -1274,19 +1252,18 @@
     <t>dm-neo-klasika-belaya.jpg</t>
   </si>
   <si>
-    <t>Внешняя отделка: Металл антик серебро,
-Внутренняя отделка: Панель МДФ 6 мм с рисунком Белый матовый,
-Короб закрытый,
-Количество контуров уплотнения (шт.): 2,
-Наполнитель: Базальтовая плита,
-Толщина полотна (мм): 60,
-Эксцентрик: Нет,
-Броне накладка: Нет,
-Замок цилиндровый: Галеон 811 Вылет ригеля (мм): 26,
-Замок сувальдный: Галеон 812,
-Ночная задвижка: Да,
-Размеры: 2050*860 мм, 2050*960 мм
-,</t>
+    <t>Внешняя отделка: Металл антик серебро;
+Внутренняя отделка: Панель МДФ 6 мм с рисунком Белый матовый;
+Короб закрытый;
+Количество контуров уплотнения (шт.): 2;
+Наполнитель: Базальтовая плита;
+Толщина полотна (мм): 60;
+Эксцентрик: Нет;
+Броне накладка: Нет;
+Замок цилиндровый: Галеон 811 Вылет ригеля (мм): 26;
+Замок сувальдный: Галеон 812;
+Ночная задвижка: Да;
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Нео модерн серебро интро №8 ясень ривьера айс</t>
@@ -1295,18 +1272,18 @@
     <t>dm-neo-modern-serebro.jpg</t>
   </si>
   <si>
-    <t>Внешняя отделка: Металл антик серебро,
-Внутренняя отделка: Панель МДФ 10 мм с рисунком ЯСЕНЬ Ривьера айс,
-Короб закрытый,
-Количество контуров уплотнения (шт.): 2,
-Наполнитель: Базальтовая плита,
-Толщина полотна (мм): 60,
-Эксцентрик: Нет,
-Броне накладка: Нет,
-Замок цилиндровый: Галеон 811 Вылет ригеля (мм): 26,
-Замок сувальдный: Галеон 812,
-Ночная задвижка: Да,
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешняя отделка: Металл антик серебро;
+Внутренняя отделка: Панель МДФ 10 мм с рисунком ЯСЕНЬ Ривьера айс;
+Короб закрытый;
+Количество контуров уплотнения (шт.): 2;
+Наполнитель: Базальтовая плита;
+Толщина полотна (мм): 60;
+Эксцентрик: Нет;
+Броне накладка: Нет;
+Замок цилиндровый: Галеон 811 Вылет ригеля (мм): 26;
+Замок сувальдный: Галеон 812;
+Ночная задвижка: Да;
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Премиум 4 серебро № 220 сандал белый</t>
@@ -1315,15 +1292,15 @@
     <t>dm-premium-sandal.jpg</t>
   </si>
   <si>
-    <t>Толщина: металла - 1,5 мм полотна - 91 мм, профиля – 100 мм, усиленная дверная коробка, замкнутая с 4 контурами уплотнения,
-Внешнее покрытие: Антик серебро,
-Внутреннее покрытие: панель, покрытая пленкой ПВХ толщина 16 мм,
-Наполнитель: минеральная вата,
-Уплотнитель: 4 контура Основной замок: Гардиан 3011 сувальдный 2 класс секретности, накладка Крит,
+    <t>Толщина: металла - 1,5 мм полотна - 91 мм, профиля – 100 мм, усиленная дверная коробка, замкнутая с 4 контурами уплотнения;
+Внешнее покрытие: Антик серебро;
+Внутреннее покрытие: панель, покрытая пленкой ПВХ толщина 16 мм;
+Наполнитель: минеральная вата;
+Уплотнитель: 4 контура Основной замок: Гардиан 3011 сувальдный 2 класс секретности, накладка Крит;
 Дополнительный замок: цилиндровый замок Г-3201- 4 класс секретности в комплекте: цилиндр перфорированный «ключ/фиксатор»5 ключей), накладка Крит;
-ДОПОЛНИТЕЛЬНО: ИЗОЛОН под панельюэластичный вспененный полиэтилен. Высокийуровень шумоизоляции (снижает уровень шума на 10 ДБ). Независимая ночная задвижка,
-Ребра жесткости: 6 монтажных пластин,
-Размеры: 2050*880 мм, 2050*960 мм,</t>
+ДОПОЛНИТЕЛЬНО: ИЗОЛОН под панельюэластичный вспененный полиэтилен. Высокийуровень шумоизоляции (снижает уровень шума на 10 ДБ). Независимая ночная задвижка;
+Ребра жесткости: 6 монтажных пластин;
+Размеры: 2050*880 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Сити лофт черный графит интро № 15 белый снег софт</t>
@@ -1332,18 +1309,18 @@
     <t>dm-siti-loft-chernyi-grafit-intro-15-belyi-sneg-soft.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: порошковополимерное, Муар черный,
-Внутреннее покрытие: фрезерованная,
-МДФ-панель 10 мм, БЕЛЫЙ СНЕГ СОФТ,
-Покрытие панели: МДФ: влагостойкая пленка ПВХ,
-Тип короба: открытый,
-Толщина дверного полотна: 80 мм,
-Толщина металла: 1,5 мм,
-Наполнитель: Базальтовая плита,
-Уплотнитель: 3 контура уплотнения В образные из вспененной резины,
-Основной замок: Гардиан 30.11 (сувальдный),
-Дополнительный замок: Гардиан 32.01 (цилиндровый),
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: порошковополимерное, Муар черный;
+Внутреннее покрытие: фрезерованная;
+МДФ-панель 10 мм, БЕЛЫЙ СНЕГ СОФТ;
+Покрытие панели: МДФ: влагостойкая пленка ПВХ;
+Тип короба: открытый;
+Толщина дверного полотна: 80 мм;
+Толщина металла: 1,5 мм;
+Наполнитель: Базальтовая плита;
+Уплотнитель: 3 контура уплотнения В образные из вспененной резины;
+Основной замок: Гардиан 30.11 (сувальдный);
+Дополнительный замок: Гардиан 32.01 (цилиндровый);
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Стандарт металл 1</t>
@@ -1352,14 +1329,14 @@
     <t>dm-standart-metal-1.jpg</t>
   </si>
   <si>
-    <t>Замок основной: Гардиан 3011 сувальдный секретность замка более 1,6 млн. в комплекте ночная задвижка,
-Толщина: металла - 1,5 мм полотна - 60 мм, профиля – 75/40 мм, усиленная дверная коробка выполнена из двух профилей, соединенных друг с другом при помощи сварки,
-В коробке: имеется нащельник, в который установлен уплотнитель. Края загнуты в угол 90°. 2 петли с подшипниками 140*20 мм, открывание на 180˚ Отделка снаружи – Коричневый молоток, нутри – металл 1,5мм,
-Ширина наличника (рабочая):: 50 мм. 2 контура уплотнителя тип D,
-Полотно и короб: утеплены минеральной ватой,
-Усилена ребрами жесткости: 6 монтажных  пластин. 3 противосъемных штыря,
-Вес: 85-90 кг,
-Размеры дверей: 2050*880 и 2050*960 мм,</t>
+    <t>Замок основной: Гардиан 3011 сувальдный секретность замка более 1,6 млн. в комплекте ночная задвижка;
+Толщина: металла - 1,5 мм полотна - 60 мм, профиля – 75/40 мм, усиленная дверная коробка выполнена из двух профилей, соединенных друг с другом при помощи сварки;
+В коробке: имеется нащельник, в который установлен уплотнитель. Края загнуты в угол 90°. 2 петли с подшипниками 140*20 мм, открывание на 180˚ Отделка снаружи – Коричневый молоток, нутри – металл 1,5мм;
+Ширина наличника (рабочая):: 50 мм. 2 контура уплотнителя тип D;
+Полотно и короб: утеплены минеральной ватой;
+Усилена ребрами жесткости: 6 монтажных  пластин. 3 противосъемных штыря;
+Вес: 85-90 кг;
+Размеры дверей: 2050*880 и 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Стандарт металл 2</t>
@@ -1368,15 +1345,14 @@
     <t>dm-standart-metal-2.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Замок основной: Гардиан 3011 сувальдный секретность замка более 1,6 млн.,
-Дополнительный цилиндровый замок: Г-3201 3 класс секретности,
-Толщина: металла - 1,5 мм полотна - 60мм, профиля – 75/40 мм, усиленная дверная коробка выполнена из двух профилей, соединенных друг с другом при помощи сварки,
-В коробке: имеется нащельник, в который установлен уплотнитель. Края загнуты в угол 90°. 2 петли с подшипниками 140*20 мм, открывание на 180˚,
-Отделка: снаружи – Коричневый молоток,внутри – металл 1,5мм. Ширина наличника (рабочая) - 50 мм. 2 контура уплотнителя тип D,
-Полотно и короб: утеплены минеральной ватой. Усилена ребрами жесткости. 6 монтажных пластин. 3 противосъемных штыря,
-Вес: 85-90 кг,
-Размеры дверей: 2050*880 и 2050*960 см,
-</t>
+    <t>Замок основной: Гардиан 3011 сувальдный секретность замка более 1,6 млн;
+Дополнительный цилиндровый замок: Г-3201 3 класс секретности;
+Толщина: металла - 1,5 мм полотна - 60мм, профиля – 75/40 мм, усиленная дверная коробка выполнена из двух профилей, соединенных друг с другом при помощи сварки;
+В коробке: имеется нащельник, в который установлен уплотнитель. Края загнуты в угол 90°. 2 петли с подшипниками 140*20 мм, открывание на 180˚;
+Отделка: снаружи – Коричневый молоток,внутри – металл 1,5мм. Ширина наличника (рабочая) - 50 мм. 2 контура уплотнителя тип D;
+Полотно и короб: утеплены минеральной ватой. Усилена ребрами жесткости. 6 монтажных пластин. 3 противосъемных штыря;
+Вес: 85-90 кг;
+Размеры дверей: 2050*880 и 2050*960 см;</t>
   </si>
   <si>
     <t>ДМ Стандарт металл 2 Серебро</t>
@@ -1385,18 +1361,18 @@
     <t>dm-metall-serebro.jpg</t>
   </si>
   <si>
-    <t>Внешняя отделка: Металл антик серебро,
-Внутренняя отделка: Металл антик серебро,
-Короб закрытый,
-Количество контуров уплотнения (шт.): 2,
-Наполнитель: Базальтовая плита,
-Толщина полотна (мм): 60,
-Эксцентрик: Нет,
-Броне накладка: Нет,
-Замок цилиндровый: Галеон 811 Вылет ригеля (мм): 26,
-Замок сувальдный: Галеон 812,
-Ночная задвижка: Да,
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешняя отделка: Металл антик серебро;
+Внутренняя отделка: Металл антик серебро;
+Короб закрытый;
+Количество контуров уплотнения (шт.): 2;
+Наполнитель: Базальтовая плита;
+Толщина полотна (мм): 60;
+Эксцентрик: Нет;
+Броне накладка: Нет;
+Замок цилиндровый: Галеон 811 Вылет ригеля (мм): 26;
+Замок сувальдный: Галеон 812;
+Ночная задвижка: Да;
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Термо медь дуб корица ФЛ № 118</t>
@@ -1405,16 +1381,16 @@
     <t>dm-termo-med-dub-korica-fl-118.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: ЦИНК+ Антик медь,
-Внутреннее покрытие МДФ-панель 10мм ВЛАГОСТОЙКАЯ, цвет Дуб Шале мореный(корица),
-Наполнитель: ПЕНОПЛАСТ, МИНЕРАЛЬНАЯ ВАТА, ИЗОЛОН, ПЕНОПЛЕКС, ФОЛЬГОИЗОЛ,
-Наличник 58 мм, под углом 90 гр,
-Толщина полотна: 100 мм, косяка – 120 мм,
-Толщина металла 1,5 мм,
-Уплотнитель: 3 контура уплотнения,
-Замок: Гардиан– 3015 (Сувальдный, класс (ГОСТ 5089-2011) -2, кол-во полуоборотов 2, вылет ригелей 26 мм) накладки Крит+ЭКСЦЕНТРИК ; Гардиан – 3001 (Сувальдный, класс (ГОСТ 5089-2011) - 2, колво полуоборотов 2, вылет ригелей 26 мм + накладки Крит, ночная задвижка , ручка Ларедо.,
-Независимая ночная задвижка: Да,
-Размеры 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: ЦИНК+ Антик медь;
+Внутреннее покрытие МДФ-панель 10мм ВЛАГОСТОЙКАЯ, цвет Дуб Шале мореный(корица);
+Наполнитель: ПЕНОПЛАСТ, МИНЕРАЛЬНАЯ ВАТА, ИЗОЛОН, ПЕНОПЛЕКС, ФОЛЬГОИЗОЛ;
+Наличник 58 мм, под углом 90 гр;
+Толщина полотна: 100 мм, косяка – 120 мм;
+Толщина металла 1,5 мм;
+Уплотнитель: 3 контура уплотнения;
+Замок: Гардиан– 3015 (Сувальдный, класс (ГОСТ 5089-2011) -2, кол-во полуоборотов 2, вылет ригелей 26 мм) накладки Крит+ЭКСЦЕНТРИК ; Гардиан – 3001 (Сувальдный, класс (ГОСТ 5089-2011) - 2, колво полуоборотов 2, вылет ригелей 26 мм + накладки Крит, ночная задвижка , ручка Ларедо.;
+Независимая ночная задвижка: Да;
+Размеры 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ Термо серебро белый матовый № 312</t>
@@ -1423,17 +1399,16 @@
     <t>dm-termo-serebro-belyi-matovyi-312.jpg</t>
   </si>
   <si>
-    <t>Косяк: ТЕРМО
-Внешнее покрытие: ЦИНК+Антик серебро,
-Внутреннее покрытие МДФ-панель 10 мм ВЛАГОСТОЙКАЯ, ., цвет Белый матовый,
-Наполнитель: ПЕНОПЛАСТ, МИНЕРАЛЬНАЯ ВАТА, ИЗОЛОН, ПЕНОПЛЕКС, ФОЛЬГОИЗОЛ.,
-Наличник: 58 мм, под углом 90 гр.,
-Толщина полотна: 100 мм, косяка – 120 мм.,
-Толщина металла: 1,5 мм,
-Уплотнитель: 3 контура уплотнения
-Замок: Гардиан– 3015 (Сувальдный, класс (ГОСТ 5089-2011) -2, кол-во полуоборотов 2, вылет ригелей 26 мм) + накладки Крит+ЭКСЦЕНТРИК ; Гардиан – 3001 (Сувальдный, класс (ГОСТ 5089-2011) - 2, колво полуоборотов 2, вылет ригелей 26 мм + накладки Крит, ночная задвижка , ручка Ларедо.,f
-Независимая ночная задвижка: Да,
-Размеры 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: ЦИНК+Антик серебро;
+Внутреннее покрытие МДФ-панель 10 мм ВЛАГОСТОЙКАЯ, ., цвет Белый матовый;
+Наполнитель: ПЕНОПЛАСТ, МИНЕРАЛЬНАЯ ВАТА, ИЗОЛОН, ПЕНОПЛЕКС, ФОЛЬГОИЗОЛ.;
+Наличник: 58 мм, под углом 90 гр.;
+Толщина полотна: 100 мм, косяка – 120 мм.;
+Толщина металла: 1,5 мм;
+Уплотнитель: 3 контура уплотнения;
+Замок: Гардиан– 3015 (Сувальдный, класс (ГОСТ 5089-2011) -2, кол-во полуоборотов 2, вылет ригелей 26 мм) + накладки Крит+ЭКСЦЕНТРИК ; Гардиан – 3001 (Сувальдный, класс (ГОСТ 5089-2011) - 2, колво полуоборотов 2, вылет ригелей 26 мм + накладки Крит, ночная задвижка , ручка Ларедо.;
+Независимая ночная задвижка: Да;
+Размеры 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ Термо серебро дуб филадельфия крем ФЛ № 118</t>
@@ -1442,18 +1417,16 @@
     <t>dm-termo-serebro-dub-filadelfiya-krem-118.jpg</t>
   </si>
   <si>
-    <t>Косяк: ТЕРМО
-Внешнее покрытие: ЦИНК+Антик серебро,
-Внутреннее покрытие МДФ-панель 10 мм ВЛАГОСТОЙКАЯ, цвет Дуб Шале Филадельфия крем,
-Наполнитель: ПЕНОПЛАСТ, МИНЕРАЛЬНАЯ ВАТА, ИЗОЛОН, ПЕНОПЛЕКС, ФОЛЬГОИЗО,
-Наличник: 58 мм, под углом 90 гр.,
-Толщина полотна: 100 мм, косяка – 120 мм.,
-Толщина металла: 1,5 мм,
-Уплотнитель: 3 контура уплотнения,
-Замок: Гардиан– 3015 (Сувальдный, класс (ГОСТ 5089-2011) -2, кол-во полуоборотов
-2, вылет ригелей 26 мм) + накладки Крит+ЭКСЦЕНТРИК ; Гардиан – 3001 (Сувальдный, класс (ГОСТ 5089-2011) - 2, колво полуоборотов 2, вылет ригелей 26 мм + накладки Крит, ночная задвижка , ручка Ларедо.,
-Независимая ночная задвижка: Да,
-Размеры 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: ЦИНК+Антик серебро;
+Внутреннее покрытие МДФ-панель 10 мм ВЛАГОСТОЙКАЯ, цвет Дуб Шале Филадельфия крем;
+Наполнитель: ПЕНОПЛАСТ, МИНЕРАЛЬНАЯ ВАТА, ИЗОЛОН, ПЕНОПЛЕКС, ФОЛЬГОИЗО;
+Наличник: 58 мм, под углом 90 гр.;
+Толщина полотна: 100 мм, косяка – 120 мм.;
+Толщина металла: 1,5 мм;
+Уплотнитель: 3 контура уплотнения;
+Замок: Гардиан– 3015 (Сувальдный, класс (ГОСТ 5089-2011) -2, кол-во полуоборотов 2, вылет ригелей 26 мм) + накладки Крит+ЭКСЦЕНТРИК ; Гардиан – 3001 (Сувальдный, класс (ГОСТ 5089-2011) - 2, колво полуоборотов 2, вылет ригелей 26 мм + накладки Крит, ночная задвижка , ручка Ларедо.;
+Независимая ночная задвижка: Да;
+Размеры 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t xml:space="preserve">ДМ Термо серебро интро №8 ясень ривьера айс
@@ -1463,18 +1436,16 @@
     <t>dm-termo-serebro-intro-8.jpg</t>
   </si>
   <si>
-    <t>Косяк: ТЕРМО
-Внешнее покрытие: ЦИНК+Антик серебро,
-Внутреннее покрытие МДФ-панель 10 мм ВЛАГОСТОЙКАЯ, цвет Ясень Ривьера айс,
-Наполнитель: ПЕНОПЛАСТ, МИНЕРАЛЬНАЯ ВАТА, ИЗОЛОН, ПЕНОПЛЕКС, ФОЛЬГОИЗОЛ,
-Наличник: 58 мм, под углом 90 гр.,
-Толщина полотна: 100 мм, косяка – 120 мм.,
-Толщина металла 1,5 мм,
-Уплотнитель: 3 контура уплотнения,
-Замок: Гардиан– 3015 (Сувальдный, класс (ГОСТ 5089-2011) -2, кол-во полуоборотов
-2, вылет ригелей 26 мм) + накладки Крит+ЭКСЦЕНТРИК ; Гардиан – 3001 (Сувальдный, класс (ГОСТ 5089-2011) - 2, колво полуоборотов 2, вылет ригелей 26 мм + накладки Крит, ночная задвижка , ручка Ларедо.,
-Независимая ночная задвижка: Да,
-Размеры 860х2050 мм, 960х2050 мм,</t>
+    <t>Внешнее покрытие: ЦИНК+Антик серебро;
+Внутреннее покрытие МДФ-панель 10 мм ВЛАГОСТОЙКАЯ, цвет Ясень Ривьера айс;
+Наполнитель: ПЕНОПЛАСТ, МИНЕРАЛЬНАЯ ВАТА, ИЗОЛОН, ПЕНОПЛЕКС, ФОЛЬГОИЗОЛ;
+Наличник: 58 мм, под углом 90 гр.;
+Толщина полотна: 100 мм, косяка – 120 мм.;
+Толщина металла 1,5 мм;
+Уплотнитель: 3 контура уплотнения;
+Замок: Гардиан– 3015 (Сувальдный, класс (ГОСТ 5089-2011) -2, кол-во полуоборотов 2, вылет ригелей 26 мм) + накладки Крит+ЭКСЦЕНТРИК ; Гардиан – 3001 (Сувальдный, класс (ГОСТ 5089-2011) - 2, колво полуоборотов 2, вылет ригелей 26 мм + накладки Крит, ночная задвижка , ручка Ларедо.;
+Независимая ночная задвижка: Да;
+Размеры 860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>ДМ Филадельфия Шелк сборка№ 14 лиственница беж</t>
@@ -1483,18 +1454,18 @@
     <t>dm-filadelfiya-shelk-sborka-14.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: порошковополимерное, Черный шелк,
-Внутреннее покрытие: Царговая панель 16 мм «Лиственница беж» со вставками «белый акрилат №14»,
-Покрытие панели: МДФ: влагостойкая пленка ПВХ,
-Тип короба: открытый,
-Толщина дверного полотна: 80 мм,
-Толщина металла: 1,5 мм,
-Наполнитель: Базальтовая плита,
-Уплотнитель: 3 контура уплотнения В образные из вспененной резины,
-Основной замок: Гардиан 30.11 (сувальдный),
-Дополнительный замок: Гардиан 32.01 (цилиндровый),
-Ночная задвижка,
-Размеры: 2050*880 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: порошковополимерное, Черный шелк;
+Внутреннее покрытие: Царговая панель 16 мм «Лиственница беж» со вставками «белый акрилат №14»;
+Покрытие панели: МДФ: влагостойкая пленка ПВХ;
+Тип короба: открытый;
+Толщина дверного полотна: 80 мм;
+Толщина металла: 1,5 мм;
+Наполнитель: Базальтовая плита;
+Уплотнитель: 3 контура уплотнения В образные из вспененной резины;
+Основной замок: Гардиан 30.11 (сувальдный);
+Дополнительный замок: Гардиан 32.01 (цилиндровый);
+Ночная задвижка;
+Размеры: 2050*880 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Филадельфия шелк сборка№ 14 филадельфия грей</t>
@@ -1503,19 +1474,19 @@
     <t>filadelfilya-shelk-sborka-14-grey.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: порошковополимерное, «Черный шелк»,
-Внутреннее покрытие: Царговая панель,
-16мм дуб Филадельфия грей/вставки белый акрилат №14,
-Покрытие панели: МДФ: влагостойкая пленка ПВХ,
-Тип короба: открытый,
-Толщина дверного полотна: 80 мм,
-Толщина металла: 1,5 мм,
-Наполнитель: Базальтовая плита,
-Уплотнитель: 3 контура уплотнения В образные из вспененной резины,
-Основной замок: Гардиан 30.11(сувальдный),
-Дополнительный замок: Гардиан 32.01(цилиндровый),
-Ночная задвижка,
-Размеры: 2050*880 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: порошковополимерное, «Черный шелк»;
+Внутреннее покрытие: Царговая панель;
+16мм дуб Филадельфия грей/вставки белый акрилат №14;
+Покрытие панели: МДФ: влагостойкая пленка ПВХ;
+Тип короба: открытый;
+Толщина дверного полотна: 80 мм;
+Толщина металла: 1,5 мм;
+Наполнитель: Базальтовая плита;
+Уплотнитель: 3 контура уплотнения В образные из вспененной резины;
+Основной замок: Гардиан 30.11(сувальдный);
+Дополнительный замок: Гардиан 32.01(цилиндровый);
+Ночная задвижка;
+Размеры: 2050*880 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ элит зеркало</t>
@@ -1524,13 +1495,13 @@
     <t>dm-elit-zerkalo.jpg</t>
   </si>
   <si>
-    <t>Отделка снаружи: тефлоновое покрытие,цвет Черный шелк,
-Внутренняя отделка: панель с покрытием ПВХ с зеркалом в цвете Ясень (12 мм).,
-Толщина: металла - 1,5 мм, полотна - 80 мм, профиля – 90/45 мм, усиленная дверная коробка с 3 контурами уплотнения типа D.,
-Утепление полотна и короба: минеральная вата.,
-Усилена ребрами жесткости.,
-6 монтажных пластин.,
-3 противосъемных штыря.,</t>
+    <t>Отделка снаружи: тефлоновое покрытие,цвет Черный шелк;
+Внутренняя отделка: панель с покрытием ПВХ с зеркалом в цвете Ясень (12 мм).;
+Толщина: металла - 1,5 мм, полотна - 80 мм, профиля – 90/45 мм, усиленная дверная коробка с 3 контурами уплотнения типа D.;
+Утепление полотна и короба: минеральная вата.;
+Усилена ребрами жесткости.;
+6 монтажных пластин.;
+3 противосъемных штыря.;</t>
   </si>
   <si>
     <t>ДМ элит металл</t>
@@ -1539,14 +1510,14 @@
     <t>dm-elite-metall.jpg</t>
   </si>
   <si>
-    <t>Класс прочности: M1, усиленное исполнение.,
-Замок основной: Гардиан 3011 сувальдный -3 класса секретности,
-Дополнительный цилиндровый замок: Г-3201- 4 класс секретности в комплекте: цилиндр перфорированный «ключ/фиксатор» (5 ключей), ручка 826, глазок.,
+    <t>Класс прочности: M1, усиленное исполнение.;
+Замок основной: Гардиан 3011 сувальдный -3 класса секретности;
+Дополнительный цилиндровый замок: Г-3201- 4 класс секретности в комплекте: цилиндр перфорированный «ключ/фиксатор» (5 ключей), ручка 826, глазок.;
 Толщина: металла - 1,5 мм полотна - 80 мм, профиля – 91 мм, усиленная дверная коробка замкнутая с 3 контурами уплотнения типа D. 2 петли с подшипниками 140*20 мм, открывание на 180˚
-Отделка снаружи: коричневый молоток,внутри - МЕТАЛЛ.,
-Утепление полотна и короба: негорючей,безопасной для здоровья минеральной ватой KNAUF.,
-Усилена ребрами жесткости: 6 монтажных пластин. 3 противосъемных штыря.,
-Размеры: 2050*860 мм и 2050*960 мм,</t>
+Отделка снаружи: коричневый молоток,внутри - МЕТАЛЛ.;
+Утепление полотна и короба: негорючей,безопасной для здоровья минеральной ватой KNAUF.;
+Усилена ребрами жесткости: 6 монтажных пластин. 3 противосъемных штыря.;
+Размеры: 2050*860 мм и 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Элит панель пластик</t>
@@ -1555,15 +1526,15 @@
     <t>dm-elite-panel-plastik.jpg</t>
   </si>
   <si>
-    <t>Отделка снаружи: коричневый молоток, внутри - панель ПЛАСТИК (влагостойкая).,
-Класс прочности: M1, усиленное исполнение,
-Замок основной: Гардиан 3011 сувальдный -3 класса секретности,
-Дополнительный цилиндровый замок: Г-3201- 4 класс секретности,
+    <t>Отделка снаружи: коричневый молоток, внутри - панель ПЛАСТИК (влагостойкая).;
+Класс прочности: M1, усиленное исполнение;
+Замок основной: Гардиан 3011 сувальдный -3 класса секретности;
+Дополнительный цилиндровый замок: Г-3201- 4 класс секретности;
 Толщина: металла - 1,5 мм полотна - 80 мм, профиля – 90/45 мм, усиленная дверная коробка замкнутая с 3контурами уплотнения типа D. 2 петли с подшипниками 140*20 мм, открывание на 180˚,
-Утепление полотна и короба: негорючей, безопасной для здоровья минеральной ватой KNAUF.,
-Усилена ребрами жесткости,
-Вес: 90-95 кг.,
-Размеры: 205*88 и 205*96 см,</t>
+Утепление полотна и короба: негорючей, безопасной для здоровья минеральной ватой KNAUF.;
+Усилена ребрами жесткости;
+Вес: 90-95 кг.;
+Размеры: 205*88 и 205*96 см;</t>
   </si>
   <si>
     <t>ДМ Престиж зеркало</t>
@@ -1572,14 +1543,14 @@
     <t>dm-prestizh-zerkalo.jpg</t>
   </si>
   <si>
-    <t>Отделка: снаружи - Антик Серебро, внутри - панель с зеркалом покрытие пленка ПВХ в цвете венге и лен белый с рисунком 19 толщиной 12 мм.,
-Замок: основной - Гардиан 1011, сувальдный, 2 класса секретности; дополнительный - цилиндровый замок  -1201, 2 класс секретности.,
-Толщина: металла - 1,5 мм полотна - 60 мм, профиля – 75/40 мм, 75/40 мм.,
+    <t>Отделка: снаружи - Антик Серебро, внутри - панель с зеркалом покрытие пленка ПВХ в цвете венге и лен белый с рисунком 19 толщиной 12 мм.;
+Замок: основной - Гардиан 1011, сувальдный, 2 класса секретности; дополнительный - цилиндровый замок  -1201, 2 класс секретности.;
+Толщина: металла - 1,5 мм полотна - 60 мм, профиля – 75/40 мм, 75/40 мм.;
 Усиленная дверная коробка: выполнена из двух профилей, соединенных друг с другом при помощи сварки. В коробке имеется нащельник, в который установлен уплотнитель.,
-Уплотнитель: 2 контура уплотнителя тип D.,
-Наполнитель: минеральная вата.,
-Вес: 80-85 кг.,
-Размеры: 2050*860 и 2050*960 мм,</t>
+Уплотнитель: 2 контура уплотнителя тип D.;
+Наполнитель: минеральная вата.;
+Вес: 80-85 кг.;
+Размеры: 2050*860 и 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ премиум 4 молдинг</t>
@@ -1588,16 +1559,16 @@
     <t>dm-premium-4-molding.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: «Антик серебро»,
-Внутреннее покрытие: МДФ 6 мм пленка ПВХ,
-Тип короба: закрытый, утепленный, Толщина дверного полотна: 91 мм, профиль 100 мм,
-Толщина металла: 1,5 мм,
-Наполнитель: Базальтовая плита + ИЗОЛОН под панелью-эластичный вспененный полиэтилен. Высокий уровень шумоизоляции (снижает уровень шума на 10 Дб.).,
-Уплотнитель: 4 контура уплотнения,
-Основной замок: Гардиан 30.11 (сувальдный) 3 класс секретности, накладка Крит,
-Дополнительный замок: Гардиан 32.01 (цилиндровый) 4 класс секретности в комплекте:цилиндр перфорированный «ключ/фиксатор» (5 ключей), накладка Крит,
-Независимая ночная задвижка,
-Размеры: 2050х880 мм и 2050х960 мм,</t>
+    <t>Внешнее покрытие: «Антик серебро»;
+Внутреннее покрытие: МДФ 6 мм пленка ПВХ;
+Тип короба: закрытый, утепленный, Толщина дверного полотна: 91 мм, профиль 100 мм;
+Толщина металла: 1,5 мм;
+Наполнитель: Базальтовая плита + ИЗОЛОН под панелью-эластичный вспененный полиэтилен. Высокий уровень шумоизоляции (снижает уровень шума на 10 Дб.).;
+Уплотнитель: 4 контура уплотнения;
+Основной замок: Гардиан 30.11 (сувальдный) 3 класс секретности, накладка Крит;
+Дополнительный замок: Гардиан 32.01 (цилиндровый) 4 класс секретности в комплекте:цилиндр перфорированный «ключ/фиксатор» (5 ключей), накладка Крит;
+Независимая ночная задвижка;
+Размеры: 2050х880 мм и 2050х960 мм;</t>
   </si>
   <si>
     <t>ДМ Элит нео 2</t>
@@ -1606,19 +1577,19 @@
     <t>dm-elite-neo-2.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: «Антик серебро с отделкой металлом Нео 2»,
-Внутреннее покрытие: 12 мм белый матовый/вставка из черного стекла,
-Покрытие панели МДФ: пленка ПВХ,
-Тип короба: закрытый, утепленный,
-Толщина дверного полотна: 80 мм,
-Толщина металла: 1,5 мм,
-Наполнитель: Базальтовая плита,
-Уплотнитель: 3 контура уплотнения,
-Основной замок: Гардиан 30.11 (сувальдный),
-Дополнительный замок: Гардиан 32.01 (цилиндровый),
-Ключ-фиксатор в комплекте,
-Ночная задвижка,
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: «Антик серебро с отделкой металлом Нео 2»;
+Внутреннее покрытие: 12 мм белый матовый/вставка из черного стекла;
+Покрытие панели МДФ: пленка ПВХ;
+Тип короба: закрытый, утепленный;
+Толщина дверного полотна: 80 мм;
+Толщина металла: 1,5 мм;
+Наполнитель: Базальтовая плита;
+Уплотнитель: 3 контура уплотнения;
+Основной замок: Гардиан 30.11 (сувальдный);
+Дополнительный замок: Гардиан 32.01 (цилиндровый);
+Ключ-фиксатор в комплекте;
+Ночная задвижка;
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Элит Зеркало Букле черный</t>
@@ -1627,19 +1598,19 @@
     <t>dm-elite-zerkalo-bukle-chernyi.jpg</t>
   </si>
   <si>
-    <t>Внешнее покрытие: порошковополимерное, Букле чёрный,
-Внутреннее покрытие: МДФ-панель с зеркалом 12 мм, бетон светлый,
-Покрытие панели МДФ: пленка ПВХ,
-Тип короба: закрытый, утепленный,
-Толщина дверного полотна: 100 мм,
-Толщина металла: 1,5 мм,
-Наполнитель: Базальтовая плита,
-Уплотнитель: 3 контура уплотнения В образные из вспененной резины,
-Основной замок: Гардиан 30.11 (сувальдный),
-Дополнительный замок: Гардиан 32.01 (цилиндровый),
-Ключ-фиксатор в комплекте,
-Ночная задвижка,
-Размеры: 2050*860 мм, 2050*960 мм,</t>
+    <t>Внешнее покрытие: порошковополимерное, Букле чёрный;
+Внутреннее покрытие: МДФ-панель с зеркалом 12 мм, бетон светлый;
+Покрытие панели МДФ: пленка ПВХ;
+Тип короба: закрытый, утепленный;
+Толщина дверного полотна: 100 мм;
+Толщина металла: 1,5 мм;
+Наполнитель: Базальтовая плита;
+Уплотнитель: 3 контура уплотнения В образные из вспененной резины;
+Основной замок: Гардиан 30.11 (сувальдный);
+Дополнительный замок: Гардиан 32.01 (цилиндровый);
+Ключ-фиксатор в комплекте;
+Ночная задвижка;
+Размеры: 2050*860 мм, 2050*960 мм;</t>
   </si>
   <si>
     <t>ДМ Термо медь венге</t>
@@ -1648,17 +1619,16 @@
     <t>dm-termo-med-venge.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Внешнее покрытие: ЦИНК+ Антик медь,
-Внутреннее покрытие МДФ-панель 10 мм ВЛАГОСТОЙКАЯ, цвет Венге,
-Наполнитель: ПЕНОПЛАСТ, МИНЕРАЛЬНАЯ ВАТА, ИЗОЛОН, ПЕНОПЛЕКС, ФОЛЬГОИЗОЛ,
-Наличник: 58 мм, под углом 90 гр.,
-Толщина полотна: 100 мм, косяка – 120 мм.,
-Толщина металла 1,5 мм,
-Уплотнитель: 3 контура уплотнения,
-Замок: Гардиан– 3015 (Сувальдный, класс (ГОСТ 5089-2011) -2, кол-во полуоборотов 2, вылет ригелей 26 мм) + накладки Крит+ЭКСЦЕНТРИК ; Гардиан – 3001 (Сувальдный, класс (ГОСТ 5089-2011) - 2, колво полуоборотов 2, вылет ригелей 26 мм + накладки Крит, ночная задвижка , ручка Ларедо.,
-Независимая ночная задвижка: Да,
-Размеры 860х2050 мм, 960х2050 мм,
-</t>
+    <t>Внешнее покрытие: ЦИНК+ Антик медь;
+Внутреннее покрытие МДФ-панель 10 мм ВЛАГОСТОЙКАЯ, цвет Венге;
+Наполнитель: ПЕНОПЛАСТ, МИНЕРАЛЬНАЯ ВАТА, ИЗОЛОН, ПЕНОПЛЕКС, ФОЛЬГОИЗОЛ;
+Наличник: 58 мм, под углом 90 гр.;
+Толщина полотна: 100 мм, косяка – 120 мм.;
+Толщина металла 1,5 мм;
+Уплотнитель: 3 контура уплотнения;
+Замок: Гардиан– 3015 (Сувальдный, класс (ГОСТ 5089-2011) -2, кол-во полуоборотов 2, вылет ригелей 26 мм) + накладки Крит+ЭКСЦЕНТРИК ; Гардиан – 3001 (Сувальдный, класс (ГОСТ 5089-2011) - 2, колво полуоборотов 2, вылет ригелей 26 мм + накладки Крит, ночная задвижка , ручка Ларедо.;
+Независимая ночная задвижка: Да;
+Размеры 860х2050 мм, 960х2050 мм;</t>
   </si>
 </sst>
 </file>
@@ -3599,7 +3569,7 @@
         <v>0.0</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="L53" s="7"/>
       <c r="M53" s="4">
@@ -3608,14 +3578,14 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="B54" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H54" s="12">
         <v>7017.0</v>
@@ -3624,20 +3594,20 @@
         <v>17</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L54" s="7"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="B55" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H55" s="12">
         <v>7288.0</v>
@@ -3646,20 +3616,20 @@
         <v>17</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L55" s="7"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="B56" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H56" s="12">
         <v>6167.0</v>
@@ -3668,20 +3638,20 @@
         <v>17</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L56" s="7"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="B57" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H57" s="12">
         <v>4834.0</v>
@@ -3690,20 +3660,20 @@
         <v>17</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L57" s="7"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="B58" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H58" s="12">
         <v>4050.0</v>
@@ -3712,20 +3682,20 @@
         <v>17</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L58" s="7"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="B59" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H59" s="12">
         <v>4550.0</v>
@@ -3734,20 +3704,20 @@
         <v>17</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L59" s="7"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="B60" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H60" s="12">
         <v>6250.0</v>
@@ -3756,20 +3726,20 @@
         <v>17</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L60" s="7"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="B61" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H61" s="12">
         <v>4734.0</v>
@@ -3778,20 +3748,20 @@
         <v>17</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L61" s="7"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="B62" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H62" s="12">
         <v>4300.0</v>
@@ -3800,19 +3770,19 @@
         <v>17</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="B63" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H63" s="12">
         <v>4400.0</v>
@@ -3821,19 +3791,19 @@
         <v>17</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="B64" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H64" s="12">
         <v>4400.0</v>
@@ -3842,20 +3812,20 @@
         <v>17</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L64" s="7"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="B65" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H65" s="12">
         <v>4034.0</v>
@@ -3864,20 +3834,20 @@
         <v>17</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L65" s="7"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="B66" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H66" s="12">
         <v>3667.0</v>
@@ -3886,20 +3856,20 @@
         <v>17</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L66" s="7"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="B67" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H67" s="12">
         <v>3667.0</v>
@@ -3908,20 +3878,20 @@
         <v>17</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L67" s="7"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="B68" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H68" s="12">
         <v>3767.0</v>
@@ -3930,20 +3900,20 @@
         <v>17</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L68" s="7"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="B69" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H69" s="12">
         <v>2150.0</v>
@@ -3952,19 +3922,19 @@
         <v>17</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="B70" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H70" s="12">
         <v>4000.0</v>
@@ -3973,20 +3943,20 @@
         <v>17</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L70" s="7"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="B71" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H71" s="12">
         <v>4743.0</v>
@@ -3995,41 +3965,41 @@
         <v>17</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="B72" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H72" s="12">
         <v>9250.0</v>
       </c>
       <c r="I72" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="K72" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="L72" s="7"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="B73" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H73" s="12">
         <v>4334.0</v>
@@ -4038,20 +4008,20 @@
         <v>17</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L73" s="7"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="B74" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H74" s="12">
         <v>4334.0</v>
@@ -4060,20 +4030,20 @@
         <v>17</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L74" s="7"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="B75" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H75" s="12">
         <v>4034.0</v>
@@ -4082,20 +4052,20 @@
         <v>17</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L75" s="7"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="B76" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H76" s="12">
         <v>4034.0</v>
@@ -4104,20 +4074,20 @@
         <v>17</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L76" s="7"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="B77" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H77" s="12">
         <v>4034.0</v>
@@ -4126,20 +4096,20 @@
         <v>17</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L77" s="7"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="B78" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H78" s="12">
         <v>4000.0</v>
@@ -4148,20 +4118,20 @@
         <v>17</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L78" s="7"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="B79" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H79" s="12">
         <v>4000.0</v>
@@ -4170,20 +4140,20 @@
         <v>17</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L79" s="7"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="B80" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>237</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H80" s="12">
         <v>5550.0</v>
@@ -4192,19 +4162,19 @@
         <v>17</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="B81" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H81" s="12">
         <v>5867.0</v>
@@ -4213,20 +4183,20 @@
         <v>17</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L81" s="7"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="B82" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H82" s="12">
         <v>6934.0</v>
@@ -4235,20 +4205,20 @@
         <v>17</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L82" s="7"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="B83" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H83" s="12">
         <v>5717.0</v>
@@ -4257,20 +4227,20 @@
         <v>17</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L83" s="7"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="B84" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H84" s="12">
         <v>4434.0</v>
@@ -4279,19 +4249,19 @@
         <v>17</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="B85" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H85" s="12">
         <v>4600.0</v>
@@ -4300,19 +4270,19 @@
         <v>17</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="B86" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H86" s="12">
         <v>4767.0</v>
@@ -4321,20 +4291,20 @@
         <v>17</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L86" s="7"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="B87" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H87" s="12">
         <v>6875.0</v>
@@ -4343,20 +4313,20 @@
         <v>17</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L87" s="7"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="B88" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H88" s="12">
         <v>6884.0</v>
@@ -4365,19 +4335,19 @@
         <v>17</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="B89" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H89" s="12">
         <v>5334.0</v>
@@ -4386,20 +4356,20 @@
         <v>17</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L89" s="7"/>
     </row>
     <row r="90" ht="15.0" customHeight="1">
       <c r="B90" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H90" s="12">
         <v>5550.0</v>
@@ -4408,19 +4378,19 @@
         <v>17</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" ht="15.0" customHeight="1">
       <c r="B91" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H91" s="12">
         <v>4600.0</v>
@@ -4429,20 +4399,20 @@
         <v>17</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L91" s="7"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="B92" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H92" s="12">
         <v>8250.0</v>
@@ -4451,20 +4421,20 @@
         <v>17</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L92" s="7"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="B93" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H93" s="12">
         <v>8250.0</v>
@@ -4473,20 +4443,20 @@
         <v>17</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L93" s="7"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="B94" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H94" s="12">
         <v>8250.0</v>
@@ -4495,20 +4465,20 @@
         <v>17</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L94" s="7"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="B95" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H95" s="12">
         <v>8250.0</v>
@@ -4517,20 +4487,20 @@
         <v>17</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L95" s="7"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="B96" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H96" s="12">
         <v>6100.0</v>
@@ -4539,20 +4509,20 @@
         <v>17</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L96" s="7"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="B97" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H97" s="12">
         <v>6100.0</v>
@@ -4561,19 +4531,19 @@
         <v>17</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="B98" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H98" s="12">
         <v>6350.0</v>
@@ -4582,19 +4552,19 @@
         <v>17</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="B99" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H99" s="12">
         <v>6050.0</v>
@@ -4603,19 +4573,19 @@
         <v>17</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="B100" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H100" s="12">
         <v>5775.0</v>
@@ -4624,19 +4594,19 @@
         <v>17</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="B101" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H101" s="12">
         <v>5134.0</v>
@@ -4645,20 +4615,20 @@
         <v>17</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L101" s="7"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="B102" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H102" s="12">
         <v>7250.0</v>
@@ -4667,19 +4637,19 @@
         <v>17</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="B103" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F103" s="7"/>
       <c r="G103" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H103" s="12">
         <v>7767.0</v>
@@ -4688,19 +4658,19 @@
         <v>17</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="B104" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H104" s="12">
         <v>7450.0</v>
@@ -4709,19 +4679,19 @@
         <v>17</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="B105" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H105" s="12">
         <v>8250.0</v>
@@ -4730,7 +4700,7 @@
         <v>17</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="314">
   <si>
     <t>article</t>
   </si>
@@ -808,9 +808,6 @@
     <t>ДМ 9 см Серебро Лиственница беж Царга</t>
   </si>
   <si>
-    <t>Входные двери металл-мдф панель</t>
-  </si>
-  <si>
     <t>dm-9-srebro-listvenica-bezh-carga.jpg</t>
   </si>
   <si>
@@ -1205,9 +1202,6 @@
   <si>
     <t xml:space="preserve">ДМ Барьер серебро № 74 акaция светлая/ № 74 тиковое дерево
 </t>
-  </si>
-  <si>
-    <t>Входные двери Йошкар-ола</t>
   </si>
   <si>
     <t>dm-barier-akacia-svetlaya.jpg</t>
@@ -3735,11 +3729,11 @@
         <v>176</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H61" s="12">
         <v>4734.0</v>
@@ -3748,20 +3742,20 @@
         <v>17</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L61" s="7"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="B62" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H62" s="12">
         <v>4300.0</v>
@@ -3770,19 +3764,19 @@
         <v>17</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="B63" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H63" s="12">
         <v>4400.0</v>
@@ -3791,19 +3785,19 @@
         <v>17</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="B64" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H64" s="12">
         <v>4400.0</v>
@@ -3812,20 +3806,20 @@
         <v>17</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L64" s="7"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="B65" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H65" s="12">
         <v>4034.0</v>
@@ -3834,20 +3828,20 @@
         <v>17</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L65" s="7"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="B66" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H66" s="12">
         <v>3667.0</v>
@@ -3856,20 +3850,20 @@
         <v>17</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L66" s="7"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="B67" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H67" s="12">
         <v>3667.0</v>
@@ -3878,20 +3872,20 @@
         <v>17</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L67" s="7"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="B68" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H68" s="12">
         <v>3767.0</v>
@@ -3900,20 +3894,20 @@
         <v>17</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L68" s="7"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="B69" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H69" s="12">
         <v>2150.0</v>
@@ -3922,19 +3916,19 @@
         <v>17</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="B70" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H70" s="12">
         <v>4000.0</v>
@@ -3943,20 +3937,20 @@
         <v>17</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L70" s="7"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="B71" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H71" s="12">
         <v>4743.0</v>
@@ -3965,41 +3959,41 @@
         <v>17</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="B72" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H72" s="12">
         <v>9250.0</v>
       </c>
       <c r="I72" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K72" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="L72" s="7"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="B73" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H73" s="12">
         <v>4334.0</v>
@@ -4008,20 +4002,20 @@
         <v>17</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L73" s="7"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="B74" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H74" s="12">
         <v>4334.0</v>
@@ -4030,20 +4024,20 @@
         <v>17</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L74" s="7"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="B75" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H75" s="12">
         <v>4034.0</v>
@@ -4052,20 +4046,20 @@
         <v>17</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L75" s="7"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="B76" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H76" s="12">
         <v>4034.0</v>
@@ -4074,20 +4068,20 @@
         <v>17</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L76" s="7"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="B77" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H77" s="12">
         <v>4034.0</v>
@@ -4096,20 +4090,20 @@
         <v>17</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L77" s="7"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="B78" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H78" s="12">
         <v>4000.0</v>
@@ -4118,20 +4112,20 @@
         <v>17</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L78" s="7"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="B79" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H79" s="12">
         <v>4000.0</v>
@@ -4140,20 +4134,20 @@
         <v>17</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L79" s="7"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="B80" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>237</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H80" s="12">
         <v>5550.0</v>
@@ -4162,19 +4156,19 @@
         <v>17</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="B81" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H81" s="12">
         <v>5867.0</v>
@@ -4183,20 +4177,20 @@
         <v>17</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L81" s="7"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="B82" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H82" s="12">
         <v>6934.0</v>
@@ -4205,20 +4199,20 @@
         <v>17</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L82" s="7"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="B83" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H83" s="12">
         <v>5717.0</v>
@@ -4227,20 +4221,20 @@
         <v>17</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L83" s="7"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="B84" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H84" s="12">
         <v>4434.0</v>
@@ -4249,19 +4243,19 @@
         <v>17</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="B85" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H85" s="12">
         <v>4600.0</v>
@@ -4270,19 +4264,19 @@
         <v>17</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="B86" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H86" s="12">
         <v>4767.0</v>
@@ -4291,20 +4285,20 @@
         <v>17</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L86" s="7"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="B87" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H87" s="12">
         <v>6875.0</v>
@@ -4313,20 +4307,20 @@
         <v>17</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L87" s="7"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="B88" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H88" s="12">
         <v>6884.0</v>
@@ -4335,19 +4329,19 @@
         <v>17</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="B89" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H89" s="12">
         <v>5334.0</v>
@@ -4356,20 +4350,20 @@
         <v>17</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L89" s="7"/>
     </row>
     <row r="90" ht="15.0" customHeight="1">
       <c r="B90" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H90" s="12">
         <v>5550.0</v>
@@ -4378,19 +4372,19 @@
         <v>17</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" ht="15.0" customHeight="1">
       <c r="B91" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H91" s="12">
         <v>4600.0</v>
@@ -4399,20 +4393,20 @@
         <v>17</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L91" s="7"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="B92" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H92" s="12">
         <v>8250.0</v>
@@ -4421,20 +4415,20 @@
         <v>17</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L92" s="7"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="B93" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H93" s="12">
         <v>8250.0</v>
@@ -4443,20 +4437,20 @@
         <v>17</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L93" s="7"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="B94" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H94" s="12">
         <v>8250.0</v>
@@ -4465,20 +4459,20 @@
         <v>17</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L94" s="7"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="B95" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H95" s="12">
         <v>8250.0</v>
@@ -4487,20 +4481,20 @@
         <v>17</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L95" s="7"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="B96" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H96" s="12">
         <v>6100.0</v>
@@ -4509,20 +4503,20 @@
         <v>17</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L96" s="7"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="B97" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H97" s="12">
         <v>6100.0</v>
@@ -4531,19 +4525,19 @@
         <v>17</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="B98" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H98" s="12">
         <v>6350.0</v>
@@ -4552,19 +4546,19 @@
         <v>17</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="B99" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H99" s="12">
         <v>6050.0</v>
@@ -4573,19 +4567,19 @@
         <v>17</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="B100" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H100" s="12">
         <v>5775.0</v>
@@ -4594,19 +4588,19 @@
         <v>17</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="B101" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H101" s="12">
         <v>5134.0</v>
@@ -4615,20 +4609,20 @@
         <v>17</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L101" s="7"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="B102" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H102" s="12">
         <v>7250.0</v>
@@ -4637,19 +4631,19 @@
         <v>17</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="B103" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F103" s="7"/>
       <c r="G103" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H103" s="12">
         <v>7767.0</v>
@@ -4658,19 +4652,19 @@
         <v>17</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="B104" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H104" s="12">
         <v>7450.0</v>
@@ -4679,19 +4673,19 @@
         <v>17</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="B105" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H105" s="12">
         <v>8250.0</v>
@@ -4700,7 +4694,7 @@
         <v>17</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="504">
   <si>
     <t>article</t>
   </si>
@@ -1623,6 +1623,1088 @@
 Замок: Гардиан– 3015 (Сувальдный, класс (ГОСТ 5089-2011) -2, кол-во полуоборотов 2, вылет ригелей 26 мм) + накладки Крит+ЭКСЦЕНТРИК ; Гардиан – 3001 (Сувальдный, класс (ГОСТ 5089-2011) - 2, колво полуоборотов 2, вылет ригелей 26 мм + накладки Крит, ночная задвижка , ручка Ларедо.;
 Независимая ночная задвижка: Да;
 Размеры 860х2050 мм, 960х2050 мм;</t>
+  </si>
+  <si>
+    <t>Вена Лиственница Мокко</t>
+  </si>
+  <si>
+    <t>Межкомнатные двери</t>
+  </si>
+  <si>
+    <t>vena-listvenica-mokko.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм): 700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло: Стекло мателюкс;
+Модель:Вена;
+Цвет: Лиственница мокко;
+Стиль коллекции: Мегаполис;
+Материал покрытия: Эко-шпон;
+Вес (кг):19;</t>
+  </si>
+  <si>
+    <t>Вена Темный Кипарис</t>
+  </si>
+  <si>
+    <t>vena-temnyi-keparis.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло черное;
+Модель:Вена;
+Цвет:Темный кипарис;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):22;</t>
+  </si>
+  <si>
+    <t>Вена  Белый кипарис</t>
+  </si>
+  <si>
+    <t>vena-belyi-kiparis.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло белое;
+Модель:Вена;
+Цвет:Белый кипарис;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):22;</t>
+  </si>
+  <si>
+    <t>Вена Полотно глухое</t>
+  </si>
+  <si>
+    <t>vena-pg-plotnoe.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Вена;
+Цвет:Белый кипарис;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):21;</t>
+  </si>
+  <si>
+    <t>Вена Дуб нордик</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Вена;
+Цвет:Дуб нордик;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):21;</t>
+  </si>
+  <si>
+    <t>Мюнхен</t>
+  </si>
+  <si>
+    <t>munhen-kedr-snezhnyi.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Мюнхен;
+Цвет:Кедр снежный;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):21.07;</t>
+  </si>
+  <si>
+    <t>Прага Белый кипарис</t>
+  </si>
+  <si>
+    <t>praga-belyi-kiparis.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло черное;
+Модель:Прага;
+Цвет:Белый кипарис;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):24;</t>
+  </si>
+  <si>
+    <t>Прага Лиственница Мокко</t>
+  </si>
+  <si>
+    <t>praga-listvenica-mokko.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:Прага;
+Цвет:Лиственница мокко;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):24;</t>
+  </si>
+  <si>
+    <t>Прага Темный Кипарис</t>
+  </si>
+  <si>
+    <t>praga-temnyi-kiparis.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло черное;
+Модель:Прага;
+Цвет:Темный кипарис;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):24;</t>
+  </si>
+  <si>
+    <t>Дублин Кедр снежный</t>
+  </si>
+  <si>
+    <t>dublin-kedr-snezhnyi.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Зеркало;
+Модель:Дублин;
+Цвет:Ель альпийская;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Eco-wood;
+Вес (кг):24.8;</t>
+  </si>
+  <si>
+    <t>Дублин Дуб нордик</t>
+  </si>
+  <si>
+    <t>dublin-dub-nordik.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Зеркало;
+Модель:Дублин;
+Цвет:Светлый;
+Стиль коллекции:Мегаполис Loft;
+Материал покрытия:Бетон;
+Вес (кг):22.73;</t>
+  </si>
+  <si>
+    <t>Дублин Стекло Черное</t>
+  </si>
+  <si>
+    <t>dublin-steklo-chernoe.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло черное;
+Модель:Дублин;
+Цвет:Светлый;
+Стиль коллекции:Мегаполис Loft;
+Материал покрытия:Бетон;
+Вес (кг):18.59;</t>
+  </si>
+  <si>
+    <t>Кельн Белый кипарис</t>
+  </si>
+  <si>
+    <t>keln-belyi-kiparis.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:Кельн;
+Цвет:Белый кипарис;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):21.5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кельн Серый кедр </t>
+  </si>
+  <si>
+    <t>keln-seryi-kedr.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло черное;
+Модель:Кельн;
+Цвет:Серый кедр;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):21.5;</t>
+  </si>
+  <si>
+    <t>Мадрид Лиственница Мокко</t>
+  </si>
+  <si>
+    <t>madrid-listvenica-mokko.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:Мадрид;
+Цвет:Лиственница мокко;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):28;</t>
+  </si>
+  <si>
+    <t>Севилья Дуб нордик</t>
+  </si>
+  <si>
+    <t>seveliya-nordik-chernoe-steklo.jheg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло черное;
+Модель:Севилья;
+Цвет:Дуб нордик;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):25.3;</t>
+  </si>
+  <si>
+    <t>Дрезден Дуб нордик</t>
+  </si>
+  <si>
+    <t>drezden-dub-nordik-chernoe-steklo.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм): 800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло черное;
+Модель:Дрезден;
+Цвет:Дуб нордик;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):22.73;</t>
+  </si>
+  <si>
+    <t>Дрезден Белый кипарис</t>
+  </si>
+  <si>
+    <t>drezden-belyi-kiparis.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Зеркало;
+Модель:Дрезден;
+Цвет:Белый кипарис;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):22.73;</t>
+  </si>
+  <si>
+    <t>Сеул Кедр снежный</t>
+  </si>
+  <si>
+    <t>seul-kedr-snezhnyi.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:Сеул;
+Цвет:Кедр снежный;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):18;</t>
+  </si>
+  <si>
+    <t>Сеул Дуб нордик</t>
+  </si>
+  <si>
+    <t>seul-dub-nordik.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:Сеул;
+Цвет:Дуб нордик;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Эко-шпон;
+Вес (кг):18;</t>
+  </si>
+  <si>
+    <t>Сеул Бетон Светлый</t>
+  </si>
+  <si>
+    <t>seul-steklo-matovoe.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:Сеул;
+Цвет:Светлый;
+Стиль коллекции:Мегаполис Loft;
+Материал покрытия:Бетон;
+Вес (кг):22;</t>
+  </si>
+  <si>
+    <t>Вена Бетон Темный</t>
+  </si>
+  <si>
+    <t>vena-beton-temnyi.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37
+Стекло:Стекло графитовое;
+Модель:Вена;
+Цвет:Темный;
+Стиль коллекции:Мегаполис Loft;
+Материал покрытия:Бетон;
+Вес (кг):19;</t>
+  </si>
+  <si>
+    <t>Дублин Бетон Светлый</t>
+  </si>
+  <si>
+    <t>dublin-beton-belyi.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:Дублин;
+Цвет:Светлый;
+Стиль коллекции:Мегаполис Loft;
+Материал покрытия:Бетон;
+Вес (кг):24.8;</t>
+  </si>
+  <si>
+    <t>Дрезден Бетон Темный</t>
+  </si>
+  <si>
+    <t>drezden-beton-temnyi.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло черное;
+Модель:Дрезден;
+Цвет:Темный;
+Стиль коллекции:Мегаполис Loft;
+Материал покрытия:Бетон;
+Вес (кг):24.8;</t>
+  </si>
+  <si>
+    <t>Валенсия Ель Альпийская</t>
+  </si>
+  <si>
+    <t>valensiya-el-alpiyskaya.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:Валенсия;
+Цвет:Ель альпийская;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Eco-wood;
+Вес (кг):22;</t>
+  </si>
+  <si>
+    <t>Сеул Ель Альпийская</t>
+  </si>
+  <si>
+    <t>seul-el-alpiyskaya.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло черное;
+Модель:Сеул;
+Цвет:Ель альпийская;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Eco-wood;
+Вес (кг):18;</t>
+  </si>
+  <si>
+    <t>Мюнхен Ель Альпийская</t>
+  </si>
+  <si>
+    <t>munhen-el-alpiyskaya.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Мюнхен;
+Цвет:Ель альпийская;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Eco-wood;
+Вес (кг):19.12;</t>
+  </si>
+  <si>
+    <t>Невада Графит</t>
+  </si>
+  <si>
+    <t>nevada-grafit-chernoe-steklo.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло черное;
+Модель:Невада;
+Цвет:Графит;
+Стиль коллекции:West;
+Материал покрытия:Soft Touch;
+Вес (кг):20.68;</t>
+  </si>
+  <si>
+    <t>Техас Жемчужный</t>
+  </si>
+  <si>
+    <t>texas-zhemchuzhnyi-steklo-chernoe.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло черное;
+Модель:Техас;
+Цвет:Жемчужный;
+Стиль коллекции:West;
+Материал покрытия:Soft Touch;
+Вес (кг):20.87;</t>
+  </si>
+  <si>
+    <t>Прага Мокко</t>
+  </si>
+  <si>
+    <t>praga-mokko-glyanec.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс бронза;
+Модель:Прага GL;
+Цвет:Мокко глянец;
+Стиль коллекции:Мегаполис GL;
+Материал покрытия:Глянец;
+Вес (кг):22;</t>
+  </si>
+  <si>
+    <t>Вена Белый</t>
+  </si>
+  <si>
+    <t>vena-belyi-steklo-matovoe.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:Вена;
+Цвет:Белый;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Vinyl;
+Вес (кг):19;</t>
+  </si>
+  <si>
+    <t>Эрмитаж 2  Белый</t>
+  </si>
+  <si>
+    <t>ermitazh-2-belyi.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Эрмитаж-2;
+Цвет:Белый;
+Стиль коллекции:Галерея;
+Материал покрытия:Vinyl;
+Вес (кг):23;</t>
+  </si>
+  <si>
+    <t>Эрмитаж 3</t>
+  </si>
+  <si>
+    <t>ermitazh-3-steklo-romb-belyi.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Мателюкс с алмазной гравировкой "Ромб";
+Модель:Эрмитаж-3;
+Цвет:Белый;
+Стиль коллекции:Галерея;
+Материал покрытия:Vinyl;
+Вес (кг):32.67;</t>
+  </si>
+  <si>
+    <t>Эрмитаж 4</t>
+  </si>
+  <si>
+    <t>ermitazh-4-gluhoe.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Эрмитаж-4;
+Цвет:Платина;
+Стиль коллекции:Галерея;
+Материал покрытия:Vinyl;
+Вес (кг):22.1;</t>
+  </si>
+  <si>
+    <t>Эрмитаж 4 квадро гравировка</t>
+  </si>
+  <si>
+    <t>ermitazh-4-belyi-kvadrogravirovka.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Мателюкс с алмазной гравировкой "Квадро";
+Модель:Эрмитаж-4;
+Цвет:Белый;
+Стиль коллекции:Галерея;
+Материал покрытия:Vinyl;
+Вес (кг):21.14;</t>
+  </si>
+  <si>
+    <t>Эрмитаж 2  Платина</t>
+  </si>
+  <si>
+    <t>ermitazh-2-platina-gluhoe.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Эрмитаж-7;
+Цвет:Платина;
+Стиль коллекции:Галерея;
+Материал покрытия:Vinyl;
+Вес (кг):29.4;</t>
+  </si>
+  <si>
+    <t>Рим белый глухое</t>
+  </si>
+  <si>
+    <t>rim-belyi-gluhoe.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Рим;
+Цвет:Белый;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):18.75;</t>
+  </si>
+  <si>
+    <t>Рим стелко град</t>
+  </si>
+  <si>
+    <t>rim-belyi-steklo-grad,jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс "Гранд";
+Модель:Рим;
+Цвет:Белый;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):18.81;</t>
+  </si>
+  <si>
+    <t>Киото стекло матовое</t>
+  </si>
+  <si>
+    <t>kioto-belyi-kvadrat.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:Киото;
+Цвет:Белый;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):18.81;</t>
+  </si>
+  <si>
+    <t>Рим ваниль</t>
+  </si>
+  <si>
+    <t>rim-vanil-gluhoe.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Рим;
+Цвет:Ваниль;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):20.97;</t>
+  </si>
+  <si>
+    <t>rim-steklo-grad-2.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс "Гранд";
+Модель:Рим;
+Цвет:Ваниль;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):21.05;</t>
+  </si>
+  <si>
+    <t>Рим платина</t>
+  </si>
+  <si>
+    <t>rim-platina-1.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Рим;
+Цвет:Платина;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):20.97;</t>
+  </si>
+  <si>
+    <t>rim-steklo-grad-3.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс "Гранд";
+Модель:Рим;
+Цвет:Платина;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):21.05;</t>
+  </si>
+  <si>
+    <t>Киото ваниль</t>
+  </si>
+  <si>
+    <t>kioto-vanil-1.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:Киото;
+Цвет:Платина;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):23.29;</t>
+  </si>
+  <si>
+    <t>Олимпия серый</t>
+  </si>
+  <si>
+    <t>olimpiya-seryi.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Олимпия;
+Цвет:Серый;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):21.3;</t>
+  </si>
+  <si>
+    <t>Олимпия белый Глухое</t>
+  </si>
+  <si>
+    <t>olimpiya-belyi-gluhoe.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Олимпия;
+Цвет:Белый;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):19.1;</t>
+  </si>
+  <si>
+    <t>Олимпия ваниль</t>
+  </si>
+  <si>
+    <t>olimpiya-vanil.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Олимпия;
+Цвет:Ваниль;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):19.1;</t>
+  </si>
+  <si>
+    <t>Прадо глухое</t>
+  </si>
+  <si>
+    <t>prado-belyi-gluhoe.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Прадо;
+Цвет:Белый;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):26.53;</t>
+  </si>
+  <si>
+    <t>Прадо Стекло Гранд</t>
+  </si>
+  <si>
+    <t>prado-steklo-grand.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс "Гранд";
+Модель:Прадо;
+Цвет:Белый;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):26.53;</t>
+  </si>
+  <si>
+    <t>Прадо ваниль глухое</t>
+  </si>
+  <si>
+    <t>prado-vanil.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Прадо;
+Цвет:Ваниль;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):26.53;</t>
+  </si>
+  <si>
+    <t>Прадо ваниль стекло град</t>
+  </si>
+  <si>
+    <t>prado-vanil-steklo-grad.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс "Гранд";
+Модель:Прадо;
+Цвет:Ваниль;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):26.53;</t>
+  </si>
+  <si>
+    <t>Афина 2 белый</t>
+  </si>
+  <si>
+    <t>afina-belyi-steklo-matovoe.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:Афина-2;
+Цвет:Белый;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):22.37;</t>
+  </si>
+  <si>
+    <t>Афина-2 белый зеркало</t>
+  </si>
+  <si>
+    <t>afina-2-zerkalo.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Зеркало грей;
+Модель:Афина-2;
+Цвет:Белый;
+Стиль коллекции:Империя;
+Материал покрытия:Vinyl;
+Вес (кг):22.37;</t>
+  </si>
+  <si>
+    <t>Вена белый</t>
+  </si>
+  <si>
+    <t>vena-steklo-matovoe.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:Вена;
+Цвет:Светлый;
+Стиль коллекции:Мегаполис Loft;
+Материал покрытия:Бетон;
+Вес (кг):18;</t>
+  </si>
+  <si>
+    <t>Сеул платина</t>
+  </si>
+  <si>
+    <t>seul-platina-steklo-grafitovoe.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Зеркало;
+Модель:Сеул;
+Цвет: Платина;
+Стиль коллекции:Мегаполис;
+Материал покрытия:Eco-wood;
+Вес (кг):18;</t>
+  </si>
+  <si>
+    <t>Геометрия 1 белый</t>
+  </si>
+  <si>
+    <t>geometriya-1-vyrez-steklo 1.jpg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Глухое с врезанным замком;
+Модель:ПО Геометрия-1;
+Цвет:Белый;
+Стиль коллекции:Геометрия Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):26.3;</t>
+  </si>
+  <si>
+    <t>Геометрия 1 серый</t>
+  </si>
+  <si>
+    <t>geometriya-seryi-1.jpg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Глухое с врезанным замком;
+Модель:ПО Геометрия-1;
+Цвет:Серый;
+Стиль коллекции:Геометрия Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):26.3;</t>
+  </si>
+  <si>
+    <t>Геометрия 2 белый</t>
+  </si>
+  <si>
+    <t>geometriya-2-emal-gluhoe.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Геометрия-2;
+Цвет:Белый;
+Стиль коллекции:Геометрия Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):18.1;</t>
+  </si>
+  <si>
+    <t>Геометрия латте</t>
+  </si>
+  <si>
+    <t>geometriya-2-latte.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Геометрия-2;
+Цвет:Латте;
+Стиль коллекции:Геометрия Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):18.1;</t>
+  </si>
+  <si>
+    <t>Геометрия 6 белый</t>
+  </si>
+  <si>
+    <t>geometriya-6-chernoe-steklo.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло черное;
+Модель:ПО Геометрия-6;
+Цвет:Белый;
+Стиль коллекции:Геометрия Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):19.88;</t>
+  </si>
+  <si>
+    <t>Геометрия 4 белый</t>
+  </si>
+  <si>
+    <t>geometriya-4-belyi.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Геометрия-4;
+Цвет:Белый;
+Стиль коллекции:Геометрия Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):20.07;</t>
+  </si>
+  <si>
+    <t>Геометрия 7 белый</t>
+  </si>
+  <si>
+    <t>geometriya-7-belyi.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло черное;
+Модель:ПО Геометрия-7;
+Цвет:Белый;
+Стиль коллекции:Геометрия Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):24.7;</t>
+  </si>
+  <si>
+    <t>Геометрия 7 серый</t>
+  </si>
+  <si>
+    <t>geometriya-7-seryi.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло черное;
+Модель:ПО Геометрия-7;
+Цвет:Серый;
+Стиль коллекции:Геометрия Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):24.7;</t>
+  </si>
+  <si>
+    <t>Геометрия 3 белый</t>
+  </si>
+  <si>
+    <t>geometriya-3-belyi.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Геометрия-3;
+Цвет:Белый;
+Стиль коллекции:Геометрия Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):22.7;</t>
   </si>
 </sst>
 </file>
@@ -4698,416 +5780,1368 @@
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
+      <c r="B106" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="K106" s="7"/>
+      <c r="G106" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="H106" s="12">
+        <v>4800.0</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" s="12" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
+      <c r="B107" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="K107" s="7"/>
+      <c r="G107" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="H107" s="12">
+        <v>4800.0</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>320</v>
+      </c>
       <c r="L107" s="7"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
+      <c r="B108" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="K108" s="7"/>
+      <c r="G108" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="H108" s="12">
+        <v>4800.0</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="12" t="s">
+        <v>323</v>
+      </c>
       <c r="L108" s="7"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
+      <c r="B109" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="K109" s="7"/>
+      <c r="G109" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H109" s="12">
+        <v>4800.0</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" s="12" t="s">
+        <v>326</v>
+      </c>
       <c r="L109" s="7"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
+      <c r="B110" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="K110" s="7"/>
+      <c r="G110" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H110" s="12">
+        <v>5000.0</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" s="12" t="s">
+        <v>328</v>
+      </c>
       <c r="L110" s="7"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
+      <c r="B111" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="K111" s="7"/>
+      <c r="G111" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="H111" s="12">
+        <v>5300.0</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" s="12" t="s">
+        <v>331</v>
+      </c>
       <c r="L111" s="7"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
+      <c r="B112" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="K112" s="7"/>
+      <c r="G112" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H112" s="12">
+        <v>5200.0</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" s="12" t="s">
+        <v>334</v>
+      </c>
       <c r="L112" s="7"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
+      <c r="B113" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="K113" s="7"/>
+      <c r="G113" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H113" s="12">
+        <v>4900.0</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" s="12" t="s">
+        <v>337</v>
+      </c>
       <c r="L113" s="7"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
+      <c r="B114" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="K114" s="7"/>
+      <c r="G114" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="H114" s="12">
+        <v>4900.0</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" s="12" t="s">
+        <v>340</v>
+      </c>
       <c r="L114" s="7"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
+      <c r="B115" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="K115" s="7"/>
+      <c r="G115" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="H115" s="12">
+        <v>5300.0</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>343</v>
+      </c>
       <c r="L115" s="7"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
+      <c r="B116" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="K116" s="7"/>
+      <c r="G116" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="H116" s="12">
+        <v>5300.0</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K116" s="12" t="s">
+        <v>346</v>
+      </c>
       <c r="L116" s="7"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
+      <c r="B117" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="K117" s="7"/>
+      <c r="G117" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="H117" s="12">
+        <v>5000.0</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K117" s="12" t="s">
+        <v>349</v>
+      </c>
       <c r="L117" s="7"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
+      <c r="B118" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="K118" s="7"/>
+      <c r="G118" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="H118" s="12">
+        <v>5300.0</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="12" t="s">
+        <v>352</v>
+      </c>
       <c r="L118" s="7"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
+      <c r="B119" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="K119" s="7"/>
+      <c r="G119" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="H119" s="12">
+        <v>5900.0</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K119" s="12" t="s">
+        <v>355</v>
+      </c>
       <c r="L119" s="7"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
+      <c r="B120" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="K120" s="7"/>
+      <c r="G120" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="H120" s="12">
+        <v>5300.0</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K120" s="12" t="s">
+        <v>358</v>
+      </c>
       <c r="L120" s="7"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
+      <c r="B121" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="K121" s="7"/>
+      <c r="G121" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="H121" s="12">
+        <v>5900.0</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" s="12" t="s">
+        <v>361</v>
+      </c>
       <c r="L121" s="7"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
+      <c r="B122" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="K122" s="7"/>
+      <c r="G122" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="H122" s="12">
+        <v>5200.0</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" s="12" t="s">
+        <v>364</v>
+      </c>
       <c r="L122" s="7"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
+      <c r="B123" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="K123" s="7"/>
+      <c r="G123" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="H123" s="12">
+        <v>5500.0</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K123" s="12" t="s">
+        <v>367</v>
+      </c>
       <c r="L123" s="7"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
+      <c r="B124" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="K124" s="7"/>
+      <c r="G124" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H124" s="12">
+        <v>4800.0</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K124" s="12" t="s">
+        <v>370</v>
+      </c>
       <c r="L124" s="7"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
+      <c r="B125" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="K125" s="7"/>
+      <c r="G125" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="H125" s="12">
+        <v>4800.0</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K125" s="12" t="s">
+        <v>373</v>
+      </c>
       <c r="L125" s="7"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
+      <c r="B126" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="K126" s="7"/>
+      <c r="G126" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="H126" s="12">
+        <v>5300.0</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K126" s="12" t="s">
+        <v>376</v>
+      </c>
       <c r="L126" s="7"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
+      <c r="B127" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="K127" s="7"/>
+      <c r="G127" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="H127" s="12">
+        <v>5300.0</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" s="12" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
+      <c r="B128" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="K128" s="7"/>
+      <c r="G128" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H128" s="12">
+        <v>5300.0</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K128" s="12" t="s">
+        <v>382</v>
+      </c>
       <c r="L128" s="7"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
+      <c r="B129" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="K129" s="7"/>
+      <c r="G129" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="H129" s="12">
+        <v>5550.0</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K129" s="12" t="s">
+        <v>385</v>
+      </c>
       <c r="L129" s="7"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
+      <c r="B130" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="K130" s="7"/>
+      <c r="G130" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="H130" s="12">
+        <v>3850.0</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" s="12" t="s">
+        <v>388</v>
+      </c>
       <c r="L130" s="7"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
+      <c r="B131" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="K131" s="7"/>
+      <c r="G131" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="H131" s="12">
+        <v>5550.0</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K131" s="12" t="s">
+        <v>391</v>
+      </c>
       <c r="L131" s="7"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
+      <c r="B132" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="K132" s="7"/>
+      <c r="G132" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H132" s="12">
+        <v>3850.0</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K132" s="12" t="s">
+        <v>394</v>
+      </c>
       <c r="L132" s="7"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
+      <c r="B133" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="K133" s="7"/>
+      <c r="G133" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="H133" s="12">
+        <v>6400.0</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K133" s="12" t="s">
+        <v>397</v>
+      </c>
       <c r="L133" s="7"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
+      <c r="B134" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="K134" s="7"/>
+      <c r="G134" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="H134" s="12">
+        <v>5500.0</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K134" s="12" t="s">
+        <v>400</v>
+      </c>
       <c r="L134" s="7"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
+      <c r="B135" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="K135" s="7"/>
+      <c r="G135" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="H135" s="12">
+        <v>11100.0</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K135" s="12" t="s">
+        <v>403</v>
+      </c>
       <c r="L135" s="7"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
+      <c r="B136" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="K136" s="7"/>
+      <c r="G136" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="H136" s="12">
+        <v>9900.0</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K136" s="12" t="s">
+        <v>406</v>
+      </c>
       <c r="L136" s="7"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
+      <c r="B137" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="K137" s="7"/>
+      <c r="G137" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="H137" s="12">
+        <v>12000.0</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K137" s="12" t="s">
+        <v>409</v>
+      </c>
       <c r="L137" s="7"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
+      <c r="B138" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="K138" s="7"/>
+      <c r="G138" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="H138" s="12">
+        <v>12000.0</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K138" s="12" t="s">
+        <v>412</v>
+      </c>
       <c r="L138" s="7"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
+      <c r="B139" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="K139" s="7"/>
+      <c r="G139" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="H139" s="12">
+        <v>12000.0</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K139" s="12" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
+      <c r="B140" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="K140" s="7"/>
+      <c r="G140" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H140" s="12">
+        <v>12000.0</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K140" s="12" t="s">
+        <v>418</v>
+      </c>
       <c r="L140" s="7"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
+      <c r="B141" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="K141" s="7"/>
+      <c r="G141" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="H141" s="12">
+        <v>12000.0</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K141" s="12" t="s">
+        <v>421</v>
+      </c>
       <c r="L141" s="7"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
+      <c r="B142" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="K142" s="7"/>
+      <c r="G142" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="H142" s="12">
+        <v>8500.0</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K142" s="12" t="s">
+        <v>424</v>
+      </c>
       <c r="L142" s="7"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
+      <c r="B143" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="K143" s="7"/>
+      <c r="G143" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="H143" s="12">
+        <v>8950.0</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K143" s="12" t="s">
+        <v>427</v>
+      </c>
       <c r="L143" s="7"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
+      <c r="B144" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="K144" s="7"/>
+      <c r="G144" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="H144" s="12">
+        <v>9400.0</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K144" s="12" t="s">
+        <v>430</v>
+      </c>
       <c r="L144" s="7"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
+      <c r="B145" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="K145" s="7"/>
+      <c r="G145" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="H145" s="12">
+        <v>8500.0</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" s="12" t="s">
+        <v>433</v>
+      </c>
       <c r="L145" s="7"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
+      <c r="B146" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="K146" s="7"/>
+      <c r="G146" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="H146" s="12">
+        <v>8950.0</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="L146" s="7"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
+      <c r="B147" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-      <c r="K147" s="7"/>
+      <c r="G147" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="H147" s="12">
+        <v>8500.0</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" s="12" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
+      <c r="B148" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="K148" s="7"/>
+      <c r="G148" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="H148" s="12">
+        <v>8950.0</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K148" s="12" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
+      <c r="B149" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="K149" s="7"/>
+      <c r="G149" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="H149" s="12">
+        <v>9400.0</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" s="12" t="s">
+        <v>443</v>
+      </c>
       <c r="L149" s="7"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="B150" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G150" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="H150" s="13">
+        <v>7850.0</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K150" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="B151" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="H151" s="13">
+        <v>7850.0</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" s="13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="B152" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="H152" s="13">
+        <v>7850.0</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K152" s="13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="B153" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G153" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="H153" s="13">
+        <v>10600.0</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K153" s="13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="B154" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="H154" s="13">
+        <v>10850.0</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K154" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="B155" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G155" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="H155" s="13">
+        <v>10600.0</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" s="13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="B156" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="H156" s="13">
+        <v>10850.0</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K156" s="13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="B157" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="H157" s="13">
+        <v>13500.0</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K157" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="B158" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G158" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="H158" s="13">
+        <v>16600.0</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K158" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="B159" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="H159" s="13">
+        <v>7300.0</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K159" s="13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="B160" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G160" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="H160" s="13">
+        <v>7300.0</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K160" s="13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="B161" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="H161" s="13">
+        <v>12800.0</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K161" s="13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="B162" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G162" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="H162" s="13">
+        <v>12800.0</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K162" s="13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="B163" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="H163" s="13">
+        <v>13650.0</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K163" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="B164" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G164" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="H164" s="13">
+        <v>13650.0</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K164" s="13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="B165" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G165" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="H165" s="13">
+        <v>15600.0</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K165" s="13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="B166" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G166" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="H166" s="13">
+        <v>13650.0</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K166" s="13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="B167" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H167" s="13">
+        <v>15600.0</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K167" s="13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="B168" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G168" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="H168" s="13">
+        <v>15600.0</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K168" s="13" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="B169" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="H169" s="13">
+        <v>13650.0</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K169" s="13" t="s">
+        <v>503</v>
+      </c>
+    </row>
     <row r="170" ht="15.75" customHeight="1"/>
     <row r="171" ht="15.75" customHeight="1"/>
     <row r="172" ht="15.75" customHeight="1"/>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="611">
   <si>
     <t>article</t>
   </si>
@@ -2705,6 +2705,624 @@
 Стиль коллекции:Геометрия Эмаль;
 Материал покрытия:Эмаль;
 Вес (кг):22.7;</t>
+  </si>
+  <si>
+    <t>Классика 1 слоновая кость</t>
+  </si>
+  <si>
+    <t>klasika-1-slonovaya-kost.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:ПГ Классика-1;
+Цвет:Слоновая кость;
+Стиль коллекции:Классика Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):25;</t>
+  </si>
+  <si>
+    <t>Классика 1 белый</t>
+  </si>
+  <si>
+    <t>klasika-1-belyi.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:ПГ Классика-1;
+Цвет:Белый;
+Стиль коллекции:Классика Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):25;</t>
+  </si>
+  <si>
+    <t>Класика 2 белый</t>
+  </si>
+  <si>
+    <t>klasika-2-belyi.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:ПГ Классика-2;
+Цвет:Белый;
+Стиль коллекции:Классика Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):32;</t>
+  </si>
+  <si>
+    <t>Классика 3 белый</t>
+  </si>
+  <si>
+    <t>klasika-3-belyi.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:ПГ Классика-3;
+Цвет:Белый;
+Стиль коллекции:Классика Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):28.5;</t>
+  </si>
+  <si>
+    <t>Классика 5 белый</t>
+  </si>
+  <si>
+    <t>klasika-5-belyi.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:ПО Классика-5;
+Цвет:Белый;
+Стиль коллекции:Классика Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):31.2;</t>
+  </si>
+  <si>
+    <t>Классика 5 слоновая кость</t>
+  </si>
+  <si>
+    <t>klasika-5-slonovaya-kost.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс;
+Модель:ПО Классика-5;
+Цвет:Слоновая кость;
+Стиль коллекции:Классика Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):31.2;</t>
+  </si>
+  <si>
+    <t>НеоКлассикаPRO-2 белый</t>
+  </si>
+  <si>
+    <t>neo-klasika-pro-2-belyi.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:НеоКлассикаPRO-2;
+Цвет:Белый;
+Стиль коллекции:НеоКлассикаPRO;
+Материал покрытия:Эмаль;
+Вес (кг):23.9;</t>
+  </si>
+  <si>
+    <t>НеоКлассикаPRO-2 серый</t>
+  </si>
+  <si>
+    <t>neoklassika-2-pro-seryi.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:НеоКлассикаPRO-2;
+Цвет:Серый;
+Стиль коллекции:НеоКлассикаPRO;
+Материал покрытия:Эмаль;
+Вес (кг):23.9;
+</t>
+  </si>
+  <si>
+    <t>НеоКлассикаPRO-2 слоновая кость</t>
+  </si>
+  <si>
+    <t>neoklassika-2-pro-slonovaya-kost.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:НеоКлассикаPRO-2;
+Цвет:Слоновая кость;
+Стиль коллекции:НеоКлассикаPRO;
+Материал покрытия:Эмаль;
+Вес (кг):23.9;</t>
+  </si>
+  <si>
+    <t>НеоКлассика PRO-1 латте</t>
+  </si>
+  <si>
+    <t>neoklassika-pro-1-latte.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:НеоКлассикаPRO-1;
+Цвет:Латте;
+Стиль коллекции:НеоКлассикаPRO;
+Материал покрытия:Эмаль;
+Вес (кг):22.2;</t>
+  </si>
+  <si>
+    <t>НеоКлассика PRO-1 слоновая кость</t>
+  </si>
+  <si>
+    <t>neoklassika-pro-1-slonovaya-kost.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:НеоКлассикаPRO-1;
+Цвет:Слоновая кость;
+Стиль коллекции:НеоКлассикаPRO;
+Материал покрытия:Эмаль;
+Вес (кг):22.2;</t>
+  </si>
+  <si>
+    <t>НеоКлассика PRO-1 белый</t>
+  </si>
+  <si>
+    <t>neo-klassika-pro-1-belyi.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:НеоКлассикаPRO-1;
+Цвет:Белый;
+Стиль коллекции:НеоКлассикаPRO;
+Материал покрытия:Эмаль;
+Вес (кг):22.2;</t>
+  </si>
+  <si>
+    <t>Лайн 2 белый</t>
+  </si>
+  <si>
+    <t>lain-2-belyi.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Лайн-2;
+Цвет:Белый;
+Стиль коллекции:Лайн;
+Материал покрытия:Эмаль;
+Вес (кг):20.9;</t>
+  </si>
+  <si>
+    <t>Лайн 2 серый</t>
+  </si>
+  <si>
+    <t>lain-2-seryi.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Лайн-2;
+Цвет:Серый;
+Стиль коллекции:Лайн;
+Материал покрытия:Эмаль;
+Вес (кг):20.9;</t>
+  </si>
+  <si>
+    <t>Лайн 3 белый</t>
+  </si>
+  <si>
+    <t>lain-3-belyi.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Лайн-3;
+Цвет:Белый;
+Стиль коллекции:Лайн;
+Материал покрытия:Эмаль;
+Вес (кг):20.9;</t>
+  </si>
+  <si>
+    <t>Лайн 4 белый</t>
+  </si>
+  <si>
+    <t>lain-4-belyi.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):600;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Лайн-4;
+Цвет:Белый;
+Стиль коллекции:Лайн;
+Материал покрытия:Эмаль;
+Вес (кг):20.9;</t>
+  </si>
+  <si>
+    <t>Стиль 2 белый</t>
+  </si>
+  <si>
+    <t>stil-2-belyi.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Стиль-2;
+Цвет:Белый;
+Стиль коллекции:Стиль Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):16.8;</t>
+  </si>
+  <si>
+    <t>Стиль 2 стекло рубин</t>
+  </si>
+  <si>
+    <t>stil-2-belyi-steklo-rubin.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс "Рубин";
+Модель:Стиль-2;
+Цвет:Белый;
+Стиль коллекции:Стиль Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):16.8;</t>
+  </si>
+  <si>
+    <t>Стиль 2 серый</t>
+  </si>
+  <si>
+    <t>stil-2-seryi-gluhoe.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Стиль-2;
+Цвет:Серый;
+Стиль коллекции:Стиль Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):16.8;</t>
+  </si>
+  <si>
+    <t>Стиль 2 Стекло Рубин</t>
+  </si>
+  <si>
+    <t>stl-2-steklo-rubin.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло мателюкс "Рубин";
+Модель:Стиль-2;
+Цвет:Серый;
+Стиль коллекции:Стиль Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):23.1;</t>
+  </si>
+  <si>
+    <t>Стиль 2 Латте глухое</t>
+  </si>
+  <si>
+    <t>stil-2-latte-gluhoe.png</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Стиль-2;
+Цвет:Латте;
+Стиль коллекции:Стиль Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):16.8;</t>
+  </si>
+  <si>
+    <t>stil-2-latte-steklo-rubin.jpeg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):800;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло Рубин;
+Модель:Стиль-2;
+Цвет:Латте;
+Стиль коллекции:Стиль Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):16.8;</t>
+  </si>
+  <si>
+    <t>Стиль 1 белый</t>
+  </si>
+  <si>
+    <t>stil-1-belyi-gluhoi.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Стиль-1;
+Цвет:Белый;
+Стиль коллекции:Стиль Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):18.1;
+</t>
+  </si>
+  <si>
+    <t>Стиль 1 стекло топаз</t>
+  </si>
+  <si>
+    <t>stil-1-steklo-topaz.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло "Топаз";
+Модель:Стиль-1;
+Цвет:Белый;
+Стиль коллекции:Стиль Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):18.1;
+</t>
+  </si>
+  <si>
+    <t>Стиль 1 серый</t>
+  </si>
+  <si>
+    <t>stil-1-seryi-gluhoe,png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Стиль-1;
+Цвет:Серый;
+Стиль коллекции:Стиль Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):18.1;
+</t>
+  </si>
+  <si>
+    <t>Стиль 1 серый стекло топаз</t>
+  </si>
+  <si>
+    <t>stil-1-seryi=steklo-topaz.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло "Топаз";
+Модель:Стиль-1;
+Цвет:Серый;
+Стиль коллекции:Стиль Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):18.1;
+</t>
+  </si>
+  <si>
+    <t>Стиль 1 латте глухое</t>
+  </si>
+  <si>
+    <t>stil-1-latte-gluhoe.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Стиль-1;
+Цвет:Латте;
+Стиль коллекции:Стиль Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):18.1;
+</t>
+  </si>
+  <si>
+    <t>Стиль 1 латте стекло топаз</t>
+  </si>
+  <si>
+    <t>stil-1-latte-steklo-topaz,jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло "Топаз";
+Модель:Стиль-1;
+Цвет:Латте;
+Стиль коллекции:Стиль Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):18.1;
+</t>
+  </si>
+  <si>
+    <t>Стиль 1 слоновая кость</t>
+  </si>
+  <si>
+    <t>stil-1-slonovaya-kost-gluhoe.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Стиль-1;
+Цвет:Слоновая кость;
+Стиль коллекции:Стиль Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):18.1;
+</t>
+  </si>
+  <si>
+    <t>Стиль 1 слоновая кость стекло топаз</t>
+  </si>
+  <si>
+    <t>stil-1-slonovaya-kost-steklo-topaz.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ширина полотна (мм):900;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:Стекло "Топаз";
+Модель:Стиль-1;
+Цвет:Слоновая кость;
+Стиль коллекции:Стиль Эмаль;
+Материал покрытия:Эмаль;
+Вес (кг):18.1;
+</t>
+  </si>
+  <si>
+    <t>Стиль Нео-2 белое</t>
+  </si>
+  <si>
+    <t>stil-neo-2-beloe-gluhoe.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:НеоКлассикаPRO-2;
+Цвет:Белый;
+Стиль коллекции:НеоКлассикаPRO;
+Материал покрытия:Эмаль;
+Вес (кг):19.7;</t>
+  </si>
+  <si>
+    <t>Стиль Нео-2 латте глухое</t>
+  </si>
+  <si>
+    <t>stil-neo-2-latte-gluhoe.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:НеоКлассикаPRO-2;
+Цвет:Латте;
+Стиль коллекции:НеоКлассикаPRO;
+Материал покрытия:Эмаль;
+Вес (кг):19.7;</t>
+  </si>
+  <si>
+    <t>Стиль Нео-2 серый глухое</t>
+  </si>
+  <si>
+    <t>stil-neo-2-seryi-gluhoe.webp</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:НеоКлассикаPRO-2;
+Цвет:Серый;
+Стиль коллекции:НеоКлассикаPRO;
+Материал покрытия:Эмаль;
+Вес (кг):19.7;</t>
+  </si>
+  <si>
+    <t>Стиль флэт белой</t>
+  </si>
+  <si>
+    <t>stil-flet.jpg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Стиль;
+Цвет:Белый;
+Стиль коллекции:Флэт;
+Материал покрытия:Эмаль;
+Вес (кг):19.7;</t>
+  </si>
+  <si>
+    <t>Стиль флэт серый</t>
+  </si>
+  <si>
+    <t>stil-flat-seryi.jpg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Стиль;
+Цвет:Серый;
+Стиль коллекции:Флэт;
+Материал покрытия:Эмаль;
+Вес (кг):19.7;</t>
+  </si>
+  <si>
+    <t>Стиль флэт латте</t>
+  </si>
+  <si>
+    <t>stil-flat-latte.jpg</t>
+  </si>
+  <si>
+    <t>Ширина полотна (мм):700;
+Высота полотна (мм):2000;
+Толщина полотна (мм):37;
+Стекло:ПГ;
+Модель:Стиль;
+Цвет:Латте;
+Стиль коллекции:Флэт;
+Материал покрытия:Эмаль;
+Вес (кг):19.7;</t>
   </si>
 </sst>
 </file>
@@ -7142,42 +7760,726 @@
         <v>503</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="B170" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G170" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="H170" s="13">
+        <v>19900.0</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K170" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="B171" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G171" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="H171" s="13">
+        <v>19900.0</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K171" s="13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="B172" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G172" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="H172" s="13">
+        <v>19900.0</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K172" s="13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="B173" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G173" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="H173" s="13">
+        <v>19900.0</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K173" s="13" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="B174" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G174" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="H174" s="13">
+        <v>27300.0</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K174" s="13" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="B175" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G175" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="H175" s="13">
+        <v>27300.0</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K175" s="13" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="B176" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G176" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="H176" s="13">
+        <v>12800.0</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K176" s="13" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="B177" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G177" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="H177" s="13">
+        <v>12800.0</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K177" s="13" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="B178" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G178" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="H178" s="13">
+        <v>12800.0</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K178" s="13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="B179" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G179" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="H179" s="13">
+        <v>12800.0</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K179" s="13" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="B180" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G180" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="H180" s="13">
+        <v>12800.0</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K180" s="13" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="B181" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G181" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="H181" s="13">
+        <v>12800.0</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K181" s="13" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="B182" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G182" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="H182" s="13">
+        <v>16200.0</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K182" s="13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="B183" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G183" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="H183" s="13">
+        <v>16200.0</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K183" s="13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="B184" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G184" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="H184" s="13">
+        <v>17300.0</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K184" s="13" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="B185" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G185" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="H185" s="13">
+        <v>17300.0</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K185" s="13" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="B186" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G186" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="H186" s="13">
+        <v>7800.0</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K186" s="13" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="B187" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G187" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="H187" s="13">
+        <v>11400.0</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K187" s="13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="B188" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G188" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="H188" s="13">
+        <v>7800.0</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K188" s="13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="B189" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G189" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="H189" s="13">
+        <v>11400.0</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K189" s="13" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="B190" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G190" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="H190" s="13">
+        <v>7800.0</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K190" s="13" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="B191" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G191" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="H191" s="13">
+        <v>11400.0</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K191" s="13" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="B192" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G192" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="H192" s="13">
+        <v>7800.0</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K192" s="13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="B193" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G193" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="H193" s="13">
+        <v>11400.0</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K193" s="13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="B194" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G194" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="H194" s="13">
+        <v>7800.0</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K194" s="13" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="B195" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G195" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H195" s="13">
+        <v>11400.0</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K195" s="13" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="B196" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G196" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="H196" s="13">
+        <v>7800.0</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K196" s="13" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="B197" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G197" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="H197" s="13">
+        <v>11400.0</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K197" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="B198" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G198" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="H198" s="13">
+        <v>7800.0</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K198" s="13" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="B199" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G199" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="H199" s="13">
+        <v>11400.0</v>
+      </c>
+      <c r="I199" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K199" s="13" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="B200" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G200" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="H200" s="13">
+        <v>8950.0</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K200" s="13" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="B201" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G201" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="H201" s="13">
+        <v>8950.0</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K201" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="B202" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G202" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="H202" s="13">
+        <v>8950.0</v>
+      </c>
+      <c r="I202" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K202" s="13" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="B203" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G203" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="H203" s="13">
+        <v>7800.0</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K203" s="13" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="B204" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G204" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="H204" s="13">
+        <v>7800.0</v>
+      </c>
+      <c r="I204" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K204" s="13" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="B205" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G205" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="H205" s="13">
+        <v>7800.0</v>
+      </c>
+      <c r="I205" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K205" s="13" t="s">
+        <v>610</v>
+      </c>
+    </row>
     <row r="206" ht="15.75" customHeight="1"/>
     <row r="207" ht="15.75" customHeight="1"/>
     <row r="208" ht="15.75" customHeight="1"/>
@@ -7969,9 +9271,8 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="K1:K38 K40:K997">
+  <conditionalFormatting sqref="K1:K38 K40:K996">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="755">
   <si>
     <t>article</t>
   </si>
@@ -3323,6 +3323,456 @@
 Стиль коллекции:Флэт;
 Материал покрытия:Эмаль;
 Вес (кг):19.7;</t>
+  </si>
+  <si>
+    <t>Carda К-1 Белый софт</t>
+  </si>
+  <si>
+    <t>Ясень белый, Ясень кремовый, Шале мореный, Шале серый, Шале золотой</t>
+  </si>
+  <si>
+    <t>karda-belyi-soft.jpg</t>
+  </si>
+  <si>
+    <t>Цвет: Белый;
+Стиль:Классический;
+Производитель:Carda;
+Стекло\глухое:Глухое;
+Оттенок:Светлый;
+Тип покрытия:Экошпон;
+Материал полотна:МДФ;
+Модель:К;
+Цвет производителя:Белый софт;
+Серия:К;</t>
+  </si>
+  <si>
+    <t>Carda К-2 Белый софт Витраж</t>
+  </si>
+  <si>
+    <t>carda-k-2-belyi-soft-vitrazh.png</t>
+  </si>
+  <si>
+    <t>Цвет: Белый;
+Стиль:Классический;
+Производитель:Carda;
+Стекло\глухое:Стекло;
+Оттенок:Светлый;
+Тип покрытия:Экошпон;
+Материал полотна:МДФ;
+Модель:К;
+Цвет производителя:Белый софт;
+Серия:К;</t>
+  </si>
+  <si>
+    <t>Carda К-20 Ясень белый</t>
+  </si>
+  <si>
+    <t>carda-k-20-zsen-belyi</t>
+  </si>
+  <si>
+    <t>Carda К-21 ясень белый</t>
+  </si>
+  <si>
+    <t>dver-k1-yasen-belyi.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-60 Ясень белый</t>
+  </si>
+  <si>
+    <t>carda-k60-yasen-belyi.png</t>
+  </si>
+  <si>
+    <t>Carda К-70 Ясень кремовый</t>
+  </si>
+  <si>
+    <t>karda-k70-yasen-kremoviy.png</t>
+  </si>
+  <si>
+    <t>Carda К-1 Серый софт</t>
+  </si>
+  <si>
+    <t>Белый софт, Магнолия, Серый софт, Графит софт</t>
+  </si>
+  <si>
+    <t>carda-k1-seryi-soft.png</t>
+  </si>
+  <si>
+    <t>Carda К-2 Серый софт Витраж</t>
+  </si>
+  <si>
+    <t>carda-k2-seryi-soft-vitrazh.png</t>
+  </si>
+  <si>
+    <t>Carda К-20 Серый софт</t>
+  </si>
+  <si>
+    <t>carda-k20-seryi-soft.png</t>
+  </si>
+  <si>
+    <t>Carda К-21 Серый софт</t>
+  </si>
+  <si>
+    <t>carda-k21-seryi-soft.png</t>
+  </si>
+  <si>
+    <t>Carda К-30 Серый софт</t>
+  </si>
+  <si>
+    <t>carda-k30-seryi-soft.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-31 Серый софт Витраж</t>
+  </si>
+  <si>
+    <t>carda-k31-seryi-soft-vitrazh.png</t>
+  </si>
+  <si>
+    <t>Carda К-32 Серый софт Витраж</t>
+  </si>
+  <si>
+    <t>carda-k32-seryi-soft-vitrazh.png</t>
+  </si>
+  <si>
+    <t>Carda К-40 Графит софт</t>
+  </si>
+  <si>
+    <t>carda-k40-grafit-soft.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-41 Серый софт</t>
+  </si>
+  <si>
+    <t>carda-k41-seryi-soft.png</t>
+  </si>
+  <si>
+    <t>Carda К-42 Парящая филенка</t>
+  </si>
+  <si>
+    <t>karda-k42-paryschaya-filenka.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-43 Парящая филенка</t>
+  </si>
+  <si>
+    <t>carda-k43-parayschaya-filenka.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-50 графит софт</t>
+  </si>
+  <si>
+    <t>carda-k50-grafit-soft.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-51 графит софт</t>
+  </si>
+  <si>
+    <t>carda-51-grafit-soft.jpeg</t>
+  </si>
+  <si>
+    <t>Carda К-52 Парящая филенка</t>
+  </si>
+  <si>
+    <t>carda-52-parayschaya-filenka.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-53 Парящая филенка</t>
+  </si>
+  <si>
+    <t>carda-53-paryaschaya-filenka.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-54 Парящая филенка</t>
+  </si>
+  <si>
+    <t>carda-k54-paryaschaya-filenka.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-60</t>
+  </si>
+  <si>
+    <t>carda-k60-gluhoe.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-61</t>
+  </si>
+  <si>
+    <t>carda-k61-2-peremychki.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-70</t>
+  </si>
+  <si>
+    <t>carda-k71.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-80</t>
+  </si>
+  <si>
+    <t>Белый глянец</t>
+  </si>
+  <si>
+    <t>karda-k80-seryi-cvet.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-81</t>
+  </si>
+  <si>
+    <t>carda-k81.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-90</t>
+  </si>
+  <si>
+    <t>carda-k90.jpg</t>
+  </si>
+  <si>
+    <t>Carda К-91</t>
+  </si>
+  <si>
+    <t>carda-k91.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЭТ Молочно-белый, ПЭТ Светло-серый, ПЭТ Серый графит </t>
+  </si>
+  <si>
+    <t>carda-k80.jpg</t>
+  </si>
+  <si>
+    <t>carda-k81-grafit.jpg</t>
+  </si>
+  <si>
+    <t>carda-k90-molochnyi-belyi.jpg</t>
+  </si>
+  <si>
+    <t>carda-k91-svetlo-seryi.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-31 Венге</t>
+  </si>
+  <si>
+    <t>Беленая лиственница, Венге, Капучино, Серый дуб, Пепельный дуб</t>
+  </si>
+  <si>
+    <t>carda-t31-venge.jpeg</t>
+  </si>
+  <si>
+    <t>Carda Т-33 Беленая лиственница</t>
+  </si>
+  <si>
+    <t>carda-t33-belaya-listvenica.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-32 Пепельный дуб</t>
+  </si>
+  <si>
+    <t>carda-t32-pepelnyi-dub.jpeg</t>
+  </si>
+  <si>
+    <t>Carda Т-5 Венге</t>
+  </si>
+  <si>
+    <t>carda-t5-venge.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-11 Капучино</t>
+  </si>
+  <si>
+    <t>carda-t-11-kapuchino.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-20 Шале Серый</t>
+  </si>
+  <si>
+    <t>carda-t-20-shale-seryi.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-18 Серый софт матовое стекло</t>
+  </si>
+  <si>
+    <t>carda-t-18-seryi-soft.png</t>
+  </si>
+  <si>
+    <t>Carda Т-16 Магнолия матовое стекло</t>
+  </si>
+  <si>
+    <t>carda-t16-magnoliya-matovoe-steklo.png</t>
+  </si>
+  <si>
+    <t>Carda Т-15 Капучино</t>
+  </si>
+  <si>
+    <t>carda-t15-kapuchino.png</t>
+  </si>
+  <si>
+    <t>Carda Т-17 Беленая лиственница</t>
+  </si>
+  <si>
+    <t>carda-t17-belaya-listvennoca.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-7 Капучино</t>
+  </si>
+  <si>
+    <t>carda-t7-kapuchino-matovoe-steklo.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-10 Венге</t>
+  </si>
+  <si>
+    <t>carda-t10-venge.jpg</t>
+  </si>
+  <si>
+    <t>carda-t32-pepelnyi-dub.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-9 Капучино</t>
+  </si>
+  <si>
+    <t>carda-t9-kapuchino.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-14 Беленая лиственница матовое стекло</t>
+  </si>
+  <si>
+    <t>carda-t14-belaya-listvenica-matovoe-steklo.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-3 Капучино</t>
+  </si>
+  <si>
+    <t>carda-t3-kapuchino.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-5 Белый софт матовое стекло</t>
+  </si>
+  <si>
+    <t>carda-t5-belyi-soft-matovoe-steklo.png</t>
+  </si>
+  <si>
+    <t>Carda Т-11 Шале Серый</t>
+  </si>
+  <si>
+    <t>carda-t11-yasen-belyi-chernoe-steklo.png</t>
+  </si>
+  <si>
+    <t>Carda Т-20 Пепельный дуб</t>
+  </si>
+  <si>
+    <t>carda-t20-pepelnyi-dub.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-18 Венге</t>
+  </si>
+  <si>
+    <t>carda-t18-venge.png</t>
+  </si>
+  <si>
+    <t>Carda Т-16 Белый софт матовое стекло</t>
+  </si>
+  <si>
+    <t>carda-t16-belyi-soft-matovoe-steklo.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-15 Беленая лиственница</t>
+  </si>
+  <si>
+    <t>carda-t15-belaya-listvenica.png</t>
+  </si>
+  <si>
+    <t>Carda Т-17 Белый софт матовое стекло</t>
+  </si>
+  <si>
+    <t>carda-t17-belyi-soft-matovoe-steklo.png</t>
+  </si>
+  <si>
+    <t>carda-t7-kapuchin.jpg</t>
+  </si>
+  <si>
+    <t>carda-t10-venge-matovoe-steklo.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-32 Беленая лиственица</t>
+  </si>
+  <si>
+    <t>carda-t32-belenaya-listvenica.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-9 Венге</t>
+  </si>
+  <si>
+    <t>carda-t9-venge.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-14 Капучино матовое стекло</t>
+  </si>
+  <si>
+    <t>carda-t14-kapuchino-matovoe-steklo.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т-31 Шале моренный</t>
+  </si>
+  <si>
+    <t>Шале мореный, Шале серый, Шале золотой, Ясень белый</t>
+  </si>
+  <si>
+    <t>carda-t31-shale-morenyi.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т33 Ясень белый</t>
+  </si>
+  <si>
+    <t>carda-t-33-yasen-belyi.webp</t>
+  </si>
+  <si>
+    <t>Carda Т-3 Шале Серый</t>
+  </si>
+  <si>
+    <t>carda-t3-shale-seryi.jpg</t>
+  </si>
+  <si>
+    <t>Carda Т5 Ясень белый</t>
+  </si>
+  <si>
+    <t>carda-t5-yasen-belyi.webp</t>
+  </si>
+  <si>
+    <t>carda-t11-shale-seryi.png</t>
+  </si>
+  <si>
+    <t>carda-t20-shale-seryi.jpg</t>
+  </si>
+  <si>
+    <t>Carda КН-10 Белый софт</t>
+  </si>
+  <si>
+    <t>Белый софт, Серый софт, Магнолия</t>
+  </si>
+  <si>
+    <t>kn-10-belyi-soft-gluhaya.jpg</t>
+  </si>
+  <si>
+    <t>Carda КН-11 Магнолия</t>
+  </si>
+  <si>
+    <t>carda-kn-11-magnoliya-matovoe-steklo.png</t>
+  </si>
+  <si>
+    <t>Carda КН-20 Серый софт</t>
+  </si>
+  <si>
+    <t>carda-kn-20-seryi-soft-gluhaya.png</t>
+  </si>
+  <si>
+    <t>Carda КН-21 Белый софт</t>
+  </si>
+  <si>
+    <t>carda-kn-21-belyi-soft.png</t>
+  </si>
+  <si>
+    <t>Carda КН-30 Магнолия</t>
+  </si>
+  <si>
+    <t>carda-kn-30-magnoliya.png</t>
   </si>
 </sst>
 </file>
@@ -3657,12 +4107,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.88"/>
-    <col customWidth="1" min="2" max="2" width="26.88"/>
+    <col customWidth="1" min="2" max="2" width="36.0"/>
     <col customWidth="1" min="3" max="3" width="30.38"/>
-    <col customWidth="1" min="4" max="4" width="19.25"/>
+    <col customWidth="1" min="4" max="4" width="33.88"/>
     <col customWidth="1" min="5" max="5" width="24.5"/>
-    <col customWidth="1" min="6" max="6" width="21.5"/>
-    <col customWidth="1" min="7" max="7" width="57.88"/>
+    <col customWidth="1" min="6" max="6" width="37.5"/>
+    <col customWidth="1" min="7" max="7" width="39.88"/>
     <col customWidth="1" min="8" max="8" width="19.0"/>
     <col customWidth="1" min="9" max="9" width="33.13"/>
     <col customWidth="1" min="11" max="11" width="86.75"/>
@@ -6411,9 +6861,7 @@
       <c r="H106" s="12">
         <v>4800.0</v>
       </c>
-      <c r="I106" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I106" s="4"/>
       <c r="K106" s="12" t="s">
         <v>317</v>
       </c>
@@ -6432,9 +6880,7 @@
       <c r="H107" s="12">
         <v>4800.0</v>
       </c>
-      <c r="I107" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I107" s="4"/>
       <c r="K107" s="12" t="s">
         <v>320</v>
       </c>
@@ -6454,9 +6900,7 @@
       <c r="H108" s="12">
         <v>4800.0</v>
       </c>
-      <c r="I108" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I108" s="4"/>
       <c r="K108" s="12" t="s">
         <v>323</v>
       </c>
@@ -6476,9 +6920,7 @@
       <c r="H109" s="12">
         <v>4800.0</v>
       </c>
-      <c r="I109" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I109" s="4"/>
       <c r="K109" s="12" t="s">
         <v>326</v>
       </c>
@@ -6498,9 +6940,7 @@
       <c r="H110" s="12">
         <v>5000.0</v>
       </c>
-      <c r="I110" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I110" s="4"/>
       <c r="K110" s="12" t="s">
         <v>328</v>
       </c>
@@ -6520,9 +6960,7 @@
       <c r="H111" s="12">
         <v>5300.0</v>
       </c>
-      <c r="I111" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I111" s="4"/>
       <c r="K111" s="12" t="s">
         <v>331</v>
       </c>
@@ -6542,9 +6980,7 @@
       <c r="H112" s="12">
         <v>5200.0</v>
       </c>
-      <c r="I112" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I112" s="4"/>
       <c r="K112" s="12" t="s">
         <v>334</v>
       </c>
@@ -6564,9 +7000,7 @@
       <c r="H113" s="12">
         <v>4900.0</v>
       </c>
-      <c r="I113" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I113" s="4"/>
       <c r="K113" s="12" t="s">
         <v>337</v>
       </c>
@@ -6586,9 +7020,7 @@
       <c r="H114" s="12">
         <v>4900.0</v>
       </c>
-      <c r="I114" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I114" s="4"/>
       <c r="K114" s="12" t="s">
         <v>340</v>
       </c>
@@ -6608,9 +7040,7 @@
       <c r="H115" s="12">
         <v>5300.0</v>
       </c>
-      <c r="I115" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I115" s="4"/>
       <c r="K115" s="12" t="s">
         <v>343</v>
       </c>
@@ -6630,9 +7060,7 @@
       <c r="H116" s="12">
         <v>5300.0</v>
       </c>
-      <c r="I116" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I116" s="4"/>
       <c r="K116" s="12" t="s">
         <v>346</v>
       </c>
@@ -6652,9 +7080,7 @@
       <c r="H117" s="12">
         <v>5000.0</v>
       </c>
-      <c r="I117" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I117" s="4"/>
       <c r="K117" s="12" t="s">
         <v>349</v>
       </c>
@@ -6674,9 +7100,7 @@
       <c r="H118" s="12">
         <v>5300.0</v>
       </c>
-      <c r="I118" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I118" s="4"/>
       <c r="K118" s="12" t="s">
         <v>352</v>
       </c>
@@ -6696,9 +7120,7 @@
       <c r="H119" s="12">
         <v>5900.0</v>
       </c>
-      <c r="I119" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I119" s="4"/>
       <c r="K119" s="12" t="s">
         <v>355</v>
       </c>
@@ -6718,9 +7140,7 @@
       <c r="H120" s="12">
         <v>5300.0</v>
       </c>
-      <c r="I120" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I120" s="4"/>
       <c r="K120" s="12" t="s">
         <v>358</v>
       </c>
@@ -6740,9 +7160,7 @@
       <c r="H121" s="12">
         <v>5900.0</v>
       </c>
-      <c r="I121" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I121" s="4"/>
       <c r="K121" s="12" t="s">
         <v>361</v>
       </c>
@@ -6762,9 +7180,7 @@
       <c r="H122" s="12">
         <v>5200.0</v>
       </c>
-      <c r="I122" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I122" s="4"/>
       <c r="K122" s="12" t="s">
         <v>364</v>
       </c>
@@ -6784,9 +7200,7 @@
       <c r="H123" s="12">
         <v>5500.0</v>
       </c>
-      <c r="I123" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I123" s="4"/>
       <c r="K123" s="12" t="s">
         <v>367</v>
       </c>
@@ -6806,9 +7220,7 @@
       <c r="H124" s="12">
         <v>4800.0</v>
       </c>
-      <c r="I124" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I124" s="4"/>
       <c r="K124" s="12" t="s">
         <v>370</v>
       </c>
@@ -6828,9 +7240,7 @@
       <c r="H125" s="12">
         <v>4800.0</v>
       </c>
-      <c r="I125" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I125" s="4"/>
       <c r="K125" s="12" t="s">
         <v>373</v>
       </c>
@@ -6850,9 +7260,7 @@
       <c r="H126" s="12">
         <v>5300.0</v>
       </c>
-      <c r="I126" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I126" s="4"/>
       <c r="K126" s="12" t="s">
         <v>376</v>
       </c>
@@ -6872,9 +7280,7 @@
       <c r="H127" s="12">
         <v>5300.0</v>
       </c>
-      <c r="I127" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I127" s="4"/>
       <c r="K127" s="12" t="s">
         <v>379</v>
       </c>
@@ -6893,9 +7299,7 @@
       <c r="H128" s="12">
         <v>5300.0</v>
       </c>
-      <c r="I128" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I128" s="4"/>
       <c r="K128" s="12" t="s">
         <v>382</v>
       </c>
@@ -6915,9 +7319,7 @@
       <c r="H129" s="12">
         <v>5550.0</v>
       </c>
-      <c r="I129" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I129" s="4"/>
       <c r="K129" s="12" t="s">
         <v>385</v>
       </c>
@@ -6937,9 +7339,7 @@
       <c r="H130" s="12">
         <v>3850.0</v>
       </c>
-      <c r="I130" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I130" s="4"/>
       <c r="K130" s="12" t="s">
         <v>388</v>
       </c>
@@ -6959,9 +7359,7 @@
       <c r="H131" s="12">
         <v>5550.0</v>
       </c>
-      <c r="I131" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I131" s="4"/>
       <c r="K131" s="12" t="s">
         <v>391</v>
       </c>
@@ -6981,9 +7379,7 @@
       <c r="H132" s="12">
         <v>3850.0</v>
       </c>
-      <c r="I132" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I132" s="4"/>
       <c r="K132" s="12" t="s">
         <v>394</v>
       </c>
@@ -7003,9 +7399,7 @@
       <c r="H133" s="12">
         <v>6400.0</v>
       </c>
-      <c r="I133" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I133" s="4"/>
       <c r="K133" s="12" t="s">
         <v>397</v>
       </c>
@@ -7025,9 +7419,7 @@
       <c r="H134" s="12">
         <v>5500.0</v>
       </c>
-      <c r="I134" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I134" s="4"/>
       <c r="K134" s="12" t="s">
         <v>400</v>
       </c>
@@ -7047,9 +7439,7 @@
       <c r="H135" s="12">
         <v>11100.0</v>
       </c>
-      <c r="I135" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I135" s="4"/>
       <c r="K135" s="12" t="s">
         <v>403</v>
       </c>
@@ -7069,9 +7459,7 @@
       <c r="H136" s="12">
         <v>9900.0</v>
       </c>
-      <c r="I136" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I136" s="4"/>
       <c r="K136" s="12" t="s">
         <v>406</v>
       </c>
@@ -7091,9 +7479,7 @@
       <c r="H137" s="12">
         <v>12000.0</v>
       </c>
-      <c r="I137" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I137" s="4"/>
       <c r="K137" s="12" t="s">
         <v>409</v>
       </c>
@@ -7113,9 +7499,7 @@
       <c r="H138" s="12">
         <v>12000.0</v>
       </c>
-      <c r="I138" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I138" s="4"/>
       <c r="K138" s="12" t="s">
         <v>412</v>
       </c>
@@ -7135,9 +7519,7 @@
       <c r="H139" s="12">
         <v>12000.0</v>
       </c>
-      <c r="I139" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I139" s="4"/>
       <c r="K139" s="12" t="s">
         <v>415</v>
       </c>
@@ -7156,9 +7538,7 @@
       <c r="H140" s="12">
         <v>12000.0</v>
       </c>
-      <c r="I140" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I140" s="4"/>
       <c r="K140" s="12" t="s">
         <v>418</v>
       </c>
@@ -7178,9 +7558,7 @@
       <c r="H141" s="12">
         <v>12000.0</v>
       </c>
-      <c r="I141" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I141" s="4"/>
       <c r="K141" s="12" t="s">
         <v>421</v>
       </c>
@@ -7200,9 +7578,7 @@
       <c r="H142" s="12">
         <v>8500.0</v>
       </c>
-      <c r="I142" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I142" s="4"/>
       <c r="K142" s="12" t="s">
         <v>424</v>
       </c>
@@ -7222,9 +7598,7 @@
       <c r="H143" s="12">
         <v>8950.0</v>
       </c>
-      <c r="I143" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I143" s="4"/>
       <c r="K143" s="12" t="s">
         <v>427</v>
       </c>
@@ -7244,9 +7618,7 @@
       <c r="H144" s="12">
         <v>9400.0</v>
       </c>
-      <c r="I144" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I144" s="4"/>
       <c r="K144" s="12" t="s">
         <v>430</v>
       </c>
@@ -7266,9 +7638,7 @@
       <c r="H145" s="12">
         <v>8500.0</v>
       </c>
-      <c r="I145" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I145" s="4"/>
       <c r="K145" s="12" t="s">
         <v>433</v>
       </c>
@@ -7288,9 +7658,7 @@
       <c r="H146" s="12">
         <v>8950.0</v>
       </c>
-      <c r="I146" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I146" s="4"/>
       <c r="K146" s="12" t="s">
         <v>435</v>
       </c>
@@ -7310,9 +7678,7 @@
       <c r="H147" s="12">
         <v>8500.0</v>
       </c>
-      <c r="I147" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I147" s="4"/>
       <c r="K147" s="12" t="s">
         <v>438</v>
       </c>
@@ -7331,9 +7697,7 @@
       <c r="H148" s="12">
         <v>8950.0</v>
       </c>
-      <c r="I148" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I148" s="4"/>
       <c r="K148" s="12" t="s">
         <v>440</v>
       </c>
@@ -7352,9 +7716,7 @@
       <c r="H149" s="12">
         <v>9400.0</v>
       </c>
-      <c r="I149" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I149" s="4"/>
       <c r="K149" s="12" t="s">
         <v>443</v>
       </c>
@@ -7373,9 +7735,7 @@
       <c r="H150" s="13">
         <v>7850.0</v>
       </c>
-      <c r="I150" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I150" s="4"/>
       <c r="K150" s="13" t="s">
         <v>446</v>
       </c>
@@ -7393,9 +7753,7 @@
       <c r="H151" s="13">
         <v>7850.0</v>
       </c>
-      <c r="I151" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I151" s="4"/>
       <c r="K151" s="13" t="s">
         <v>449</v>
       </c>
@@ -7413,9 +7771,7 @@
       <c r="H152" s="13">
         <v>7850.0</v>
       </c>
-      <c r="I152" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I152" s="4"/>
       <c r="K152" s="13" t="s">
         <v>452</v>
       </c>
@@ -7433,9 +7789,7 @@
       <c r="H153" s="13">
         <v>10600.0</v>
       </c>
-      <c r="I153" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I153" s="4"/>
       <c r="K153" s="13" t="s">
         <v>455</v>
       </c>
@@ -7453,9 +7807,7 @@
       <c r="H154" s="13">
         <v>10850.0</v>
       </c>
-      <c r="I154" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I154" s="4"/>
       <c r="K154" s="13" t="s">
         <v>458</v>
       </c>
@@ -7473,9 +7825,7 @@
       <c r="H155" s="13">
         <v>10600.0</v>
       </c>
-      <c r="I155" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I155" s="4"/>
       <c r="K155" s="13" t="s">
         <v>461</v>
       </c>
@@ -7493,9 +7843,7 @@
       <c r="H156" s="13">
         <v>10850.0</v>
       </c>
-      <c r="I156" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I156" s="4"/>
       <c r="K156" s="13" t="s">
         <v>464</v>
       </c>
@@ -7513,9 +7861,7 @@
       <c r="H157" s="13">
         <v>13500.0</v>
       </c>
-      <c r="I157" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I157" s="4"/>
       <c r="K157" s="13" t="s">
         <v>467</v>
       </c>
@@ -7533,9 +7879,7 @@
       <c r="H158" s="13">
         <v>16600.0</v>
       </c>
-      <c r="I158" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I158" s="4"/>
       <c r="K158" s="13" t="s">
         <v>470</v>
       </c>
@@ -7553,9 +7897,7 @@
       <c r="H159" s="13">
         <v>7300.0</v>
       </c>
-      <c r="I159" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I159" s="4"/>
       <c r="K159" s="13" t="s">
         <v>473</v>
       </c>
@@ -7573,9 +7915,7 @@
       <c r="H160" s="13">
         <v>7300.0</v>
       </c>
-      <c r="I160" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I160" s="4"/>
       <c r="K160" s="13" t="s">
         <v>476</v>
       </c>
@@ -7593,9 +7933,7 @@
       <c r="H161" s="13">
         <v>12800.0</v>
       </c>
-      <c r="I161" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I161" s="4"/>
       <c r="K161" s="13" t="s">
         <v>479</v>
       </c>
@@ -7613,9 +7951,7 @@
       <c r="H162" s="13">
         <v>12800.0</v>
       </c>
-      <c r="I162" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I162" s="4"/>
       <c r="K162" s="13" t="s">
         <v>482</v>
       </c>
@@ -7633,9 +7969,7 @@
       <c r="H163" s="13">
         <v>13650.0</v>
       </c>
-      <c r="I163" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I163" s="4"/>
       <c r="K163" s="13" t="s">
         <v>485</v>
       </c>
@@ -7653,9 +7987,7 @@
       <c r="H164" s="13">
         <v>13650.0</v>
       </c>
-      <c r="I164" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I164" s="4"/>
       <c r="K164" s="13" t="s">
         <v>488</v>
       </c>
@@ -7673,9 +8005,7 @@
       <c r="H165" s="13">
         <v>15600.0</v>
       </c>
-      <c r="I165" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I165" s="4"/>
       <c r="K165" s="13" t="s">
         <v>491</v>
       </c>
@@ -7693,9 +8023,7 @@
       <c r="H166" s="13">
         <v>13650.0</v>
       </c>
-      <c r="I166" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I166" s="4"/>
       <c r="K166" s="13" t="s">
         <v>494</v>
       </c>
@@ -7713,9 +8041,7 @@
       <c r="H167" s="13">
         <v>15600.0</v>
       </c>
-      <c r="I167" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I167" s="4"/>
       <c r="K167" s="13" t="s">
         <v>497</v>
       </c>
@@ -7733,9 +8059,7 @@
       <c r="H168" s="13">
         <v>15600.0</v>
       </c>
-      <c r="I168" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I168" s="4"/>
       <c r="K168" s="13" t="s">
         <v>500</v>
       </c>
@@ -7753,9 +8077,7 @@
       <c r="H169" s="13">
         <v>13650.0</v>
       </c>
-      <c r="I169" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I169" s="4"/>
       <c r="K169" s="13" t="s">
         <v>503</v>
       </c>
@@ -7773,9 +8095,7 @@
       <c r="H170" s="13">
         <v>19900.0</v>
       </c>
-      <c r="I170" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I170" s="4"/>
       <c r="K170" s="13" t="s">
         <v>506</v>
       </c>
@@ -7793,9 +8113,7 @@
       <c r="H171" s="13">
         <v>19900.0</v>
       </c>
-      <c r="I171" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I171" s="4"/>
       <c r="K171" s="13" t="s">
         <v>509</v>
       </c>
@@ -7813,9 +8131,7 @@
       <c r="H172" s="13">
         <v>19900.0</v>
       </c>
-      <c r="I172" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I172" s="4"/>
       <c r="K172" s="13" t="s">
         <v>512</v>
       </c>
@@ -7833,9 +8149,7 @@
       <c r="H173" s="13">
         <v>19900.0</v>
       </c>
-      <c r="I173" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I173" s="4"/>
       <c r="K173" s="13" t="s">
         <v>515</v>
       </c>
@@ -7853,9 +8167,7 @@
       <c r="H174" s="13">
         <v>27300.0</v>
       </c>
-      <c r="I174" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I174" s="4"/>
       <c r="K174" s="13" t="s">
         <v>518</v>
       </c>
@@ -7873,9 +8185,7 @@
       <c r="H175" s="13">
         <v>27300.0</v>
       </c>
-      <c r="I175" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I175" s="4"/>
       <c r="K175" s="13" t="s">
         <v>521</v>
       </c>
@@ -7893,9 +8203,7 @@
       <c r="H176" s="13">
         <v>12800.0</v>
       </c>
-      <c r="I176" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I176" s="4"/>
       <c r="K176" s="13" t="s">
         <v>524</v>
       </c>
@@ -7913,9 +8221,7 @@
       <c r="H177" s="13">
         <v>12800.0</v>
       </c>
-      <c r="I177" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I177" s="4"/>
       <c r="K177" s="13" t="s">
         <v>527</v>
       </c>
@@ -7933,9 +8239,7 @@
       <c r="H178" s="13">
         <v>12800.0</v>
       </c>
-      <c r="I178" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I178" s="4"/>
       <c r="K178" s="13" t="s">
         <v>530</v>
       </c>
@@ -7953,9 +8257,7 @@
       <c r="H179" s="13">
         <v>12800.0</v>
       </c>
-      <c r="I179" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I179" s="4"/>
       <c r="K179" s="13" t="s">
         <v>533</v>
       </c>
@@ -7973,9 +8275,7 @@
       <c r="H180" s="13">
         <v>12800.0</v>
       </c>
-      <c r="I180" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I180" s="4"/>
       <c r="K180" s="13" t="s">
         <v>536</v>
       </c>
@@ -7993,9 +8293,7 @@
       <c r="H181" s="13">
         <v>12800.0</v>
       </c>
-      <c r="I181" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I181" s="4"/>
       <c r="K181" s="13" t="s">
         <v>539</v>
       </c>
@@ -8013,9 +8311,7 @@
       <c r="H182" s="13">
         <v>16200.0</v>
       </c>
-      <c r="I182" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I182" s="4"/>
       <c r="K182" s="13" t="s">
         <v>542</v>
       </c>
@@ -8033,9 +8329,7 @@
       <c r="H183" s="13">
         <v>16200.0</v>
       </c>
-      <c r="I183" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I183" s="4"/>
       <c r="K183" s="13" t="s">
         <v>545</v>
       </c>
@@ -8053,9 +8347,7 @@
       <c r="H184" s="13">
         <v>17300.0</v>
       </c>
-      <c r="I184" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I184" s="4"/>
       <c r="K184" s="13" t="s">
         <v>548</v>
       </c>
@@ -8073,9 +8365,7 @@
       <c r="H185" s="13">
         <v>17300.0</v>
       </c>
-      <c r="I185" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I185" s="4"/>
       <c r="K185" s="13" t="s">
         <v>551</v>
       </c>
@@ -8093,9 +8383,7 @@
       <c r="H186" s="13">
         <v>7800.0</v>
       </c>
-      <c r="I186" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I186" s="4"/>
       <c r="K186" s="13" t="s">
         <v>554</v>
       </c>
@@ -8113,9 +8401,7 @@
       <c r="H187" s="13">
         <v>11400.0</v>
       </c>
-      <c r="I187" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I187" s="4"/>
       <c r="K187" s="13" t="s">
         <v>557</v>
       </c>
@@ -8133,9 +8419,7 @@
       <c r="H188" s="13">
         <v>7800.0</v>
       </c>
-      <c r="I188" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I188" s="4"/>
       <c r="K188" s="13" t="s">
         <v>560</v>
       </c>
@@ -8153,9 +8437,7 @@
       <c r="H189" s="13">
         <v>11400.0</v>
       </c>
-      <c r="I189" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I189" s="4"/>
       <c r="K189" s="13" t="s">
         <v>563</v>
       </c>
@@ -8173,9 +8455,7 @@
       <c r="H190" s="13">
         <v>7800.0</v>
       </c>
-      <c r="I190" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I190" s="4"/>
       <c r="K190" s="13" t="s">
         <v>566</v>
       </c>
@@ -8193,9 +8473,7 @@
       <c r="H191" s="13">
         <v>11400.0</v>
       </c>
-      <c r="I191" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I191" s="4"/>
       <c r="K191" s="13" t="s">
         <v>568</v>
       </c>
@@ -8213,9 +8491,7 @@
       <c r="H192" s="13">
         <v>7800.0</v>
       </c>
-      <c r="I192" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I192" s="4"/>
       <c r="K192" s="13" t="s">
         <v>571</v>
       </c>
@@ -8233,9 +8509,7 @@
       <c r="H193" s="13">
         <v>11400.0</v>
       </c>
-      <c r="I193" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I193" s="4"/>
       <c r="K193" s="13" t="s">
         <v>574</v>
       </c>
@@ -8253,9 +8527,7 @@
       <c r="H194" s="13">
         <v>7800.0</v>
       </c>
-      <c r="I194" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I194" s="4"/>
       <c r="K194" s="13" t="s">
         <v>577</v>
       </c>
@@ -8273,9 +8545,7 @@
       <c r="H195" s="13">
         <v>11400.0</v>
       </c>
-      <c r="I195" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I195" s="4"/>
       <c r="K195" s="13" t="s">
         <v>580</v>
       </c>
@@ -8293,9 +8563,7 @@
       <c r="H196" s="13">
         <v>7800.0</v>
       </c>
-      <c r="I196" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I196" s="4"/>
       <c r="K196" s="13" t="s">
         <v>583</v>
       </c>
@@ -8313,9 +8581,7 @@
       <c r="H197" s="13">
         <v>11400.0</v>
       </c>
-      <c r="I197" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I197" s="4"/>
       <c r="K197" s="13" t="s">
         <v>586</v>
       </c>
@@ -8333,9 +8599,7 @@
       <c r="H198" s="13">
         <v>7800.0</v>
       </c>
-      <c r="I198" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I198" s="4"/>
       <c r="K198" s="13" t="s">
         <v>589</v>
       </c>
@@ -8353,9 +8617,7 @@
       <c r="H199" s="13">
         <v>11400.0</v>
       </c>
-      <c r="I199" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I199" s="4"/>
       <c r="K199" s="13" t="s">
         <v>592</v>
       </c>
@@ -8373,9 +8635,7 @@
       <c r="H200" s="13">
         <v>8950.0</v>
       </c>
-      <c r="I200" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I200" s="4"/>
       <c r="K200" s="13" t="s">
         <v>595</v>
       </c>
@@ -8393,9 +8653,7 @@
       <c r="H201" s="13">
         <v>8950.0</v>
       </c>
-      <c r="I201" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I201" s="4"/>
       <c r="K201" s="13" t="s">
         <v>598</v>
       </c>
@@ -8413,9 +8671,7 @@
       <c r="H202" s="13">
         <v>8950.0</v>
       </c>
-      <c r="I202" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I202" s="4"/>
       <c r="K202" s="13" t="s">
         <v>601</v>
       </c>
@@ -8433,9 +8689,7 @@
       <c r="H203" s="13">
         <v>7800.0</v>
       </c>
-      <c r="I203" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I203" s="4"/>
       <c r="K203" s="13" t="s">
         <v>604</v>
       </c>
@@ -8453,9 +8707,7 @@
       <c r="H204" s="13">
         <v>7800.0</v>
       </c>
-      <c r="I204" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I204" s="4"/>
       <c r="K204" s="13" t="s">
         <v>607</v>
       </c>
@@ -8473,85 +8725,1241 @@
       <c r="H205" s="13">
         <v>7800.0</v>
       </c>
-      <c r="I205" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="I205" s="4"/>
       <c r="K205" s="13" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="B206" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F206" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="G206" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="H206" s="13">
+        <v>7400.0</v>
+      </c>
+      <c r="K206" s="13" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="B207" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F207" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="G207" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="H207" s="13">
+        <v>7400.0</v>
+      </c>
+      <c r="K207" s="13" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="B208" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F208" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="G208" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="H208" s="13">
+        <v>9310.0</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="B209" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="G209" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="H209" s="13">
+        <v>9310.0</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="B210" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F210" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="G210" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="H210" s="13">
+        <v>7170.0</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="B211" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F211" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="G211" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="H211" s="13">
+        <v>7400.0</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="B212" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F212" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G212" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="H212" s="13">
+        <v>8330.0</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="B213" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F213" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G213" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="H213" s="13">
+        <v>8330.0</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="B214" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F214" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G214" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="H214" s="13">
+        <v>9530.0</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="B215" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F215" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G215" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="H215" s="13">
+        <v>9530.0</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="B216" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F216" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G216" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="H216" s="13">
+        <v>9310.0</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="B217" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F217" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G217" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="H217" s="13">
+        <v>9810.0</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="B218" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F218" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G218" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="H218" s="13">
+        <v>10950.0</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="B219" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F219" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G219" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="H219" s="13">
+        <v>9240.0</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="B220" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F220" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G220" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="H220" s="13">
+        <v>9240.0</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="B221" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F221" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G221" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="H221" s="13">
+        <v>10490.0</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="B222" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F222" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G222" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="H222" s="13">
+        <v>10490.0</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="B223" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F223" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G223" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="H223" s="13">
+        <v>9130.0</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="B224" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F224" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G224" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="H224" s="13">
+        <v>9240.0</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="B225" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F225" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G225" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="H225" s="13">
+        <v>10950.0</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="B226" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F226" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G226" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="H226" s="13">
+        <v>10950.0</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="B227" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F227" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G227" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="H227" s="13">
+        <v>10950.0</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="B228" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F228" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G228" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="H228" s="13">
+        <v>8330.0</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="B229" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F229" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G229" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="H229" s="13">
+        <v>8130.0</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="B230" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F230" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G230" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="H230" s="13">
+        <v>8510.0</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="B231" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F231" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="G231" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="H231" s="13">
+        <v>10450.0</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="B232" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F232" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="G232" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="H232" s="13">
+        <v>10660.0</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="B233" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F233" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="G233" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="H233" s="13">
+        <v>10340.0</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="B234" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F234" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="G234" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="H234" s="13">
+        <v>10520.0</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="B235" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F235" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="G235" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="H235" s="13">
+        <v>9750.0</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="B236" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F236" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="G236" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="H236" s="13">
+        <v>9950.0</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="B237" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F237" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="G237" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="H237" s="13">
+        <v>9560.0</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="B238" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F238" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="G238" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="H238" s="13">
+        <v>9750.0</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="B239" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F239" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G239" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="H239" s="13">
+        <v>4700.0</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="B240" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F240" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G240" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="H240" s="13">
+        <v>4270.0</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="B241" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F241" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G241" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="H241" s="13">
+        <v>4380.0</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="B242" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F242" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G242" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="H242" s="13">
+        <v>4450.0</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="B243" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F243" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G243" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="H243" s="13">
+        <v>4820.0</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="B244" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F244" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G244" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="H244" s="13">
+        <v>4570.0</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="B245" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F245" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G245" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="H245" s="13">
+        <v>4570.0</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="B246" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F246" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G246" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="H246" s="13">
+        <v>4570.0</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="B247" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F247" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G247" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="H247" s="13">
+        <v>4570.0</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="B248" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F248" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G248" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="H248" s="13">
+        <v>4670.0</v>
+      </c>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="B249" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F249" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G249" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="H249" s="13">
+        <v>4670.0</v>
+      </c>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="B250" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F250" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G250" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="H250" s="13">
+        <v>4910.0</v>
+      </c>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="B251" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F251" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G251" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="H251" s="13">
+        <v>5020.0</v>
+      </c>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="B252" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F252" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G252" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="H252" s="13">
+        <v>4890.0</v>
+      </c>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="B253" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F253" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G253" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="H253" s="13">
+        <v>5220.0</v>
+      </c>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="B254" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F254" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G254" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="H254" s="13">
+        <v>4570.0</v>
+      </c>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="B255" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F255" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G255" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="H255" s="13">
+        <v>4640.0</v>
+      </c>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="B256" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F256" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G256" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="H256" s="13">
+        <v>5020.0</v>
+      </c>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="B257" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F257" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G257" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="H257" s="13">
+        <v>4770.0</v>
+      </c>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="B258" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F258" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G258" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="H258" s="13">
+        <v>4770.0</v>
+      </c>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="B259" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F259" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G259" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="H259" s="13">
+        <v>4770.0</v>
+      </c>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="B260" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F260" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G260" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="H260" s="13">
+        <v>4770.0</v>
+      </c>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="B261" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F261" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G261" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="H261" s="13">
+        <v>4870.0</v>
+      </c>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="B262" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F262" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G262" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="H262" s="13">
+        <v>4870.0</v>
+      </c>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="B263" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F263" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G263" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="H263" s="13">
+        <v>5110.0</v>
+      </c>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="B264" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F264" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G264" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="H264" s="13">
+        <v>5420.0</v>
+      </c>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="B265" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F265" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G265" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H265" s="13">
+        <v>5070.0</v>
+      </c>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="B266" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F266" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G266" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="H266" s="13">
+        <v>5420.0</v>
+      </c>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="B267" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F267" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="G267" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="H267" s="13">
+        <v>4910.0</v>
+      </c>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="B268" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F268" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="G268" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="H268" s="13">
+        <v>4570.0</v>
+      </c>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="B269" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F269" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="G269" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="H269" s="13">
+        <v>4570.0</v>
+      </c>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="B270" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F270" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="G270" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="H270" s="13">
+        <v>4770.0</v>
+      </c>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="B271" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F271" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="G271" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="H271" s="13">
+        <v>5020.0</v>
+      </c>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="B272" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F272" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="G272" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="H272" s="13">
+        <v>4770.0</v>
+      </c>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="B273" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F273" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="G273" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="H273" s="13">
+        <v>9160.0</v>
+      </c>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="B274" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F274" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="G274" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="H274" s="13">
+        <v>9390.0</v>
+      </c>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="B275" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F275" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="G275" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="H275" s="13">
+        <v>9260.0</v>
+      </c>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="B276" s="13" t="s">
+        <v>751</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F276" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="G276" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="H276" s="13">
+        <v>9490.0</v>
+      </c>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="B277" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F277" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="G277" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="H277" s="13">
+        <v>9030.0</v>
+      </c>
+    </row>
     <row r="278" ht="15.75" customHeight="1"/>
     <row r="279" ht="15.75" customHeight="1"/>
     <row r="280" ht="15.75" customHeight="1"/>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="911">
   <si>
     <t>article</t>
   </si>
@@ -3773,6 +3773,491 @@
   </si>
   <si>
     <t>carda-kn-30-magnoliya.png</t>
+  </si>
+  <si>
+    <t>Л-3 Карда</t>
+  </si>
+  <si>
+    <t>Беленая лиственница</t>
+  </si>
+  <si>
+    <t>carda-l-3-listvenica.jpg</t>
+  </si>
+  <si>
+    <t>Л-33 Карда</t>
+  </si>
+  <si>
+    <t>carda-l33-listvenica.jpg</t>
+  </si>
+  <si>
+    <t>Л-20 Карда черное стекло</t>
+  </si>
+  <si>
+    <t>carda-l20-chernoe-steklo.jpg</t>
+  </si>
+  <si>
+    <t>Л-14 Карда матовое стекло</t>
+  </si>
+  <si>
+    <t>carda-l14-matovoe-steklo.jpg</t>
+  </si>
+  <si>
+    <t>Л-14 Карда черное стекло</t>
+  </si>
+  <si>
+    <t>carda-l14-chernoe-stejlo.jpg</t>
+  </si>
+  <si>
+    <t>ТЛ-33 Карда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Беленая лиственница, Венге </t>
+  </si>
+  <si>
+    <t>carda-tl-33-gluhoe.jpg</t>
+  </si>
+  <si>
+    <t>ТЛ-20 Карда черное стекло</t>
+  </si>
+  <si>
+    <t>carda-tl20-venge.jpg</t>
+  </si>
+  <si>
+    <t>ТЛ-7 Карда матовое стекло</t>
+  </si>
+  <si>
+    <t>carda-tl7-venger.jpg</t>
+  </si>
+  <si>
+    <t>ТЛ-33 Карда глухое</t>
+  </si>
+  <si>
+    <t>Бетон снежный, Бетон серый, Бетон графит</t>
+  </si>
+  <si>
+    <t>carda-tl-33-beton-seryi.jpg</t>
+  </si>
+  <si>
+    <t>ТЛ-5 Карда бетон графит</t>
+  </si>
+  <si>
+    <t>carda-tl-5-grafit.jpg</t>
+  </si>
+  <si>
+    <t>ТЛ-3 Карда бетон серый</t>
+  </si>
+  <si>
+    <t>carda-tl-3-seryi-beton.jpg</t>
+  </si>
+  <si>
+    <t>R-1 Карда дуб артика</t>
+  </si>
+  <si>
+    <t>Ясень белый;
+Ясень кремовый;Дуб арктика;
+Дуб пацифика;
+Дуб грей;
+Небраска белая;
+Небраска серая;
+Небраска песочная;</t>
+  </si>
+  <si>
+    <t>carda-r1-dub-artika.jpg</t>
+  </si>
+  <si>
+    <t>R-2 Карда дуб пацифика</t>
+  </si>
+  <si>
+    <t>carda-r2-dub-pacifika.jpg</t>
+  </si>
+  <si>
+    <t>R-3 Карда дуб остин</t>
+  </si>
+  <si>
+    <t>carda-r3-dub-ostin.jpg</t>
+  </si>
+  <si>
+    <t>R-4 Карда дуб грей</t>
+  </si>
+  <si>
+    <t>carda-r4-dub-grey-chernyi-molding.jpg</t>
+  </si>
+  <si>
+    <t>R-5 Карда белый ясень</t>
+  </si>
+  <si>
+    <t>carda-r5-belyi-yasen.jpg</t>
+  </si>
+  <si>
+    <t>R-1 Карда мокко софт</t>
+  </si>
+  <si>
+    <t>Мокко софт;
+Белый софт;
+Графит софт;
+Серый софт;</t>
+  </si>
+  <si>
+    <t>carda-r1-mokko-soft.jpg</t>
+  </si>
+  <si>
+    <t>R-2 Карда черное стекло</t>
+  </si>
+  <si>
+    <t>carda-r2-chernoe-steklo.jpg</t>
+  </si>
+  <si>
+    <t>R-6 Карда</t>
+  </si>
+  <si>
+    <t>Белый софт, Серый софт</t>
+  </si>
+  <si>
+    <t>carda-r6-belyi-soft.jpg</t>
+  </si>
+  <si>
+    <t>R-1 Карда</t>
+  </si>
+  <si>
+    <t>Белый глянец;
+ПЭТ Молочно-белый;
+ПЭТ Светло-серый;
+ПЭТ Серый графит;</t>
+  </si>
+  <si>
+    <t>pet-molochno-belyi.jpg</t>
+  </si>
+  <si>
+    <t>R-2 Карда</t>
+  </si>
+  <si>
+    <t>carda-r2-pet-molochnyi-chernoe-steklo.jpg</t>
+  </si>
+  <si>
+    <t>R-1 Карда вуд беж</t>
+  </si>
+  <si>
+    <t>Вуд Беж;Вуд Грей;</t>
+  </si>
+  <si>
+    <t>carda-r1-wood-bezh.jpg</t>
+  </si>
+  <si>
+    <t>R-2 Карда вуд грей</t>
+  </si>
+  <si>
+    <t>carda-r2-wood-grey.jpg</t>
+  </si>
+  <si>
+    <t>R-1 Карда дуб натуральный</t>
+  </si>
+  <si>
+    <t>Дуб натуральный;Орех макадамия;Дуб альпийский;</t>
+  </si>
+  <si>
+    <t>carda-r1-dub-naturalnyi.jpg</t>
+  </si>
+  <si>
+    <t>R-2 Карда орех макодамия</t>
+  </si>
+  <si>
+    <t>carda-r2-oreh-makodamiya.jpg</t>
+  </si>
+  <si>
+    <t>R-1 Карда дуб остин</t>
+  </si>
+  <si>
+    <t>Дуб Остин</t>
+  </si>
+  <si>
+    <t>carda-r1-dub-ostin.jpg</t>
+  </si>
+  <si>
+    <t>R-2 Карда дуб остин</t>
+  </si>
+  <si>
+    <t>carda-r2-dub-ostin-bezevoe-steklo.jpg</t>
+  </si>
+  <si>
+    <t>carda-r3-dub-ostin-steklo-bezhevoe.jpg</t>
+  </si>
+  <si>
+    <t>R-1 белый софт</t>
+  </si>
+  <si>
+    <t>Белый софт</t>
+  </si>
+  <si>
+    <t>carda-r1-belyi-soft.jpg</t>
+  </si>
+  <si>
+    <t>R-2 белый софт</t>
+  </si>
+  <si>
+    <t>carda-r2-belyi-soft.jpg</t>
+  </si>
+  <si>
+    <t>R-1 белый глянец</t>
+  </si>
+  <si>
+    <t>carda-r1-belyi-glynec.jpg</t>
+  </si>
+  <si>
+    <t>R-2 белый глянец</t>
+  </si>
+  <si>
+    <t>carda-r2-belyi-glynec.jpg</t>
+  </si>
+  <si>
+    <t>RS-1 Карда дуб грей</t>
+  </si>
+  <si>
+    <t>Белый софт;Серый софт;</t>
+  </si>
+  <si>
+    <t>carda-rs-1-dub-grey-molding-serebro.jpg</t>
+  </si>
+  <si>
+    <t>RS-1 Карда дуб остин</t>
+  </si>
+  <si>
+    <t>carda-rs-1-dub-ostin-molding-serebro.jpg</t>
+  </si>
+  <si>
+    <t>RS-2 Карда дуб грей</t>
+  </si>
+  <si>
+    <t>carda-rs2-dub-grey-molding-serebro.jpg</t>
+  </si>
+  <si>
+    <t>Carda RS-2 дуб остин</t>
+  </si>
+  <si>
+    <t>carda-rs-2-belyi-soft-deb-ostin.jpg</t>
+  </si>
+  <si>
+    <t>Carda Е-1 глухая</t>
+  </si>
+  <si>
+    <t>carda-e-1-belyi-soft-gluhaya.png</t>
+  </si>
+  <si>
+    <t>Carda Е-1 Серый софт глухая</t>
+  </si>
+  <si>
+    <t>carda-e1-seryi-soft-molding-chernyi.png</t>
+  </si>
+  <si>
+    <t>Carda Е-1 Белый софт глухая</t>
+  </si>
+  <si>
+    <t>Бетон серый, Бетон снежный, Бетон графит</t>
+  </si>
+  <si>
+    <t>carda-e-1-seryi-soft-gluhaya.png</t>
+  </si>
+  <si>
+    <t>Carda Е-3 Бетон серый черное стекло</t>
+  </si>
+  <si>
+    <t>carda-e-3-beton-seryi-chernoe-steklo.png</t>
+  </si>
+  <si>
+    <t>Carda Е-3 Белый софт черное стекло</t>
+  </si>
+  <si>
+    <t>carda-e-3-belyi-soft-chernoe-steklo.png</t>
+  </si>
+  <si>
+    <t>Carda Е-5 Белый софт</t>
+  </si>
+  <si>
+    <t>carda-e-5-belyi-soft-gluhaya.png</t>
+  </si>
+  <si>
+    <t>Carda Е-5 Бетон снежный</t>
+  </si>
+  <si>
+    <t>carda-e5-beton-snezhnyi-gluhaya.png</t>
+  </si>
+  <si>
+    <t>П-1 Карда беленая лиственница</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Беленая лиственница, Венге, Капучино, Серый дуб, Пепельный дуб </t>
+  </si>
+  <si>
+    <t>carda-p1-belaya-listvenica.jpg</t>
+  </si>
+  <si>
+    <t>П-5 Карда венге(белое стекло)</t>
+  </si>
+  <si>
+    <t>carda-p-5-venge-steklo-beloe.jpg</t>
+  </si>
+  <si>
+    <t>П-3 Карда пепелный дуб</t>
+  </si>
+  <si>
+    <t>carda-p3-pepelnyi-dom.jpg</t>
+  </si>
+  <si>
+    <t>П-9 Карда серый дуб</t>
+  </si>
+  <si>
+    <t>carda-p9-seryi-dub.jpg</t>
+  </si>
+  <si>
+    <t>П-10 Карда капучино</t>
+  </si>
+  <si>
+    <t>carda-p10-kapuchino.jpg</t>
+  </si>
+  <si>
+    <t>П-12 Карда пепельный дуб</t>
+  </si>
+  <si>
+    <t>carda-p12-pepelnyi-dub.jpg</t>
+  </si>
+  <si>
+    <t>П-1 Карда бетон снежный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бетон снежный, Бетон серый, Бетон графит, Шале мореный, Шале серый, Шале золотой </t>
+  </si>
+  <si>
+    <t>carda-p1-beton-snezhnyi.jpg</t>
+  </si>
+  <si>
+    <t>П-6 Карда бетон серый</t>
+  </si>
+  <si>
+    <t>carda-p6-beton-seryi.jpg</t>
+  </si>
+  <si>
+    <t>П-4 Карда бетон графит</t>
+  </si>
+  <si>
+    <t>carda-p4-beton-grafit.jpg</t>
+  </si>
+  <si>
+    <t>П-9 Карда шале мореный</t>
+  </si>
+  <si>
+    <t>carda-p9-shale-morenyi.jpg</t>
+  </si>
+  <si>
+    <t>П-10 Карда шале серый</t>
+  </si>
+  <si>
+    <t>carda-p10-shale-seryi.jpg</t>
+  </si>
+  <si>
+    <t>П-12 Карда шале золотой</t>
+  </si>
+  <si>
+    <t>carda-p10-shale-zolotoi.jpg</t>
+  </si>
+  <si>
+    <t>П-1 Карда серый софт</t>
+  </si>
+  <si>
+    <t>Мокко софт;Белый софт;Серый софт;Графит софт;Магнолия;</t>
+  </si>
+  <si>
+    <t>carda-p1-seryi-soft.jpg</t>
+  </si>
+  <si>
+    <t>П-5 Карда белый софт</t>
+  </si>
+  <si>
+    <t>carda-p5-belyi-soft.jpg</t>
+  </si>
+  <si>
+    <t>П-4 Карда магнолия</t>
+  </si>
+  <si>
+    <t>carda-p4-magnoliya-soft.jpg</t>
+  </si>
+  <si>
+    <t>П-9 Карда серый софт</t>
+  </si>
+  <si>
+    <t>carda-p9-seryi-soft.jpg</t>
+  </si>
+  <si>
+    <t>П-10 Карда белый софт</t>
+  </si>
+  <si>
+    <t>carda-p10-belyi-soft.jpg</t>
+  </si>
+  <si>
+    <t>П-12 Карда серый софт</t>
+  </si>
+  <si>
+    <t>carda-p12-seryi-soft.jpg</t>
+  </si>
+  <si>
+    <t>П-1 Карда белый глянец</t>
+  </si>
+  <si>
+    <t>carda-p1-belyi-glynec.jpg</t>
+  </si>
+  <si>
+    <t>П-3 Карда белый глянец</t>
+  </si>
+  <si>
+    <t>carda-p3-belyi-glynec.jpg</t>
+  </si>
+  <si>
+    <t>П-5 Карда белый глянец</t>
+  </si>
+  <si>
+    <t>carda-p5-belyi-glynec.jpg</t>
+  </si>
+  <si>
+    <t>П-1 Карда вуд беж</t>
+  </si>
+  <si>
+    <t>carda-p1-wood-bezh.jpg</t>
+  </si>
+  <si>
+    <t>П-3 Карда вуд грей</t>
+  </si>
+  <si>
+    <t>carda-p3-wood-grey.jpg</t>
+  </si>
+  <si>
+    <t>П-5 Карда вуд беж</t>
+  </si>
+  <si>
+    <t>carda-p5-wood-bezh.jpg</t>
+  </si>
+  <si>
+    <t>П-1 Карда орех макадамия</t>
+  </si>
+  <si>
+    <t>Дуб натуральный;
+Орех макадамия;
+Дуб альпийский;
+ПЭТ Молочно-белый;
+ПЭТ Светло-серый;
+ПЭТ Серый графит;</t>
+  </si>
+  <si>
+    <t>carda-p1-makadamiya.jpg</t>
+  </si>
+  <si>
+    <t>П-3 Карда натуральный дуб</t>
+  </si>
+  <si>
+    <t>carda-p3-naturalnyi-dub.jpg</t>
+  </si>
+  <si>
+    <t>П-5 Карда серый графит</t>
+  </si>
+  <si>
+    <t>carda-p5-seryi-grafit.jpg</t>
   </si>
 </sst>
 </file>
@@ -4109,10 +4594,10 @@
     <col customWidth="1" min="1" max="1" width="14.88"/>
     <col customWidth="1" min="2" max="2" width="36.0"/>
     <col customWidth="1" min="3" max="3" width="30.38"/>
-    <col customWidth="1" min="4" max="4" width="33.88"/>
-    <col customWidth="1" min="5" max="5" width="24.5"/>
+    <col customWidth="1" min="4" max="4" width="13.13"/>
+    <col customWidth="1" min="5" max="5" width="13.5"/>
     <col customWidth="1" min="6" max="6" width="37.5"/>
-    <col customWidth="1" min="7" max="7" width="39.88"/>
+    <col customWidth="1" min="7" max="7" width="32.88"/>
     <col customWidth="1" min="8" max="8" width="19.0"/>
     <col customWidth="1" min="9" max="9" width="33.13"/>
     <col customWidth="1" min="11" max="11" width="86.75"/>
@@ -9960,77 +10445,1213 @@
         <v>9030.0</v>
       </c>
     </row>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="B278" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F278" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="G278" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="H278" s="13">
+        <v>4810.0</v>
+      </c>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="B279" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F279" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="G279" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="H279" s="13">
+        <v>4590.0</v>
+      </c>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="B280" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F280" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="G280" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="H280" s="13">
+        <v>5010.0</v>
+      </c>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="B281" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F281" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="G281" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="H281" s="13">
+        <v>5440.0</v>
+      </c>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="B282" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F282" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="G282" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="H282" s="13">
+        <v>5440.0</v>
+      </c>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="B283" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F283" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="G283" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="H283" s="13">
+        <v>4940.0</v>
+      </c>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="B284" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F284" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="G284" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="H284" s="13">
+        <v>5620.0</v>
+      </c>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="B285" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F285" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="G285" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="H285" s="13">
+        <v>5380.0</v>
+      </c>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="B286" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="C286" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F286" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="G286" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="H286" s="13">
+        <v>5050.0</v>
+      </c>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="B287" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="C287" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F287" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="G287" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="H287" s="13">
+        <v>5490.0</v>
+      </c>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="B288" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F288" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="G288" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="H288" s="13">
+        <v>5740.0</v>
+      </c>
+    </row>
+    <row r="289" ht="17.25" customHeight="1">
+      <c r="B289" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F289" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="G289" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="H289" s="13">
+        <v>5870.0</v>
+      </c>
+    </row>
+    <row r="290" ht="15.0" customHeight="1">
+      <c r="B290" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F290" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="G290" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="H290" s="13">
+        <v>7900.0</v>
+      </c>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="B291" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F291" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="G291" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="H291" s="13">
+        <v>8910.0</v>
+      </c>
+    </row>
+    <row r="292" ht="14.25" customHeight="1">
+      <c r="B292" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F292" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="G292" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="H292" s="13">
+        <v>6140.0</v>
+      </c>
+    </row>
+    <row r="293" ht="12.75" customHeight="1">
+      <c r="B293" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F293" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="G293" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="H293" s="13">
+        <v>6140.0</v>
+      </c>
+    </row>
+    <row r="294" ht="14.25" customHeight="1">
+      <c r="B294" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F294" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="G294" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="H294" s="13">
+        <v>7460.0</v>
+      </c>
+    </row>
+    <row r="295" ht="12.0" customHeight="1">
+      <c r="B295" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F295" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="G295" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="H295" s="13">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="B296" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="C296" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F296" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G296" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="H296" s="13">
+        <v>5880.0</v>
+      </c>
+    </row>
+    <row r="297" ht="16.5" customHeight="1">
+      <c r="B297" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F297" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="G297" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="H297" s="13">
+        <v>8640.0</v>
+      </c>
+    </row>
+    <row r="298" ht="14.25" customHeight="1">
+      <c r="B298" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F298" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="G298" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="H298" s="13">
+        <v>10500.0</v>
+      </c>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="B299" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F299" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="G299" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="H299" s="13">
+        <v>7460.0</v>
+      </c>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="B300" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F300" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="G300" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="H300" s="13">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="B301" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F301" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="G301" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="H301" s="13">
+        <v>7580.0</v>
+      </c>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="B302" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F302" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="G302" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="H302" s="13">
+        <v>9940.0</v>
+      </c>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="B303" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="C303" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F303" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="G303" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="H303" s="13">
+        <v>6520.0</v>
+      </c>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="B304" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="C304" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F304" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="G304" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="H304" s="13">
+        <v>9200.0</v>
+      </c>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="B305" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F305" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="G305" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="H305" s="13">
+        <v>10510.0</v>
+      </c>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="B306" s="13" t="s">
+        <v>820</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F306" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="G306" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="H306" s="13">
+        <v>7460.0</v>
+      </c>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="B307" s="13" t="s">
+        <v>823</v>
+      </c>
+      <c r="C307" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F307" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="G307" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="H307" s="13">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="B308" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F308" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="G308" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="H308" s="13">
+        <v>8640.0</v>
+      </c>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="B309" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="C309" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F309" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="G309" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="H309" s="13">
+        <v>10500.0</v>
+      </c>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="B310" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F310" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="G310" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="H310" s="13">
+        <v>8640.0</v>
+      </c>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="B311" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="C311" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F311" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="G311" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="H311" s="13">
+        <v>8640.0</v>
+      </c>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="B312" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="C312" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F312" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="G312" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="H312" s="13">
+        <v>9480.0</v>
+      </c>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="B313" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="C313" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F313" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="G313" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="H313" s="13">
+        <v>9480.0</v>
+      </c>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="B314" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="C314" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F314" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="G314" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="H314" s="13">
+        <v>6370.0</v>
+      </c>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="B315" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="C315" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F315" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="G315" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="H315" s="13">
+        <v>9540.0</v>
+      </c>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="B316" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="C316" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F316" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="G316" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="H316" s="13">
+        <v>6250.0</v>
+      </c>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="B317" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="C317" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F317" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="G317" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="H317" s="13">
+        <v>9540.0</v>
+      </c>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="B318" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="C318" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F318" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G318" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="H318" s="13">
+        <v>8800.0</v>
+      </c>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="B319" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F319" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G319" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="H319" s="13">
+        <v>8680.0</v>
+      </c>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="B320" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F320" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G320" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="H320" s="13">
+        <v>8650.0</v>
+      </c>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="B321" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="C321" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F321" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="G321" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="H321" s="13">
+        <v>8150.0</v>
+      </c>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="B322" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F322" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="G322" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H322" s="13">
+        <v>9310.0</v>
+      </c>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="B323" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F323" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="G323" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="H323" s="13">
+        <v>11390.0</v>
+      </c>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="B324" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F324" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="G324" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="H324" s="13">
+        <v>11390.0</v>
+      </c>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="B325" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F325" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="G325" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="H325" s="13">
+        <v>11390.0</v>
+      </c>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="B326" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="C326" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F326" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="G326" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="H326" s="13">
+        <v>11390.0</v>
+      </c>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="B327" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="C327" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F327" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="G327" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="H327" s="13">
+        <v>11390.0</v>
+      </c>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="B328" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F328" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="G328" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="H328" s="13">
+        <v>9540.0</v>
+      </c>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="B329" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="C329" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F329" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="G329" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="H329" s="13">
+        <v>11640.0</v>
+      </c>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="B330" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F330" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="G330" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="H330" s="13">
+        <v>11640.0</v>
+      </c>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="B331" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="C331" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F331" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="G331" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="H331" s="13">
+        <v>11640.0</v>
+      </c>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="B332" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="C332" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F332" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="G332" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="H332" s="13">
+        <v>11640.0</v>
+      </c>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="B333" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="C333" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F333" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="G333" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="H333" s="13">
+        <v>11640.0</v>
+      </c>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="B334" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="C334" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F334" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G334" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="H334" s="13">
+        <v>10110.0</v>
+      </c>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="B335" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="C335" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F335" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G335" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="H335" s="13">
+        <v>12360.0</v>
+      </c>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="B336" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="C336" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F336" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G336" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="H336" s="13">
+        <v>12360.0</v>
+      </c>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="B337" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="C337" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F337" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G337" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="H337" s="13">
+        <v>12360.0</v>
+      </c>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="B338" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="C338" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F338" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G338" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="H338" s="13">
+        <v>12360.0</v>
+      </c>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="B339" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="C339" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F339" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G339" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="H339" s="13">
+        <v>12360.0</v>
+      </c>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="B340" s="13" t="s">
+        <v>892</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F340" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G340" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="H340" s="13">
+        <v>10360.0</v>
+      </c>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="B341" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="C341" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F341" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G341" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="H341" s="13">
+        <v>12650.0</v>
+      </c>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="B342" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F342" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G342" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="H342" s="13">
+        <v>12650.0</v>
+      </c>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="B343" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="C343" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F343" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G343" s="13" t="s">
+        <v>899</v>
+      </c>
+      <c r="H343" s="13">
+        <v>10110.0</v>
+      </c>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="B344" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="C344" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F344" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G344" s="13" t="s">
+        <v>901</v>
+      </c>
+      <c r="H344" s="13">
+        <v>12360.0</v>
+      </c>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="B345" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="C345" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F345" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G345" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="H345" s="13">
+        <v>12360.0</v>
+      </c>
+    </row>
+    <row r="346" ht="16.5" customHeight="1">
+      <c r="B346" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F346" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="G346" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="H346" s="13">
+        <v>11170.0</v>
+      </c>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="B347" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="C347" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F347" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="G347" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="H347" s="13">
+        <v>13220.0</v>
+      </c>
+    </row>
+    <row r="348" ht="14.25" customHeight="1">
+      <c r="B348" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="C348" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F348" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="G348" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="H348" s="13">
+        <v>13220.0</v>
+      </c>
+    </row>
     <row r="349" ht="15.75" customHeight="1"/>
     <row r="350" ht="15.75" customHeight="1"/>
     <row r="351" ht="15.75" customHeight="1"/>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="968">
   <si>
     <t>article</t>
   </si>
@@ -4258,6 +4258,177 @@
   </si>
   <si>
     <t>carda-p5-seryi-grafit.jpg</t>
+  </si>
+  <si>
+    <t>Тоскана</t>
+  </si>
+  <si>
+    <t>carda-taskana-beton-grafit.jpg</t>
+  </si>
+  <si>
+    <t>Тоскана 1</t>
+  </si>
+  <si>
+    <t>carda-taskana-1-snezhnyi-beton.jpg</t>
+  </si>
+  <si>
+    <t>Тоскана 4</t>
+  </si>
+  <si>
+    <t>carda-taskana-4.jpg</t>
+  </si>
+  <si>
+    <t>Тоскана 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белый софт, Магнолия, Серый софт </t>
+  </si>
+  <si>
+    <t>carda-taskana-3.jpg</t>
+  </si>
+  <si>
+    <t>carda-taskana-1-belyi-soft.jpg</t>
+  </si>
+  <si>
+    <t>Carda Невиимка</t>
+  </si>
+  <si>
+    <t>carda-nevidimka.jpg</t>
+  </si>
+  <si>
+    <t>Carda Э-16</t>
+  </si>
+  <si>
+    <t>Эмаль грунт БЕЛЫЙ</t>
+  </si>
+  <si>
+    <t>carda-taskana-e-16.png</t>
+  </si>
+  <si>
+    <t>Carda Э-17</t>
+  </si>
+  <si>
+    <t>carda-taskana-e-17.png</t>
+  </si>
+  <si>
+    <t>Carda Э-18</t>
+  </si>
+  <si>
+    <t>Эмаль грунт серый</t>
+  </si>
+  <si>
+    <t>carda-taskana-e-18.png</t>
+  </si>
+  <si>
+    <t>Carda Э-19</t>
+  </si>
+  <si>
+    <t>carda-taskana-e-19.png</t>
+  </si>
+  <si>
+    <t>Неаполь Карда глухое</t>
+  </si>
+  <si>
+    <t>Шале мореный;Шале серый;Шале золотой;Ясень светлый;Ясень темный;Ясень золотой;</t>
+  </si>
+  <si>
+    <t>carda-neapol-yasen-svetlyi-patina-serebro.jpg</t>
+  </si>
+  <si>
+    <t>Сицилия Карда витражное</t>
+  </si>
+  <si>
+    <t>carda-siciliya-zolotoi-shale.jpg</t>
+  </si>
+  <si>
+    <t>Неаполь Карда художественная печать</t>
+  </si>
+  <si>
+    <t>carda-neapol-hud-pechat.jpg</t>
+  </si>
+  <si>
+    <t>Сицилия Карда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ясень белый, Пломбир серый </t>
+  </si>
+  <si>
+    <t>carda-siciliya-yasen-belyi.jpg</t>
+  </si>
+  <si>
+    <t>Carda Сицилия</t>
+  </si>
+  <si>
+    <t>Ясень светлый с патиной серебро;Ясень темный с патиной черной;Ясень золотой с патиной золото;</t>
+  </si>
+  <si>
+    <t>carda-siciliya-yasen-temnyi.jpg</t>
+  </si>
+  <si>
+    <t>carda-siciliya-vitrazh-yasen-temnyi.jpg</t>
+  </si>
+  <si>
+    <t>carda-siciliya-hud-pechat.jpg</t>
+  </si>
+  <si>
+    <t>Соната Карда</t>
+  </si>
+  <si>
+    <t>carda-sonata-gluhoe.jpg</t>
+  </si>
+  <si>
+    <t>Элегия Карда патина</t>
+  </si>
+  <si>
+    <t>carda-patina-hud-pechat.jpg</t>
+  </si>
+  <si>
+    <t>Рига Карда патина</t>
+  </si>
+  <si>
+    <t>riga-carda-patina.jpg</t>
+  </si>
+  <si>
+    <t>Рига Карда художественная печать</t>
+  </si>
+  <si>
+    <t>rigaa-hud-pechat.jpg</t>
+  </si>
+  <si>
+    <t>Н-20 Карда</t>
+  </si>
+  <si>
+    <t>Эмалит белый с патиной золото;</t>
+  </si>
+  <si>
+    <t>carda-emalit-s-patinoi.jpg</t>
+  </si>
+  <si>
+    <t>Н-21 Карда</t>
+  </si>
+  <si>
+    <t>carda-n-21-patina.jpg</t>
+  </si>
+  <si>
+    <t>НК-10 Карда</t>
+  </si>
+  <si>
+    <t>Эмалит белый;Эмалит кремовый;Серый софт;</t>
+  </si>
+  <si>
+    <t>carda-nk-10-gluhoe.jpg</t>
+  </si>
+  <si>
+    <t>НК-30 Карда</t>
+  </si>
+  <si>
+    <t>carda-nk-30-gluhoe.jpg</t>
+  </si>
+  <si>
+    <t>НК-40 Карда</t>
+  </si>
+  <si>
+    <t>carda-nk-40-gluhoe.jpg</t>
   </si>
 </sst>
 </file>
@@ -4597,7 +4768,7 @@
     <col customWidth="1" min="4" max="4" width="13.13"/>
     <col customWidth="1" min="5" max="5" width="13.5"/>
     <col customWidth="1" min="6" max="6" width="37.5"/>
-    <col customWidth="1" min="7" max="7" width="32.88"/>
+    <col customWidth="1" min="7" max="7" width="35.0"/>
     <col customWidth="1" min="8" max="8" width="19.0"/>
     <col customWidth="1" min="9" max="9" width="33.13"/>
     <col customWidth="1" min="11" max="11" width="86.75"/>
@@ -11652,32 +11823,445 @@
         <v>13220.0</v>
       </c>
     </row>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="B349" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="C349" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F349" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="G349" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="H349" s="13">
+        <v>9540.0</v>
+      </c>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="B350" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F350" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="G350" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="H350" s="13">
+        <v>9540.0</v>
+      </c>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="B351" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F351" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="G351" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="H351" s="13">
+        <v>9540.0</v>
+      </c>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="B352" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F352" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="G352" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="H352" s="13">
+        <v>10110.0</v>
+      </c>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="B353" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="C353" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F353" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="G353" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="H353" s="13">
+        <v>11830.0</v>
+      </c>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="B354" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="C354" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G354" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="H354" s="13">
+        <v>20740.0</v>
+      </c>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="B355" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="C355" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F355" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="G355" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="H355" s="13">
+        <v>9090.0</v>
+      </c>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="B356" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F356" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="G356" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="H356" s="13">
+        <v>11280.0</v>
+      </c>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="B357" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F357" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="G357" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="H357" s="13">
+        <v>10010.0</v>
+      </c>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="B358" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F358" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="G358" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="H358" s="13">
+        <v>12370.0</v>
+      </c>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="B359" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F359" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="G359" s="13" t="s">
+        <v>935</v>
+      </c>
+      <c r="H359" s="13">
+        <v>4980.0</v>
+      </c>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="B360" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F360" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="G360" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="H360" s="13">
+        <v>7400.0</v>
+      </c>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="B361" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F361" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="G361" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="H361" s="13">
+        <v>7400.0</v>
+      </c>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="B362" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F362" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="G362" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="H362" s="13">
+        <v>5220.0</v>
+      </c>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="B363" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="C363" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F363" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="G363" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="H363" s="13">
+        <v>5990.0</v>
+      </c>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="B364" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F364" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="G364" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="H364" s="13">
+        <v>8400.0</v>
+      </c>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="B365" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F365" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="G365" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="H365" s="13">
+        <v>8400.0</v>
+      </c>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="B366" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F366" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="G366" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="H366" s="13">
+        <v>7640.0</v>
+      </c>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="B367" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F367" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="G367" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="H367" s="13">
+        <v>9200.0</v>
+      </c>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="B368" s="13" t="s">
+        <v>952</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F368" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="G368" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="H368" s="13">
+        <v>8400.0</v>
+      </c>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="B369" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F369" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="G369" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="H369" s="13">
+        <v>9990.0</v>
+      </c>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="B370" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F370" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="G370" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="H370" s="13">
+        <v>6390.0</v>
+      </c>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="B371" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="C371" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F371" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="G371" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="H371" s="13">
+        <v>8870.0</v>
+      </c>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="B372" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F372" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="G372" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="H372" s="13">
+        <v>5550.0</v>
+      </c>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="B373" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="C373" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F373" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="G373" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="H373" s="13">
+        <v>5550.0</v>
+      </c>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="B374" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="C374" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F374" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="G374" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="H374" s="13">
+        <v>5550.0</v>
+      </c>
+    </row>
     <row r="375" ht="15.75" customHeight="1"/>
     <row r="376" ht="15.75" customHeight="1"/>
     <row r="377" ht="15.75" customHeight="1"/>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="983">
   <si>
     <t>article</t>
   </si>
@@ -4429,6 +4429,51 @@
   </si>
   <si>
     <t>carda-nk-40-gluhoe.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Леона </t>
+  </si>
+  <si>
+    <t>Миланский орех;Итальянский орех;Беленый дуб;</t>
+  </si>
+  <si>
+    <t>carda-leona-oreh-milanskiy.jpg</t>
+  </si>
+  <si>
+    <t>Фаина</t>
+  </si>
+  <si>
+    <t>carda-faina-dub-belenyi.jpg</t>
+  </si>
+  <si>
+    <t>Азалия</t>
+  </si>
+  <si>
+    <t>carda-azaliya-dub-belenyi.jpg</t>
+  </si>
+  <si>
+    <t>Водопад</t>
+  </si>
+  <si>
+    <t>carda-vodopad-dub-belenyi.jpg</t>
+  </si>
+  <si>
+    <t>Леона витражное стекло</t>
+  </si>
+  <si>
+    <t>carda-leona-vitrazhnoe-steklo.jpg</t>
+  </si>
+  <si>
+    <t>Водопад фьюзинг стекло</t>
+  </si>
+  <si>
+    <t>carda-vodopad-fiuzing-steklo.jpg</t>
+  </si>
+  <si>
+    <t>Фаина витражное стекло</t>
+  </si>
+  <si>
+    <t>carda-faina-vitrazhnoe-steklo.jpg</t>
   </si>
 </sst>
 </file>
@@ -12262,13 +12307,125 @@
         <v>5550.0</v>
       </c>
     </row>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="B375" s="13" t="s">
+        <v>968</v>
+      </c>
+      <c r="C375" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F375" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="G375" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="H375" s="13">
+        <v>4580.0</v>
+      </c>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="B376" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F376" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="G376" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="H376" s="13">
+        <v>4580.0</v>
+      </c>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="B377" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="C377" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F377" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="G377" s="13" t="s">
+        <v>974</v>
+      </c>
+      <c r="H377" s="13">
+        <v>4580.0</v>
+      </c>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="B378" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="C378" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F378" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="G378" s="13" t="s">
+        <v>976</v>
+      </c>
+      <c r="H378" s="13">
+        <v>4580.0</v>
+      </c>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="B379" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="C379" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F379" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="G379" s="13" t="s">
+        <v>978</v>
+      </c>
+      <c r="H379" s="13">
+        <v>4580.0</v>
+      </c>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="B380" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F380" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="G380" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="H380" s="13">
+        <v>4580.0</v>
+      </c>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="B381" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="C381" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F381" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="G381" s="13" t="s">
+        <v>982</v>
+      </c>
+      <c r="H381" s="13">
+        <v>4580.0</v>
+      </c>
+    </row>
     <row r="382" ht="15.75" customHeight="1"/>
     <row r="383" ht="15.75" customHeight="1"/>
     <row r="384" ht="15.75" customHeight="1"/>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="1206">
   <si>
     <t>article</t>
   </si>
@@ -3721,7 +3721,7 @@
     <t>Carda Т33 Ясень белый</t>
   </si>
   <si>
-    <t>carda-t-33-yasen-belyi.webp</t>
+    <t>carda-t-33-yasen-belyi.jpg</t>
   </si>
   <si>
     <t>Carda Т-3 Шале Серый</t>
@@ -3733,7 +3733,7 @@
     <t>Carda Т5 Ясень белый</t>
   </si>
   <si>
-    <t>carda-t5-yasen-belyi.webp</t>
+    <t>carda-t5-yasen-belyi.jpg</t>
   </si>
   <si>
     <t>carda-t11-shale-seryi.png</t>
@@ -4474,6 +4474,1485 @@
   </si>
   <si>
     <t>carda-faina-vitrazhnoe-steklo.jpg</t>
+  </si>
+  <si>
+    <t>Входная дверь DM Север (Статус Коньяк)</t>
+  </si>
+  <si>
+    <t>sever-vhodnaya-dver.jpg</t>
+  </si>
+  <si>
+    <t>ПРОМЕТ "СПЕЦ PRO"</t>
+  </si>
+  <si>
+    <t>spec.jpg</t>
+  </si>
+  <si>
+    <t>Высота порога, мм: 40;
+Наличник перекрывает, мм: 51;
+Вес, кг: 30;
+Габариты наружные (В/Ш/Г, мм): 2101/1056/69;
+Габариты светового проема (В/Ш, мм): 1984/763;
+Монтажные габариты коробки (В/Ш, мм): 2060/960;
+Ручка: медный антик;
+Эксцентрик: Нет;
+Броненакладка: Нет;
+Замок цилиндровый:ПРОСАМ ЗВ 4-31/55;
+Вылет ригеля (мм):22;
+Класс замка (ГОСТ 5089-2003): 2;
+Размер (мм), тип цилиндра: 25/10/25 ключ/ключ;
+Ночная задвижка: Нет;
+Ригели: 3 активных, 2 пассивных;</t>
+  </si>
+  <si>
+    <t>Модель СПЕЦ  PRO</t>
+  </si>
+  <si>
+    <t>spec-pro-vhodnaya-dver.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высота порога, мм:40;
+Наличник перекрывает, мм:43;
+Вес, кг:25/27/28;
+Габариты наружные (В/Ш/Г, мм):2101 / 945 (1045) (1095) / 54;
+Габариты светового проема (В/Ш, мм):1984 / 753 (853 / 903);
+Монтажные габариты коробки (В/Ш, мм):2060 / 860 (960 / 1010);
+Количество петель (шт.):2;
+Количество контуров уплотнения (шт.):1;
+Наполнитель:Пенополистирол;
+Толщина полотна (мм):45;
+</t>
+  </si>
+  <si>
+    <t>Титан Диагональ</t>
+  </si>
+  <si>
+    <t>titan-diagonal.png</t>
+  </si>
+  <si>
+    <t>Толщина полотна: 66 мм;
+Утеплитель полотна:  пенополистирол;
+Уплотнитель резиновый:2 контура;
+Толщина металла: 1,2 мм;2 замка:"ПРОМЕТ" 32.11, (4 класс защиты), "ПРОМЕТ" 30.01 цилиндровый (4 класс защиты) + ночная задвижка + эксцентрик для регулировки прижима двери;
+Внешняя отделка: порошково-полимерное покрытие, цвет: Букле графит;
+Внутренняя отделка: МДФ панель 6 мм, цвет: Бетон снежный;
+Порог:порошковое покрытие;
+Размеры по коробке: 860х2050 мм и 960х2050 мм.;
+Короб:открытыйОткрывание двери может быть "правым" и "левым";
+Гарантия:1 год.;</t>
+  </si>
+  <si>
+    <t>Промет Титан Рационалист</t>
+  </si>
+  <si>
+    <t>titan-recionalist.png</t>
+  </si>
+  <si>
+    <t>Толщина стали полотна: 1 мм;
+Толщина стали короба: 1,2 мм;
+Глубина короба: 93 мм;
+Толщина полотна: 66 мм;
+Утеплитель: пенополистирол;
+Уплотнитель: Два контура уплотнения (притвора), специализированный дверной уплотнитель по всему периметру;
+Внешняя отделка: полимерное покрытие медный антик, царговая МДФ панель 6 мм в покрытии ПВХ ясень белоснежны;
+Основной замок: Промет 32.11 IV класс;
+Дополнительный замок: Промет 30.01 IV класс;
+Фурнитура: ручка раздельная, накладки на замки, ночная задвижка,глазок, эксцентрик</t>
+  </si>
+  <si>
+    <t>Титан 8C</t>
+  </si>
+  <si>
+    <t>tittan-8c.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вид:для дома;
+Особенности:недорогие, стальные;
+Вес:53 кг;
+Производитель:Промет;
+Страна производитель:Россия;
+Количество петель:2 шт наружные;
+Гарантия на полотно:1 год ;
+Гарантия на комплектующие:2 года на замки;
+</t>
+  </si>
+  <si>
+    <t>Титан Зеркало</t>
+  </si>
+  <si>
+    <t>titan-zerkalo.png</t>
+  </si>
+  <si>
+    <t>Толщина стали полотна: 1 мм;
+Толщина стали короба: 1,2 мм;
+Глубина короба: 93 мм;
+Толщина полотна: 75 мм;
+Утеплитель: пенополистирол;
+Уплотнитель: два контура уплотнения (притвора), специализированный дверной уплотнитель по всему периметру;
+Внешняя отделка: полимерное покрытие букле графит, царговая МДФ панель 16 мм со стеклянными вставками в покрытии ПВХ дуб беленый;
+Основной замок: Промет 32.11 IV класс;
+Дополнительный замок: Промет 30.01 IV класс;
+Фурнитура: Цилиндр ключ-поворотник, ручка раздельная, накладки на замки, глазок, ночная задвижка, эксцентрик;</t>
+  </si>
+  <si>
+    <t>Промет Титан мет/мет</t>
+  </si>
+  <si>
+    <t>titan-m_m.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Габариты наружные (В-Ш-Г, мм):2100 / 960 (1060) / 93;
+Монтажные габариты (В-Ш, мм): 2050/ 860 (960);
+Толщина полотна (мм): 66;
+Ширина наличника (мм): 50;
+Вес (кг):40/43;
+Кол-во петель (шт): 2;
+Кол-во контуров примыкания/уплотнения: 2 / 2;
+Наполнение:пенополистирол;
+Замок цилиндровый: Промет 32.11;
+Замок сувальдный: Промет 30.01;
+Ночная задвижка: Есть;
+Эксцентрик: Есть;
+Внешняя/внутренняя отделка:  металл (антик медный)/металл (антик медный);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Винтер 100 3Ф Бланко
+</t>
+  </si>
+  <si>
+    <t>vinter-100.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монтажные габариты коробки (В/Ш, мм): 2050 / 880 (980);
+Количество петель (шт.): 3;
+Количество контуров уплотнения (шт.):4;
+Наполнитель:Пенополистирол+МДФ;
+Толщина полотна (мм):110;
+Эксцентрик:да;
+Замок основной (ГОСТ 5089-2011): 4 класс;
+Замок дополнительный (ГОСТ 5089-2011): 4 класс;
+Ночная задвижка: есть;
+Тип отделки: МДФ;
+Тип открывания:Наружу;
+Открывание двери: левая,правая;
+Температура промерзания: -35 С.;
+</t>
+  </si>
+  <si>
+    <t>НОРД ШАЛЕ СНЕЖНЫЙ</t>
+  </si>
+  <si>
+    <t>nord-shale-snezhnyi.jpg</t>
+  </si>
+  <si>
+    <t>Габариты монтажные:2050/880;
+Габариты внешние: 2100/960;
+Высота порога: 68мм;
+Толщина полотна:85мм,толщина короба 130мм;
+Наполнение:пенополистирол;
+Ручка цвет:хром.;
+Ночная задвижка: есть;
+Глазка: нет;
+Внешняя панель: металлическая гладкая,цвет антик медный.;
+Внутренняя панель:панель МДФ 6мм,фрезерованная,пленка ПВХ,цвет дуб шале снежный.;</t>
+  </si>
+  <si>
+    <t>Норд 439</t>
+  </si>
+  <si>
+    <t>nord-439.png</t>
+  </si>
+  <si>
+    <t>Толщина стали полотна: 1 мм;
+Толщина стали короба: 1,2 мм;
+Глубина короба: 130 мм;
+Толщина полотна: 87 мм;
+Утеплитель: пенополистирол;
+Уплотнитель: Четыре контура уплотнения (притвора), специализированный дверной уплотнитель по всему периметру;
+Темроразрыв: да;
+Внешняя отделка: полимерное покрытие букле графит, царговая МДФ панель 6 мм в покрытии ПВХ софт графит;
+Основной замок: Промет 8177 IV класс;
+Дополнительный замок: Промет 817 IV класс;
+Фурнитура: ручка раздельная, накладки на замки, ночная задвижка, эксцентрик;</t>
+  </si>
+  <si>
+    <t>YoDoors-2</t>
+  </si>
+  <si>
+    <t>yodoors-2.png</t>
+  </si>
+  <si>
+    <t>Уплотнение: 3 контура;
+Ночная задвижка: Да;
+Внешнее покрытие: Металл;
+Изнутри: Фрезерованная МДФ-панель 6 мм;
+Дверной глазок: да;
+Регулировка режима притвора: Металлический эксцентрик для защелки на основном замке;
+Количество установленных замков: 2. Основной замок GALEON 816 врезной цилиндровый, IV (наивысший) класс взломостойкости; диаметр ригелей: 15,8 мм;
+Дополнительный : GALEON 817 врезной сувальдный, IV (наивысший) класс взломостойкости; диаметр ригелей: 15,8 мм;
+Наполнитель: Пенополистирол высокой плотности;
+Противосъем: штыри, 3шт;
+ Стандартные размеры: 860х2050, 960х2050;</t>
+  </si>
+  <si>
+    <t>YoDoors-5</t>
+  </si>
+  <si>
+    <t>yadoors-5.png</t>
+  </si>
+  <si>
+    <t>YoDoors-7</t>
+  </si>
+  <si>
+    <t>yodoors-7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество замков: 2;
+Основной замок: Галеон 816 (цилиндрового типа);
+Тощина полотна (мм): 90;
+Контур уплотнения: 3;
+Назначение: Для квартир и помещений;
+Дополнительный замок: Галеон 817 (сувальдного типа);
+Ночная задвижка: В комплекте;
+Производитель: YoDoors;
+Толщина стали полотна(мм): 1,2;
+Стиль: Модерн;
+</t>
+  </si>
+  <si>
+    <t>YoDoors-8</t>
+  </si>
+  <si>
+    <t>yodoors-8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество замков: 2;
+Основной замок: Галеон 816 (цилиндрового типа);
+Тощина полотна (мм): 90;
+Контур уплотнения: 3;
+Назначение: Для квартир и помещений;
+Дополнительный замок: Галеон 817 (сувальдного типа);
+Ночная задвижка: В комплекте;
+Производитель: YoDoors;
+Толщина стали полотна(мм): 1,2;
+Стиль: Классика;
+</t>
+  </si>
+  <si>
+    <t>YoDoors-9</t>
+  </si>
+  <si>
+    <t>yodoors-9.png</t>
+  </si>
+  <si>
+    <t>Уплотнение: 3 контура;
+Ночная задвижка: Да;
+Внешнее покрытие: Фрезерованная МДФ-панель 10 мм;
+Изнутри: Фрезерованная съемная МДФ-панель 10 мм с ДВП 3 мм;
+Дверной глазок: да;
+Регулировка режима притвора: Металлический эксцентрик для защелки на основном замке;
+Количество поддерживаемых замков: 2.;
+Основной замок GALEON 816 врезной цилиндрический, IV (наивысший) класс взломостойкости; диаметр ригелей: 15,8 мм;
+Дополнительный : GALEON 817 врезной сувальдный, IV (наивысший) класс взломостойкости; диаметр ригелей: 15,8 мм;
+Наполнитель: Пенополистирол высокой плотности;
+Противосъем: штыри, 3шт;
+Стандартные размеры: 860х2050, 960х2050;</t>
+  </si>
+  <si>
+    <t>YoDoors-11</t>
+  </si>
+  <si>
+    <t>yodoors-11.png</t>
+  </si>
+  <si>
+    <t>YoDoors-14</t>
+  </si>
+  <si>
+    <t>yodoors-14.jpg</t>
+  </si>
+  <si>
+    <t>YoDoors-16</t>
+  </si>
+  <si>
+    <t>yodoors-16.png</t>
+  </si>
+  <si>
+    <t>YoDoors-17</t>
+  </si>
+  <si>
+    <t>yodoors-17.png</t>
+  </si>
+  <si>
+    <t>YoDoors-29</t>
+  </si>
+  <si>
+    <t>yodoors-29.png</t>
+  </si>
+  <si>
+    <t>Толщина полотна:70 мм/с МДФ 77 мм;
+Отделка снаружи:Металл;
+Наполнитель:Пенополистиролвысокой плотности;
+Короб:Открытый;
+Уплотнитель:2 контура;
+Петли:2 шт;
+Замки:GALEON 816врезной цилиндровый,IV (наивысший) класс взломостойкости,диаметр ригелей 15,8 мм GALEON 817 врезнойсувальдный,IV (наивысший) класс взломостойкости,диаметр ригелей 15,8 мм;
+Ночная задвижка:Установлена;
+Накладки:С защитой от сквозняка;
+Цвет фурнитуры:Хром;
+Регулировка прижима притвора:Металлический эксцентрик для защелки на основном замке;
+Противосъем:Штыри, 3 шт.;
+Размеры:860х2050 мм, 960х2050 мм;</t>
+  </si>
+  <si>
+    <t>Прораб МДФ/МДФ Бетон</t>
+  </si>
+  <si>
+    <t>prorab-beton-2-mdf-mdf.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внешнее покрытие:фрезерованная МДФ-панель 8 мм. Цвет бетон графит;
+Внутреннее покрытие: фрезерованная МДФ-панель 6 мм. Цвет бетон серый;
+Толщина дверного полотна: 45 мм;
+Глубина дверного короба: 52 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 1 контур уплотнителя из вспененной резины;
+Ручка: раздельная, нажимная, цвет — хром;
+Глазок: металлический, широкого обзора;
+Петли: 2 шт., наружные, открывание 180°;
+Основной замок: цилиндровый замок НТО ЛУЧ с ночной задвижкой;
+Дополнительный замок: сувальдный замок НТО ЛУЧ;
+Независимая ночная задвижка: Да;
+Противосъём: штыри, 2 шт.;
+Размеры: 860х2050 мм, 960х2050 мм;
+</t>
+  </si>
+  <si>
+    <t>Прораб ПРОсемь 78мм Линии МДФ/МДФ</t>
+  </si>
+  <si>
+    <t>prorab-pro7-1-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основной замок: НТО-ЛУЧ (цилиндрового типа);
+Тощина полотна (мм): 78;
+Контур уплотнения: 2;
+Назначение: Для квартир и помещений;
+Дополнительный замок: Гардиан 3001 (сувальдного типа);
+Ночная задвижка: В комплекте;
+Открывание: правое / левое;
+Основной замок: цилиндровый НТО ЛУЧ с ночной задвижкой;
+Противосъем: штыри, 2 шт.;
+Дверь подходит для установки внутри помещений и на улице;
+</t>
+  </si>
+  <si>
+    <t>ПРОРАБ №3 Антик Серебро/Беленый Дуб</t>
+  </si>
+  <si>
+    <t>prorab-32.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Покрытие: медный антик / ХДФ панель 3 мм;
+Толщина полотна: 45 мм;
+Наполнитель: пенополистирол (ППС);
+Уплотнитель: 2 контура;
+Петли: наружные, 2 шт, открывание 180*;
+Ручка: на планкена планке, HP-09;
+Замок: НТО ЛУЧ, 635 цилиндрового типа;
+ригель: d=14 мм, тип цилиндра ключ/вертушка;
+</t>
+  </si>
+  <si>
+    <t>Прораб 4 (Металл-Антик серебро)</t>
+  </si>
+  <si>
+    <t>prorab-42-vn.1406fa20d306ac68707badd0259ee24f.jpg</t>
+  </si>
+  <si>
+    <t>Замок: Цилиндровый замок НТО ЛУЧ с ночной задвижкой;
+Покрытие металла: Антик серебро, атмосферостойкое порошково-полимерное;
+Внутренняя накладка: ХДФ-панель 3 мм. Цвет дуб сонома;
+Толщина полотна / глубина короба: 45 мм / 52 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 1 контур;
+Петли: 2 шт., наружные, открывание 180°;
+Ручка: на планке, нажимная, окрашенная;
+Противосъёмные штыри: 2 шт.;
+Размеры: 860х2050 мм, 960х2050 мм;
+Световой проем: 780 мм и 880 мм;</t>
+  </si>
+  <si>
+    <t>Прораб 4,5 см Антик медь / Антик медь</t>
+  </si>
+  <si>
+    <t>strojgost_5-1_prav_19da7c79e66ae5e49e1e9b24e9ceab75_540x540_pc.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модель:СтройГост 5-1;
+Производитель:Стройгост;
+Толщина стали:0.8мм;
+Покрытие внешнее - внутреннее:Металл - Металл;
+Цвет внутреннего покрытия:Коричневый;
+Цвет внешнего покрытия:Коричневый;
+Внутреннее наполнение двери:Пенополистирол;
+Ширина дверного блока:860мм, 960мм;
+Глубина короба:52;
+Количество замков:1шт;
+</t>
+  </si>
+  <si>
+    <t>Прораб Протерма 3D 11 см</t>
+  </si>
+  <si>
+    <t>ferroni_proterma_3d_11_steklopaket.png</t>
+  </si>
+  <si>
+    <t>Оттенок внутренней панели:Белый;
+Покрытие внешнее - внутреннее:Металл - Панель;
+Модель:стеклопакет 4-х камерный с зеркальной тонировкой и ковкой;
+Толщина полотна:110мм;
+Стиль двери:Классический;
+Глубина короба:141мм;
+Производитель:Прораб;
+Место производства:Россия г. Йошкар-Ола;
+Утеплитель:пенополистирол;
+Основной замок:сувальдный KALE, ригели 16 мм. Дополнительная защита от высверливания;
+Дополнительный замок:сувальдный KALE, ригели 16 мм. Дополнительная защита от высверливания;
+Тип внешней отделки:атмосферостойкое порошково-полимерное покрытие "Букле шоколад";
+Тип внутренней отделки:фрезерованная МДФ-панель 16 мм. Пленка ПВХ, цвет "Велюр белый софт";</t>
+  </si>
+  <si>
+    <t>Прораб 11 см Протерма 3D стеклопакет Графит</t>
+  </si>
+  <si>
+    <t>PBzTRziGsPk.jpg</t>
+  </si>
+  <si>
+    <t>Количество замков: 2;
+Основной замок: Kale (сувальдного типа);
+Тощина полотна (мм): 110;
+Контур уплотнения: 3;
+Назначение: Уличная;
+Дополнительный замок: Kale (сувальдного типа);
+Ночная задвижка: В комплекте;
+Производитель: Прораб;
+Толщина стали полотна(мм): 1,2;</t>
+  </si>
+  <si>
+    <t>Протерма 11 см Букле шоколад</t>
+  </si>
+  <si>
+    <t>51320.0x500.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бренд:Прораб;
+Место установки:на улице;
+Кол-во контуров уплотнения:3 контура;
+Основной замок (нижний):Кале Килит 252, сувальдный, 3 класс защиты;
+Дополнительный замок (верхний):Кале Килит 257L, сувальдный, 4 класс защиты;
+</t>
+  </si>
+  <si>
+    <t>Прораб ПРОТЕРМА 11 СМ Букле антрацит</t>
+  </si>
+  <si>
+    <t>prorab_proterma_11_baget_antracit.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина дверного полотна: 90 мм;
+Глубина дверного короба: 105 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 3 контура уплотнителя из вспененной резины;
+Ручка: раздельная цвет черный;
+Глазок: широкого обзора цвет черный;
+Петли: 2 шт наружные, открывание 180°;
+Основной замок: цилиндровый KARAT/MONARCH IV ( класс);
+Дополнительный замок: сувальдный KARAT/MONARCH IV (класс);
+Накладки: накладная броненакладка основного замка, декоративная накладка дополнительного замка с защитой от сквозняка цвет черный;
+Независимая ночная задвижка;
+Размеры: 860 х 2050 мм, 960 х 2050 мм;
+</t>
+  </si>
+  <si>
+    <t>Прораб Протерма 11 см</t>
+  </si>
+  <si>
+    <t>prorab_proterma_11_vinorit_belyj.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внешняя накладка: Фрезерованная МДФ-панель 10 мм. Пленка Винорит, цвет грецкий орех с патиной;
+Внутренняя накладка: Фрезерованная МДФ-панель 10 мм. Пленка с вертикальным рельефом, цвет белый;                                                              
+Основной замок : сувальдный KALE, ригели 16 мм.; 
+Дополнительный замок: сувальдный KALE, ригели 16 мм;
+Толщина дверного полотна: 120 мм Глубина дверного короба: 141 мм;
+Терморазрыв: 24 мм на полотне и коробе;
+Наполнитель: Пенополистирол;                                                                                         
+Уплотнитель: 3 контура вставного уплотнителя;
+Ручка: Раздельная, нажимная хром; цвет – сатин хром;
+Петли: 3 шт., наружные, открывание 180°;
+Основной замок: Основной: сувальдный KALE,; 
+Дополнительный замок: сувальдный KALE, ригели 16 мм;
+Накладки: овальные с защитой от сквозняка; цвет - сатин хром;
+Независимая ночная задвижка;
+Размеры: 860х2050 мм, 960х2050 мм;
+</t>
+  </si>
+  <si>
+    <t>DM Север</t>
+  </si>
+  <si>
+    <t>dm-sever-list-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна:100 мм;
+Наполнение полотна:Базальтовая плита+пенополистиролл;
+Внешняя отделка:Антик медный с давлением;
+Внутренняя отделка:МДФ, кремовая лиственница;
+Покрытие металл:Антик медный;
+Основной замок:Гардман 30.11, сувальдный;
+Дополнительный замок:Гардиан 30.01, сувальдный;
+Фурнитура:Хром, ручки раздельные;
+Уплотнитель на полотне:2 шт;
+Глубина короба:150 мм;
+Тип короба:Закрытый, утепленный;
+Уплотнитель на коробе:1 шт;
+Терморазрыв:Полиамидная вставка по контуру полотна и короба;
+Размеры:860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t>ДМ Север Люкс</t>
+  </si>
+  <si>
+    <t>dm-sever-luks-1-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цвет:Эмалит антрацит/Белое дерево;
+Размер:860х2050, 960х2050;
+Условия использования:Для улицы;
+Производитель:Дверной маркет;
+Толщина металла:1,5 мм;
+Толщина полотна:100 мм;
+Наполнение:Базальтовая плита, Пенополистирол;
+Кол-во уплотнителей:3 контура уплотнителя;
+Замок:2 + задвижка;
+Основной замок:Гардиан сувальдный 30.11 – 3 класс взломостойкости;
+Дополнительный замок:Гардиан сувальдный 30.01 – 3 класс взломостойкости;
+Кол-во петель:3;
+Внешнее покрытие:Фрезерованная МДФ-панель 10 мм;
+Внутренняя отделка:Фрезерованная МДФ панель 10 мм;
+Наличие терморазрыва:С терморазрывом;
+</t>
+  </si>
+  <si>
+    <t>DM Север лайт (Белое Дерево)</t>
+  </si>
+  <si>
+    <t>t.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна:100 мм;
+Наполнение полотна:Базальтовая плита+пенополистиролл;
+Внешняя отделка:Антик медный / серебро с давлением;
+Внутренняя отделка:МДФ, белое дерево;
+Покрытие металл:Антик медный;
+Основной замок:Гардиан 30.11, сувальдный;
+Дополнительный замок:Гардиан 30.01, сувальдный;
+Фурнитура:Хром, ручки раздельные;
+Уплотнитель на полотне:2 шт;
+Глубина короба:140 мм;
+Тип короба:Открытый;
+Уплотнитель на коробе:1 шт;
+Терморазрыв:Полиамидная вставка по контуру полотна и короба;
+Размеры:860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t>DM Север лайт Графит Букле</t>
+  </si>
+  <si>
+    <t>dm-sever-layt-venge-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна:100 мм;
+Наполнение полотна:Базальтовая плита+пенополистиролл;
+Внешняя отделка:Антик медный / серебро с давлением;
+Внутренняя отделка:МДФ, венге премиум;
+Покрытие металл:Антик медный;
+Основной замок:Гардиан 30.11, сувальдный;
+Дополнительный замок:Гардиан 30.01, сувальдный;
+Фурнитура:Хром, ручки раздельные;
+Уплотнитель на полотне:2 шт;
+Глубина короба:140 мм;
+Тип короба:Открытый;
+Уплотнитель на коробе:1 шт;
+Терморазрыв:Полиамидная вставка по контуру полотна и короба;
+Размеры:860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM Север Классик с терморазрывом
+</t>
+  </si>
+  <si>
+    <t>dm-grafit-1-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество замков: 2;
+Основной замок: Гардиан 3211 (цилиндрового типа);
+Тощина полотна (мм): 100;
+Контур уплотнения: 3;
+Назначение: Уличная;
+Дополнительный замок: Гардиан 3001 (сувальдного типа);
+Ночная задвижка: В комплекте;
+Производитель: Дверной маркет (DM);
+Стиль: Классика;
+</t>
+  </si>
+  <si>
+    <t>ДПМ  (Противопожарная)</t>
+  </si>
+  <si>
+    <t>0950-2075-RIGHT-RAL-7035.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна: 60мм;
+Наполнение полотна: Базальтовая плита+ГКЛ;
+Внешняя отделка: Шагрень серая;
+Внутренняя отделка: Шагрень Серая;
+Основной замок: Противопожарный, цилиндрованный;
+Фурнитура :Ручка черная на планке;
+Уплотнитель на полотне: 1шт;
+Глубина коробки: 68мм;
+Тип коробки: Закрытый ;
+Уплотнитель на коробке: 1 шт;
+Размеры: 860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t>DM Регион (Дуб Шале Серебро)</t>
+  </si>
+  <si>
+    <t>x.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна:70 мм;
+Наполнение полотна:Базальтовая плита;
+Внешняя отделка:Антик серебро;
+Внутренняя отделка:МДФ, дуб шале серебро;
+Покрытие металл:Антик медный;
+Основной замок:Галеон 1 серии, цилиндровый;
+Дополнительный замок:Галеон 1 серии, сувальдный;
+Фурнитура:Хром, ручки раздельные;
+Уплотнитель на полотне:1 шт;
+Глубина короба:90 мм;
+Тип короба:Открытый;
+Уплотнитель на коробе:1 шт;
+Размеры:860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t>DM Регион Царга (Эшвайт с черным стеклом)</t>
+  </si>
+  <si>
+    <t>B.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна:70 мм;
+Наполнение полотна:Базальтовая плита;
+Внешняя отделка:Антик серебро;
+Внутренняя отделка:МДФ, эшвайт с черным стеклом;
+Покрытие металл:Антик серебро;
+Основной замок:Галеон 1 серии, цилиндровый;
+Дополнительный замок:Галеон 1 серии, сувальдный;
+Фурнитура:Хром, ручки раздельные;
+Уплотнитель на полотне:1 шт;
+Глубина короба:90 мм;
+Тип короба:Открытый;
+Уплотнитель на коробе:1 шт;
+Размеры:860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t>DM Регион Металл</t>
+  </si>
+  <si>
+    <t>dm-region-metall-1-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна: 65 мм;
+Наполнение полотна: Базальтовая плита;
+Внешняя отделка: Антик медный;
+Внутренняя отделка: Антик медный;
+Основной замок: Галеон 3 серии цилиндровый;
+Фурнитура: Хром, ручки раздельные;
+Уплотнитель на полотне: 1 шт;
+Глубина короба: 85 мм;
+Уплотнитель на коробе: 1 шт;
+Дополнительно: Эксцентрик для регулировки прижима;
+Размеры: 860*1800; 960*1800, 860*1900; 960*1900;
+</t>
+  </si>
+  <si>
+    <t>DM Металл</t>
+  </si>
+  <si>
+    <t>dm-metall-metall-1-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна: 65 мм;
+Наполнение полотна: Базальтовая плита;
+Внешняя отделка: Антик медный;
+Внутренняя отделка: Антик медный;
+Основной замок: Гардиан 32.11, цилиндровый;
+Дополнительный замок: Гардиан 30.01, сувальдный;
+Фурнитура: Хром, ручки раздельные;
+Уплотнитель на полотне: 1 шт;
+Глубина короба: 85 мм;
+Уплотнитель на коробе: 1 шт;
+Дополнительно: Эксцентрик для регулировки прижима;
+Размеры: 860*1800; 960*1800, 860*1900; 960*1900;
+</t>
+  </si>
+  <si>
+    <t>DM Бест Металл</t>
+  </si>
+  <si>
+    <t>dm-metall-metall-1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна: 80 мм;
+Наполнение полотна: Базальтовая плита + пенополистеролл;
+Внешняя отделка: Антик медный;
+Внутренняя отделка: Антик медный;
+Основной замок: Гардиан 32.11, цилиндровый;
+Дополнительный замок: Гардиан 30.01, сувальдный;
+Фурнитура: Хром, ручки раздельные;
+Уплотнитель на полотне: 2 шт;
+Глубина короба: 100 мм;
+Уплотнитель на коробе: 1 шт;
+Дополнительно: Эксцентрик для регулировки прижима;
+Размеры: 860*2050; 960*2050;
+</t>
+  </si>
+  <si>
+    <t>DM Квадрат с зеркалом</t>
+  </si>
+  <si>
+    <t>dm-kvadrat-zerkalo-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна:70 мм;
+Наполнение полотна:Базальтовая плита;
+Внешняя отделка:Антик серебро с давлением;
+Внутренняя отделка:МДФ, астана милки с зеркалом;
+Покрытие металл:Антик серебро;
+Основной замок:Галеон, цилиндровый;
+Дополнительный замок:Галеон, сувальдный;
+Фурнитура:Матовый хром, ручки раздельные;
+Уплотнитель на полотне:1 шт;
+Глубина короба:90 мм;
+Тип короба:Открытый;
+Уплотнитель на коробе:1 шт;
+Размеры:860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t>DM Квадрат</t>
+  </si>
+  <si>
+    <t>dm-kvadrat.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна:70 мм;
+Наполнение полотна:Базальтовая плита;
+Внешняя отделка:Антик серебро с давлением;
+Внутренняя отделка:МДФ, матовый белый;
+Покрытие металл:Антик серебро;
+Основной замок:Галеон, цилиндровый;
+Дополнительный замок:Галеон, сувальдный;
+Фурнитура:Матовый хром, ручки раздельные;
+Уплотнитель на полотне:1 шт;
+Глубина короба:90 мм;
+Тип короба:Открытый;
+Уплотнитель на коробе:1 шт;
+Размеры:860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t>DM Волга</t>
+  </si>
+  <si>
+    <t>y.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна:90 мм;
+Наполнение полотна:Базальтовая плита;
+Внешняя отделка:МДФ, Бетон светлый;
+Внутренняя отделка:МДФ, софт белый;
+Покрытие металл:Муар черный;
+Основной замок:Гардиан 32.11, цилиндровый;
+Дополнительный замок:Гардиан 30.11, сувальдный;
+Фурнитура:Чёрная, ручки раздельные;
+Уплотнитель на полотне:2 шт;
+Глубина короба:115 мм;
+Тип короба:Открытый;
+Уплотнитель на коробе:1 шт;
+Размеры:860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t>Эстет</t>
+  </si>
+  <si>
+    <t>ans347trq7r38ppu9wpn1gkbabbg5pxl.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна: 90 мм;
+Наполнение полотна: Базальтовая плита;
+Внешняя отделка: МДФ, Софт графит серый;
+Внутренняя отделка: МДФ, Софт графит светлый;
+Покрытие металл: Муар черный;
+Основной замок: Гардиан 32.11 цилиндровый;
+Дополнительный замок: Гардиан 30.01 сувальный;
+Фурнитура: Квадратная черная;
+Уплотнитель на полотне: 2 шт;
+Глубина короба: 115 мм;
+Уплотнитель на коробе: 1 шт;
+Дополнительно: Эксцентрик для регулировки прижима;
+Размеры: 860*2050; 960*2050;
+</t>
+  </si>
+  <si>
+    <t>DM Ника с зеркалом</t>
+  </si>
+  <si>
+    <t>asdasdasd.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна: 90 мм;
+Наполнение полотна: Базальтовая плита;
+Внешняя отделка: МДФ, Черная шагрень;
+Внутренняя отделка: МДФ, Эмалит зефир Зеркало;
+Покрытие металл: Муар черный;
+Основной замок: Галеон 3 серии цилиндровый;
+Дополнительный замок: Галеон 3 серии сувальный;
+Фурнитура: Квадратная черная;
+Уплотнитель на полотне: 2 шт;
+Глубина короба: 115 мм;
+Уплотнитель на коробе: 1 шт;
+Дополнительно: Эксцентрик для регулировки прижима;
+Размеры: 860*2050; 960*2050;
+</t>
+  </si>
+  <si>
+    <t>DM New Классика</t>
+  </si>
+  <si>
+    <t>0006582asd.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна:90 мм;
+Наполнение полотна:Базальтовая плита;
+Внешняя отделка:МДФ, кварц черный;
+Внутренняя отделка:МДФ, белый матовый;
+Покрытие металл:Муар черный;
+Основной замок:Галеон, цилиндровый;
+Дополнительный замок:Галеон, сувальдный;
+Фурнитура:Черная, ручки раздельные;
+Уплотнитель на полотне:2 шт;
+Глубина короба:115 мм;
+Тип короба:Открытый;
+Уплотнитель на коробе:1 шт;
+Размеры:860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t>DM Базальт (Сандал)</t>
+  </si>
+  <si>
+    <t>x_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна:90 мм;
+Наполнение полотна:Базальтовая плита;
+Внешняя отделка:Антик медный;
+Внутренняя отделка:МДФ, сандал;
+Покрытие металл:Антик медный;
+Основной замок:Галеон, цилиндровый;
+Дополнительный замок:Галеон, сувальдный;
+Фурнитура:Хром, ручки раздельные;
+Уплотнитель на полотне:2 шт;
+Глубина короба:122 мм;
+Тип короба:Открытый;
+Уплотнитель на коробе:1 шт;
+Размеры:860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t>DM Стиль Царга</t>
+  </si>
+  <si>
+    <t>dm-stil-carga-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна:90 мм;
+Наполнение полотна:Базальтовая плита;
+Внешняя отделка:Антик серебро с о вставкой из нержавейки;
+Внутренняя отделка:МДФ, ривьера айс с черным стеклом;
+Покрытие металл:Антик серебро;
+Основной замок:Галеон 3 серии, цилиндровый;
+Дополнительный замок:Галеон 3 серии, сувальдный;
+Фурнитура:Хром, ручки раздельные;
+Уплотнитель на полотне:2 шт;
+Глубина короба:115 мм;
+Тип короба:Открытый;
+Уплотнитель на коробе:1 шт;
+Размеры:860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t>DM Стиль с зеркалом</t>
+  </si>
+  <si>
+    <t>stil.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна:90 мм;
+Наполнение полотна:Базальтовая плита;
+Внешняя отделка:Антик серебро с о вставкой из нержавейки;
+Внутренняя отделка:МДФ, матовый белый с зеркалом;
+Покрытие металл:Антик серебро;
+Основной замок:Галеон 3 серии, цилиндровый;
+Дополнительный замок:Галеон 3 серии, сувальдный;
+Фурнитура:Матовый хром, ручки раздельные;
+Уплотнитель на полотне:2 шт;
+Глубина короба:115 мм;
+Тип короба:Открытый;
+Уплотнитель на коробе:1 шт;
+Размеры:860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t>V.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна:90 мм;
+Наполнение полотна:Базальтовая плита;
+Внешняя отделка:Антик серебро с о вставкой из нержавейки;
+Внутренняя отделка:МДФ, бетон снежный с черным стекло;
+Покрытие металл:Антик серебро;
+Основной замок:Галеон 3 серии, цилиндровый;
+Дополнительный замок:Галеон 3 серии, сувальдный;
+Фурнитура:Матовый хром, ручки раздельные;
+Уплотнитель на полотне:2 шт;
+Глубина короба:115 мм;
+Тип короба:Открытый;
+Уплотнитель на коробе:1 шт;
+Размеры:860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t>DM Стиль</t>
+  </si>
+  <si>
+    <t>dm-stil.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна:90 мм;
+Наполнение полотна:Базальтовая плита;
+Внешняя отделка:Антик серебро с о вставкой из нержавейки;
+Внутренняя отделка:МДФ, матовый белый;
+Покрытие металл:Антик серебро;
+Основной замок:Галеон 3 серии, цилиндровый;
+Дополнительный замок:Галеон 3 серии, сувальдный;
+Фурнитура:Матовый хром, ручки раздельные;
+Уплотнитель на полотне:2 шт;
+Глубина короба:115 мм;
+Тип короба:Открытый;
+Уплотнитель на коробе:1 шт;
+Размеры:860*2050, 960*2050;
+</t>
+  </si>
+  <si>
+    <t>Алтай Венге</t>
+  </si>
+  <si>
+    <t>vengr.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители: 2 контура;
+Толщина полотна: 60мм;
+Короб: 78мм Открыт;
+Внутренняя панель: МДФ 6мм с Фрезировкой;
+Основной замок: Галион 811;
+Дополнительный замок: Галион 812;
+Цильндр:Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери:Миниральная плита;
+Размер:860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t>Алтай</t>
+  </si>
+  <si>
+    <t>altay-a.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители: 2 контура;
+Толщина полотна: 70мм;
+Короб: 85мм Закрыт утеплен;
+Внутренняя панель: МДФ 6 мм с Фрезировкой;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Минплита;
+Размер:860х2050мм,960х2050м
+</t>
+  </si>
+  <si>
+    <t>Альфа</t>
+  </si>
+  <si>
+    <t>alpha-a.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители; 3 контура;
+Толщина полотна: 100мм;
+Короб:115мм Закрыт утеплен;
+Внутренняя панель: металл 3;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр: Ключ\вертушок;
+Ночник:Есть;
+Ручка: Раздельная;
+Заполнение Двери: Пенополистирол;
+Размер: 860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t>Амур</t>
+  </si>
+  <si>
+    <t>amur-a.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители:2 контура;
+Толщина полотна: 70 мм;
+Короб:115мм Закрыт утеплен;
+Внутренняя панель: МДФ 10 мм с Фрезировкой 3;
+Основной замок:Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр: Ключ\вертушок;
+Ночник:Есть;
+Ручка: Раздельная;
+Заполнение Двери: Пенополистирол;
+Размер: 860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t>arabika-a.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители: 2 контура;
+Толщина полотна: 82мм;
+Короб:95мм Закрыт утеплен;
+Внутренняя панель: МДФ 22мм царговая с зеркальными ставками Лофт белый;
+Наружния панель: МДФ 10мм Бетон темный;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Броненакладка врезная;
+Цилиндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка:Раздельная;
+Заполнение Двери: Пенополистирол;
+Размер: 860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t>Афина</t>
+  </si>
+  <si>
+    <t>aphina-a.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители: 2 контура;
+Толщина полотна: 70мм;
+Короб: 85мм Закрыт утеплен;
+Внутренняя панель: МДФ 6 мм с Фрезировкой;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр: Ключ\вертушок;
+Ночник:Есть;
+Ручка: Раздельная;
+Заполнение Двери: Пенополистирол;
+Размер: 860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t>Барселона Ясень белый/ серебр</t>
+  </si>
+  <si>
+    <t>asw12ssaa00.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители:3 контура;
+Толщина полотна:90мм;
+Короб:105мм Закрыт утеплен;
+Внутренняя панель: МДФ 12 мм  Ясень белый;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр:Ключ\вертушок;
+Ночник:Есть;
+Ручка:Раздельная;
+Заполнение Двери: Минеральная плита;
+Размер: 860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t>Венеция серебро темное \лиственница беж</t>
+  </si>
+  <si>
+    <t>veneciya-serebro-temnoe.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители: 3 контура;
+Толщина полотна: 100мм;
+Короб:115мм Закрыт утеплен;
+Внутренняя панель: МДФ 16мм с Фрезировкой 3;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр:Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Пенополистирол;
+Размер: 860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t>Грасса Ривьера Айс</t>
+  </si>
+  <si>
+    <t>grassasasdasd.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители: 3 контура;
+Толщина полотна:100мм;
+Короб:115мм Закрыт утеплен;
+Внутренняя панель: МДФ 16мм Царговая 3;
+Основной замок:Гардиан 3001;
+Дополнительный замок:Гардиан 3211;
+Цильндр:Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери: Пенополистирол;;
+Размер: 860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Грасса
+</t>
+  </si>
+  <si>
+    <t>grassa-a.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители: 3 контура;
+Толщина полотна: 100мм;
+Короб:115мм Закрыт утеплен;
+Внутренняя панель: МДФ 16мм с Фрезировкой 3;
+Основной замок:Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цильндр:Ключ\вертушок;
+Ночник:Есть;
+Ручка:Раздельная;
+Заполнение Двери:Пенополистирол;
+Размер:860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модерн Бетон / Лофт белый
+</t>
+  </si>
+  <si>
+    <t>bd6f16f908408d063d5265807d7efcd1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители:2 контура;
+Толщина полотна:90 мм;
+Короб:95мм Закрыт утеплен;
+Внутренняя панель: МДФ 22мм царговая с зеркальными ставками Лофт белый;
+Наружния панель: МДФ 10мм Бетон темный;
+Основной замок:Гардиан 3001;
+Дополнительный замок:Гардиан 3211;
+Броненакладка врезная;
+Цилиндр :Ключ\вертушок;
+Ночник:Есть;
+Ручка :Раздельная;
+Заполнение Двери: Пенополистирол;
+Размер: 860х2050мм,960х2050мм;
+</t>
+  </si>
+  <si>
+    <t>Модерн – Ревьера айс</t>
+  </si>
+  <si>
+    <t>213wde23ed2rawd.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество замков: 2;
+Основной замок: Гардиан 3011 (цилиндрового типа);
+Тощина полотна (мм): 80;
+Контур уплотнения: 2;
+Назначение: Для квартир и помещений;
+Дополнительный замок: Гардиан 3211;
+Ночная задвижка: В комплекте;
+Производитель: Берг (Berg);
+</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>sadh1123daksdjes90.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители:3 контура;
+Толщина полотна:90 мм;
+Короб:113 мм Закрыт утеплен;
+Внутренняя панель: МДФ 12 мм ;
+Наружния панель: МДФ 10 мм ;
+Основной замок: Гардиан 3001;
+Дополнительный замок:Гардиан 3211;
+Броненакладка врезная;
+Цилиндр:Ключ\вертушок;
+Ночник:Есть;
+Ручка:Раздельная;
+Заполнение Двери:Базальтовая плита повышенной плотности;
+Размер;860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t>Престиж белый ясень</t>
+  </si>
+  <si>
+    <t>dm-prestizhsdasdasd.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители:3 контура;
+Толщина полотна:100мм;
+Короб:115мм Закрыт утеплен;
+Внутренняя панель: МДФ 6мм с Фрезировкой цвет Белый ясень;
+Основной замок: Гардиан 3001;
+Дополнительный замок:Гардиан 3211;
+Броненакладка врезная;
+Цилиндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка:Раздельная;
+Заполнение Двери:Пенополистирол;
+Размер: 860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t>Престиж Венге</t>
+  </si>
+  <si>
+    <t>sadas73hemka8au3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители:3 контура;
+Толщина полотна:100мм;
+Короб:115мм Закрыт утеплен;
+Внутренняя панель: МДФ 6мм с Фрезировкой цвет Белый ясень;
+Основной замок: Гардиан 3001;
+Дополнительный замок:Гардиан 3211;
+Броненакладка врезная;
+Цилиндр:Ключ\вертушок;
+Ночник:Есть;
+Ручка:Раздельная;
+Заполнение Двери:Пенополистирол;
+</t>
+  </si>
+  <si>
+    <t>Прима антик серебро/белый матовый</t>
+  </si>
+  <si>
+    <t>prima-matoviy.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители:3 контура;
+Толщина полотна:100мм;
+Короб:115мм Открыт;
+Внутренняя панель: МДФ 10мм с Фрезировкой цвет Белый матовый;
+Основной замок:Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Броненакладка врезная;
+Цилиндр:Ключ\вертушок;
+Ночник:Есть;
+Ручка:Раздельная;
+Заполнение Двери: Базальтовая плита;
+Размер:860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t>Рим орех</t>
+  </si>
+  <si>
+    <t>rim-oreh.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители: 2 контура;
+Толщина полотна: 70мм;
+Короб: 85мм Закрыт утеплен;
+Внутренняя панель: МДФ 12мм с Фрезировкой;
+Основной замок: Гардиан 3001;
+Дополнительный замок:Гардиан 3211;
+Цильндр: Ключ\вертушок;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери:Пенополистирол;
+Размер;860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t>Рокка белая</t>
+  </si>
+  <si>
+    <t>rokko-belaya.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители:2 контура;
+Толщина полотна: 70мм;
+Короб: 85мм Закрыт утеплен;
+Внутренняя панель: МДФ 12мм с Фрезеровкой;
+Основной замок: Гардиан 3001;
+Дополнительный замок:Гардиан 3211;
+Цилиндр: Ключ\вертушок;
+Ночник:Есть;
+Ручка:Раздельная;
+Заполнение Двери:Пенополистирол;
+Размер: 860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t>Рокка венге</t>
+  </si>
+  <si>
+    <t>rokko-venge.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители: 2 контура;
+Толщина полотна: 70мм;
+Короб: 85мм Закрыт утеплен;
+Внутренняя панель: МДФ 12мм с Фрезеровкой;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Цилиндр: Ключ\вертушок;
+Ночник:Есть;
+Ручка:Раздельная;
+Заполнение Двери:Пенополистирол;
+Размер:860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термо Белая лиственница
+</t>
+  </si>
+  <si>
+    <t>termo-belya-listvinica.jpg</t>
+  </si>
+  <si>
+    <t>Контур уплотнители:3 контура антик медь +цинкогрунт;
+Толщина полотна: 107мм;
+Короб:122мм закрыт +мин плита;
+Внутренняя панель: МДФ 16мм с Фрезеровкой;
+Основной замок: Гардиан 3001;
+Дополнительный замок:Гардиан 3001;
+Цилиндр: Нет;
+Ночник: Есть;
+Ручка: Раздельная;
+Заполнение Двери:пенополистерол+мин плита+ фольгоизолон+пробка;
+Размер: 860х2050мм,960х2050м;</t>
+  </si>
+  <si>
+    <t>Термо Дуб коньяк</t>
+  </si>
+  <si>
+    <t>termo-dub-koniyak.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители: 3 контура;
+Толщина полотна: 107мм;
+Короб: 122мм Открыт+мин плита;
+Внутренняя панель: МДФ 16мм с Фрезировкой Дуб коньяк;
+Основной замок:Гардиан 3001;
+Дополнительный замок: Гардиан 3001;
+Цильндр: Нет;
+Ночник: Есть;
+Ручка:Раздельная;
+Заполнение Двери: Пенополистирол+мин плита;
+Размер:860х2050мм,960х2050м;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термо Муар серый
+</t>
+  </si>
+  <si>
+    <t>chernyi-muar-seryi.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина металла: на полотне – 1,5 мм; на коробе – 1,5 мм;
+Толщина полотна: 110 мм;
+Заполнение полотна: фольгоизолон 2 мм; esp плита 60 мм; esp плита 30 мм;
+мин. вата утепление ребер жесткости;
+Замки: 2 сувальдных замка BORDER G9-6Э и BORDER G8-6Э;
+Контур уплотнения: 3 D-образных;
+Петли: 3;
+Короб: Открытого типа, с фольгоизолоном;
+Противосъём: 3;
+Вылет наличника: 55 / 60 мм;
+Отделка: «МУАР RAL 7024» + грунт-барьер «AKZO NOBEL», с глубокой давкой, стеклопакет / 10 мм фрезерованная панель, Ясень белый;
+Фурнитура: Раздельная, «хром»;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Титаниум термо
+</t>
+  </si>
+  <si>
+    <t>tesnajfxajkj.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дверная коробка: П9Б (терморазрыв) цельногнутая, утепленная; Дверное полотно (терморазрыв) с толщиной стали: 1,8 мм; Толщина дверного полотна: 110 мм, короба: 123 мм; Внутри дверного полотна: 6 ребер жесткости; Наполнение полотна и короба: минеральная вата Ursa; Три контура уплотнения (D-образные, резиновые) : защита от сквозняков и запахов с уличной стороны; Замок верхний: сувальдный Galeon 817 (Россия, 3 класс взломостойкости по ГОСТ 5089-2003); Замок нижний: цилиндровый Galeon 816 (Россия, 4 класс взломостойкости по ГОСТ 5089-2003); Броненакладка: врезная; Евроцилиндр: перфорированный ключ-вертушок; Автоматические шторки на сувальдных замках CLS-13; Ночная задвижка: автономная; Квадратные розетки: ручка, ночная задвижка, глазок цвет Черный; Петли: 3 шт., наружные на опорных подшипниках; Противосъемные ригели: 3 шт; Порог двери хромированный: из нержавеющей стали; Производство: Россия, г. Йошкар-Ола;
+</t>
+  </si>
+  <si>
+    <t>Фаворит</t>
+  </si>
+  <si>
+    <t>favorit.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контур уплотнители: 3 контура;
+Толщина полотна:90 мм;
+Короб: 113 мм Закрытая утепленная;
+Внутренняя панель: МДФ 12 мм Белая;
+Наружная панель: МДФ 10мм Черная шагрень;
+Основной замок: Гардиан 3001;
+Дополнительный замок: Гардиан 3211;
+Броненакладка врезная;
+Цилиндр: Ключ\вертушок;
+Ночник:Есть;
+Ручка:Раздельная;
+Заполнение Двери: Базальтовая плита повышенной плотности;
+Размер: 860х2050мм, 960х2050м;
+</t>
   </si>
 </sst>
 </file>
@@ -4543,7 +6022,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4578,6 +6057,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5798,7 +7280,7 @@
         <v>91</v>
       </c>
       <c r="H31" s="12">
-        <v>3800.0</v>
+        <v>3767.0</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>17</v>
@@ -5882,7 +7364,7 @@
         <v>99</v>
       </c>
       <c r="H34" s="12">
-        <v>4350.0</v>
+        <v>4200.0</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>17</v>
@@ -5965,7 +7447,7 @@
         <v>108</v>
       </c>
       <c r="H37" s="12">
-        <v>4667.0</v>
+        <v>4666.0</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>17</v>
@@ -5993,7 +7475,7 @@
         <v>110</v>
       </c>
       <c r="H38" s="12">
-        <v>4817.0</v>
+        <v>4800.0</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>17</v>
@@ -6019,7 +7501,7 @@
         <v>112</v>
       </c>
       <c r="H39" s="12">
-        <v>4817.0</v>
+        <v>4800.0</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>17</v>
@@ -6127,7 +7609,7 @@
         <v>122</v>
       </c>
       <c r="H43" s="12">
-        <v>5917.0</v>
+        <v>5950.0</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>17</v>
@@ -6155,7 +7637,7 @@
         <v>125</v>
       </c>
       <c r="H44" s="12">
-        <v>6000.0</v>
+        <v>6034.0</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>17</v>
@@ -6183,7 +7665,7 @@
         <v>128</v>
       </c>
       <c r="H45" s="12">
-        <v>6267.0</v>
+        <v>6300.0</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>17</v>
@@ -6211,7 +7693,7 @@
         <v>131</v>
       </c>
       <c r="H46" s="12">
-        <v>6267.0</v>
+        <v>6300.0</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>17</v>
@@ -6239,7 +7721,7 @@
         <v>134</v>
       </c>
       <c r="H47" s="12">
-        <v>6467.0</v>
+        <v>6517.0</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>17</v>
@@ -6349,7 +7831,7 @@
         <v>145</v>
       </c>
       <c r="H51" s="12">
-        <v>8942.0</v>
+        <v>9050.0</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>17</v>
@@ -6405,7 +7887,7 @@
         <v>151</v>
       </c>
       <c r="H53" s="12">
-        <v>9300.0</v>
+        <v>9417.0</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>17</v>
@@ -12426,83 +13908,1507 @@
         <v>4580.0</v>
       </c>
     </row>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="B382" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="C382" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G382" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="H382" s="13">
+        <v>8317.0</v>
+      </c>
+      <c r="I382" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="383" ht="18.0" customHeight="1">
+      <c r="B383" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C383" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G383" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="H383" s="13">
+        <v>2200.0</v>
+      </c>
+      <c r="I383" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K383" s="13" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="384" ht="14.25" customHeight="1">
+      <c r="B384" s="13" t="s">
+        <v>988</v>
+      </c>
+      <c r="C384" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G384" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="H384" s="13">
+        <v>2034.0</v>
+      </c>
+      <c r="I384" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K384" s="13" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="385" ht="16.5" customHeight="1">
+      <c r="B385" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="C385" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G385" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="H385" s="13">
+        <v>3534.0</v>
+      </c>
+      <c r="I385" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K385" s="13" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="386" ht="14.25" customHeight="1">
+      <c r="B386" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="C386" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G386" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="H386" s="13">
+        <v>3470.0</v>
+      </c>
+      <c r="I386" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K386" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="387" ht="14.25" customHeight="1">
+      <c r="B387" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="C387" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G387" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="H387" s="13">
+        <v>4200.0</v>
+      </c>
+      <c r="I387" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K387" s="13" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="388" ht="14.25" customHeight="1">
+      <c r="B388" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C388" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G388" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H388" s="13">
+        <v>4334.0</v>
+      </c>
+      <c r="I388" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K388" s="13" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="B389" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C389" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G389" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H389" s="13">
+        <v>3368.0</v>
+      </c>
+      <c r="I389" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K389" s="13" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="390" ht="18.0" customHeight="1">
+      <c r="B390" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C390" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G390" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H390" s="13">
+        <v>8100.0</v>
+      </c>
+      <c r="I390" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K390" s="13" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="391" ht="15.0" customHeight="1">
+      <c r="B391" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C391" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G391" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H391" s="13">
+        <v>5500.0</v>
+      </c>
+      <c r="I391" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K391" s="13" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="392" ht="14.25" customHeight="1">
+      <c r="B392" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C392" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G392" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H392" s="13">
+        <v>5850.0</v>
+      </c>
+      <c r="I392" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K392" s="13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="393" ht="15.0" customHeight="1">
+      <c r="B393" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C393" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G393" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H393" s="13">
+        <v>4667.0</v>
+      </c>
+      <c r="I393" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K393" s="13" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="394" ht="15.0" customHeight="1">
+      <c r="B394" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C394" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G394" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I394" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K394" s="13" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="395" ht="18.75" customHeight="1">
+      <c r="B395" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C395" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G395" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H395" s="13">
+        <v>5867.0</v>
+      </c>
+      <c r="I395" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K395" s="13" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="396" ht="17.25" customHeight="1">
+      <c r="B396" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C396" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G396" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I396" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K396" s="13" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="B397" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C397" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G397" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H397" s="13">
+        <v>6267.0</v>
+      </c>
+      <c r="I397" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K397" s="13" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="398" ht="15.0" customHeight="1">
+      <c r="B398" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C398" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G398" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H398" s="13">
+        <v>6734.0</v>
+      </c>
+      <c r="I398" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K398" s="13" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="399" ht="18.75" customHeight="1">
+      <c r="B399" s="13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C399" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G399" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H399" s="13">
+        <v>6534.0</v>
+      </c>
+      <c r="I399" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K399" s="13" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="400" ht="14.25" customHeight="1">
+      <c r="B400" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C400" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G400" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I400" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K400" s="13" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="401" ht="15.0" customHeight="1">
+      <c r="B401" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C401" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G401" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H401" s="13">
+        <v>8867.0</v>
+      </c>
+      <c r="I401" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K401" s="13" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="402" ht="18.0" customHeight="1">
+      <c r="B402" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C402" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G402" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H402" s="13">
+        <v>4534.0</v>
+      </c>
+      <c r="I402" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K402" s="13" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="403" ht="16.5" customHeight="1">
+      <c r="B403" s="13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C403" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G403" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H403" s="13">
+        <v>3817.0</v>
+      </c>
+      <c r="I403" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K403" s="13" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="404" ht="15.0" customHeight="1">
+      <c r="B404" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C404" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G404" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H404" s="13">
+        <v>3817.0</v>
+      </c>
+      <c r="I404" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K404" s="13" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="405" ht="14.25" customHeight="1">
+      <c r="B405" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C405" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G405" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H405" s="13">
+        <v>2267.0</v>
+      </c>
+      <c r="I405" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K405" s="13" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="406" ht="18.75" customHeight="1">
+      <c r="B406" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C406" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G406" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H406" s="13">
+        <v>2267.0</v>
+      </c>
+      <c r="I406" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K406" s="13" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="407" ht="16.5" customHeight="1">
+      <c r="B407" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C407" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G407" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H407" s="13">
+        <v>5267.0</v>
+      </c>
+      <c r="I407" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K407" s="13" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="408" ht="12.0" customHeight="1">
+      <c r="B408" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C408" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G408" s="13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I408" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K408" s="13" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="409" ht="15.0" customHeight="1">
+      <c r="B409" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C409" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G409" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H409" s="13">
+        <v>10934.0</v>
+      </c>
+      <c r="I409" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K409" s="13" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="410" ht="14.25" customHeight="1">
+      <c r="B410" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C410" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G410" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H410" s="13">
+        <v>6650.0</v>
+      </c>
+      <c r="I410" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K410" s="13" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="B411" s="13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C411" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G411" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H411" s="13">
+        <v>8300.0</v>
+      </c>
+      <c r="I411" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K411" s="13" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="412" ht="15.0" customHeight="1">
+      <c r="B412" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C412" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G412" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H412" s="13">
+        <v>10993.0</v>
+      </c>
+      <c r="I412" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K412" s="13" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="413" ht="17.25" customHeight="1">
+      <c r="B413" s="13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C413" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G413" s="13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H413" s="13">
+        <v>8317.0</v>
+      </c>
+      <c r="I413" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K413" s="13" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="414" ht="16.5" customHeight="1">
+      <c r="B414" s="13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C414" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G414" s="13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H414" s="13">
+        <v>12533.0</v>
+      </c>
+      <c r="I414" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K414" s="13" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="415" ht="14.25" customHeight="1">
+      <c r="B415" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C415" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G415" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H415" s="13">
+        <v>8867.0</v>
+      </c>
+      <c r="I415" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K415" s="13" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="416" ht="16.5" customHeight="1">
+      <c r="B416" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C416" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G416" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H416" s="13">
+        <v>7150.0</v>
+      </c>
+      <c r="I416" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K416" s="13" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="B417" s="13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C417" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G417" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H417" s="13">
+        <v>8917.0</v>
+      </c>
+      <c r="I417" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K417" s="13" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="B418" s="13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C418" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G418" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H418" s="13">
+        <v>4167.0</v>
+      </c>
+      <c r="I418" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K418" s="13" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="419" ht="17.25" customHeight="1">
+      <c r="B419" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C419" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G419" s="13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H419" s="13">
+        <v>4034.0</v>
+      </c>
+      <c r="I419" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K419" s="13" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="420" ht="16.5" customHeight="1">
+      <c r="B420" s="13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C420" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G420" s="13" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H420" s="13">
+        <v>4400.0</v>
+      </c>
+      <c r="I420" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K420" s="13" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="B421" s="15" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C421" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G421" s="13" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H421" s="13">
+        <v>4034.0</v>
+      </c>
+      <c r="I421" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K421" s="13" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="422" ht="16.5" customHeight="1">
+      <c r="B422" s="13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C422" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G422" s="13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H422" s="13">
+        <v>4567.0</v>
+      </c>
+      <c r="I422" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K422" s="13" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="423" ht="18.0" customHeight="1">
+      <c r="B423" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C423" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G423" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H423" s="13">
+        <v>5467.0</v>
+      </c>
+      <c r="I423" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K423" s="13" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="424" ht="16.5" customHeight="1">
+      <c r="B424" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C424" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G424" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H424" s="13">
+        <v>5734.0</v>
+      </c>
+      <c r="I424" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K424" s="13" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="425" ht="19.5" customHeight="1">
+      <c r="B425" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C425" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G425" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H425" s="13">
+        <v>5100.0</v>
+      </c>
+      <c r="I425" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K425" s="13" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="426" ht="17.25" customHeight="1">
+      <c r="B426" s="13" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C426" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G426" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H426" s="13">
+        <v>4467.0</v>
+      </c>
+      <c r="I426" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K426" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="427" ht="18.75" customHeight="1">
+      <c r="B427" s="13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C427" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G427" s="13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H427" s="13">
+        <v>8217.0</v>
+      </c>
+      <c r="I427" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K427" s="13" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="428" ht="17.25" customHeight="1">
+      <c r="B428" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C428" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G428" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H428" s="13">
+        <v>7934.0</v>
+      </c>
+      <c r="I428" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K428" s="13" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="429" ht="18.75" customHeight="1">
+      <c r="B429" s="13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C429" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G429" s="13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H429" s="13">
+        <v>6534.0</v>
+      </c>
+      <c r="I429" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K429" s="13" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="430" ht="16.5" customHeight="1">
+      <c r="B430" s="13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C430" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G430" s="13" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H430" s="13">
+        <v>5334.0</v>
+      </c>
+      <c r="I430" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K430" s="13" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="431" ht="16.5" customHeight="1">
+      <c r="B431" s="13" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C431" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G431" s="13" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H431" s="13">
+        <v>5984.0</v>
+      </c>
+      <c r="I431" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K431" s="13" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="432" ht="18.75" customHeight="1">
+      <c r="B432" s="13" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C432" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G432" s="13" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H432" s="13">
+        <v>6109.0</v>
+      </c>
+      <c r="I432" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K432" s="13" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="433" ht="16.5" customHeight="1">
+      <c r="B433" s="13" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C433" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G433" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H433" s="13">
+        <v>5734.0</v>
+      </c>
+      <c r="I433" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K433" s="13" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="434" ht="14.25" customHeight="1">
+      <c r="B434" s="13" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C434" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G434" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H434" s="13">
+        <v>5442.0</v>
+      </c>
+      <c r="I434" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K434" s="13" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="B435" s="13" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C435" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G435" s="13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H435" s="13">
+        <v>3900.0</v>
+      </c>
+      <c r="I435" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K435" s="13" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="436" ht="17.25" customHeight="1">
+      <c r="B436" s="13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C436" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G436" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H436" s="13">
+        <v>3900.0</v>
+      </c>
+      <c r="I436" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K436" s="13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="437" ht="17.25" customHeight="1">
+      <c r="B437" s="13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C437" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G437" s="13" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H437" s="13">
+        <v>5334.0</v>
+      </c>
+      <c r="I437" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K437" s="13" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="438" ht="15.0" customHeight="1">
+      <c r="B438" s="13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C438" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G438" s="13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H438" s="13">
+        <v>4484.0</v>
+      </c>
+      <c r="I438" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K438" s="13" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="439" ht="16.5" customHeight="1">
+      <c r="B439" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C439" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G439" s="13" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H439" s="13">
+        <v>8784.0</v>
+      </c>
+      <c r="I439" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K439" s="13" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="440" ht="18.0" customHeight="1">
+      <c r="B440" s="13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C440" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G440" s="13" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H440" s="13">
+        <v>3767.0</v>
+      </c>
+      <c r="I440" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K440" s="13" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="441" ht="17.25" customHeight="1">
+      <c r="B441" s="13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C441" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G441" s="13" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H441" s="13">
+        <v>6300.0</v>
+      </c>
+      <c r="I441" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K441" s="13" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="442" ht="16.5" customHeight="1">
+      <c r="B442" s="13" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C442" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G442" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H442" s="13">
+        <v>6034.0</v>
+      </c>
+      <c r="I442" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K442" s="13" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="443" ht="18.75" customHeight="1">
+      <c r="B443" s="13" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C443" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G443" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H443" s="13">
+        <v>6300.0</v>
+      </c>
+      <c r="I443" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K443" s="13" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="444" ht="18.75" customHeight="1">
+      <c r="B444" s="13" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C444" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G444" s="13" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H444" s="13">
+        <v>6300.0</v>
+      </c>
+      <c r="I444" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K444" s="13" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="445" ht="16.5" customHeight="1">
+      <c r="B445" s="13" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C445" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G445" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H445" s="13">
+        <v>4187.0</v>
+      </c>
+      <c r="I445" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K445" s="13" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="B446" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C446" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G446" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I446" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K446" s="13" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="B447" s="13" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C447" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G447" s="13" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H447" s="13">
+        <v>8634.0</v>
+      </c>
+      <c r="I447" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K447" s="13" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="B448" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C448" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G448" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I448" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K448" s="13" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="449" ht="18.0" customHeight="1">
+      <c r="B449" s="13" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C449" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G449" s="13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I449" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K449" s="13" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="450" ht="18.0" customHeight="1">
+      <c r="B450" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C450" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G450" s="13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H450" s="13">
+        <v>6517.0</v>
+      </c>
+      <c r="I450" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K450" s="13" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="451" ht="15.0" customHeight="1">
+      <c r="B451" s="13" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C451" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G451" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H451" s="13">
+        <v>4666.0</v>
+      </c>
+      <c r="I451" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K451" s="13" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="452" ht="20.25" customHeight="1">
+      <c r="B452" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C452" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G452" s="13" t="s">
+        <v>1186</v>
+      </c>
+      <c r="I452" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K452" s="13" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="B453" s="13" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C453" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G453" s="13" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I453" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K453" s="13" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="454" ht="21.0" customHeight="1">
+      <c r="B454" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C454" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G454" s="13" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H454" s="13">
+        <v>8067.0</v>
+      </c>
+      <c r="I454" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K454" s="13" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="455" ht="18.0" customHeight="1">
+      <c r="B455" s="13" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C455" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G455" s="13" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H455" s="13">
+        <v>8067.0</v>
+      </c>
+      <c r="I455" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K455" s="13" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="456" ht="17.25" customHeight="1">
+      <c r="B456" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C456" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G456" s="13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I456" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K456" s="13" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="457" ht="16.5" customHeight="1">
+      <c r="B457" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C457" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G457" s="13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I457" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K457" s="13" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="458" ht="16.5" customHeight="1">
+      <c r="B458" s="13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C458" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G458" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I458" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K458" s="13" t="s">
+        <v>1205</v>
+      </c>
+    </row>
     <row r="459" ht="15.75" customHeight="1"/>
     <row r="460" ht="15.75" customHeight="1"/>
     <row r="461" ht="15.75" customHeight="1"/>
@@ -13040,9 +15946,8 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="K1:K38 K40:K996">
+  <conditionalFormatting sqref="K1:K38 K40:K995">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="355">
   <si>
     <t>article</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Maximum</t>
   </si>
   <si>
-    <t>мальта бетон светлый 31900.jpeg</t>
+    <t>1.jpeg</t>
   </si>
   <si>
     <t>сумма в рассрочку от банка на 6 месяцев</t>
@@ -75,13 +75,13 @@
     <t>Мальта бетон матовый</t>
   </si>
   <si>
-    <t>мальта белый мат 31900.jpeg</t>
+    <t>2.jpeg</t>
   </si>
   <si>
     <t>Аляска венге</t>
   </si>
   <si>
-    <t>аляска венге 49300.jpeg</t>
+    <t>3.jpeg</t>
   </si>
   <si>
     <t>Металл: 1.8 мм;Наружняя отделка: серебро антик;Внутренняя отделка: фрезерованная, панель
@@ -97,13 +97,13 @@
 </t>
   </si>
   <si>
-    <t>термо аляска сандал 49300.jpeg</t>
+    <t>4.jpeg</t>
   </si>
   <si>
     <t>Тундра грецкий орех</t>
   </si>
   <si>
-    <t>тундра грецкий орех.jpeg 47700.jpeg</t>
+    <t>5.jpeg</t>
   </si>
   <si>
     <t>Металл: 1.8 мм;Наружная отделка: медь антик;Внутренняя отделка: фрезерованная, панель
@@ -116,19 +116,19 @@
     <t>Тундра венге</t>
   </si>
   <si>
-    <t>тундра венге.jpeg 47700.jpeg</t>
+    <t>6.jpeg</t>
   </si>
   <si>
     <t>Тундра белый матовый</t>
   </si>
   <si>
-    <t>тундра бел мат 47700.jpeg</t>
+    <t>7.jpeg</t>
   </si>
   <si>
     <t>Комета бежевый</t>
   </si>
   <si>
-    <t>комета беж 34900.jpeg</t>
+    <t>8.jpeg</t>
   </si>
   <si>
     <t>Металл: 1.8 мм;Наружняя отделка: медь антик;Внутренняя отделка: фрезерованная панель
@@ -139,14 +139,14 @@
     <t xml:space="preserve">Комета венге </t>
   </si>
   <si>
-    <t>комета венге 34900.jpeg</t>
+    <t>9.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Мираж белое дерево
 </t>
   </si>
   <si>
-    <t>мираж белое дерево 36800.jpeg</t>
+    <t>10.jpeg</t>
   </si>
   <si>
     <t>Металл: 1.8 мм;Наружняя отделка: медь антик;Внутренняя отделка: фрезерованная панель
@@ -158,14 +158,14 @@
     <t>Мираж венге</t>
   </si>
   <si>
-    <t>мираж венге 36800.jpeg</t>
+    <t>11.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Легенда сандал
 </t>
   </si>
   <si>
-    <t>легенда сандал 38900.jpeg</t>
+    <t>12.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Металл: 1.8 мм;Наружняя отделка: серебро антик;Внутренняя отделка: ФЛ 10 мм,
@@ -179,25 +179,25 @@
     <t>Легенда венге</t>
   </si>
   <si>
-    <t>легенда венге 38900.jpeg</t>
+    <t>13.jpeg</t>
   </si>
   <si>
     <t>Рим</t>
   </si>
   <si>
-    <t>рим.jpeg 28000.jpeg</t>
+    <t>14.jpeg</t>
   </si>
   <si>
     <t>Металл: 1.8 мм;Наружняя отделка: серебро антик;Внутренняя отделка: 10 мм, ламинированная фрезерованная панель цвет дуб филадельфия, влаго устойчивая структура.;Коробка двери: сложный гнутый замкнутыйпрофиль.;Утепленный короб;Полотно двери: сложный профиль, толщина 100 мм;Карман: под замки из листа 1.5 мм, с двух сторон;Противосъемные штыри: 3шт, цвет хром;Петли на подшипниках: 3 шт;Замок верхний: Гардиан 30.01 с магнитной накладкой Крит;Замок нижний: Гардиан 32.11 с броне накладкой;Эксцентрик Цилиндр ключ/вертух с перфокартой;Декоративные накладки на замок: цвет хром;Ручка на розетке: цвет хром;Три контура уплотнения + 1 магнитный;Утепление полотна: минеральная плита KNAUF,утепленный короб;Глазок: 200 градусов, цвет хром;Размеры: 2050х860, 2050х960 мм;</t>
   </si>
   <si>
-    <t>рим.jpeg 38900.jpeg</t>
+    <t>15.jpeg</t>
   </si>
   <si>
     <t>Рим Белый Ясень</t>
   </si>
   <si>
-    <t>рим белый.jpeg 28000.jpeg</t>
+    <t>16.jpeg</t>
   </si>
   <si>
     <t>Контур уплотнители: 2 контура;
@@ -216,7 +216,7 @@
     <t>Прометей</t>
   </si>
   <si>
-    <t>прометей 38900.jpeg</t>
+    <t>17.jpeg</t>
   </si>
   <si>
     <t>Металл: 1.8 мм;Наружняя отделка: антик медный;Внутренняя отделка: ламинированная фрезерованная панель толщиной 10мм, цвета: орех темный, влагоустойчивая структура;Коробка двери: сложный гнутый замкнутый профиль.;Утепленный короб • Полотно двери: сложный профиль, толщина 100 мм;Карман: под замки из листа 1.5 мм, с двух сторон;Противосъемные штыри: 3шт, цвет хром;Петли на подшипниках: 3 шт;Замок верхний: Гардиан 30.01 с магнитнойнакладкой Крит;Замок нижний: Гардиан 32.11 с броне накладкой;Эксцентрик • Цилиндр ключ/вертух с перфокартой;Декоративные накладки на замок: цвет хром;Ручка на розетке: цвет хром;Три контура уплотнения + 1 магнитный;Утепление полотна: минеральная плита KNAUF,утепленный короб;Глазок: 200 градусов, цвет хром;Размеры: 2050х860, 2050х960 мм;</t>
@@ -225,7 +225,7 @@
     <t>Термо Италия медь Венге</t>
   </si>
   <si>
-    <t>термо италия венге 44500.jpeg</t>
+    <t>18.jpeg</t>
   </si>
   <si>
     <t>Металл: 1.8 мм;Наружняя отделка: медь антик;Внутренняя отделка: фрезерованная, панель 10 мм, цвет: белый сандал, венге;Коробка двери: сложный гнутый замкнутый профиль.;Полотно двери: сложный профиль, толщина 100 мм;Карман: под замки из листа 1.5 мм, с двух сторон;Противосъемные ригели- 2шт.;Петли на подшипниках: 3 шт;Замок верхний: Гардиан 30.01;Замок нижний: Гардиан 30.11 ночная задвижка отдельно;Эксцентрик;Декоративные накладки на замок: цвет хром;Ручка на розетке: цвет хром;Три контура уплотнения;Утепление полотна: многослойное: минеральная плита KNAUF, пенополиэстирол, фольгированный изолон;Размеры: 2050х860 мм, 2050х960 мм;</t>
@@ -234,13 +234,13 @@
     <t>Термо Италия медь Сандал</t>
   </si>
   <si>
-    <t>термо италия сандал 44500.jpeg</t>
+    <t>19.jpeg</t>
   </si>
   <si>
     <t>Триада</t>
   </si>
   <si>
-    <t>триада 43100.jpeg</t>
+    <t>20.jpeg</t>
   </si>
   <si>
     <t>Металл: 1.8 мм;Наружняя отделка: черная шагрень; Внутренняя отделка: ламинированная фрезерованная панель 10 мм, цвет: белая матовая;Коробка двери: сложный гнутый замкнутыйпрофиль.;Утепленный короб;Полотно двери: сложный профиль, толщина 100 мм;Карман: под замки из листа 1.5 мм, с двух сторон;Противосъемные штыри: 3шт, цвет хром;Петли на подшипниках: 3 шт;Замок верхний: Гардиан 30.01 с магнитной накладкой Крит;Замок нижний: Гардиан 32.11 с броне накладкой;Эксцентрик;Декоративные накладки на замок: цвет хром;Ручка на розетке: цвет хром;Три контура уплотнения + 1 магнитный;Утепление полотна: минеральная плита KNAUF;Глазок: 200 градусов, цвет хром;Размеры: 2050х860, 2050х960 мм;</t>
@@ -249,7 +249,7 @@
     <t>Авангард белый матовый</t>
   </si>
   <si>
-    <t>авангард белый мат 43100.jpeg</t>
+    <t>21.jpeg</t>
   </si>
   <si>
     <t>Металл: 1.8 мм;Наружняя отделка: черная шагрень;Внутренняя отделка: ламинированная фрезерованная панель 10 мм, цвет белый матовый, влагоустойчивая структура;Коробка двери: сложный гнутый замкнутый профиль;Утепленный короб;Полотно двери: сложный профиль, толщина 100 мм;Карман: под замки из листа 1.5 мм, с двух сторон;Противосъемные штыри- 3шт, цвет хром;Петли на подшипниках: 3 шт;Замок верхний: Гардиан 30.01 с магнитной накладкой Крит;Замок нижний: Гардиан 32.11 с броне накладкой;Эксцентрик;Цилиндр ключ/вертух с перфокартой;Декоративные накладки на замок: цвет хром;Ручка на розетке: цвет хром;Три контура уплотнения + 1 магнитный;Утепление полотна: минеральная плита KNAUF, утепленный короб;Глазок: 200 градусов, цвет хром;Размеры: 2050х860, 2050х960 мм;</t>
@@ -258,13 +258,13 @@
     <t>Авангард темный бетон</t>
   </si>
   <si>
-    <t>авангард бетон темный 43100.jpeg</t>
+    <t>22.jpeg</t>
   </si>
   <si>
     <t>Термо Филенка</t>
   </si>
   <si>
-    <t>термо филенка.jpeg 57500.jpeg</t>
+    <t>23.jpeg</t>
   </si>
   <si>
     <t>Металл: 1.8 мм;Наружная отделка: металлическая филенка,цвет медь антик;Внутренняя отделка: фрезерованная панель 12 мм,цвет белый матовый;Коробка двери: сложный гнутый профиль с терморазрывом;Полотно двери: сложный профиль, толщина 100 мм;Карман под замки: из листа 1.5 мм, с двух сторон;Противосъемные ригели: 2 шт;Петли на подшипниках: 3 шт;Замок верхний: Гардиан 30.01;Замок нижний: Гардиан 30.11 с ночной задвижкой;Эксцентрик;Декоративные накладки на замок: цвет хром;Ручка на розетке: цвет хром;Три контура уплотнения;Утепление полотна: многослойное: минеральная плита KNAUF, пенополиэстирол, фольгированный изолон;Гарантия на продукцию: 12 месяцев;Размеры: 2050х860, 2050х960 мм;</t>
@@ -273,7 +273,7 @@
     <t>Вертикаль бетон темный</t>
   </si>
   <si>
-    <t>вертикаль бетон темный.jpeg 34000.jpeg</t>
+    <t>24.jpeg</t>
   </si>
   <si>
     <t>Металл: 1.5 мм;Наружная отделка: черная шагрень;Внутренняя отделка: фрезерованная панель 6 мм, цвет: бетон светлый;Коробка двери: сложный гнутый открытый короб;Полотно двери: 80 мм;Карман под замки: из листа 1,5 мм с двух сторон;Противосъемные ригеля: 3шт;Петли на подшипниках: 3 шт;Замок верхний: Гардиан 30.01 с накладкой;Замок нижний: Гардиан 32.11 с накладкой;Эксцентрик;Цилиндр ключ/вертух с перфокартой;Декоративные накладки на замок: цвет черный;Ручка на розетке: цвет черный;Два контура уплотнения;Утепление полотна: минеральная плита KNAUF;Глазок: цвет черный;Размеры: 2050х860, 2050х960 мм;</t>
@@ -282,31 +282,31 @@
     <t>Вертикаль белый матовый</t>
   </si>
   <si>
-    <t>вертикаль бел мат.jpeg 34000.jpeg</t>
+    <t>25.jpeg</t>
   </si>
   <si>
     <t>Вертикаль бетон светлый</t>
   </si>
   <si>
-    <t>вертикаль бетон светлый.jpeg 34000.jpeg</t>
+    <t>26.jpeg</t>
   </si>
   <si>
     <t>Рокка Белая</t>
   </si>
   <si>
-    <t>рокка белая.jpeg 26000.jpeg</t>
+    <t>27.jpeg</t>
   </si>
   <si>
     <t>Рокка</t>
   </si>
   <si>
-    <t>рокка.jpeg 26000.jpeg</t>
+    <t>28.jpeg</t>
   </si>
   <si>
     <t>Лига металл/металл</t>
   </si>
   <si>
-    <t>лига мм.jpeg 25200.jpeg</t>
+    <t>29.jpeg</t>
   </si>
   <si>
     <t>Контур уплотнители: 2 контура;
@@ -325,7 +325,7 @@
     <t>Амур</t>
   </si>
   <si>
-    <t>амур.jpeg 26900.jpeg</t>
+    <t>30.jpeg</t>
   </si>
   <si>
     <t>Контур уплотнители: 2 контура;
@@ -344,7 +344,7 @@
     <t>Стиль Лиственница</t>
   </si>
   <si>
-    <t>стиль лиственница.jpeg 26900.jpeg</t>
+    <t>31.jpeg</t>
   </si>
   <si>
     <t>Контур уплотнители: 2 контура;
@@ -363,13 +363,52 @@
     <t>Дельта</t>
   </si>
   <si>
-    <t>дельта.jpeg 28800.jpeg</t>
+    <t>32.jpeg</t>
+  </si>
+  <si>
+    <t>Полотно глухое
+Тип замка
+Обычный
+Уплотнитель
+2 контура
+Терморазрыв
+Нет
+Распродажа
+Скидки от -5% до -50%
+Отделка двери
+Металл / Панель
+Наличие дверей
+В наличии
+Конструкция
+Стандартная
+Фурнитура
+Никель/Хром
+Второй замок
+Бордер Гранд Термо 3B 9-6Э сувальдный
+Наполнитель
+Базальтовая плита
+Ночная задвижка
+Есть
+Первый замок
+Галеон 811
+Цвет
+бетон светлый, белый матовый
+Размеры
+860, 960*2050 мм
+Страна производитель
+Российские
+Толщина МДФ панели
+16.0
+Толщина полотна (мм)
+70.0
+Эксцентрик
+С эксцентриком</t>
   </si>
   <si>
     <t>Латина</t>
   </si>
   <si>
-    <t>латина.jpeg 28800.jpeg</t>
+    <t>33.jpeg</t>
   </si>
   <si>
     <t>Контур уплотнители: 2 контура;
@@ -388,7 +427,7 @@
     <t>Рига</t>
   </si>
   <si>
-    <t>рига.jpeg 32200.jpeg</t>
+    <t>34.jpeg</t>
   </si>
   <si>
     <t>Тип двери (полотно и короб): К5А/90 п4.1 Косяк мет 1,0мм, полотно 1,0мм 2-контурная  дверь на открытом косяке;
@@ -415,13 +454,28 @@
     <t>Альфа</t>
   </si>
   <si>
-    <t>альфа.jpeg 32000.jpeg</t>
+    <t>35.jpeg</t>
+  </si>
+  <si>
+    <t>Размер 860*2050/960*2050
+Внешнее покрытие полимерно-порошковое, «медь антик»
+Толщина дверного полотна 100 мм
+Глубина дверной коробки 115 мм
+Наполнитель пенополистирол
+Уплотнитель 3 контура из вспененной резины
+Внутреннее покрытие металл
+Основной замок цилиндровый Гардиан 32.11
+Дополнительный замок -------------------------------------------------------------------сувальдный Гардиан 30.01
+Независимая ночная задвижка ----------------------------------------------------------------------------------------------да
+Накладки ----------------------------------------------------------------------------------------------------------------------овальные
+Ручка ------------------------------------------------------------------------------------------------------раздельная  цвет- хром
+Глазок -------------------------------------------------------------------------------------------------------расширенного обзора</t>
   </si>
   <si>
     <t>Корсика Алмон</t>
   </si>
   <si>
-    <t>корсика алмон.jpeg 35700.jpeg</t>
+    <t>36.jpeg</t>
   </si>
   <si>
     <t>Контур уплотнители: 3 контура;
@@ -440,7 +494,7 @@
     <t>Венеция Дуб</t>
   </si>
   <si>
-    <t>венеция дуб.jpeg 36200 (1).jpeg</t>
+    <t>37.jpeg</t>
   </si>
   <si>
     <t>Контур уплотнители: 3 контура;
@@ -459,7 +513,7 @@
     <t>Венеция серебро белый ясень</t>
   </si>
   <si>
-    <t>Венеция антик серебро Эшвайт.jpg 36200.jpg</t>
+    <t>38.jpg</t>
   </si>
   <si>
     <t>сумма в рассрочку от банка на 6 месяцев, под заказ</t>
@@ -481,7 +535,7 @@
     <t>Грасса Венге</t>
   </si>
   <si>
-    <t>грасса венге.jpeg 37800 (1).jpeg</t>
+    <t>39.jpeg</t>
   </si>
   <si>
     <t>Контур уплотнители: 3 контура;
@@ -500,7 +554,7 @@
     <t>Грасса Ривьера Айс</t>
   </si>
   <si>
-    <t>грасса ривьера.jpeg 37800 (1).jpeg</t>
+    <t>40.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Контур уплотнители: 3 контура;
@@ -521,7 +575,7 @@
 </t>
   </si>
   <si>
-    <t>грасса.jpeg 37800 (1).jpeg</t>
+    <t>41.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Контур уплотнители: 3 контура;
@@ -541,7 +595,7 @@
     <t>Барселона Венге</t>
   </si>
   <si>
-    <t>барселона венге.jpeg 37800 (1).jpeg</t>
+    <t>42.jpeg</t>
   </si>
   <si>
     <t>Контур уплотнители: 3 контура;
@@ -559,7 +613,7 @@
     <t>Барселона</t>
   </si>
   <si>
-    <t>барселона.jpeg 37800 (1).jpeg</t>
+    <t>43.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Контур уплотнители:3 контура;
@@ -579,7 +633,7 @@
     <t>Прима</t>
   </si>
   <si>
-    <t>Прима антик серебро белый снег.jpg 39100.jpg</t>
+    <t>44.jpg</t>
   </si>
   <si>
     <t>Контур уплотнители: 3 контура;
@@ -598,7 +652,7 @@
     <t>Невада</t>
   </si>
   <si>
-    <t>невада 39200.jpeg</t>
+    <t>45.jpeg</t>
   </si>
   <si>
     <t>Контур уплотнители: 3 контура;
@@ -618,7 +672,7 @@
     <t>Тренто</t>
   </si>
   <si>
-    <t>тренто.png 75600 (1).png</t>
+    <t>46.png</t>
   </si>
   <si>
     <t>Контур уплотнители: 3 контура;
@@ -641,7 +695,7 @@
     <t>Входные двери c терморазрывом</t>
   </si>
   <si>
-    <t>Isoterma-Astana-Mилки.png 40800.png</t>
+    <t>47.png</t>
   </si>
   <si>
     <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Медный антик»;
@@ -665,7 +719,7 @@
     <t>Входные двери  c зеркалом</t>
   </si>
   <si>
-    <t>9 см зеркало.jpeg 28300.jpeg</t>
+    <t>48.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: Атмосферостойкое порошково-полимерное, «Антик серебро»;
@@ -683,7 +737,7 @@
     <t>9 см беж Царга</t>
   </si>
   <si>
-    <t>9 см беж царга.jpeg 27600.jpeg</t>
+    <t>49.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»;
@@ -701,7 +755,7 @@
     <t>9 см ривьера айс</t>
   </si>
   <si>
-    <t>9 см ривьера айс 27600.jpeg</t>
+    <t>50.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: «Антик серебро»;
@@ -720,7 +774,7 @@
     <t>6 см Царское зеркало</t>
   </si>
   <si>
-    <t>6 см царское зеркало.jpeg 22100.jpeg</t>
+    <t>51.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»;
@@ -738,7 +792,7 @@
     <t>7,5 см Флорида</t>
   </si>
   <si>
-    <t>7.5 флорида эмалит белый 35900.jpeg</t>
+    <t>52.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: фрезерованная МДФпанель 10 мм, цвет «Черный кварц»;
@@ -756,7 +810,7 @@
     <t>7,5 см Гарда муар лиственница беж царга</t>
   </si>
   <si>
-    <t>7.5 гарда беж 25000.jpeg</t>
+    <t>53.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: атмосферостойкое, порошково-полимерное «Черный муар»;
@@ -775,7 +829,7 @@
     <t>7,5 см Гарда муар  венге тобакко</t>
   </si>
   <si>
-    <t>7.5 венге тобако.jpeg 23500.jpeg</t>
+    <t>54.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: фрезерованная МДФпанель 10 мм, цвет «Черный кварц»;
@@ -793,7 +847,7 @@
     <t>7,5 см гарда серебро велюр белый</t>
   </si>
   <si>
-    <t>7.5 серебро велюр белый.jpeg 25000.jpeg</t>
+    <t>55.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»;
@@ -811,7 +865,7 @@
     <t>7,5 см Гарда муар темный кипарис</t>
   </si>
   <si>
-    <t>7.5 муар темный кипарис.jpeg 25000.jpeg</t>
+    <t>56.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Чёрный муар»;
@@ -829,7 +883,7 @@
     <t>7,5 см Гарда серебро белый ясень</t>
   </si>
   <si>
-    <t>7.5 серебро белый ясень.jpeg 23500.jpeg</t>
+    <t>57.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»;
@@ -847,7 +901,7 @@
     <t>7,5 см Гарда серебро темный кипарис</t>
   </si>
   <si>
-    <t>7.5 серебро темный кипарис.jpeg 23500.jpeg</t>
+    <t>58.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Антик серебро»;
@@ -868,7 +922,7 @@
     <t>Входные двери панель-панель</t>
   </si>
   <si>
-    <t>7.5 гарда бетон 25000.jpeg</t>
+    <t>59.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: фрезерованная МДФпанель, цвет-сатин графит;
@@ -886,19 +940,19 @@
     <t>7,5 см серебро зеркало</t>
   </si>
   <si>
-    <t>7.5 гарда серебро зеркало 26400.jpeg</t>
+    <t>60.jpeg</t>
   </si>
   <si>
     <t>7,5 см муар ясень</t>
   </si>
   <si>
-    <t>7.5 муар ясень белый 23500.jpeg</t>
+    <t>61.jpeg</t>
   </si>
   <si>
     <t>Толстяк Букле</t>
   </si>
   <si>
-    <t>толстяк букле.jpeg 25600 (3).jpeg</t>
+    <t>62.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: атмосферостойкое порошково-полимерное Букле Черный;
@@ -916,7 +970,7 @@
     <t>Толстяк букле ясень графит</t>
   </si>
   <si>
-    <t>Толстяк ясень графит эмаль.jpeg 25600.jpeg</t>
+    <t>63.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: атмосферостойкое порошково-полимерное «Букле черный»;
@@ -934,7 +988,7 @@
     <t>8 мм белый ясень</t>
   </si>
   <si>
-    <t>8 мм белый ясень 19900.jpeg</t>
+    <t>64.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: атмосферостойкое, порошково-полимерное, «медный антик»;
@@ -950,13 +1004,13 @@
     <t>8 мм рустикальный дуб</t>
   </si>
   <si>
-    <t>8 мм рустикальный дуб.jpeg 19900.jpeg</t>
+    <t>65.jpeg</t>
   </si>
   <si>
     <t>8 мм венге</t>
   </si>
   <si>
-    <t>муар 8 мм венге 20800.jpeg</t>
+    <t>66.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: порошково-полимерное, «черный муар»;
@@ -972,7 +1026,7 @@
     <t xml:space="preserve">Прораб МДФ/МДФ </t>
   </si>
   <si>
-    <t>прораб линии 55 мм мдфмдф.png 22900.png</t>
+    <t>67.png</t>
   </si>
   <si>
     <t xml:space="preserve">Внешнее покрытие:фрезерованная МДФ-панель 8 мм. Цвет бетон графит;
@@ -995,7 +1049,7 @@
     <t>Прораб МДФ/МДФ</t>
   </si>
   <si>
-    <t>прораб бетон 55 мм мдфмдф.jpeg 22900.jpeg</t>
+    <t>68.jpeg</t>
   </si>
   <si>
     <t>Гарда метал/метал</t>
@@ -1004,7 +1058,7 @@
     <t>Входные двери металл-метал</t>
   </si>
   <si>
-    <t>гарда метмет.jpeg 21800.jpeg</t>
+    <t>69.jpeg</t>
   </si>
   <si>
     <t>Внешнее и внутреннее покрытие: атмосферостойкое порошково-полимерное Медный антик»;
@@ -1020,7 +1074,7 @@
     <t>Мини м/м</t>
   </si>
   <si>
-    <t>мини мм.jpeg 22900.jpeg</t>
+    <t>70.jpeg</t>
   </si>
   <si>
     <t>Модель: МИНИ металл 2 замка;
@@ -1041,13 +1095,13 @@
     <t xml:space="preserve">Мини </t>
   </si>
   <si>
-    <t>мини.jpeg 21300.jpeg</t>
+    <t>71.jpeg</t>
   </si>
   <si>
     <t>Стандарт нью</t>
   </si>
   <si>
-    <t>Стандарт Нью 35900.jpg</t>
+    <t>72.jpg</t>
   </si>
   <si>
     <t>Замок основной: Гардиан 3011 сувальдный секретность замка более 1,6 млн. в комплекте ночная задвижка;
@@ -1063,7 +1117,7 @@
     <t>Стандарт ривьера</t>
   </si>
   <si>
-    <t>Стандарт ривьера 35900.JPG</t>
+    <t>73.JPG</t>
   </si>
   <si>
     <t>Замок основной: Гардиан 3011 сувальдный секретность замка более 1,6 млн;
@@ -1079,7 +1133,7 @@
     <t>Термо дуб</t>
   </si>
   <si>
-    <t>термо дуб.jpeg 48400.jpeg</t>
+    <t>74.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: ЦИНК+ Антик медь;
@@ -1097,7 +1151,7 @@
     <t>Термо белый</t>
   </si>
   <si>
-    <t>термо белая.jpeg 48400.jpeg</t>
+    <t>75.jpeg</t>
   </si>
   <si>
     <t>Внешнее покрытие: ЦИНК+Антик серебро;
@@ -1115,13 +1169,47 @@
     <t>Север коньяк</t>
   </si>
   <si>
-    <t>Север лайт Графит Букле</t>
+    <t>76.jpg</t>
+  </si>
+  <si>
+    <t>Толщина полотна
+100 мм
+Наполнение полотна
+Базальтовая плита+пенополистиролл
+Внешняя отделка
+Антик медный с давлением
+Внутренняя отделка
+МДФ, белое дерево
+Покрытие металл
+Антик медный
+Основной замок
+Гардиан 30.11, сувальдный
+Дополнительный замок
+Гардиан 30.01, сувальдный
+Фурнитура
+Хром, ручки раздельные
+Уплотнитель на полотне
+2 шт
+Глубина короба
+140 мм
+Тип короба
+Открытый
+Уплотнитель на коробе
+1 шт
+Терморазрыв
+Полиамидная вставка по контуру полотна и короба
+Размеры
+860*2050, 960*2050
+Производитель
+Дверной Маркет (DM)
+Дополнительно
+Эксцентрик для регулировки прижима</t>
   </si>
   <si>
     <t>Модель спец pro</t>
   </si>
   <si>
-    <t>спец.jpeg 12200.jpeg</t>
+    <t>77.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Высота порога, мм:40;
@@ -1140,7 +1228,7 @@
     <t>Титан Диагональ</t>
   </si>
   <si>
-    <t>титан диагональ.png 21200.png</t>
+    <t>78.png</t>
   </si>
   <si>
     <t>Толщина полотна: 66 мм;
@@ -1158,7 +1246,7 @@
     <t>Промет Титан Рационалист</t>
   </si>
   <si>
-    <t>титан рационалист.png 20800 (3).png</t>
+    <t>79.png</t>
   </si>
   <si>
     <t>Толщина стали полотна: 1 мм;
@@ -1176,7 +1264,7 @@
     <t>Титан 8C</t>
   </si>
   <si>
-    <t>титан 8 с.jpeg 25200.jpeg</t>
+    <t>80.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Вид:для дома;
@@ -1193,7 +1281,7 @@
     <t>Титан Зеркало</t>
   </si>
   <si>
-    <t>титан зеркало.png 26000 (3).png</t>
+    <t>81.png</t>
   </si>
   <si>
     <t>Толщина стали полотна: 1 мм;
@@ -1211,7 +1299,7 @@
     <t>Титаниум термо</t>
   </si>
   <si>
-    <t>титаниум термо.png   82300(1).png</t>
+    <t>82.png</t>
   </si>
   <si>
     <t xml:space="preserve">Габариты наружные (В-Ш-Г, мм):2100 / 960 (1060) / 93;
@@ -1234,7 +1322,7 @@
 </t>
   </si>
   <si>
-    <t>винтер 100.jpeg 48600.jpeg</t>
+    <t>83.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Монтажные габариты коробки (В/Ш, мм): 2050 / 880 (980);
@@ -1256,7 +1344,7 @@
     <t>Норд шале снежный</t>
   </si>
   <si>
-    <t>норд шале снежный.jpeg 33300.jpeg</t>
+    <t>84.jpeg</t>
   </si>
   <si>
     <t>Габариты монтажные:2050/880;
@@ -1274,7 +1362,7 @@
     <t>Норд 439</t>
   </si>
   <si>
-    <t>норд 439.png 35100.png</t>
+    <t>85.png</t>
   </si>
   <si>
     <t>Толщина стали полотна: 1 мм;
@@ -1293,13 +1381,13 @@
     <t>Норд 5с</t>
   </si>
   <si>
-    <t>норд 5 с.jpeg 35100.jpeg</t>
+    <t>86.jpeg</t>
   </si>
   <si>
     <t>11 см протерма астана</t>
   </si>
   <si>
-    <t>11 см протерма астана.jpeg 39900.jpeg</t>
+    <t>87.jpeg</t>
   </si>
   <si>
     <t>Оттенок внутренней панели:Белый;
@@ -1320,7 +1408,7 @@
     <t>11 см протерма графит</t>
   </si>
   <si>
-    <t>11 см протерма графит.jpeg 65600.jpeg</t>
+    <t>88.jpeg</t>
   </si>
   <si>
     <t>Количество замков: 2;
@@ -1337,7 +1425,7 @@
     <t>11 см протерма букле шоколад</t>
   </si>
   <si>
-    <t>11 см протерма букле шоколад.jpeg 39900.jpeg</t>
+    <t>89.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Бренд:Прораб;
@@ -1351,7 +1439,7 @@
     <t>11 см протерма багет букле антрацит</t>
   </si>
   <si>
-    <t>11 см протерма багет букле антрацит.png 49800.png</t>
+    <t>90.png</t>
   </si>
   <si>
     <t xml:space="preserve">Толщина дверного полотна: 90 мм;
@@ -1372,7 +1460,7 @@
     <t>11 см протерма шоколад</t>
   </si>
   <si>
-    <t>11 см протерма шоколад.png 65600.png</t>
+    <t>91.png</t>
   </si>
   <si>
     <t xml:space="preserve">Внешняя накладка: Фрезерованная МДФ-панель 10 мм. Пленка Винорит, цвет грецкий орех с патиной;
@@ -1396,7 +1484,7 @@
     <t>Север</t>
   </si>
   <si>
-    <t>Север лиственница 49900.jpg</t>
+    <t>92.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Толщина полотна:100 мм;
@@ -1419,7 +1507,7 @@
     <t>Север Люкс</t>
   </si>
   <si>
-    <t>север люкс.jpeg 75200.jpeg</t>
+    <t>93.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Цвет:Эмалит антрацит/Белое дерево;
@@ -1443,7 +1531,7 @@
     <t>Север лайт</t>
   </si>
   <si>
-    <t>Север лайт 41200.jpg</t>
+    <t>94.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Толщина полотна:100 мм;
@@ -1466,7 +1554,7 @@
     <t>Север лайт графит букле</t>
   </si>
   <si>
-    <t>Север лайт 2.jpg</t>
+    <t>95.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Толщина полотна:100 мм;
@@ -1489,7 +1577,7 @@
     <t>Север классик</t>
   </si>
   <si>
-    <t>север классик.jpeg 53500.jpeg</t>
+    <t>96.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Количество замков: 2;
@@ -1507,7 +1595,7 @@
     <t>ДПМ  (Противопожарная)</t>
   </si>
   <si>
-    <t>ДПМ EIS-60.jpg 25000.jpg</t>
+    <t>97.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Толщина полотна: 60мм;
@@ -1527,7 +1615,7 @@
     <t xml:space="preserve">Регион дуб </t>
   </si>
   <si>
-    <t>регион бел дуб 26500.png</t>
+    <t>98.png</t>
   </si>
   <si>
     <t xml:space="preserve">Толщина полотна:70 мм;
@@ -1549,7 +1637,7 @@
     <t>Регион Царга (Эшвайт с черным стеклом)</t>
   </si>
   <si>
-    <t>Регион эшвайт 26500.png</t>
+    <t>99.png</t>
   </si>
   <si>
     <t xml:space="preserve">Толщина полотна:70 мм;
@@ -1571,7 +1659,7 @@
     <t>Регион Металл</t>
   </si>
   <si>
-    <t>Регион корица 24200.png</t>
+    <t>100.png</t>
   </si>
   <si>
     <t xml:space="preserve">Толщина полотна: 65 мм;
@@ -1591,13 +1679,13 @@
     <t>Регион графит</t>
   </si>
   <si>
-    <t>Регион графит 24200.png</t>
+    <t>101.png</t>
   </si>
   <si>
     <t>Базальт</t>
   </si>
   <si>
-    <t>Базальт 32000.jpg</t>
+    <t>102.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Толщина полотна:90 мм;
@@ -1619,13 +1707,13 @@
     <t>Базальт орех</t>
   </si>
   <si>
-    <t>Базальт Орех 32000.png</t>
+    <t>103.png</t>
   </si>
   <si>
     <t>Стиль Царга</t>
   </si>
   <si>
-    <t>Стиль царга 34400.JPG</t>
+    <t>104.JPG</t>
   </si>
   <si>
     <t xml:space="preserve">Толщина полотна:90 мм;
@@ -1647,7 +1735,7 @@
     <t>Стиль с зеркалом</t>
   </si>
   <si>
-    <t>Стиль зеркало 36650.JPG</t>
+    <t>105.JPG</t>
   </si>
   <si>
     <t xml:space="preserve">Толщина полотна:90 мм;
@@ -1666,7 +1754,7 @@
 </t>
   </si>
   <si>
-    <t>Стиль 32650.JPG</t>
+    <t>106.JPG</t>
   </si>
   <si>
     <t xml:space="preserve">Толщина полотна:90 мм;
@@ -1688,7 +1776,7 @@
     <t>Алтай Венге</t>
   </si>
   <si>
-    <t>алтай венге.jpeg 23400.jpeg</t>
+    <t>107.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Контур уплотнители: 2 контура;
@@ -1708,7 +1796,7 @@
     <t>Алтай</t>
   </si>
   <si>
-    <t>алтай.jpeg 23400.jpeg</t>
+    <t>108.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Контур уплотнители: 2 контура;
@@ -1728,7 +1816,7 @@
     <t>Афина</t>
   </si>
   <si>
-    <t>афина.jpeg 22600.jpeg</t>
+    <t>109.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Контур уплотнители: 2 контура;
@@ -1745,67 +1833,246 @@
 </t>
   </si>
   <si>
-    <t>афина ио.jpeg 22600.jpeg</t>
+    <t>110.jpeg</t>
   </si>
   <si>
     <t>8мм венге</t>
   </si>
   <si>
-    <t>8мм венге 19900.jpeg</t>
+    <t>111.jpeg</t>
+  </si>
+  <si>
+    <t>Внешнее покрытие:атмосферостойкое порошково-полимерное «Медный антик»;
+Внутреннее покрытие:МДФ-панель 6 мм;
+Толщина дверного полотна:60 мм;
+Глубина дверного короба:90 мм;
+Наполнитель:пенополистирол;
+Уплотнитель:2 контура уплотнителя из вспененной резины;
+Ручка:раздельная, цвет - хром;
+Глазок:широкого обзора; цвет -хром;
+Петли:2 шт., наружные, открывание 180°;
+Основной замок:цилиндровый RIGGER/MONARCH, диаметр ригелей: 14 мм;
+Дополнительный замок:сувальдный RIGGER/MONARCH, диаметр ригелей: 14 мм;
+Накладки:овальные с защитой от сквозняка; 
+цвет - хром;
+Независимая ночная задвижка:Да;
+Противосъём:штыри, 2 шт.;
+Размеры:860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>8мм муар белый ясень</t>
   </si>
   <si>
-    <t>8мм муар белый ясень 20800.jpeg</t>
+    <t>112.jpeg</t>
+  </si>
+  <si>
+    <t>Внешнее покрытие:атмосферостойкое порошково-полимерное «Чёрный муар»;
+Внутреннее покрытие:МДФ-панель 6 мм;
+Толщина дверного полотна:60 мм;
+Глубина дверного короба:90 мм;
+Наполнитель:пенополистирол;
+Уплотнитель:2 контура уплотнителя из вспененной резины;
+Ручка:раздельная, цвет - хром;
+Глазок:широкого обзора; цвет -хром;
+Петли:2 шт., наружные, открывание 180°;
+Основной замок:цилиндровый RIGGER/MONARCH, диаметр ригелей: 14 мм;
+Дополнительный замок:сувальдный RIGGER/MONARCH, диаметр ригелей: 14 мм;
+Накладки:овальные с защитой от сквозняка; цвет - хром;
+Независимая ночная задвижка:Да;
+Противосъём:штыри, 2 шт.;
+Размеры:860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>11см Изотерма</t>
   </si>
   <si>
-    <t>11sm-izoterma-dub-patsifik.jpeg 40800.jpeg</t>
+    <t>113.jpeg</t>
+  </si>
+  <si>
+    <t>Внешнее покрытие:атмосферостойкое порошково- полимерное «Антик серебро»;
+Внутреннее покрытие:МДФ-панель 8 мм, цвет – дуб пацифик;
+Толщина дверного полотна:110 мм;
+Глубина дверного короба:137 мм;
+Наполнитель:пенополистирол;
+Уплотнитель:3 контура уплотнителя из вспененной резины (2 на полотне, 1 на коробе);
+Ручка:раздельная, цвет - хром;
+Глазок:без глазка;
+Петли:3 шт., наружные, открывание 180°;
+Основной замок:сувальдный MONARCH, IV (наивысший) класс взломостойкости, дополнительная защита от высверливания: две пластины из высоколегированной стали с обеих сторон замка; диаметр ригелей: 16 мм;
+Дополнительный замок:сувальдный MONARCH, IV (наивысший) класс взломостойкости, дополнительная защита от высверливания: две пластины из высоколегированной стали с обеих сторон замка; 
+диаметр ригелей: 16 мм ;
+Накладки: овальные с защитой от сквозняка; 
+цвет – хром;
+Накладки:овальные с защитой от сквозняка;
+Независимая ночная задвижка:Да;
+Регулировка прижима притвора:металлический эксцентрик для защёлки на основном замке;
+Противосъём:штыри, 2 шт.;
+Размеры:860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
     <t>12 см протерма винорит</t>
   </si>
   <si>
-    <t>12 см протерма винорит.png 65600.png</t>
+    <t>114.png</t>
+  </si>
+  <si>
+    <t>Замки:Основной: сувальдный KALE, ригели 16 мм. Дополнительная защита от высверливания;
+Дополнительный: сувальдный KALE, ригели 16 мм. Дополнительная защита от высверливания;
+Покрытие металла: черный муар, атмосферостойкое порошково-полимерное;
+Внутренняя накладка: фрезерованная МДФ-панель 10 мм. Пленка с вертикальным рельефом, цвет белый;
+Внешняя накладка: Фрезерованная МДФ-панель 10 мм. Пленка Винорит, цвет грецкий орех с патиной;
+Толщина полотна / глубина короба: 120 мм / 141 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 3 контура вставного уплотнителя;
+Петли: 3 шт., наружные, открывание 180°;
+Накладки: квадратные с защитой от сквозняка; цвет - сатин хром;
+Ручка: Раздельная, нажимная; цвет - сатин хром;
+Независимая ночная задвижка;
+Регулировка притвора: металлический эксцентрик защёлки основного замка;
+Противосъёмные штыри: 2 шт.;
+Размеры: 860х2050 мм, 960х2050 мм;
+Световой проем: 710 мм и 810 мм;</t>
   </si>
   <si>
     <t>Титан м-м</t>
   </si>
   <si>
-    <t>titan-m_m.jpeg 20200.jpeg</t>
+    <t>115.jpeg</t>
+  </si>
+  <si>
+    <t>Высота порога, мм:52;
+Наличник перекрывает, мм:50;
+Вес, кг:39 (41,5);
+Габариты наружные (В/Ш/Г, мм):2100 / 960 (1060) / 93;
+Габариты светового проема (В/Ш, мм):1960 / 731 (831);
+Монтажные габариты коробки (В/Ш, мм):2050 / 860 (960);
+Количество петель (шт.):2;
+Количество контуров уплотнения (шт.):2;
+Наполнитель:Пенополистирол;
+Толщина полотна (мм):66;
+Ручка:Ручка 26D;
+Эксцентрик:Есть;
+Броненакладка:Нет;
+Накладка на цилиндровый замок:М0Н-ЛЭ;
+Накладка на сувальдный замок:М0Н-СА;
+Замок основной:ПРОМЕТ 32.11 (816);
+Вылет ригеля (мм):26;
+Класс замка (ГОСТ 5089-2011):4;
+Размер (мм), тип цилиндра:45/10/45 ключ/вертушка;
+Замок дополнительный:ПРОМЕТ 30.01;
+Вылет ригеля (мм):26;
+Диаметр ригеля (мм):15.8;
+Класс замка (ГОСТ 5089-2011):4;
+Ночная задвижка:Есть;
+Тип отделки:Металл;
+Тип открывания:Наружу;
+Открывание двери:левая,правая;</t>
   </si>
   <si>
     <t>Метал 1</t>
   </si>
   <si>
-    <t>Метал 1 27500.jpeg</t>
+    <t>116.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толщина полотна: 65мм;
+Наполнение полотна:Базальтовая плитка;
+Внешняя отделка:Антик медный;
+внутренняя отделка:антик медный;
+Основной замок:Гардиан 32.11 цилиндровый;
+Дополнительный замок:30.01 сувальдный;
+Фурнитура:Хром;
+Уплотнитель на полотне:1шт.; 
+Глубина короба:85мм.;
+Тип короба:Открытый;
+Уплотнитель на коробе: 1шт;
+Размеры: 860*2050, 960*2050;
+</t>
   </si>
   <si>
     <t>Метал 2</t>
   </si>
   <si>
-    <t>Метал 2 43200.jpeg</t>
+    <t>117.jpeg</t>
+  </si>
+  <si>
+    <t>Толщина полотна: 70мм;
+Наполнение полотна:Базальтовая плитка;
+Основной замок:Гардиан 32.11 цилиндровый;
+Фурнитура:Хром;
+Уплотнитель на полотне:1шт.;
+Глубина короба:102мм.;
+Тип короба:Открытый;
+Размеры: 1200*2050, 1300*2050;</t>
   </si>
   <si>
     <t>Нарцис</t>
   </si>
   <si>
-    <t>нарцис.jpeg 44000.jpeg</t>
+    <t>118.jpeg</t>
+  </si>
+  <si>
+    <t>Металл :1.8мм;
+Наружная отделка:антик серебро;
+Внутренняя отделка :ламинированная панель с зеркалом, цвет - дуб беленый;
+Коробка двери :сложный гнутый замкнутый профиль.;
+Полотно двери :сложный профиль, толщина 100 мм;
+Карман под замки :из листа 1.5 мм, с двух сторон;
+Противосъемные штыри :3шт, цвет хром;
+Петли на подшипниках: 3 шт;
+Замок верхний: Гардиан 30.01 с магнитной накладкой Крит;
+Замок нижний: Гардиан 32.11 с броне накладкой;
+Ручка на розетке: цвет хром;
+Утепление полотна: минеральная плита KNAUF, утепленный короб;
+Глазок:200 градусов, цвет хром;
+Гарантия на продукцию: 12 месяцев;</t>
   </si>
   <si>
     <t>Профи</t>
   </si>
   <si>
-    <t>профи.jpeg 13200.jpeg</t>
+    <t>119.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высота порога, мм: 40;
+Наличник перекрывает, мм: 43;
+Вес, кг: 27/29/30;
+Габариты наружные (В/Ш/Г, мм):2101 / 945 (1045 / 1095) / 54;
+Габариты светового проема (В/Ш, мм):1984 / 753 (853 / 903);
+Монтажные габариты коробки (В/Ш, мм):2060 / 860 (960 / 1010);
+Количество петель (шт.):2;
+Количество контуров уплотнения (шт.):1;
+Наполнитель:Пенополистирол;
+Толщина полотна (мм):45;
+Ручка:Ручка на планке;
+Эксцентрик:Нет;
+Броненакладка:Нет;
+Вылет ригеля (мм):22;
+Класс замка (ГОСТ 5089-2011):2;
+Размер (мм), тип цилиндра:25/10/25 ключ/ключ;
+Ночная задвижка:Нет;
+</t>
   </si>
   <si>
     <t>Термо муар серый</t>
   </si>
   <si>
-    <t>термо муар серый.png 67700.png</t>
+    <t>120.png</t>
+  </si>
+  <si>
+    <t>Контур уплотнители - 3 контура;
+Толщина полотна - 107мм;
+Внешнее покрытие - грунт + муар серый 7024;
+Внутреннее покрытие - муар белый;
+Внутренняя панель МДФ 16мм с Фрезеровкой, Белый матовый;
+Стеклопакет с тонировкой + Английская решетка;
+Основной замок - Гардиан 3001;
+Дополнительный замок - Гардиан 3001 ;
+Цилиндр - Гардиан Basic Термо со штоком , хром;
+Ночник - Фуаро Тор , хром;
+Ручка - Фуаро Тор, хром;
+Заполнение Двери - Пенополистирол+мин плита;
+Размер - 860х2050мм,960х2050м;</t>
   </si>
 </sst>
 </file>
@@ -3701,7 +3968,9 @@
       <c r="J33" s="7">
         <v>0.0</v>
       </c>
-      <c r="K33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="L33" s="19"/>
       <c r="M33" s="7">
         <v>0.0</v>
@@ -3723,7 +3992,7 @@
     <row r="34" ht="15.0" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>14</v>
@@ -3734,7 +4003,7 @@
       <c r="E34" s="14"/>
       <c r="F34" s="19"/>
       <c r="G34" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H34" s="10">
         <v>4800.0</v>
@@ -3746,7 +4015,7 @@
         <v>0.0</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="7">
@@ -3769,7 +4038,7 @@
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="14"/>
       <c r="B35" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>14</v>
@@ -3780,7 +4049,7 @@
       <c r="E35" s="14"/>
       <c r="F35" s="19"/>
       <c r="G35" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H35" s="10">
         <v>5367.0</v>
@@ -3792,7 +4061,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="7">
@@ -3815,7 +4084,7 @@
     <row r="36" ht="15.0" customHeight="1">
       <c r="A36" s="14"/>
       <c r="B36" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>14</v>
@@ -3826,7 +4095,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="19"/>
       <c r="G36" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H36" s="10">
         <v>5367.0</v>
@@ -3837,7 +4106,9 @@
       <c r="J36" s="7">
         <v>0.0</v>
       </c>
-      <c r="K36" s="19"/>
+      <c r="K36" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="L36" s="19"/>
       <c r="M36" s="7">
         <v>0.0</v>
@@ -3859,7 +4130,7 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="14"/>
       <c r="B37" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>14</v>
@@ -3870,7 +4141,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="19"/>
       <c r="G37" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H37" s="10">
         <v>5950.0</v>
@@ -3882,7 +4153,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L37" s="19"/>
       <c r="M37" s="7">
@@ -3905,7 +4176,7 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="14"/>
       <c r="B38" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>14</v>
@@ -3916,7 +4187,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="19"/>
       <c r="G38" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H38" s="10">
         <v>6034.0</v>
@@ -3928,7 +4199,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L38" s="19"/>
       <c r="M38" s="7">
@@ -3951,7 +4222,7 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="14"/>
       <c r="B39" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>14</v>
@@ -3962,17 +4233,17 @@
       <c r="E39" s="14"/>
       <c r="F39" s="19"/>
       <c r="G39" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H39" s="10">
         <v>6034.0</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J39" s="14"/>
       <c r="K39" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L39" s="19"/>
       <c r="M39" s="14"/>
@@ -3993,7 +4264,7 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="14"/>
       <c r="B40" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>14</v>
@@ -4004,7 +4275,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="19"/>
       <c r="G40" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H40" s="10">
         <v>6300.0</v>
@@ -4016,7 +4287,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L40" s="19"/>
       <c r="M40" s="7">
@@ -4039,7 +4310,7 @@
     <row r="41" ht="18.75" customHeight="1">
       <c r="A41" s="14"/>
       <c r="B41" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>14</v>
@@ -4050,7 +4321,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H41" s="21">
         <v>6300.0</v>
@@ -4060,7 +4331,7 @@
       </c>
       <c r="J41" s="14"/>
       <c r="K41" s="21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
@@ -4081,7 +4352,7 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="14"/>
       <c r="B42" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>14</v>
@@ -4092,7 +4363,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H42" s="21">
         <v>6300.0</v>
@@ -4102,7 +4373,7 @@
       </c>
       <c r="J42" s="14"/>
       <c r="K42" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
@@ -4123,7 +4394,7 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="14"/>
       <c r="B43" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>14</v>
@@ -4134,7 +4405,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="19"/>
       <c r="G43" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H43" s="10">
         <v>6300.0</v>
@@ -4146,7 +4417,7 @@
         <v>0.0</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L43" s="19"/>
       <c r="M43" s="7">
@@ -4169,7 +4440,7 @@
     <row r="44" ht="17.25" customHeight="1">
       <c r="A44" s="14"/>
       <c r="B44" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>14</v>
@@ -4180,7 +4451,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H44" s="21">
         <v>6300.0</v>
@@ -4190,7 +4461,7 @@
       </c>
       <c r="J44" s="14"/>
       <c r="K44" s="21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
@@ -4211,7 +4482,7 @@
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="14"/>
       <c r="B45" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>14</v>
@@ -4222,7 +4493,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="19"/>
       <c r="G45" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H45" s="10">
         <v>6517.0</v>
@@ -4234,7 +4505,7 @@
         <v>0.0</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L45" s="19"/>
       <c r="M45" s="7">
@@ -4257,7 +4528,7 @@
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="14"/>
       <c r="B46" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>14</v>
@@ -4268,7 +4539,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="19"/>
       <c r="G46" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H46" s="10">
         <v>6534.0</v>
@@ -4280,7 +4551,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L46" s="19"/>
       <c r="M46" s="7">
@@ -4303,7 +4574,7 @@
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="14"/>
       <c r="B47" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>14</v>
@@ -4314,7 +4585,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="19"/>
       <c r="G47" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H47" s="10">
         <v>12600.0</v>
@@ -4326,7 +4597,7 @@
         <v>0.0</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L47" s="19"/>
       <c r="M47" s="7">
@@ -4349,10 +4620,10 @@
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="14"/>
       <c r="B48" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>15</v>
@@ -4360,7 +4631,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="19"/>
       <c r="G48" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H48" s="10">
         <v>6800.0</v>
@@ -4370,7 +4641,7 @@
       </c>
       <c r="J48" s="14"/>
       <c r="K48" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="14"/>
@@ -4391,10 +4662,10 @@
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="14"/>
       <c r="B49" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>15</v>
@@ -4402,7 +4673,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="19"/>
       <c r="G49" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H49" s="10">
         <v>4717.0</v>
@@ -4412,7 +4683,7 @@
       </c>
       <c r="J49" s="14"/>
       <c r="K49" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L49" s="19"/>
       <c r="M49" s="14"/>
@@ -4433,7 +4704,7 @@
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="14"/>
       <c r="B50" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>14</v>
@@ -4444,7 +4715,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="19"/>
       <c r="G50" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H50" s="10">
         <v>4600.0</v>
@@ -4454,7 +4725,7 @@
       </c>
       <c r="J50" s="14"/>
       <c r="K50" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L50" s="19"/>
       <c r="M50" s="14"/>
@@ -4475,7 +4746,7 @@
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="14"/>
       <c r="B51" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>14</v>
@@ -4486,7 +4757,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="19"/>
       <c r="G51" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H51" s="10">
         <v>4600.0</v>
@@ -4496,7 +4767,7 @@
       </c>
       <c r="J51" s="14"/>
       <c r="K51" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
@@ -4517,10 +4788,10 @@
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="14"/>
       <c r="B52" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>15</v>
@@ -4528,7 +4799,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="19"/>
       <c r="G52" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H52" s="10">
         <v>3684.0</v>
@@ -4538,7 +4809,7 @@
       </c>
       <c r="J52" s="14"/>
       <c r="K52" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L52" s="19"/>
       <c r="M52" s="14"/>
@@ -4559,10 +4830,10 @@
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="14"/>
       <c r="B53" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>15</v>
@@ -4570,7 +4841,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="19"/>
       <c r="G53" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H53" s="10">
         <v>5984.0</v>
@@ -4580,7 +4851,7 @@
       </c>
       <c r="J53" s="14"/>
       <c r="K53" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L53" s="19"/>
       <c r="M53" s="14"/>
@@ -4601,7 +4872,7 @@
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="14"/>
       <c r="B54" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>14</v>
@@ -4612,7 +4883,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="19"/>
       <c r="G54" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H54" s="10">
         <v>4167.0</v>
@@ -4622,7 +4893,7 @@
       </c>
       <c r="J54" s="14"/>
       <c r="K54" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
@@ -4643,7 +4914,7 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="14"/>
       <c r="B55" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>14</v>
@@ -4654,7 +4925,7 @@
       <c r="E55" s="14"/>
       <c r="F55" s="19"/>
       <c r="G55" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H55" s="10">
         <v>3917.0</v>
@@ -4664,7 +4935,7 @@
       </c>
       <c r="J55" s="14"/>
       <c r="K55" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L55" s="19"/>
       <c r="M55" s="14"/>
@@ -4685,7 +4956,7 @@
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="14"/>
       <c r="B56" s="23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>14</v>
@@ -4696,7 +4967,7 @@
       <c r="E56" s="14"/>
       <c r="F56" s="19"/>
       <c r="G56" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H56" s="10">
         <v>4167.0</v>
@@ -4706,7 +4977,7 @@
       </c>
       <c r="J56" s="14"/>
       <c r="K56" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L56" s="19"/>
       <c r="M56" s="14"/>
@@ -4727,7 +4998,7 @@
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="14"/>
       <c r="B57" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>14</v>
@@ -4738,7 +5009,7 @@
       <c r="E57" s="14"/>
       <c r="F57" s="19"/>
       <c r="G57" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H57" s="10">
         <v>4167.0</v>
@@ -4748,7 +5019,7 @@
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L57" s="19"/>
       <c r="M57" s="14"/>
@@ -4769,7 +5040,7 @@
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="14"/>
       <c r="B58" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>14</v>
@@ -4780,7 +5051,7 @@
       <c r="E58" s="14"/>
       <c r="F58" s="19"/>
       <c r="G58" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H58" s="10">
         <v>3917.0</v>
@@ -4790,7 +5061,7 @@
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L58" s="19"/>
       <c r="M58" s="14"/>
@@ -4811,7 +5082,7 @@
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="14"/>
       <c r="B59" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>14</v>
@@ -4822,7 +5093,7 @@
       <c r="E59" s="14"/>
       <c r="F59" s="19"/>
       <c r="G59" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H59" s="10">
         <v>3917.0</v>
@@ -4832,7 +5103,7 @@
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L59" s="19"/>
       <c r="M59" s="14"/>
@@ -4853,10 +5124,10 @@
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="14"/>
       <c r="B60" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>15</v>
@@ -4864,7 +5135,7 @@
       <c r="E60" s="14"/>
       <c r="F60" s="19"/>
       <c r="G60" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H60" s="10">
         <v>4167.0</v>
@@ -4874,7 +5145,7 @@
       </c>
       <c r="J60" s="14"/>
       <c r="K60" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L60" s="19"/>
       <c r="M60" s="14"/>
@@ -4895,10 +5166,10 @@
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="14"/>
       <c r="B61" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>15</v>
@@ -4906,7 +5177,7 @@
       <c r="E61" s="14"/>
       <c r="F61" s="19"/>
       <c r="G61" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H61" s="10">
         <v>4400.0</v>
@@ -4916,7 +5187,7 @@
       </c>
       <c r="J61" s="14"/>
       <c r="K61" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L61" s="19"/>
       <c r="M61" s="14"/>
@@ -4937,10 +5208,10 @@
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="14"/>
       <c r="B62" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>15</v>
@@ -4948,7 +5219,7 @@
       <c r="E62" s="14"/>
       <c r="F62" s="19"/>
       <c r="G62" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H62" s="10">
         <v>3917.0</v>
@@ -4958,7 +5229,7 @@
       </c>
       <c r="J62" s="14"/>
       <c r="K62" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L62" s="19"/>
       <c r="M62" s="14"/>
@@ -4979,7 +5250,7 @@
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="14"/>
       <c r="B63" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>14</v>
@@ -4990,7 +5261,7 @@
       <c r="E63" s="14"/>
       <c r="F63" s="19"/>
       <c r="G63" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H63" s="10">
         <v>4267.0</v>
@@ -5000,7 +5271,7 @@
       </c>
       <c r="J63" s="14"/>
       <c r="K63" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
@@ -5021,7 +5292,7 @@
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="14"/>
       <c r="B64" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>14</v>
@@ -5032,7 +5303,7 @@
       <c r="E64" s="14"/>
       <c r="F64" s="19"/>
       <c r="G64" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H64" s="10">
         <v>4267.0</v>
@@ -5042,7 +5313,7 @@
       </c>
       <c r="J64" s="14"/>
       <c r="K64" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L64" s="19"/>
       <c r="M64" s="14"/>
@@ -5063,7 +5334,7 @@
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="14"/>
       <c r="B65" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>14</v>
@@ -5074,7 +5345,7 @@
       <c r="E65" s="14"/>
       <c r="F65" s="19"/>
       <c r="G65" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H65" s="10">
         <v>3317.0</v>
@@ -5084,7 +5355,7 @@
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L65" s="19"/>
       <c r="M65" s="14"/>
@@ -5105,7 +5376,7 @@
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="14"/>
       <c r="B66" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>14</v>
@@ -5116,7 +5387,7 @@
       <c r="E66" s="14"/>
       <c r="F66" s="19"/>
       <c r="G66" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H66" s="10">
         <v>3317.0</v>
@@ -5126,7 +5397,7 @@
       </c>
       <c r="J66" s="14"/>
       <c r="K66" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L66" s="19"/>
       <c r="M66" s="14"/>
@@ -5147,7 +5418,7 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="14"/>
       <c r="B67" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>14</v>
@@ -5158,7 +5429,7 @@
       <c r="E67" s="14"/>
       <c r="F67" s="19"/>
       <c r="G67" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H67" s="10">
         <v>3467.0</v>
@@ -5168,7 +5439,7 @@
       </c>
       <c r="J67" s="14"/>
       <c r="K67" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L67" s="19"/>
       <c r="M67" s="14"/>
@@ -5189,7 +5460,7 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="14"/>
       <c r="B68" s="21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>14</v>
@@ -5200,7 +5471,7 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H68" s="21">
         <v>3817.0</v>
@@ -5210,7 +5481,7 @@
       </c>
       <c r="J68" s="14"/>
       <c r="K68" s="21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
@@ -5231,7 +5502,7 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="14"/>
       <c r="B69" s="21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>14</v>
@@ -5242,7 +5513,7 @@
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H69" s="21">
         <v>3817.0</v>
@@ -5252,7 +5523,7 @@
       </c>
       <c r="J69" s="14"/>
       <c r="K69" s="21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L69" s="14"/>
       <c r="M69" s="14"/>
@@ -5273,10 +5544,10 @@
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="14"/>
       <c r="B70" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>15</v>
@@ -5284,7 +5555,7 @@
       <c r="E70" s="14"/>
       <c r="F70" s="19"/>
       <c r="G70" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H70" s="10">
         <v>3634.0</v>
@@ -5294,7 +5565,7 @@
       </c>
       <c r="J70" s="14"/>
       <c r="K70" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L70" s="19"/>
       <c r="M70" s="14"/>
@@ -5315,7 +5586,7 @@
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="14"/>
       <c r="B71" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>14</v>
@@ -5326,7 +5597,7 @@
       <c r="E71" s="14"/>
       <c r="F71" s="19"/>
       <c r="G71" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H71" s="10">
         <v>3817.0</v>
@@ -5336,7 +5607,7 @@
       </c>
       <c r="J71" s="14"/>
       <c r="K71" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
@@ -5357,7 +5628,7 @@
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="14"/>
       <c r="B72" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>14</v>
@@ -5368,7 +5639,7 @@
       <c r="E72" s="14"/>
       <c r="F72" s="19"/>
       <c r="G72" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H72" s="10">
         <v>3550.0</v>
@@ -5378,7 +5649,7 @@
       </c>
       <c r="J72" s="14"/>
       <c r="K72" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
@@ -5399,7 +5670,7 @@
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="14"/>
       <c r="B73" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>14</v>
@@ -5410,7 +5681,7 @@
       <c r="E73" s="14"/>
       <c r="F73" s="19"/>
       <c r="G73" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H73" s="10">
         <v>5984.0</v>
@@ -5420,7 +5691,7 @@
       </c>
       <c r="J73" s="14"/>
       <c r="K73" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L73" s="19"/>
       <c r="M73" s="14"/>
@@ -5441,7 +5712,7 @@
     <row r="74" ht="15.0" customHeight="1">
       <c r="A74" s="14"/>
       <c r="B74" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>14</v>
@@ -5452,7 +5723,7 @@
       <c r="E74" s="14"/>
       <c r="F74" s="19"/>
       <c r="G74" s="10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H74" s="10">
         <v>5984.0</v>
@@ -5462,7 +5733,7 @@
       </c>
       <c r="J74" s="14"/>
       <c r="K74" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
@@ -5483,7 +5754,7 @@
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="14"/>
       <c r="B75" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>14</v>
@@ -5494,7 +5765,7 @@
       <c r="E75" s="14"/>
       <c r="F75" s="19"/>
       <c r="G75" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H75" s="10">
         <v>8066.0</v>
@@ -5504,7 +5775,7 @@
       </c>
       <c r="J75" s="14"/>
       <c r="K75" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L75" s="19"/>
       <c r="M75" s="14"/>
@@ -5525,7 +5796,7 @@
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="14"/>
       <c r="B76" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>14</v>
@@ -5536,7 +5807,7 @@
       <c r="E76" s="14"/>
       <c r="F76" s="19"/>
       <c r="G76" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H76" s="10">
         <v>8066.0</v>
@@ -5546,7 +5817,7 @@
       </c>
       <c r="J76" s="14"/>
       <c r="K76" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L76" s="19"/>
       <c r="M76" s="14"/>
@@ -5564,10 +5835,10 @@
       <c r="Y76" s="14"/>
       <c r="Z76" s="14"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" ht="18.0" customHeight="1">
       <c r="A77" s="14"/>
       <c r="B77" s="21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>14</v>
@@ -5578,7 +5849,7 @@
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c r="G77" s="21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H77" s="21">
         <v>8317.0</v>
@@ -5587,7 +5858,9 @@
         <v>17</v>
       </c>
       <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
+      <c r="K77" s="21" t="s">
+        <v>228</v>
+      </c>
       <c r="L77" s="14"/>
       <c r="M77" s="14"/>
       <c r="N77" s="14"/>
@@ -5607,7 +5880,7 @@
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="14"/>
       <c r="B78" s="21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C78" s="21" t="s">
         <v>14</v>
@@ -5618,7 +5891,7 @@
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H78" s="21">
         <v>2034.0</v>
@@ -5628,7 +5901,7 @@
       </c>
       <c r="J78" s="14"/>
       <c r="K78" s="21" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
@@ -5649,7 +5922,7 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="14"/>
       <c r="B79" s="21" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>14</v>
@@ -5660,7 +5933,7 @@
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="21" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H79" s="21">
         <v>3534.0</v>
@@ -5670,7 +5943,7 @@
       </c>
       <c r="J79" s="14"/>
       <c r="K79" s="21" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
@@ -5691,7 +5964,7 @@
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="14"/>
       <c r="B80" s="21" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C80" s="21" t="s">
         <v>14</v>
@@ -5702,7 +5975,7 @@
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="21" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H80" s="21">
         <v>3467.0</v>
@@ -5712,7 +5985,7 @@
       </c>
       <c r="J80" s="14"/>
       <c r="K80" s="21" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
@@ -5733,7 +6006,7 @@
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="14"/>
       <c r="B81" s="21" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C81" s="21" t="s">
         <v>14</v>
@@ -5744,7 +6017,7 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="21" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H81" s="21">
         <v>4200.0</v>
@@ -5754,7 +6027,7 @@
       </c>
       <c r="J81" s="14"/>
       <c r="K81" s="21" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
@@ -5775,7 +6048,7 @@
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="14"/>
       <c r="B82" s="21" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C82" s="21" t="s">
         <v>14</v>
@@ -5786,7 +6059,7 @@
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="21" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H82" s="21">
         <v>4334.0</v>
@@ -5796,7 +6069,7 @@
       </c>
       <c r="J82" s="14"/>
       <c r="K82" s="21" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L82" s="14"/>
       <c r="M82" s="14"/>
@@ -5817,7 +6090,7 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="14"/>
       <c r="B83" s="21" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C83" s="21" t="s">
         <v>14</v>
@@ -5828,7 +6101,7 @@
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="21" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H83" s="21">
         <v>13717.0</v>
@@ -5838,7 +6111,7 @@
       </c>
       <c r="J83" s="14"/>
       <c r="K83" s="21" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
@@ -5859,10 +6132,10 @@
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="14"/>
       <c r="B84" s="21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>15</v>
@@ -5870,7 +6143,7 @@
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="21" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H84" s="21">
         <v>8100.0</v>
@@ -5880,7 +6153,7 @@
       </c>
       <c r="J84" s="14"/>
       <c r="K84" s="21" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
@@ -5901,7 +6174,7 @@
     <row r="85" ht="15.0" customHeight="1">
       <c r="A85" s="14"/>
       <c r="B85" s="21" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C85" s="21" t="s">
         <v>14</v>
@@ -5912,17 +6185,17 @@
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="21" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H85" s="21">
-        <v>5500.0</v>
+        <v>5550.0</v>
       </c>
       <c r="I85" s="21" t="s">
         <v>17</v>
       </c>
       <c r="J85" s="14"/>
       <c r="K85" s="21" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
@@ -5943,10 +6216,10 @@
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="14"/>
       <c r="B86" s="21" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>15</v>
@@ -5954,7 +6227,7 @@
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
       <c r="G86" s="21" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H86" s="21">
         <v>5850.0</v>
@@ -5964,7 +6237,7 @@
       </c>
       <c r="J86" s="14"/>
       <c r="K86" s="21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
@@ -5985,10 +6258,10 @@
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="14"/>
       <c r="B87" s="21" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>15</v>
@@ -5996,7 +6269,7 @@
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
       <c r="G87" s="21" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H87" s="21">
         <v>5850.0</v>
@@ -6006,7 +6279,7 @@
       </c>
       <c r="J87" s="14"/>
       <c r="K87" s="21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
@@ -6027,7 +6300,7 @@
     <row r="88" ht="12.0" customHeight="1">
       <c r="A88" s="14"/>
       <c r="B88" s="21" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>14</v>
@@ -6038,15 +6311,17 @@
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="H88" s="14"/>
+        <v>259</v>
+      </c>
+      <c r="H88" s="21">
+        <v>6650.0</v>
+      </c>
       <c r="I88" s="21" t="s">
         <v>17</v>
       </c>
       <c r="J88" s="14"/>
       <c r="K88" s="21" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
@@ -6067,7 +6342,7 @@
     <row r="89" ht="15.0" customHeight="1">
       <c r="A89" s="14"/>
       <c r="B89" s="21" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C89" s="21" t="s">
         <v>14</v>
@@ -6078,7 +6353,7 @@
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
       <c r="G89" s="21" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H89" s="21">
         <v>10934.0</v>
@@ -6088,7 +6363,7 @@
       </c>
       <c r="J89" s="14"/>
       <c r="K89" s="21" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
@@ -6109,7 +6384,7 @@
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="14"/>
       <c r="B90" s="21" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>14</v>
@@ -6120,7 +6395,7 @@
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H90" s="21">
         <v>6650.0</v>
@@ -6130,7 +6405,7 @@
       </c>
       <c r="J90" s="14"/>
       <c r="K90" s="21" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L90" s="14"/>
       <c r="M90" s="14"/>
@@ -6151,7 +6426,7 @@
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="14"/>
       <c r="B91" s="21" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C91" s="21" t="s">
         <v>14</v>
@@ -6162,7 +6437,7 @@
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
       <c r="G91" s="21" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H91" s="21">
         <v>8300.0</v>
@@ -6172,7 +6447,7 @@
       </c>
       <c r="J91" s="14"/>
       <c r="K91" s="21" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L91" s="14"/>
       <c r="M91" s="14"/>
@@ -6193,7 +6468,7 @@
     <row r="92" ht="15.0" customHeight="1">
       <c r="A92" s="14"/>
       <c r="B92" s="21" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C92" s="21" t="s">
         <v>14</v>
@@ -6204,17 +6479,17 @@
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c r="G92" s="21" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H92" s="21">
-        <v>10993.0</v>
+        <v>10934.0</v>
       </c>
       <c r="I92" s="21" t="s">
         <v>17</v>
       </c>
       <c r="J92" s="14"/>
       <c r="K92" s="21" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L92" s="14"/>
       <c r="M92" s="14"/>
@@ -6235,7 +6510,7 @@
     <row r="93" ht="17.25" customHeight="1">
       <c r="A93" s="14"/>
       <c r="B93" s="21" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C93" s="21" t="s">
         <v>14</v>
@@ -6246,7 +6521,7 @@
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c r="G93" s="21" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H93" s="21">
         <v>8317.0</v>
@@ -6256,7 +6531,7 @@
       </c>
       <c r="J93" s="14"/>
       <c r="K93" s="21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
@@ -6277,7 +6552,7 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="14"/>
       <c r="B94" s="21" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C94" s="21" t="s">
         <v>14</v>
@@ -6288,7 +6563,7 @@
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
       <c r="G94" s="21" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H94" s="21">
         <v>12533.0</v>
@@ -6298,7 +6573,7 @@
       </c>
       <c r="J94" s="14"/>
       <c r="K94" s="21" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
@@ -6319,7 +6594,7 @@
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="14"/>
       <c r="B95" s="21" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C95" s="21" t="s">
         <v>14</v>
@@ -6330,7 +6605,7 @@
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
       <c r="G95" s="21" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H95" s="21">
         <v>8867.0</v>
@@ -6340,7 +6615,7 @@
       </c>
       <c r="J95" s="14"/>
       <c r="K95" s="21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L95" s="14"/>
       <c r="M95" s="14"/>
@@ -6361,7 +6636,7 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="14"/>
       <c r="B96" s="21" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C96" s="21" t="s">
         <v>14</v>
@@ -6372,7 +6647,7 @@
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
       <c r="G96" s="21" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H96" s="21">
         <v>7150.0</v>
@@ -6382,7 +6657,7 @@
       </c>
       <c r="J96" s="14"/>
       <c r="K96" s="21" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L96" s="14"/>
       <c r="M96" s="14"/>
@@ -6403,7 +6678,7 @@
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="14"/>
       <c r="B97" s="21" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C97" s="21" t="s">
         <v>14</v>
@@ -6414,7 +6689,7 @@
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
       <c r="G97" s="21" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H97" s="21">
         <v>8917.0</v>
@@ -6424,7 +6699,7 @@
       </c>
       <c r="J97" s="14"/>
       <c r="K97" s="21" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
@@ -6445,7 +6720,7 @@
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="14"/>
       <c r="B98" s="21" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C98" s="21" t="s">
         <v>14</v>
@@ -6456,7 +6731,7 @@
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
       <c r="G98" s="21" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H98" s="21">
         <v>4167.0</v>
@@ -6466,7 +6741,7 @@
       </c>
       <c r="J98" s="14"/>
       <c r="K98" s="21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
@@ -6487,7 +6762,7 @@
     <row r="99" ht="17.25" customHeight="1">
       <c r="A99" s="14"/>
       <c r="B99" s="21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C99" s="21" t="s">
         <v>14</v>
@@ -6498,17 +6773,17 @@
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
       <c r="G99" s="21" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H99" s="21">
-        <v>4034.0</v>
+        <v>4417.0</v>
       </c>
       <c r="I99" s="21" t="s">
         <v>17</v>
       </c>
       <c r="J99" s="14"/>
       <c r="K99" s="21" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
@@ -6529,7 +6804,7 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="14"/>
       <c r="B100" s="21" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>14</v>
@@ -6540,17 +6815,17 @@
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
       <c r="G100" s="21" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H100" s="21">
-        <v>4400.0</v>
+        <v>4417.0</v>
       </c>
       <c r="I100" s="21" t="s">
         <v>17</v>
       </c>
       <c r="J100" s="14"/>
       <c r="K100" s="21" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
@@ -6571,7 +6846,7 @@
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="14"/>
       <c r="B101" s="24" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C101" s="21" t="s">
         <v>14</v>
@@ -6582,7 +6857,7 @@
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
       <c r="G101" s="21" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H101" s="21">
         <v>4034.0</v>
@@ -6592,7 +6867,7 @@
       </c>
       <c r="J101" s="14"/>
       <c r="K101" s="21" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
@@ -6613,7 +6888,7 @@
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="14"/>
       <c r="B102" s="24" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C102" s="21" t="s">
         <v>14</v>
@@ -6624,7 +6899,7 @@
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
       <c r="G102" s="21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H102" s="21">
         <v>4034.0</v>
@@ -6634,7 +6909,7 @@
       </c>
       <c r="J102" s="14"/>
       <c r="K102" s="21" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L102" s="14"/>
       <c r="M102" s="14"/>
@@ -6655,7 +6930,7 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="14"/>
       <c r="B103" s="21" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C103" s="21" t="s">
         <v>14</v>
@@ -6666,7 +6941,7 @@
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
       <c r="G103" s="21" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H103" s="21">
         <v>5334.0</v>
@@ -6676,7 +6951,7 @@
       </c>
       <c r="J103" s="14"/>
       <c r="K103" s="21" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
@@ -6697,7 +6972,7 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="14"/>
       <c r="B104" s="21" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C104" s="21" t="s">
         <v>14</v>
@@ -6708,7 +6983,7 @@
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
       <c r="G104" s="21" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H104" s="21">
         <v>5334.0</v>
@@ -6718,7 +6993,7 @@
       </c>
       <c r="J104" s="14"/>
       <c r="K104" s="21" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
@@ -6739,7 +7014,7 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="14"/>
       <c r="B105" s="21" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C105" s="21" t="s">
         <v>14</v>
@@ -6750,17 +7025,17 @@
       <c r="E105" s="14"/>
       <c r="F105" s="14"/>
       <c r="G105" s="21" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H105" s="21">
-        <v>5984.0</v>
+        <v>5734.0</v>
       </c>
       <c r="I105" s="21" t="s">
         <v>17</v>
       </c>
       <c r="J105" s="14"/>
       <c r="K105" s="21" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
@@ -6781,7 +7056,7 @@
     <row r="106" ht="18.75" customHeight="1">
       <c r="A106" s="14"/>
       <c r="B106" s="21" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C106" s="21" t="s">
         <v>14</v>
@@ -6792,7 +7067,7 @@
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
       <c r="G106" s="21" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H106" s="21">
         <v>6109.0</v>
@@ -6802,7 +7077,7 @@
       </c>
       <c r="J106" s="14"/>
       <c r="K106" s="21" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L106" s="14"/>
       <c r="M106" s="14"/>
@@ -6823,7 +7098,7 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="14"/>
       <c r="B107" s="21" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C107" s="21" t="s">
         <v>14</v>
@@ -6834,17 +7109,17 @@
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
       <c r="G107" s="21" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H107" s="21">
-        <v>5734.0</v>
+        <v>5442.0</v>
       </c>
       <c r="I107" s="21" t="s">
         <v>17</v>
       </c>
       <c r="J107" s="14"/>
       <c r="K107" s="21" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
@@ -6865,7 +7140,7 @@
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="14"/>
       <c r="B108" s="21" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C108" s="21" t="s">
         <v>14</v>
@@ -6876,7 +7151,7 @@
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
       <c r="G108" s="21" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H108" s="21">
         <v>3900.0</v>
@@ -6886,7 +7161,7 @@
       </c>
       <c r="J108" s="14"/>
       <c r="K108" s="21" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
@@ -6907,7 +7182,7 @@
     <row r="109" ht="17.25" customHeight="1">
       <c r="A109" s="14"/>
       <c r="B109" s="21" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C109" s="21" t="s">
         <v>14</v>
@@ -6918,7 +7193,7 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c r="G109" s="21" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H109" s="21">
         <v>3900.0</v>
@@ -6928,7 +7203,7 @@
       </c>
       <c r="J109" s="14"/>
       <c r="K109" s="21" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
@@ -6949,7 +7224,7 @@
     <row r="110" ht="18.0" customHeight="1">
       <c r="A110" s="14"/>
       <c r="B110" s="21" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C110" s="21" t="s">
         <v>14</v>
@@ -6960,7 +7235,7 @@
       <c r="E110" s="14"/>
       <c r="F110" s="14"/>
       <c r="G110" s="21" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H110" s="21">
         <v>3767.0</v>
@@ -6970,7 +7245,7 @@
       </c>
       <c r="J110" s="14"/>
       <c r="K110" s="21" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L110" s="14"/>
       <c r="M110" s="14"/>
@@ -6991,7 +7266,7 @@
     <row r="111" ht="18.0" customHeight="1">
       <c r="A111" s="14"/>
       <c r="B111" s="21" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C111" s="21" t="s">
         <v>14</v>
@@ -7002,7 +7277,7 @@
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
       <c r="G111" s="21" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H111" s="21">
         <v>3767.0</v>
@@ -7012,7 +7287,7 @@
       </c>
       <c r="J111" s="14"/>
       <c r="K111" s="21" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L111" s="14"/>
       <c r="M111" s="14"/>
@@ -7033,7 +7308,7 @@
     <row r="112" ht="18.0" customHeight="1">
       <c r="A112" s="14"/>
       <c r="B112" s="21" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C112" s="21" t="s">
         <v>14</v>
@@ -7044,7 +7319,7 @@
       <c r="E112" s="14"/>
       <c r="F112" s="14"/>
       <c r="G112" s="21" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H112" s="21">
         <v>3317.0</v>
@@ -7053,7 +7328,9 @@
         <v>17</v>
       </c>
       <c r="J112" s="14"/>
-      <c r="K112" s="21"/>
+      <c r="K112" s="21" t="s">
+        <v>327</v>
+      </c>
       <c r="L112" s="14"/>
       <c r="M112" s="14"/>
       <c r="N112" s="14"/>
@@ -7073,7 +7350,7 @@
     <row r="113" ht="18.0" customHeight="1">
       <c r="A113" s="14"/>
       <c r="B113" s="21" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C113" s="21" t="s">
         <v>14</v>
@@ -7084,7 +7361,7 @@
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
       <c r="G113" s="21" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H113" s="21">
         <v>3467.0</v>
@@ -7093,7 +7370,9 @@
         <v>17</v>
       </c>
       <c r="J113" s="14"/>
-      <c r="K113" s="21"/>
+      <c r="K113" s="21" t="s">
+        <v>330</v>
+      </c>
       <c r="L113" s="14"/>
       <c r="M113" s="14"/>
       <c r="N113" s="14"/>
@@ -7113,7 +7392,7 @@
     <row r="114" ht="18.0" customHeight="1">
       <c r="A114" s="14"/>
       <c r="B114" s="21" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C114" s="21" t="s">
         <v>14</v>
@@ -7124,7 +7403,7 @@
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
       <c r="G114" s="21" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H114" s="21">
         <v>6800.0</v>
@@ -7133,7 +7412,9 @@
         <v>17</v>
       </c>
       <c r="J114" s="14"/>
-      <c r="K114" s="21"/>
+      <c r="K114" s="21" t="s">
+        <v>333</v>
+      </c>
       <c r="L114" s="14"/>
       <c r="M114" s="14"/>
       <c r="N114" s="14"/>
@@ -7153,7 +7434,7 @@
     <row r="115" ht="18.0" customHeight="1">
       <c r="A115" s="14"/>
       <c r="B115" s="21" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C115" s="21" t="s">
         <v>14</v>
@@ -7164,7 +7445,7 @@
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
       <c r="G115" s="21" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="H115" s="21">
         <v>10933.0</v>
@@ -7173,7 +7454,9 @@
         <v>17</v>
       </c>
       <c r="J115" s="14"/>
-      <c r="K115" s="21"/>
+      <c r="K115" s="21" t="s">
+        <v>336</v>
+      </c>
       <c r="L115" s="14"/>
       <c r="M115" s="14"/>
       <c r="N115" s="14"/>
@@ -7193,7 +7476,7 @@
     <row r="116" ht="18.0" customHeight="1">
       <c r="A116" s="14"/>
       <c r="B116" s="21" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C116" s="21" t="s">
         <v>14</v>
@@ -7204,7 +7487,7 @@
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
       <c r="G116" s="21" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H116" s="21">
         <v>3367.0</v>
@@ -7213,7 +7496,9 @@
         <v>17</v>
       </c>
       <c r="J116" s="14"/>
-      <c r="K116" s="21"/>
+      <c r="K116" s="21" t="s">
+        <v>339</v>
+      </c>
       <c r="L116" s="14"/>
       <c r="M116" s="14"/>
       <c r="N116" s="14"/>
@@ -7233,7 +7518,7 @@
     <row r="117" ht="18.0" customHeight="1">
       <c r="A117" s="14"/>
       <c r="B117" s="21" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C117" s="21" t="s">
         <v>14</v>
@@ -7244,7 +7529,7 @@
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
       <c r="G117" s="21" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H117" s="21">
         <v>4583.0</v>
@@ -7253,7 +7538,9 @@
         <v>17</v>
       </c>
       <c r="J117" s="14"/>
-      <c r="K117" s="21"/>
+      <c r="K117" s="21" t="s">
+        <v>342</v>
+      </c>
       <c r="L117" s="14"/>
       <c r="M117" s="14"/>
       <c r="N117" s="14"/>
@@ -7273,7 +7560,7 @@
     <row r="118" ht="18.0" customHeight="1">
       <c r="A118" s="14"/>
       <c r="B118" s="21" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C118" s="21" t="s">
         <v>14</v>
@@ -7284,7 +7571,7 @@
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
       <c r="G118" s="21" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="H118" s="21">
         <v>7200.0</v>
@@ -7293,7 +7580,9 @@
         <v>17</v>
       </c>
       <c r="J118" s="14"/>
-      <c r="K118" s="21"/>
+      <c r="K118" s="21" t="s">
+        <v>345</v>
+      </c>
       <c r="L118" s="14"/>
       <c r="M118" s="14"/>
       <c r="N118" s="14"/>
@@ -7313,7 +7602,7 @@
     <row r="119" ht="18.0" customHeight="1">
       <c r="A119" s="14"/>
       <c r="B119" s="21" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C119" s="21" t="s">
         <v>14</v>
@@ -7324,7 +7613,7 @@
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
       <c r="G119" s="21" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="H119" s="21">
         <v>7333.0</v>
@@ -7333,7 +7622,9 @@
         <v>17</v>
       </c>
       <c r="J119" s="14"/>
-      <c r="K119" s="21"/>
+      <c r="K119" s="21" t="s">
+        <v>348</v>
+      </c>
       <c r="L119" s="14"/>
       <c r="M119" s="14"/>
       <c r="N119" s="14"/>
@@ -7353,7 +7644,7 @@
     <row r="120" ht="18.0" customHeight="1">
       <c r="A120" s="14"/>
       <c r="B120" s="21" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C120" s="21" t="s">
         <v>14</v>
@@ -7364,7 +7655,7 @@
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
       <c r="G120" s="21" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="H120" s="21">
         <v>2200.0</v>
@@ -7373,7 +7664,9 @@
         <v>17</v>
       </c>
       <c r="J120" s="14"/>
-      <c r="K120" s="21"/>
+      <c r="K120" s="21" t="s">
+        <v>351</v>
+      </c>
       <c r="L120" s="14"/>
       <c r="M120" s="14"/>
       <c r="N120" s="14"/>
@@ -7393,7 +7686,7 @@
     <row r="121" ht="18.0" customHeight="1">
       <c r="A121" s="14"/>
       <c r="B121" s="21" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C121" s="21" t="s">
         <v>14</v>
@@ -7404,7 +7697,7 @@
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c r="G121" s="21" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="H121" s="21">
         <v>11283.0</v>
@@ -7413,7 +7706,9 @@
         <v>17</v>
       </c>
       <c r="J121" s="14"/>
-      <c r="K121" s="21"/>
+      <c r="K121" s="21" t="s">
+        <v>354</v>
+      </c>
       <c r="L121" s="14"/>
       <c r="M121" s="14"/>
       <c r="N121" s="14"/>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1064">
   <si>
     <t>article</t>
   </si>
@@ -692,9 +692,6 @@
     <t>ISOTERMA Астана милки</t>
   </si>
   <si>
-    <t>Входные двери c терморазрывом</t>
-  </si>
-  <si>
     <t>47.png</t>
   </si>
   <si>
@@ -716,9 +713,6 @@
     <t>9 см зеркало</t>
   </si>
   <si>
-    <t>Входные двери  c зеркалом</t>
-  </si>
-  <si>
     <t>48.jpeg</t>
   </si>
   <si>
@@ -917,9 +911,6 @@
   </si>
   <si>
     <t>7,5 см Бостон бетон снежный царга</t>
-  </si>
-  <si>
-    <t>Входные двери панель-панель</t>
   </si>
   <si>
     <t>59.jpeg</t>
@@ -1053,9 +1044,6 @@
   </si>
   <si>
     <t>Гарда метал/метал</t>
-  </si>
-  <si>
-    <t>Входные двери металл-метал</t>
   </si>
   <si>
     <t>69.jpeg</t>
@@ -3385,7 +3373,7 @@
     <t>Стиль 1 серый</t>
   </si>
   <si>
-    <t>stil-1-seryi-gluhoe,png</t>
+    <t>stil-1-seryi-gluhoe.png</t>
   </si>
   <si>
     <t xml:space="preserve">Ширина полотна (мм):900;
@@ -3439,7 +3427,7 @@
     <t>Стиль 1 латте стекло топаз</t>
   </si>
   <si>
-    <t>stil-1-latte-steklo-topaz,jpeg</t>
+    <t>stil-1-latte-steklo-topaz.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Ширина полотна (мм):900;
@@ -4867,9 +4855,6 @@
   </si>
   <si>
     <t>Стиль 1 латте топаз</t>
-  </si>
-  <si>
-    <t>stil-1-latte-topaz.tif</t>
   </si>
   <si>
     <t xml:space="preserve">Стиль 1 серый  </t>
@@ -5821,7 +5806,7 @@
       <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -6161,7 +6146,7 @@
       <c r="B28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -6192,7 +6177,7 @@
       <c r="B29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -6223,7 +6208,7 @@
       <c r="B30" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -6254,7 +6239,7 @@
       <c r="B31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -6284,7 +6269,7 @@
       <c r="B32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -6315,7 +6300,7 @@
       <c r="B33" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -6346,7 +6331,7 @@
       <c r="B34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -6377,7 +6362,7 @@
       <c r="B35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -6408,7 +6393,7 @@
       <c r="B36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -6439,7 +6424,7 @@
       <c r="B37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -6470,7 +6455,7 @@
       <c r="B38" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -6501,7 +6486,7 @@
       <c r="B39" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -6526,7 +6511,7 @@
       <c r="B40" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -6557,7 +6542,7 @@
       <c r="B41" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -6580,7 +6565,7 @@
       <c r="B42" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -6603,7 +6588,7 @@
       <c r="B43" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -6634,7 +6619,7 @@
       <c r="B44" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -6657,7 +6642,7 @@
       <c r="B45" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -6688,7 +6673,7 @@
       <c r="B46" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -6719,7 +6704,7 @@
       <c r="B47" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -6750,15 +6735,15 @@
       <c r="B48" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>141</v>
+      <c r="C48" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H48" s="3">
         <v>6800.0</v>
@@ -6767,23 +6752,23 @@
         <v>17</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L48" s="5"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H49" s="3">
         <v>4717.0</v>
@@ -6792,15 +6777,15 @@
         <v>17</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L49" s="5"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -6808,7 +6793,7 @@
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H50" s="3">
         <v>4600.0</v>
@@ -6817,15 +6802,15 @@
         <v>17</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L50" s="5"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -6833,7 +6818,7 @@
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H51" s="3">
         <v>4600.0</v>
@@ -6842,22 +6827,22 @@
         <v>17</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="B52" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H52" s="3">
         <v>3684.0</v>
@@ -6866,23 +6851,23 @@
         <v>17</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L52" s="5"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H53" s="3">
         <v>5984.0</v>
@@ -6891,15 +6876,15 @@
         <v>17</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L53" s="5"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="B54" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -6907,7 +6892,7 @@
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H54" s="3">
         <v>4167.0</v>
@@ -6916,14 +6901,14 @@
         <v>17</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="B55" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -6931,7 +6916,7 @@
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H55" s="3">
         <v>3917.0</v>
@@ -6940,15 +6925,15 @@
         <v>17</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L55" s="5"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="B56" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -6956,7 +6941,7 @@
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H56" s="3">
         <v>4167.0</v>
@@ -6965,15 +6950,15 @@
         <v>17</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L56" s="5"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="B57" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -6981,7 +6966,7 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H57" s="3">
         <v>4167.0</v>
@@ -6990,15 +6975,15 @@
         <v>17</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L57" s="5"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="B58" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -7006,7 +6991,7 @@
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H58" s="3">
         <v>3917.0</v>
@@ -7015,15 +7000,15 @@
         <v>17</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L58" s="5"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="B59" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -7031,7 +7016,7 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H59" s="3">
         <v>3917.0</v>
@@ -7040,23 +7025,23 @@
         <v>17</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L59" s="5"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="B60" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H60" s="3">
         <v>4167.0</v>
@@ -7065,23 +7050,23 @@
         <v>17</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L60" s="5"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="B61" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C61" s="3" t="s">
         <v>179</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H61" s="3">
         <v>4400.0</v>
@@ -7090,23 +7075,23 @@
         <v>17</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L61" s="5"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="B62" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H62" s="3">
         <v>3917.0</v>
@@ -7115,15 +7100,15 @@
         <v>17</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L62" s="5"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="B63" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C63" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -7131,7 +7116,7 @@
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H63" s="3">
         <v>4267.0</v>
@@ -7140,14 +7125,14 @@
         <v>17</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="B64" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C64" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -7155,7 +7140,7 @@
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H64" s="3">
         <v>4267.0</v>
@@ -7164,15 +7149,15 @@
         <v>17</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L64" s="5"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C65" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -7180,7 +7165,7 @@
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H65" s="3">
         <v>3317.0</v>
@@ -7189,15 +7174,15 @@
         <v>17</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L65" s="5"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C66" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -7205,7 +7190,7 @@
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H66" s="3">
         <v>3317.0</v>
@@ -7214,15 +7199,15 @@
         <v>17</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L66" s="5"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
       <c r="B67" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C67" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -7230,7 +7215,7 @@
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H67" s="3">
         <v>3467.0</v>
@@ -7239,22 +7224,22 @@
         <v>17</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L67" s="5"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c r="B68" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C68" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H68" s="16">
         <v>3817.0</v>
@@ -7263,21 +7248,21 @@
         <v>17</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="B69" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C69" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H69" s="16">
         <v>3817.0</v>
@@ -7286,22 +7271,22 @@
         <v>17</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="B70" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H70" s="3">
         <v>3634.0</v>
@@ -7310,15 +7295,15 @@
         <v>17</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L70" s="5"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="B71" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C71" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -7326,7 +7311,7 @@
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H71" s="3">
         <v>3817.0</v>
@@ -7335,14 +7320,14 @@
         <v>17</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="B72" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C72" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -7350,7 +7335,7 @@
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H72" s="3">
         <v>3550.0</v>
@@ -7359,14 +7344,14 @@
         <v>17</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="B73" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C73" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -7374,7 +7359,7 @@
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H73" s="3">
         <v>5984.0</v>
@@ -7383,15 +7368,15 @@
         <v>17</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L73" s="5"/>
     </row>
     <row r="74" ht="15.0" customHeight="1">
       <c r="B74" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C74" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -7399,7 +7384,7 @@
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H74" s="3">
         <v>5984.0</v>
@@ -7408,14 +7393,14 @@
         <v>17</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="B75" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C75" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -7423,7 +7408,7 @@
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H75" s="3">
         <v>8066.0</v>
@@ -7432,15 +7417,15 @@
         <v>17</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L75" s="5"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="B76" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C76" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -7448,7 +7433,7 @@
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H76" s="3">
         <v>8066.0</v>
@@ -7457,22 +7442,22 @@
         <v>17</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L76" s="5"/>
     </row>
     <row r="77" ht="18.0" customHeight="1">
       <c r="B77" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C77" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H77" s="16">
         <v>8317.0</v>
@@ -7481,21 +7466,21 @@
         <v>17</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="B78" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C78" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H78" s="16">
         <v>2034.0</v>
@@ -7504,21 +7489,21 @@
         <v>17</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" ht="16.5" customHeight="1">
       <c r="B79" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C79" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H79" s="16">
         <v>3534.0</v>
@@ -7527,21 +7512,21 @@
         <v>17</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="B80" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C80" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H80" s="16">
         <v>3467.0</v>
@@ -7550,21 +7535,21 @@
         <v>17</v>
       </c>
       <c r="K80" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="B81" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="C81" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H81" s="16">
         <v>4200.0</v>
@@ -7573,21 +7558,21 @@
         <v>17</v>
       </c>
       <c r="K81" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="B82" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C82" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H82" s="16">
         <v>4334.0</v>
@@ -7596,21 +7581,21 @@
         <v>17</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="B83" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C83" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H83" s="16">
         <v>13717.0</v>
@@ -7619,21 +7604,21 @@
         <v>17</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="B84" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>141</v>
+        <v>243</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H84" s="16">
         <v>8100.0</v>
@@ -7642,21 +7627,21 @@
         <v>17</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" ht="15.0" customHeight="1">
       <c r="B85" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C85" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H85" s="16">
         <v>5550.0</v>
@@ -7665,21 +7650,21 @@
         <v>17</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="B86" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>141</v>
+        <v>249</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H86" s="16">
         <v>5850.0</v>
@@ -7688,21 +7673,21 @@
         <v>17</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="B87" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>141</v>
+        <v>252</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H87" s="16">
         <v>5850.0</v>
@@ -7711,21 +7696,21 @@
         <v>17</v>
       </c>
       <c r="K87" s="16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" ht="12.0" customHeight="1">
       <c r="B88" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C88" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H88" s="16">
         <v>6650.0</v>
@@ -7734,21 +7719,21 @@
         <v>17</v>
       </c>
       <c r="K88" s="16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" ht="15.0" customHeight="1">
       <c r="B89" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C89" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H89" s="16">
         <v>10934.0</v>
@@ -7757,21 +7742,21 @@
         <v>17</v>
       </c>
       <c r="K89" s="16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="B90" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C90" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H90" s="16">
         <v>6650.0</v>
@@ -7780,21 +7765,21 @@
         <v>17</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="B91" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C91" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H91" s="16">
         <v>8300.0</v>
@@ -7803,21 +7788,21 @@
         <v>17</v>
       </c>
       <c r="K91" s="16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" ht="15.0" customHeight="1">
       <c r="B92" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="C92" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H92" s="16">
         <v>10934.0</v>
@@ -7826,21 +7811,21 @@
         <v>17</v>
       </c>
       <c r="K92" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" ht="17.25" customHeight="1">
       <c r="B93" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C93" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H93" s="16">
         <v>8317.0</v>
@@ -7849,21 +7834,21 @@
         <v>17</v>
       </c>
       <c r="K93" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" ht="16.5" customHeight="1">
       <c r="B94" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C94" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H94" s="16">
         <v>12533.0</v>
@@ -7872,21 +7857,21 @@
         <v>17</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="B95" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="C95" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H95" s="16">
         <v>8867.0</v>
@@ -7895,21 +7880,21 @@
         <v>17</v>
       </c>
       <c r="K95" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" ht="16.5" customHeight="1">
       <c r="B96" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="C96" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H96" s="16">
         <v>7150.0</v>
@@ -7918,21 +7903,21 @@
         <v>17</v>
       </c>
       <c r="K96" s="16" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="B97" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="C97" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H97" s="16">
         <v>8917.0</v>
@@ -7941,21 +7926,21 @@
         <v>17</v>
       </c>
       <c r="K97" s="16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="B98" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C98" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H98" s="16">
         <v>4167.0</v>
@@ -7964,21 +7949,21 @@
         <v>17</v>
       </c>
       <c r="K98" s="16" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" ht="17.25" customHeight="1">
       <c r="B99" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C99" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H99" s="16">
         <v>4417.0</v>
@@ -7987,21 +7972,21 @@
         <v>17</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" ht="16.5" customHeight="1">
       <c r="B100" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C100" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H100" s="16">
         <v>4417.0</v>
@@ -8010,21 +7995,21 @@
         <v>17</v>
       </c>
       <c r="K100" s="16" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="B101" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C101" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H101" s="16">
         <v>4034.0</v>
@@ -8033,21 +8018,21 @@
         <v>17</v>
       </c>
       <c r="K101" s="16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="B102" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="C102" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H102" s="16">
         <v>4034.0</v>
@@ -8056,21 +8041,21 @@
         <v>17</v>
       </c>
       <c r="K102" s="16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" ht="16.5" customHeight="1">
       <c r="B103" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="C103" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H103" s="16">
         <v>5334.0</v>
@@ -8079,21 +8064,21 @@
         <v>17</v>
       </c>
       <c r="K103" s="16" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" ht="16.5" customHeight="1">
       <c r="B104" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C104" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H104" s="16">
         <v>5334.0</v>
@@ -8102,21 +8087,21 @@
         <v>17</v>
       </c>
       <c r="K104" s="16" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" ht="16.5" customHeight="1">
       <c r="B105" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C105" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H105" s="16">
         <v>5734.0</v>
@@ -8125,21 +8110,21 @@
         <v>17</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" ht="18.75" customHeight="1">
       <c r="B106" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C106" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H106" s="16">
         <v>6109.0</v>
@@ -8148,21 +8133,21 @@
         <v>17</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" ht="16.5" customHeight="1">
       <c r="B107" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C107" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H107" s="16">
         <v>5442.0</v>
@@ -8171,21 +8156,21 @@
         <v>17</v>
       </c>
       <c r="K107" s="16" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="B108" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C108" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H108" s="16">
         <v>3900.0</v>
@@ -8194,21 +8179,21 @@
         <v>17</v>
       </c>
       <c r="K108" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" ht="17.25" customHeight="1">
       <c r="B109" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="C109" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H109" s="16">
         <v>3900.0</v>
@@ -8217,21 +8202,21 @@
         <v>17</v>
       </c>
       <c r="K109" s="16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" ht="18.0" customHeight="1">
       <c r="B110" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="C110" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H110" s="16">
         <v>3767.0</v>
@@ -8240,21 +8225,21 @@
         <v>17</v>
       </c>
       <c r="K110" s="16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" ht="18.0" customHeight="1">
       <c r="B111" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="C111" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H111" s="16">
         <v>3767.0</v>
@@ -8263,21 +8248,21 @@
         <v>17</v>
       </c>
       <c r="K111" s="16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" ht="18.0" customHeight="1">
       <c r="B112" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C112" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C112" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H112" s="16">
         <v>3317.0</v>
@@ -8286,21 +8271,21 @@
         <v>17</v>
       </c>
       <c r="K112" s="16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113" ht="18.0" customHeight="1">
       <c r="B113" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="C113" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H113" s="16">
         <v>3467.0</v>
@@ -8309,21 +8294,21 @@
         <v>17</v>
       </c>
       <c r="K113" s="16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" ht="18.0" customHeight="1">
       <c r="B114" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C114" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H114" s="16">
         <v>6800.0</v>
@@ -8332,21 +8317,21 @@
         <v>17</v>
       </c>
       <c r="K114" s="16" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="115" ht="18.0" customHeight="1">
       <c r="B115" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="C115" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H115" s="16">
         <v>10933.0</v>
@@ -8355,21 +8340,21 @@
         <v>17</v>
       </c>
       <c r="K115" s="16" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" ht="18.0" customHeight="1">
       <c r="B116" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="C116" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H116" s="16">
         <v>3367.0</v>
@@ -8378,21 +8363,21 @@
         <v>17</v>
       </c>
       <c r="K116" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" ht="18.0" customHeight="1">
       <c r="B117" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="C117" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H117" s="16">
         <v>4583.0</v>
@@ -8401,21 +8386,21 @@
         <v>17</v>
       </c>
       <c r="K117" s="16" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" ht="18.0" customHeight="1">
       <c r="B118" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="C118" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H118" s="16">
         <v>7200.0</v>
@@ -8424,21 +8409,21 @@
         <v>17</v>
       </c>
       <c r="K118" s="16" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" ht="18.0" customHeight="1">
       <c r="B119" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="C119" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H119" s="16">
         <v>7333.0</v>
@@ -8447,21 +8432,21 @@
         <v>17</v>
       </c>
       <c r="K119" s="16" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" ht="18.0" customHeight="1">
       <c r="B120" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C120" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H120" s="16">
         <v>2200.0</v>
@@ -8470,21 +8455,21 @@
         <v>17</v>
       </c>
       <c r="K120" s="16" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" ht="18.0" customHeight="1">
       <c r="B121" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C121" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H121" s="16">
         <v>11283.0</v>
@@ -8493,919 +8478,919 @@
         <v>17</v>
       </c>
       <c r="K121" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="B122" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H122" s="3">
         <v>4800.0</v>
       </c>
       <c r="I122" s="6"/>
       <c r="K122" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="B123" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H123" s="3">
         <v>4800.0</v>
       </c>
       <c r="I123" s="6"/>
       <c r="K123" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L123" s="5"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="B124" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H124" s="3">
         <v>4800.0</v>
       </c>
       <c r="I124" s="6"/>
       <c r="K124" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L124" s="5"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="B125" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H125" s="3">
         <v>4800.0</v>
       </c>
       <c r="I125" s="6"/>
       <c r="K125" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L125" s="5"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="B126" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H126" s="3">
         <v>5000.0</v>
       </c>
       <c r="I126" s="6"/>
       <c r="K126" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L126" s="5"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="B127" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H127" s="3">
         <v>5300.0</v>
       </c>
       <c r="I127" s="6"/>
       <c r="K127" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="B128" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H128" s="3">
         <v>9900.0</v>
       </c>
       <c r="I128" s="6"/>
       <c r="K128" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L128" s="5"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="B129" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H129" s="16">
         <v>7300.0</v>
       </c>
       <c r="I129" s="6"/>
       <c r="K129" s="16" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="B130" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H130" s="3">
         <v>5300.0</v>
       </c>
       <c r="I130" s="6"/>
       <c r="K130" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L130" s="5"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="B131" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H131" s="3">
         <v>3850.0</v>
       </c>
       <c r="I131" s="6"/>
       <c r="K131" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L131" s="5"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="B132" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H132" s="3">
         <v>5200.0</v>
       </c>
       <c r="I132" s="6"/>
       <c r="K132" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L132" s="5"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="B133" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H133" s="3">
         <v>4900.0</v>
       </c>
       <c r="I133" s="6"/>
       <c r="K133" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L133" s="5"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="B134" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H134" s="3">
         <v>4900.0</v>
       </c>
       <c r="I134" s="6"/>
       <c r="K134" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L134" s="5"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="B135" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H135" s="3">
         <v>11100.0</v>
       </c>
       <c r="I135" s="6"/>
       <c r="K135" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L135" s="5"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="B136" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H136" s="3">
         <v>5300.0</v>
       </c>
       <c r="I136" s="6"/>
       <c r="K136" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L136" s="5"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="B137" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H137" s="3">
         <v>5300.0</v>
       </c>
       <c r="I137" s="6"/>
       <c r="K137" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L137" s="5"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="B138" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H138" s="3">
         <v>5000.0</v>
       </c>
       <c r="I138" s="6"/>
       <c r="K138" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L138" s="5"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="B139" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H139" s="3">
         <v>5300.0</v>
       </c>
       <c r="I139" s="6"/>
       <c r="K139" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L139" s="5"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="B140" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H140" s="3">
         <v>5900.0</v>
       </c>
       <c r="I140" s="6"/>
       <c r="K140" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L140" s="5"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="B141" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H141" s="3">
         <v>5300.0</v>
       </c>
       <c r="I141" s="6"/>
       <c r="K141" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L141" s="5"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="B142" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H142" s="3">
         <v>5900.0</v>
       </c>
       <c r="I142" s="6"/>
       <c r="K142" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L142" s="5"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H143" s="3">
         <v>5200.0</v>
       </c>
       <c r="I143" s="6"/>
       <c r="K143" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L143" s="5"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H144" s="3">
         <v>5500.0</v>
       </c>
       <c r="I144" s="6"/>
       <c r="K144" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L144" s="5"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H145" s="3">
         <v>5550.0</v>
       </c>
       <c r="I145" s="6"/>
       <c r="K145" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L145" s="5"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H146" s="3">
         <v>4800.0</v>
       </c>
       <c r="I146" s="6"/>
       <c r="K146" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L146" s="5"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H147" s="3">
         <v>4800.0</v>
       </c>
       <c r="I147" s="6"/>
       <c r="K147" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L147" s="5"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="B148" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H148" s="3">
         <v>5300.0</v>
       </c>
       <c r="I148" s="6"/>
       <c r="K148" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L148" s="5"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="B149" s="16" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H149" s="16">
         <v>7300.0</v>
       </c>
       <c r="I149" s="6"/>
       <c r="K149" s="16" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="B150" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H150" s="3">
         <v>3850.0</v>
       </c>
       <c r="I150" s="6"/>
       <c r="K150" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L150" s="5"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="B151" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H151" s="3">
         <v>6400.0</v>
       </c>
       <c r="I151" s="6"/>
       <c r="K151" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L151" s="5"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="B152" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H152" s="3">
         <v>5500.0</v>
       </c>
       <c r="I152" s="6"/>
       <c r="K152" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L152" s="5"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="B153" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H153" s="3">
         <v>12000.0</v>
       </c>
       <c r="I153" s="6"/>
       <c r="K153" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L153" s="5"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="B154" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H154" s="3">
         <v>12000.0</v>
       </c>
       <c r="I154" s="6"/>
       <c r="K154" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L154" s="5"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="B155" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H155" s="3">
         <v>12000.0</v>
       </c>
       <c r="I155" s="6"/>
       <c r="K155" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="B156" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H156" s="3">
         <v>12000.0</v>
       </c>
       <c r="I156" s="6"/>
       <c r="K156" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L156" s="5"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="B157" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H157" s="3">
         <v>12000.0</v>
       </c>
       <c r="I157" s="6"/>
       <c r="K157" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L157" s="5"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="B158" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H158" s="3">
         <v>12000.0</v>
       </c>
       <c r="I158" s="6"/>
       <c r="K158" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L158" s="5"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="B159" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H159" s="3">
         <v>8500.0</v>
       </c>
       <c r="I159" s="6"/>
       <c r="K159" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L159" s="5"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="B160" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H160" s="3">
         <v>8950.0</v>
       </c>
       <c r="I160" s="6"/>
       <c r="K160" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L160" s="5"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="B161" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H161" s="3">
         <v>8500.0</v>
       </c>
       <c r="I161" s="6"/>
       <c r="K161" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L161" s="5"/>
     </row>
@@ -9414,1219 +9399,1219 @@
         <v>48</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H162" s="3">
         <v>8950.0</v>
       </c>
       <c r="I162" s="6"/>
       <c r="K162" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L162" s="5"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="B163" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H163" s="3">
         <v>8500.0</v>
       </c>
       <c r="I163" s="6"/>
       <c r="K163" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="B164" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H164" s="3">
         <v>8950.0</v>
       </c>
       <c r="I164" s="6"/>
       <c r="K164" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="B165" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H165" s="3">
         <v>9400.0</v>
       </c>
       <c r="I165" s="6"/>
       <c r="K165" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L165" s="5"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="B166" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H166" s="3">
         <v>9400.0</v>
       </c>
       <c r="I166" s="6"/>
       <c r="K166" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L166" s="5"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="B167" s="16" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H167" s="16">
         <v>7850.0</v>
       </c>
       <c r="I167" s="6"/>
       <c r="K167" s="16" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="B168" s="16" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G168" s="16" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H168" s="16">
         <v>7850.0</v>
       </c>
       <c r="I168" s="6"/>
       <c r="K168" s="16" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="B169" s="16" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H169" s="16">
         <v>7850.0</v>
       </c>
       <c r="I169" s="6"/>
       <c r="K169" s="16" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="B170" s="16" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G170" s="16" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H170" s="16">
         <v>7850.0</v>
       </c>
       <c r="I170" s="6"/>
       <c r="K170" s="16" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="B171" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H171" s="16">
         <v>10600.0</v>
       </c>
       <c r="I171" s="6"/>
       <c r="K171" s="16" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="B172" s="16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G172" s="16" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H172" s="16">
         <v>10850.0</v>
       </c>
       <c r="I172" s="6"/>
       <c r="K172" s="16" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="B173" s="16" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G173" s="16" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H173" s="16">
         <v>10600.0</v>
       </c>
       <c r="I173" s="6"/>
       <c r="K173" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="B174" s="16" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G174" s="16" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H174" s="16">
         <v>10850.0</v>
       </c>
       <c r="I174" s="6"/>
       <c r="K174" s="16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="B175" s="16" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G175" s="16" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H175" s="16">
         <v>13500.0</v>
       </c>
       <c r="I175" s="6"/>
       <c r="K175" s="16" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="B176" s="16" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G176" s="16" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H176" s="16">
         <v>16600.0</v>
       </c>
       <c r="I176" s="6"/>
       <c r="K176" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="B177" s="16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H177" s="16">
         <v>19900.0</v>
       </c>
       <c r="I177" s="6"/>
       <c r="K177" s="16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="B178" s="16" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G178" s="16" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H178" s="16">
         <v>19900.0</v>
       </c>
       <c r="I178" s="6"/>
       <c r="K178" s="16" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="B179" s="16" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H179" s="16">
         <v>19900.0</v>
       </c>
       <c r="I179" s="6"/>
       <c r="K179" s="16" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="B180" s="16" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G180" s="16" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H180" s="16">
         <v>19900.0</v>
       </c>
       <c r="I180" s="6"/>
       <c r="K180" s="16" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="B181" s="16" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H181" s="16">
         <v>27300.0</v>
       </c>
       <c r="I181" s="6"/>
       <c r="K181" s="16" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="B182" s="16" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G182" s="16" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H182" s="16">
         <v>27300.0</v>
       </c>
       <c r="I182" s="6"/>
       <c r="K182" s="16" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="B183" s="16" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H183" s="16">
         <v>12800.0</v>
       </c>
       <c r="I183" s="6"/>
       <c r="K183" s="16" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="B184" s="16" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G184" s="16" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H184" s="16">
         <v>12800.0</v>
       </c>
       <c r="I184" s="6"/>
       <c r="K184" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="B185" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G185" s="16" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H185" s="16">
         <v>12800.0</v>
       </c>
       <c r="I185" s="6"/>
       <c r="K185" s="16" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="B186" s="16" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G186" s="16" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H186" s="16">
         <v>12800.0</v>
       </c>
       <c r="I186" s="6"/>
       <c r="K186" s="16" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="B187" s="16" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H187" s="16">
         <v>12800.0</v>
       </c>
       <c r="I187" s="6"/>
       <c r="K187" s="16" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="B188" s="16" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G188" s="16" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H188" s="16">
         <v>12800.0</v>
       </c>
       <c r="I188" s="6"/>
       <c r="K188" s="16" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="B189" s="16" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G189" s="16" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H189" s="16">
         <v>16200.0</v>
       </c>
       <c r="I189" s="6"/>
       <c r="K189" s="16" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="B190" s="16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G190" s="16" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H190" s="16">
         <v>16200.0</v>
       </c>
       <c r="I190" s="6"/>
       <c r="K190" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="B191" s="16" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G191" s="16" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H191" s="16">
         <v>17300.0</v>
       </c>
       <c r="I191" s="6"/>
       <c r="K191" s="16" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="B192" s="16" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G192" s="16" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H192" s="16">
         <v>17300.0</v>
       </c>
       <c r="I192" s="6"/>
       <c r="K192" s="16" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="B193" s="16" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G193" s="16" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H193" s="16">
         <v>7800.0</v>
       </c>
       <c r="I193" s="6"/>
       <c r="K193" s="16" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="B194" s="16" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G194" s="16" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H194" s="16">
         <v>11400.0</v>
       </c>
       <c r="I194" s="6"/>
       <c r="K194" s="16" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="B195" s="16" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G195" s="16" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H195" s="16">
         <v>7800.0</v>
       </c>
       <c r="I195" s="6"/>
       <c r="K195" s="16" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="B196" s="16" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G196" s="16" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H196" s="16">
         <v>11400.0</v>
       </c>
       <c r="I196" s="6"/>
       <c r="K196" s="16" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="B197" s="16" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G197" s="16" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H197" s="16">
         <v>7800.0</v>
       </c>
       <c r="I197" s="6"/>
       <c r="K197" s="16" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="B198" s="16" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G198" s="16" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H198" s="16">
         <v>11400.0</v>
       </c>
       <c r="I198" s="6"/>
       <c r="K198" s="16" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="B199" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G199" s="16" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H199" s="16">
         <v>7800.0</v>
       </c>
       <c r="I199" s="6"/>
       <c r="K199" s="16" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="B200" s="16" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G200" s="16" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H200" s="16">
         <v>11400.0</v>
       </c>
       <c r="I200" s="6"/>
       <c r="K200" s="16" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="B201" s="16" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G201" s="16" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H201" s="16">
         <v>7800.0</v>
       </c>
       <c r="I201" s="6"/>
       <c r="K201" s="16" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="B202" s="16" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H202" s="16">
         <v>11400.0</v>
       </c>
       <c r="I202" s="6"/>
       <c r="K202" s="16" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="B203" s="16" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G203" s="16" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H203" s="16">
         <v>7800.0</v>
       </c>
       <c r="I203" s="6"/>
       <c r="K203" s="16" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="B204" s="16" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G204" s="16" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H204" s="16">
         <v>11400.0</v>
       </c>
       <c r="I204" s="6"/>
       <c r="K204" s="16" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="B205" s="16" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G205" s="16" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H205" s="16">
         <v>7800.0</v>
       </c>
       <c r="I205" s="6"/>
       <c r="K205" s="16" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="B206" s="16" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G206" s="16" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H206" s="16">
         <v>11400.0</v>
       </c>
       <c r="I206" s="6"/>
       <c r="K206" s="16" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="B207" s="16" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G207" s="16" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H207" s="16">
         <v>8950.0</v>
       </c>
       <c r="I207" s="6"/>
       <c r="K207" s="16" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="B208" s="16" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G208" s="16" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H208" s="16">
         <v>8950.0</v>
       </c>
       <c r="I208" s="6"/>
       <c r="K208" s="16" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="B209" s="16" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G209" s="16" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H209" s="16">
         <v>8950.0</v>
       </c>
       <c r="I209" s="6"/>
       <c r="K209" s="16" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="B210" s="16" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G210" s="16" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H210" s="16">
         <v>7800.0</v>
       </c>
       <c r="I210" s="6"/>
       <c r="K210" s="16" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="B211" s="16" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G211" s="16" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H211" s="16">
         <v>7800.0</v>
       </c>
       <c r="I211" s="6"/>
       <c r="K211" s="16" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="B212" s="16" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G212" s="16" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H212" s="16">
         <v>7800.0</v>
       </c>
       <c r="I212" s="6"/>
       <c r="K212" s="16" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="B213" s="16" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F213" s="16"/>
       <c r="G213" s="16" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H213" s="16">
         <v>7400.0</v>
       </c>
       <c r="K213" s="16" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="B214" s="16" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F214" s="16"/>
       <c r="G214" s="16" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="H214" s="16">
         <v>7400.0</v>
       </c>
       <c r="K214" s="16" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="B215" s="16" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F215" s="16"/>
       <c r="G215" s="16" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H215" s="16">
         <v>7400.0</v>
       </c>
       <c r="K215" s="16" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="B216" s="16" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F216" s="16"/>
       <c r="G216" s="16" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="H216" s="16">
         <v>7400.0</v>
       </c>
       <c r="K216" s="16" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="B217" s="16" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F217" s="16"/>
       <c r="G217" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H217" s="16">
         <v>7400.0</v>
       </c>
       <c r="K217" s="16" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="B218" s="16" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F218" s="16"/>
       <c r="G218" s="16" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="H218" s="16">
         <v>7400.0</v>
       </c>
       <c r="K218" s="16" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="B219" s="16" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F219" s="16"/>
       <c r="G219" s="16" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H219" s="16">
         <v>10010.0</v>
@@ -10634,17 +10619,17 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="B220" s="16" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F220" s="16"/>
       <c r="G220" s="16" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="H220" s="16">
         <v>10010.0</v>
@@ -10652,17 +10637,17 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="B221" s="16" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F221" s="16"/>
       <c r="G221" s="16" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H221" s="16">
         <v>10010.0</v>
@@ -10670,17 +10655,17 @@
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="B222" s="16" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F222" s="16"/>
       <c r="G222" s="16" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="H222" s="16">
         <v>10010.0</v>
@@ -10688,17 +10673,17 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="B223" s="16" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F223" s="16"/>
       <c r="G223" s="16" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H223" s="16">
         <v>10010.0</v>
@@ -10706,17 +10691,17 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="B224" s="16" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F224" s="16"/>
       <c r="G224" s="16" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H224" s="16">
         <v>9310.0</v>
@@ -10724,17 +10709,17 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="B225" s="16" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F225" s="16"/>
       <c r="G225" s="16" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="H225" s="16">
         <v>9310.0</v>
@@ -10742,17 +10727,17 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="B226" s="16" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F226" s="16"/>
       <c r="G226" s="16" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="H226" s="16">
         <v>9310.0</v>
@@ -10760,17 +10745,17 @@
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="B227" s="16" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F227" s="16"/>
       <c r="G227" s="16" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H227" s="16">
         <v>9310.0</v>
@@ -10778,17 +10763,17 @@
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="B228" s="16" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F228" s="16"/>
       <c r="G228" s="16" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H228" s="16">
         <v>7170.0</v>
@@ -10796,17 +10781,17 @@
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="B229" s="16" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F229" s="16"/>
       <c r="G229" s="16" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H229" s="16">
         <v>7170.0</v>
@@ -10814,17 +10799,17 @@
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="B230" s="16" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F230" s="16"/>
       <c r="G230" s="16" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H230" s="16">
         <v>7170.0</v>
@@ -10832,17 +10817,17 @@
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="B231" s="16" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F231" s="16"/>
       <c r="G231" s="16" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H231" s="16">
         <v>7170.0</v>
@@ -10850,17 +10835,17 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="B232" s="16" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F232" s="16"/>
       <c r="G232" s="16" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="H232" s="16">
         <v>7170.0</v>
@@ -10868,17 +10853,17 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="B233" s="16" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F233" s="16"/>
       <c r="G233" s="16" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="H233" s="16">
         <v>7170.0</v>
@@ -10886,17 +10871,17 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="B234" s="16" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F234" s="16"/>
       <c r="G234" s="16" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H234" s="16">
         <v>7400.0</v>
@@ -10904,17 +10889,17 @@
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="B235" s="16" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F235" s="16"/>
       <c r="G235" s="16" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H235" s="16">
         <v>7400.0</v>
@@ -10922,17 +10907,17 @@
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="B236" s="16" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F236" s="16"/>
       <c r="G236" s="16" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H236" s="16">
         <v>7400.0</v>
@@ -10940,17 +10925,17 @@
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="B237" s="16" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F237" s="16"/>
       <c r="G237" s="16" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="H237" s="16">
         <v>7400.0</v>
@@ -10958,17 +10943,17 @@
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="B238" s="16" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F238" s="16"/>
       <c r="G238" s="16" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="H238" s="16">
         <v>7400.0</v>
@@ -10976,17 +10961,17 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="B239" s="16" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F239" s="16"/>
       <c r="G239" s="16" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="H239" s="16">
         <v>7400.0</v>
@@ -10994,17 +10979,17 @@
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="B240" s="16" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F240" s="16"/>
       <c r="G240" s="16" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="H240" s="16">
         <v>8330.0</v>
@@ -11012,17 +10997,17 @@
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="B241" s="16" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F241" s="16"/>
       <c r="G241" s="16" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H241" s="16">
         <v>8330.0</v>
@@ -11030,17 +11015,17 @@
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="B242" s="16" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F242" s="16"/>
       <c r="G242" s="16" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H242" s="16">
         <v>8330.0</v>
@@ -11048,17 +11033,17 @@
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="B243" s="16" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F243" s="16"/>
       <c r="G243" s="16" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H243" s="16">
         <v>8330.0</v>
@@ -11066,17 +11051,17 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="B244" s="16" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F244" s="16"/>
       <c r="G244" s="16" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="H244" s="16">
         <v>8330.0</v>
@@ -11084,17 +11069,17 @@
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="B245" s="16" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F245" s="16"/>
       <c r="G245" s="16" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="H245" s="16">
         <v>8330.0</v>
@@ -11102,17 +11087,17 @@
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="B246" s="16" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F246" s="16"/>
       <c r="G246" s="16" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="H246" s="16">
         <v>8330.0</v>
@@ -11120,17 +11105,17 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="B247" s="16" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F247" s="16"/>
       <c r="G247" s="16" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="H247" s="16">
         <v>8330.0</v>
@@ -11138,17 +11123,17 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="B248" s="16" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F248" s="16"/>
       <c r="G248" s="16" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H248" s="16">
         <v>9310.0</v>
@@ -11156,17 +11141,17 @@
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="B249" s="16" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F249" s="16"/>
       <c r="G249" s="16" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H249" s="16">
         <v>9310.0</v>
@@ -11174,17 +11159,17 @@
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="B250" s="16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F250" s="16"/>
       <c r="G250" s="16" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H250" s="16">
         <v>9310.0</v>
@@ -11192,17 +11177,17 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="B251" s="16" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F251" s="16"/>
       <c r="G251" s="16" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H251" s="16">
         <v>9310.0</v>
@@ -11210,17 +11195,17 @@
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="B252" s="16" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F252" s="16"/>
       <c r="G252" s="16" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H252" s="16">
         <v>9310.0</v>
@@ -11228,17 +11213,17 @@
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="B253" s="16" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F253" s="16"/>
       <c r="G253" s="16" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="H253" s="16">
         <v>9310.0</v>
@@ -11246,17 +11231,17 @@
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="B254" s="16" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F254" s="16"/>
       <c r="G254" s="16" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H254" s="16">
         <v>9810.0</v>
@@ -11264,17 +11249,17 @@
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="B255" s="16" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F255" s="16"/>
       <c r="G255" s="16" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H255" s="16">
         <v>9810.0</v>
@@ -11282,17 +11267,17 @@
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="B256" s="16" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F256" s="16"/>
       <c r="G256" s="16" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="H256" s="16">
         <v>9810.0</v>
@@ -11300,17 +11285,17 @@
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="B257" s="16" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F257" s="16"/>
       <c r="G257" s="16" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H257" s="16">
         <v>9810.0</v>
@@ -11318,17 +11303,17 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="B258" s="16" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F258" s="16"/>
       <c r="G258" s="16" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H258" s="16">
         <v>9810.0</v>
@@ -11336,17 +11321,17 @@
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="B259" s="16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F259" s="16"/>
       <c r="G259" s="16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H259" s="16">
         <v>10950.0</v>
@@ -11354,17 +11339,17 @@
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="B260" s="16" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F260" s="16"/>
       <c r="G260" s="16" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H260" s="16">
         <v>10950.0</v>
@@ -11372,17 +11357,17 @@
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="B261" s="16" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F261" s="16"/>
       <c r="G261" s="16" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H261" s="16">
         <v>10950.0</v>
@@ -11390,17 +11375,17 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="B262" s="16" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F262" s="16"/>
       <c r="G262" s="16" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H262" s="16">
         <v>9240.0</v>
@@ -11408,17 +11393,17 @@
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="B263" s="16" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F263" s="16"/>
       <c r="G263" s="16" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H263" s="16">
         <v>9240.0</v>
@@ -11426,17 +11411,17 @@
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="B264" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F264" s="16"/>
       <c r="G264" s="16" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H264" s="16">
         <v>9240.0</v>
@@ -11444,17 +11429,17 @@
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="B265" s="16" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F265" s="16"/>
       <c r="G265" s="16" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="H265" s="16">
         <v>9240.0</v>
@@ -11462,17 +11447,17 @@
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="B266" s="16" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F266" s="16"/>
       <c r="G266" s="16" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H266" s="16">
         <v>9240.0</v>
@@ -11480,17 +11465,17 @@
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="B267" s="16" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F267" s="16"/>
       <c r="G267" s="16" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H267" s="16">
         <v>9240.0</v>
@@ -11498,17 +11483,17 @@
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="B268" s="16" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F268" s="16"/>
       <c r="G268" s="16" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H268" s="16">
         <v>9240.0</v>
@@ -11516,17 +11501,17 @@
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="B269" s="16" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F269" s="16"/>
       <c r="G269" s="16" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="H269" s="16">
         <v>9240.0</v>
@@ -11534,17 +11519,17 @@
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="B270" s="16" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F270" s="16"/>
       <c r="G270" s="16" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H270" s="16">
         <v>9240.0</v>
@@ -11552,17 +11537,17 @@
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="B271" s="16" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F271" s="16"/>
       <c r="G271" s="16" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H271" s="16">
         <v>9240.0</v>
@@ -11570,17 +11555,17 @@
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="B272" s="16" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F272" s="16"/>
       <c r="G272" s="16" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H272" s="16">
         <v>9240.0</v>
@@ -11588,17 +11573,17 @@
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="B273" s="16" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F273" s="16"/>
       <c r="G273" s="16" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H273" s="16">
         <v>10490.0</v>
@@ -11606,17 +11591,17 @@
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="B274" s="16" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F274" s="16"/>
       <c r="G274" s="16" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H274" s="16">
         <v>10490.0</v>
@@ -11624,17 +11609,17 @@
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="B275" s="16" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F275" s="16"/>
       <c r="G275" s="16" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="H275" s="16">
         <v>10490.0</v>
@@ -11642,17 +11627,17 @@
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="B276" s="16" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F276" s="16"/>
       <c r="G276" s="16" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="H276" s="16">
         <v>9130.0</v>
@@ -11660,17 +11645,17 @@
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="B277" s="16" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F277" s="16"/>
       <c r="G277" s="16" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H277" s="16">
         <v>9130.0</v>
@@ -11678,17 +11663,17 @@
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="B278" s="16" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F278" s="16"/>
       <c r="G278" s="16" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="H278" s="16">
         <v>9130.0</v>
@@ -11696,17 +11681,17 @@
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="B279" s="16" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F279" s="16"/>
       <c r="G279" s="16" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="H279" s="16">
         <v>9130.0</v>
@@ -11714,17 +11699,17 @@
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="B280" s="16" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F280" s="16"/>
       <c r="G280" s="16" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="H280" s="16">
         <v>9240.0</v>
@@ -11732,17 +11717,17 @@
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="B281" s="16" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F281" s="16"/>
       <c r="G281" s="16" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="H281" s="16">
         <v>9240.0</v>
@@ -11750,17 +11735,17 @@
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="B282" s="16" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F282" s="16"/>
       <c r="G282" s="16" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="H282" s="16">
         <v>9240.0</v>
@@ -11768,17 +11753,17 @@
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="B283" s="16" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F283" s="16"/>
       <c r="G283" s="16" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="H283" s="16">
         <v>9240.0</v>
@@ -11786,17 +11771,17 @@
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="B284" s="16" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F284" s="16"/>
       <c r="G284" s="16" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H284" s="16">
         <v>10950.0</v>
@@ -11804,17 +11789,17 @@
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="B285" s="16" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F285" s="16"/>
       <c r="G285" s="16" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="H285" s="16">
         <v>10950.0</v>
@@ -11822,17 +11807,17 @@
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="B286" s="16" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F286" s="16"/>
       <c r="G286" s="16" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="H286" s="16">
         <v>10950.0</v>
@@ -11840,17 +11825,17 @@
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="B287" s="16" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F287" s="16"/>
       <c r="G287" s="16" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="H287" s="16">
         <v>8130.0</v>
@@ -11858,17 +11843,17 @@
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="B288" s="16" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F288" s="16"/>
       <c r="G288" s="16" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="H288" s="16">
         <v>8130.0</v>
@@ -11876,17 +11861,17 @@
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="B289" s="16" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F289" s="16"/>
       <c r="G289" s="16" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H289" s="16">
         <v>8130.0</v>
@@ -11894,17 +11879,17 @@
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="B290" s="16" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F290" s="16"/>
       <c r="G290" s="16" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="H290" s="16">
         <v>10450.0</v>
@@ -11912,17 +11897,17 @@
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="B291" s="16" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F291" s="16"/>
       <c r="G291" s="16" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="H291" s="16">
         <v>10340.0</v>
@@ -11930,17 +11915,17 @@
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="B292" s="16" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F292" s="16"/>
       <c r="G292" s="16" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="H292" s="16">
         <v>10520.0</v>
@@ -11948,17 +11933,17 @@
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="B293" s="16" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F293" s="16"/>
       <c r="G293" s="16" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="H293" s="16">
         <v>9950.0</v>
@@ -11966,17 +11951,17 @@
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="B294" s="16" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F294" s="16"/>
       <c r="G294" s="16" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="H294" s="16">
         <v>4480.0</v>
@@ -11984,17 +11969,17 @@
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="B295" s="16" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F295" s="16"/>
       <c r="G295" s="16" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H295" s="16">
         <v>4480.0</v>
@@ -12002,17 +11987,17 @@
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="B296" s="16" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F296" s="16"/>
       <c r="G296" s="16" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="H296" s="16">
         <v>4480.0</v>
@@ -12020,17 +12005,17 @@
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="B297" s="16" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F297" s="16"/>
       <c r="G297" s="16" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="H297" s="16">
         <v>4480.0</v>
@@ -12038,17 +12023,17 @@
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="B298" s="16" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F298" s="16"/>
       <c r="G298" s="16" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="H298" s="16">
         <v>4480.0</v>
@@ -12056,17 +12041,17 @@
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="B299" s="16" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F299" s="16"/>
       <c r="G299" s="16" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="H299" s="16">
         <v>4480.0</v>
@@ -12074,17 +12059,17 @@
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="B300" s="16" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F300" s="16"/>
       <c r="G300" s="16" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="H300" s="16">
         <v>4480.0</v>
@@ -12092,17 +12077,17 @@
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="B301" s="16" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F301" s="16"/>
       <c r="G301" s="16" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="H301" s="16">
         <v>4480.0</v>
@@ -12110,17 +12095,17 @@
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="B302" s="16" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F302" s="16"/>
       <c r="G302" s="16" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="H302" s="16">
         <v>4480.0</v>
@@ -12128,17 +12113,17 @@
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="B303" s="16" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F303" s="16"/>
       <c r="G303" s="16" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="H303" s="16">
         <v>10250.0</v>
@@ -12146,17 +12131,17 @@
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="B304" s="16" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F304" s="16"/>
       <c r="G304" s="16" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="H304" s="16">
         <v>10250.0</v>
@@ -12164,17 +12149,17 @@
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="B305" s="16" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F305" s="16"/>
       <c r="G305" s="16" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H305" s="16">
         <v>10250.0</v>
@@ -12182,17 +12167,17 @@
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="B306" s="16" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F306" s="16"/>
       <c r="G306" s="16" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="H306" s="16">
         <v>10250.0</v>
@@ -12200,17 +12185,17 @@
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="B307" s="16" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F307" s="16"/>
       <c r="G307" s="16" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="H307" s="16">
         <v>12000.0</v>
@@ -12218,17 +12203,17 @@
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="B308" s="16" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F308" s="16"/>
       <c r="G308" s="16" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="H308" s="16">
         <v>12000.0</v>
@@ -12236,17 +12221,17 @@
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="B309" s="16" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F309" s="16"/>
       <c r="G309" s="16" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="H309" s="16">
         <v>5200.0</v>
@@ -12254,17 +12239,17 @@
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="B310" s="16" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F310" s="16"/>
       <c r="G310" s="16" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="H310" s="16">
         <v>5200.0</v>
@@ -12272,17 +12257,17 @@
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="B311" s="16" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F311" s="16"/>
       <c r="G311" s="16" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="H311" s="16">
         <v>5200.0</v>
@@ -12290,17 +12275,17 @@
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="B312" s="16" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F312" s="16"/>
       <c r="G312" s="16" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="H312" s="16">
         <v>4960.0</v>
@@ -12308,17 +12293,17 @@
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="B313" s="16" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F313" s="16"/>
       <c r="G313" s="16" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="H313" s="16">
         <v>5400.0</v>
@@ -12326,17 +12311,17 @@
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="B314" s="16" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F314" s="16"/>
       <c r="G314" s="16" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="H314" s="16">
         <v>5700.0</v>
@@ -12344,17 +12329,17 @@
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="B315" s="16" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F315" s="16"/>
       <c r="G315" s="16" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="H315" s="16">
         <v>5700.0</v>
@@ -12362,17 +12347,17 @@
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="B316" s="16" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F316" s="16"/>
       <c r="G316" s="16" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="H316" s="16">
         <v>5700.0</v>
@@ -12380,17 +12365,17 @@
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="B317" s="16" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F317" s="16"/>
       <c r="G317" s="16" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="H317" s="16">
         <v>5700.0</v>
@@ -12398,17 +12383,17 @@
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="B318" s="16" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F318" s="16"/>
       <c r="G318" s="16" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="H318" s="16">
         <v>9540.0</v>
@@ -12416,17 +12401,17 @@
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="B319" s="16" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F319" s="16"/>
       <c r="G319" s="16" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="H319" s="16">
         <v>9540.0</v>
@@ -12434,17 +12419,17 @@
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="B320" s="16" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F320" s="16"/>
       <c r="G320" s="16" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="H320" s="16">
         <v>8150.0</v>
@@ -12452,17 +12437,17 @@
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="B321" s="16" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F321" s="16"/>
       <c r="G321" s="16" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="H321" s="16">
         <v>8150.0</v>
@@ -12470,17 +12455,17 @@
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="B322" s="16" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F322" s="16"/>
       <c r="G322" s="16" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="H322" s="16">
         <v>8150.0</v>
@@ -12488,17 +12473,17 @@
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="B323" s="16" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F323" s="16"/>
       <c r="G323" s="16" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="H323" s="16">
         <v>8150.0</v>
@@ -12506,17 +12491,17 @@
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="B324" s="16" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F324" s="16"/>
       <c r="G324" s="16" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="H324" s="16">
         <v>8150.0</v>
@@ -12524,17 +12509,17 @@
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="B325" s="16" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F325" s="16"/>
       <c r="G325" s="16" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="H325" s="16">
         <v>8650.0</v>
@@ -12542,17 +12527,17 @@
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="B326" s="16" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F326" s="16"/>
       <c r="G326" s="16" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="H326" s="16">
         <v>8650.0</v>
@@ -12560,17 +12545,17 @@
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="B327" s="16" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F327" s="16"/>
       <c r="G327" s="16" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="H327" s="16">
         <v>8750.0</v>
@@ -12578,17 +12563,17 @@
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="B328" s="16" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F328" s="16"/>
       <c r="G328" s="16" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="H328" s="16">
         <v>8750.0</v>
@@ -12596,17 +12581,17 @@
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="B329" s="16" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F329" s="16"/>
       <c r="G329" s="16" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="H329" s="16">
         <v>8750.0</v>
@@ -12614,17 +12599,17 @@
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="B330" s="16" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F330" s="16"/>
       <c r="G330" s="16" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="H330" s="16">
         <v>8750.0</v>
@@ -12632,17 +12617,17 @@
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="B331" s="16" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F331" s="16"/>
       <c r="G331" s="16" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="H331" s="16">
         <v>9160.0</v>
@@ -12650,17 +12635,17 @@
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="B332" s="16" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F332" s="16"/>
       <c r="G332" s="16" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="H332" s="16">
         <v>9160.0</v>
@@ -12668,17 +12653,17 @@
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="B333" s="16" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F333" s="16"/>
       <c r="G333" s="16" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="H333" s="16">
         <v>9160.0</v>
@@ -12686,17 +12671,17 @@
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="B334" s="16" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F334" s="16"/>
       <c r="G334" s="16" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="H334" s="16">
         <v>9390.0</v>
@@ -12704,17 +12689,17 @@
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="B335" s="16" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F335" s="16"/>
       <c r="G335" s="16" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="H335" s="16">
         <v>9390.0</v>
@@ -12722,17 +12707,17 @@
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="B336" s="16" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F336" s="16"/>
       <c r="G336" s="16" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="H336" s="16">
         <v>9390.0</v>
@@ -12740,17 +12725,17 @@
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="B337" s="16" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F337" s="16"/>
       <c r="G337" s="16" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="H337" s="16">
         <v>9260.0</v>
@@ -12758,17 +12743,17 @@
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="B338" s="16" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F338" s="16"/>
       <c r="G338" s="16" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="H338" s="16">
         <v>9260.0</v>
@@ -12776,17 +12761,17 @@
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="B339" s="16" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F339" s="16"/>
       <c r="G339" s="16" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="H339" s="16">
         <v>9260.0</v>
@@ -12794,17 +12779,17 @@
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="B340" s="16" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F340" s="16"/>
       <c r="G340" s="16" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="H340" s="16">
         <v>9490.0</v>
@@ -12812,17 +12797,17 @@
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="B341" s="16" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F341" s="16"/>
       <c r="G341" s="16" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="H341" s="16">
         <v>9490.0</v>
@@ -12830,17 +12815,17 @@
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="B342" s="16" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F342" s="16"/>
       <c r="G342" s="16" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="H342" s="16">
         <v>9490.0</v>
@@ -12848,17 +12833,17 @@
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="B343" s="16" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F343" s="16"/>
       <c r="G343" s="16" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="H343" s="16">
         <v>5300.0</v>
@@ -12866,17 +12851,17 @@
     </row>
     <row r="344" ht="17.25" customHeight="1">
       <c r="B344" s="16" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F344" s="16"/>
       <c r="G344" s="16" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="H344" s="16">
         <v>5300.0</v>
@@ -12884,17 +12869,17 @@
     </row>
     <row r="345" ht="15.0" customHeight="1">
       <c r="B345" s="16" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F345" s="16"/>
       <c r="G345" s="16" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="H345" s="16">
         <v>5300.0</v>
@@ -12902,17 +12887,17 @@
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="B346" s="16" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F346" s="16"/>
       <c r="G346" s="16" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="H346" s="16">
         <v>5300.0</v>
@@ -12920,17 +12905,17 @@
     </row>
     <row r="347" ht="17.25" customHeight="1">
       <c r="B347" s="16" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F347" s="16"/>
       <c r="G347" s="16" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="H347" s="16">
         <v>5300.0</v>
@@ -12938,17 +12923,17 @@
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="B348" s="16" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F348" s="16"/>
       <c r="G348" s="16" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="H348" s="16">
         <v>5300.0</v>
@@ -12956,17 +12941,17 @@
     </row>
     <row r="349" ht="17.25" customHeight="1">
       <c r="B349" s="16" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F349" s="16"/>
       <c r="G349" s="16" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="H349" s="16">
         <v>5300.0</v>
@@ -12974,17 +12959,17 @@
     </row>
     <row r="350" ht="15.0" customHeight="1">
       <c r="B350" s="16" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F350" s="16"/>
       <c r="G350" s="16" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="H350" s="16">
         <v>5300.0</v>
@@ -12992,17 +12977,17 @@
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="B351" s="16" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F351" s="16"/>
       <c r="G351" s="16" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="H351" s="16">
         <v>5300.0</v>
@@ -13010,17 +12995,17 @@
     </row>
     <row r="352" ht="17.25" customHeight="1">
       <c r="B352" s="16" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F352" s="16"/>
       <c r="G352" s="16" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="H352" s="16">
         <v>5300.0</v>
@@ -13028,17 +13013,17 @@
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="B353" s="16" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F353" s="16"/>
       <c r="G353" s="16" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="H353" s="16">
         <v>5300.0</v>
@@ -13046,17 +13031,17 @@
     </row>
     <row r="354" ht="17.25" customHeight="1">
       <c r="B354" s="16" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F354" s="16"/>
       <c r="G354" s="16" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="H354" s="16">
         <v>5300.0</v>
@@ -13064,17 +13049,17 @@
     </row>
     <row r="355" ht="15.0" customHeight="1">
       <c r="B355" s="16" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F355" s="16"/>
       <c r="G355" s="16" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="H355" s="16">
         <v>5300.0</v>
@@ -13082,17 +13067,17 @@
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="B356" s="16" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F356" s="16"/>
       <c r="G356" s="16" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="H356" s="16">
         <v>5300.0</v>
@@ -13100,17 +13085,17 @@
     </row>
     <row r="357" ht="17.25" customHeight="1">
       <c r="B357" s="16" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F357" s="16"/>
       <c r="G357" s="16" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="H357" s="16">
         <v>5300.0</v>
@@ -13118,17 +13103,17 @@
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="B358" s="16" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F358" s="16"/>
       <c r="G358" s="16" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="H358" s="16">
         <v>5300.0</v>
@@ -13136,17 +13121,17 @@
     </row>
     <row r="359" ht="17.25" customHeight="1">
       <c r="B359" s="16" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F359" s="16"/>
       <c r="G359" s="16" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="H359" s="16">
         <v>5300.0</v>
@@ -13154,17 +13139,17 @@
     </row>
     <row r="360" ht="15.0" customHeight="1">
       <c r="B360" s="16" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F360" s="16"/>
       <c r="G360" s="16" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="H360" s="16">
         <v>5300.0</v>
@@ -13172,17 +13157,17 @@
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="B361" s="16" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F361" s="16"/>
       <c r="G361" s="16" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="H361" s="16">
         <v>5300.0</v>
@@ -13190,17 +13175,17 @@
     </row>
     <row r="362" ht="17.25" customHeight="1">
       <c r="B362" s="16" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F362" s="16"/>
       <c r="G362" s="16" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="H362" s="16">
         <v>5300.0</v>
@@ -13208,17 +13193,17 @@
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="B363" s="16" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F363" s="16"/>
       <c r="G363" s="16" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="H363" s="16">
         <v>5300.0</v>
@@ -13226,17 +13211,17 @@
     </row>
     <row r="364" ht="17.25" customHeight="1">
       <c r="B364" s="16" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F364" s="16"/>
       <c r="G364" s="16" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="H364" s="16">
         <v>5300.0</v>
@@ -13244,17 +13229,17 @@
     </row>
     <row r="365" ht="15.0" customHeight="1">
       <c r="B365" s="16" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F365" s="16"/>
       <c r="G365" s="16" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="H365" s="16">
         <v>5300.0</v>
@@ -13262,17 +13247,17 @@
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="B366" s="16" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F366" s="16"/>
       <c r="G366" s="16" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="H366" s="16">
         <v>5300.0</v>
@@ -13280,17 +13265,17 @@
     </row>
     <row r="367" ht="17.25" customHeight="1">
       <c r="B367" s="16" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F367" s="16"/>
       <c r="G367" s="16" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="H367" s="16">
         <v>5300.0</v>
@@ -13298,17 +13283,17 @@
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="B368" s="16" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F368" s="16"/>
       <c r="G368" s="16" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="H368" s="16">
         <v>4980.0</v>
@@ -13316,17 +13301,17 @@
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="B369" s="16" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F369" s="16"/>
       <c r="G369" s="16" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="H369" s="16">
         <v>4980.0</v>
@@ -13334,17 +13319,17 @@
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="B370" s="16" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D370" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F370" s="16"/>
       <c r="G370" s="16" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="H370" s="16">
         <v>4980.0</v>
@@ -13352,17 +13337,17 @@
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="B371" s="16" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F371" s="16"/>
       <c r="G371" s="16" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="H371" s="16">
         <v>7640.0</v>
@@ -13370,17 +13355,17 @@
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="B372" s="16" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F372" s="16"/>
       <c r="G372" s="16" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="H372" s="16">
         <v>7640.0</v>
@@ -13388,17 +13373,17 @@
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="B373" s="16" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F373" s="16"/>
       <c r="G373" s="16" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="H373" s="16">
         <v>7640.0</v>
@@ -13406,17 +13391,17 @@
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="B374" s="16" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D374" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F374" s="16"/>
       <c r="G374" s="16" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="H374" s="16">
         <v>7640.0</v>
@@ -13424,17 +13409,17 @@
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="B375" s="16" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F375" s="16"/>
       <c r="G375" s="16" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="H375" s="16">
         <v>7640.0</v>
@@ -13442,17 +13427,17 @@
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="B376" s="16" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F376" s="16"/>
       <c r="G376" s="16" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="H376" s="16">
         <v>7640.0</v>
@@ -13460,17 +13445,17 @@
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="B377" s="16" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F377" s="16"/>
       <c r="G377" s="16" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="H377" s="16">
         <v>5990.0</v>
@@ -13478,17 +13463,17 @@
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="B378" s="16" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F378" s="16"/>
       <c r="G378" s="16" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="H378" s="16">
         <v>5990.0</v>
@@ -13496,17 +13481,17 @@
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="B379" s="16" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F379" s="16"/>
       <c r="G379" s="16" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="H379" s="16">
         <v>5990.0</v>
@@ -13514,17 +13499,17 @@
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="B380" s="16" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F380" s="16"/>
       <c r="G380" s="16" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="H380" s="16">
         <v>5990.0</v>
@@ -13532,17 +13517,17 @@
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="B381" s="16" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F381" s="16"/>
       <c r="G381" s="16" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="H381" s="16">
         <v>5990.0</v>
@@ -13550,17 +13535,17 @@
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="B382" s="16" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F382" s="16"/>
       <c r="G382" s="16" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="H382" s="16">
         <v>5990.0</v>
@@ -13568,17 +13553,17 @@
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="B383" s="16" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F383" s="16"/>
       <c r="G383" s="16" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="H383" s="16">
         <v>6390.0</v>
@@ -13586,17 +13571,17 @@
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="B384" s="16" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F384" s="16"/>
       <c r="G384" s="16" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="H384" s="16">
         <v>8870.0</v>
@@ -13604,17 +13589,17 @@
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="B385" s="16" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F385" s="16"/>
       <c r="G385" s="16" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="H385" s="16">
         <v>6390.0</v>
@@ -13622,17 +13607,17 @@
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="B386" s="16" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F386" s="16"/>
       <c r="G386" s="16" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="H386" s="16">
         <v>8870.0</v>
@@ -13640,17 +13625,17 @@
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="B387" s="16" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F387" s="16"/>
       <c r="G387" s="16" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="H387" s="16">
         <v>5220.0</v>
@@ -13658,17 +13643,17 @@
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="B388" s="16" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F388" s="16"/>
       <c r="G388" s="16" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="H388" s="16">
         <v>9200.0</v>
@@ -13676,17 +13661,17 @@
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="B389" s="16" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F389" s="16"/>
       <c r="G389" s="16" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="H389" s="16">
         <v>9200.0</v>
@@ -13694,17 +13679,17 @@
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="B390" s="16" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F390" s="16"/>
       <c r="G390" s="16" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="H390" s="16">
         <v>9200.0</v>
@@ -13712,17 +13697,17 @@
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="B391" s="16" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F391" s="16"/>
       <c r="G391" s="16" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="H391" s="16">
         <v>9200.0</v>
@@ -13730,17 +13715,17 @@
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="B392" s="16" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F392" s="16"/>
       <c r="G392" s="16" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="H392" s="16">
         <v>9200.0</v>
@@ -13748,17 +13733,17 @@
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="B393" s="16" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F393" s="16"/>
       <c r="G393" s="16" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="H393" s="16">
         <v>9200.0</v>
@@ -13766,17 +13751,17 @@
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="B394" s="16" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F394" s="16"/>
       <c r="G394" s="16" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="H394" s="16">
         <v>7640.0</v>
@@ -13784,17 +13769,17 @@
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="B395" s="16" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D395" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F395" s="16"/>
       <c r="G395" s="16" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="H395" s="16">
         <v>9200.0</v>
@@ -13802,17 +13787,17 @@
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="B396" s="16" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F396" s="16"/>
       <c r="G396" s="16" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="H396" s="16">
         <v>9200.0</v>
@@ -13820,17 +13805,17 @@
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="B397" s="16" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F397" s="16"/>
       <c r="G397" s="16" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="H397" s="16">
         <v>9200.0</v>
@@ -13838,17 +13823,17 @@
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="B398" s="16" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F398" s="16"/>
       <c r="G398" s="16" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="H398" s="16">
         <v>9200.0</v>
@@ -13856,17 +13841,17 @@
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="B399" s="16" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F399" s="16"/>
       <c r="G399" s="16" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="H399" s="16">
         <v>9200.0</v>
@@ -13874,17 +13859,17 @@
     </row>
     <row r="400" ht="16.5" customHeight="1">
       <c r="B400" s="16" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F400" s="16"/>
       <c r="G400" s="16" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="H400" s="16">
         <v>4980.0</v>
@@ -13892,17 +13877,17 @@
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="B401" s="16" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D401" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F401" s="16"/>
       <c r="G401" s="16" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="H401" s="16">
         <v>4980.0</v>
@@ -13910,17 +13895,17 @@
     </row>
     <row r="402" ht="14.25" customHeight="1">
       <c r="B402" s="16" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D402" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F402" s="16"/>
       <c r="G402" s="16" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="H402" s="16">
         <v>4980.0</v>
@@ -13928,17 +13913,17 @@
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="B403" s="16" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F403" s="16"/>
       <c r="G403" s="16" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="H403" s="16">
         <v>4980.0</v>
@@ -13946,17 +13931,17 @@
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="B404" s="16" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F404" s="16"/>
       <c r="G404" s="16" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="H404" s="16">
         <v>4980.0</v>
@@ -13964,17 +13949,17 @@
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="B405" s="16" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F405" s="16"/>
       <c r="G405" s="16" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="H405" s="16">
         <v>4980.0</v>
@@ -13982,17 +13967,17 @@
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="B406" s="16" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F406" s="16"/>
       <c r="G406" s="16" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="H406" s="16">
         <v>4980.0</v>
@@ -14000,17 +13985,17 @@
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="B407" s="16" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F407" s="16"/>
       <c r="G407" s="16" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="H407" s="16">
         <v>4980.0</v>
@@ -14018,17 +14003,17 @@
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="B408" s="16" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F408" s="16"/>
       <c r="G408" s="16" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="H408" s="16">
         <v>4980.0</v>
@@ -14036,17 +14021,17 @@
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="B409" s="16" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F409" s="16"/>
       <c r="G409" s="16" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H409" s="16">
         <v>4980.0</v>
@@ -14054,17 +14039,17 @@
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="B410" s="16" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F410" s="16"/>
       <c r="G410" s="16" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="H410" s="16">
         <v>4980.0</v>
@@ -14072,17 +14057,17 @@
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="B411" s="16" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F411" s="16"/>
       <c r="G411" s="16" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="H411" s="16">
         <v>7800.0</v>
@@ -14090,17 +14075,17 @@
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="B412" s="16" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F412" s="16"/>
       <c r="G412" s="16" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="H412" s="16">
         <v>7800.0</v>
@@ -14108,17 +14093,17 @@
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="B413" s="16" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F413" s="16"/>
       <c r="G413" s="16" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="H413" s="16">
         <v>7800.0</v>
@@ -14126,17 +14111,17 @@
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="B414" s="16" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F414" s="16"/>
       <c r="G414" s="16" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="H414" s="16">
         <v>11400.0</v>
@@ -14144,17 +14129,17 @@
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="B415" s="16" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F415" s="16"/>
       <c r="G415" s="16" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="H415" s="16">
         <v>11400.0</v>
@@ -14162,17 +14147,17 @@
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="B416" s="16" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F416" s="16"/>
       <c r="G416" s="16" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="H416" s="16">
         <v>11400.0</v>
@@ -14180,17 +14165,17 @@
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="B417" s="16" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F417" s="16"/>
       <c r="G417" s="16" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="H417" s="16">
         <v>7800.0</v>
@@ -14198,17 +14183,17 @@
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="B418" s="16" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F418" s="16"/>
       <c r="G418" s="16" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="H418" s="16">
         <v>11400.0</v>
@@ -14216,17 +14201,17 @@
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="B419" s="16" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F419" s="16"/>
       <c r="G419" s="16" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="H419" s="16">
         <v>7800.0</v>
@@ -14234,17 +14219,17 @@
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="B420" s="16" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F420" s="16"/>
       <c r="G420" s="16" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="H420" s="16">
         <v>8950.0</v>
@@ -14252,17 +14237,17 @@
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="B421" s="16" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F421" s="16"/>
       <c r="G421" s="16" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="H421" s="16">
         <v>8950.0</v>
@@ -14270,17 +14255,17 @@
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="B422" s="16" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F422" s="16"/>
       <c r="G422" s="16" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="H422" s="16">
         <v>8950.0</v>
@@ -14288,17 +14273,17 @@
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="B423" s="16" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F423" s="16"/>
       <c r="G423" s="16" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="H423" s="16">
         <v>11400.0</v>
@@ -14306,17 +14291,17 @@
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="B424" s="16" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F424" s="16"/>
       <c r="G424" s="16" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="H424" s="16">
         <v>11400.0</v>
@@ -14324,17 +14309,17 @@
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="B425" s="16" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F425" s="16"/>
       <c r="G425" s="16" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="H425" s="16">
         <v>11400.0</v>
@@ -14342,17 +14327,17 @@
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="B426" s="16" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D426" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F426" s="16"/>
       <c r="G426" s="16" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="H426" s="16">
         <v>11400.0</v>
@@ -14360,17 +14345,17 @@
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="B427" s="16" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D427" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F427" s="16"/>
       <c r="G427" s="16" t="s">
-        <v>1046</v>
+        <v>593</v>
       </c>
       <c r="H427" s="16">
         <v>11400.0</v>
@@ -14378,17 +14363,17 @@
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="B428" s="16" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F428" s="16"/>
       <c r="G428" s="16" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="H428" s="16">
         <v>7800.0</v>
@@ -14396,17 +14381,17 @@
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="B429" s="16" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D429" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F429" s="16"/>
       <c r="G429" s="16" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="H429" s="16">
         <v>7800.0</v>
@@ -14414,17 +14399,17 @@
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="B430" s="16" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F430" s="16"/>
       <c r="G430" s="16" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="H430" s="16">
         <v>7800.0</v>
@@ -14432,17 +14417,17 @@
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="B431" s="16" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F431" s="16"/>
       <c r="G431" s="16" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="H431" s="16">
         <v>5220.0</v>
@@ -14450,17 +14435,17 @@
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="B432" s="16" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F432" s="16"/>
       <c r="G432" s="16" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="H432" s="16">
         <v>5220.0</v>
@@ -14468,17 +14453,17 @@
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="B433" s="16" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D433" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F433" s="16"/>
       <c r="G433" s="16" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="H433" s="16">
         <v>5220.0</v>
@@ -14486,17 +14471,17 @@
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="B434" s="16" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D434" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F434" s="16"/>
       <c r="G434" s="16" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="H434" s="16">
         <v>8820.0</v>
@@ -14504,17 +14489,17 @@
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="B435" s="16" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D435" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F435" s="16"/>
       <c r="G435" s="16" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="H435" s="16">
         <v>9010.0</v>
@@ -14522,16 +14507,16 @@
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="B436" s="16" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G436" s="16" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="H436" s="16">
         <v>8820.0</v>
@@ -14539,16 +14524,16 @@
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="B437" s="16" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D437" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G437" s="16" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="H437" s="16">
         <v>8820.0</v>
@@ -14556,16 +14541,16 @@
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="B438" s="16" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G438" s="16" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="H438" s="16">
         <v>25000.0</v>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -366,43 +366,24 @@
     <t>32.jpeg</t>
   </si>
   <si>
-    <t>Полотно глухое
-Тип замка
-Обычный
-Уплотнитель
-2 контура
-Терморазрыв
-Нет
-Распродажа
-Скидки от -5% до -50%
-Отделка двери
-Металл / Панель
-Наличие дверей
-В наличии
-Конструкция
-Стандартная
-Фурнитура
-Никель/Хром
-Второй замок
-Бордер Гранд Термо 3B 9-6Э сувальдный
-Наполнитель
-Базальтовая плита
-Ночная задвижка
-Есть
-Первый замок
-Галеон 811
-Цвет
-бетон светлый, белый матовый
-Размеры
-860, 960*2050 мм
-Страна производитель
-Российские
-Толщина МДФ панели
-16.0
-Толщина полотна (мм)
-70.0
-Эксцентрик
-С эксцентриком</t>
+    <t>Полотно: глухое;
+Тип замка:Обычный;
+Уплотнитель:2 контура;
+Терморазрыв:Нет;
+Отделка двери:Металл / Панель;
+Наличие дверей:В наличии;
+Конструкция:Стандартная;
+Фурнитура:Никель/Хром;
+Второй замок:Бордер Гранд Термо 3B 9-6Э сувальдный;
+Наполнитель:Базальтовая плита;
+Ночная задвижка:Есть;
+Первый замок:Галеон 811;
+Цвет:бетон светлый, белый матовый;
+Размеры:860, 960*2050 мм;
+Страна производитель:Российские;
+Толщина МДФ панели:16.0;
+Толщина полотна (мм):70.0;
+Эксцентрик:С эксцентриком;</t>
   </si>
   <si>
     <t>Латина</t>
@@ -457,19 +438,19 @@
     <t>35.jpeg</t>
   </si>
   <si>
-    <t>Размер 860*2050/960*2050
-Внешнее покрытие полимерно-порошковое, «медь антик»
-Толщина дверного полотна 100 мм
-Глубина дверной коробки 115 мм
-Наполнитель пенополистирол
-Уплотнитель 3 контура из вспененной резины
-Внутреннее покрытие металл
-Основной замок цилиндровый Гардиан 32.11
-Дополнительный замок -------------------------------------------------------------------сувальдный Гардиан 30.01
-Независимая ночная задвижка ----------------------------------------------------------------------------------------------да
-Накладки ----------------------------------------------------------------------------------------------------------------------овальные
-Ручка ------------------------------------------------------------------------------------------------------раздельная  цвет- хром
-Глазок -------------------------------------------------------------------------------------------------------расширенного обзора</t>
+    <t>Размер: 860*2050/960*2050;
+Внешнее покрытие: полимерно-порошковое, «медь антик»;
+Толщина дверного полотна: 100 мм;
+Глубина дверной коробки: 115 мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 3 контура из вспененной резины;
+Внутреннее покрытие: металл;
+Основной замок цилиндровый: Гардиан 32.11;
+Дополнительный замок:сувальдный Гардиан 30.01;
+Независимая ночная задвижка:да;
+Накладки:овальные;
+Ручка:раздельная  цвет- хром;
+Глазок:расширенного обзора;</t>
   </si>
   <si>
     <t>Корсика Алмон</t>
@@ -1545,7 +1526,7 @@
     <t>95.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Толщина полотна:100 мм;
+    <t>Толщина полотна:100 мм;
 Наполнение полотна:Базальтовая плита+пенополистиролл;
 Внешняя отделка:Антик медный / серебро с давлением;
 Внутренняя отделка:МДФ, венге премиум;
@@ -1558,8 +1539,7 @@
 Тип короба:Открытый;
 Уплотнитель на коробе:1 шт;
 Терморазрыв:Полиамидная вставка по контуру полотна и короба;
-Размеры:860*2050, 960*2050;
-</t>
+Размеры:860*2050, 960*2050;</t>
   </si>
   <si>
     <t>Север классик</t>
@@ -1842,7 +1822,7 @@
 Основной замок:цилиндровый RIGGER/MONARCH, диаметр ригелей: 14 мм;
 Дополнительный замок:сувальдный RIGGER/MONARCH, диаметр ригелей: 14 мм;
 Накладки:овальные с защитой от сквозняка; 
-цвет - хром;
+цвет: хром;
 Независимая ночная задвижка:Да;
 Противосъём:штыри, 2 шт.;
 Размеры:860х2050 мм, 960х2050 мм;</t>
@@ -1860,14 +1840,14 @@
 Глубина дверного короба:90 мм;
 Наполнитель:пенополистирол;
 Уплотнитель:2 контура уплотнителя из вспененной резины;
-Ручка:раздельная, цвет - хром;
-Глазок:широкого обзора; цвет -хром;
+Ручка:раздельная;
+Глазок:широкого обзора; цвет:хром;
 Петли:2 шт., наружные, открывание 180°;
 Основной замок:цилиндровый RIGGER/MONARCH, диаметр ригелей: 14 мм;
 Дополнительный замок:сувальдный RIGGER/MONARCH, диаметр ригелей: 14 мм;
 Накладки:овальные с защитой от сквозняка; цвет - хром;
 Независимая ночная задвижка:Да;
-Противосъём:штыри, 2 шт.;
+Противосъём:штыри:2 шт.;
 Размеры:860х2050 мм, 960х2050 мм;</t>
   </si>
   <si>
@@ -1878,15 +1858,15 @@
   </si>
   <si>
     <t>Внешнее покрытие:атмосферостойкое порошково- полимерное «Антик серебро»;
-Внутреннее покрытие:МДФ-панель 8 мм, цвет – дуб пацифик;
+Внутреннее покрытие:МДФ-панель 8 мм; цвет:дуб пацифик;
 Толщина дверного полотна:110 мм;
 Глубина дверного короба:137 мм;
 Наполнитель:пенополистирол;
 Уплотнитель:3 контура уплотнителя из вспененной резины (2 на полотне, 1 на коробе);
-Ручка:раздельная, цвет - хром;
+Ручка:раздельная;
 Глазок:без глазка;
 Петли:3 шт., наружные, открывание 180°;
-Основной замок:сувальдный MONARCH, IV (наивысший) класс взломостойкости, дополнительная защита от высверливания: две пластины из высоколегированной стали с обеих сторон замка; диаметр ригелей: 16 мм;
+Основной замок:сувальдный MONARCH, IV (наивысший) класс взломостойкости;дополнительная защита от высверливания: две пластины из высоколегированной стали с обеих сторон замка; диаметр ригелей: 16 мм;
 Дополнительный замок:сувальдный MONARCH, IV (наивысший) класс взломостойкости, дополнительная защита от высверливания: две пластины из высоколегированной стали с обеих сторон замка; 
 диаметр ригелей: 16 мм ;
 Накладки: овальные с защитой от сквозняка; 
@@ -1904,8 +1884,8 @@
     <t>114.png</t>
   </si>
   <si>
-    <t>Замки:Основной: сувальдный KALE, ригели 16 мм. Дополнительная защита от высверливания;
-Дополнительный: сувальдный KALE, ригели 16 мм. Дополнительная защита от высверливания;
+    <t>Замки Основной: сувальдный KALE, ригели 16 мм;
+Дополнительный: сувальдный KALE, ригели 16 мм;
 Покрытие металла: черный муар, атмосферостойкое порошково-полимерное;
 Внутренняя накладка: фрезерованная МДФ-панель 10 мм. Пленка с вертикальным рельефом, цвет белый;
 Внешняя накладка: Фрезерованная МДФ-панель 10 мм. Пленка Винорит, цвет грецкий орех с патиной;
@@ -1913,9 +1893,8 @@
 Наполнитель: пенополистирол;
 Уплотнитель: 3 контура вставного уплотнителя;
 Петли: 3 шт., наружные, открывание 180°;
-Накладки: квадратные с защитой от сквозняка; цвет - сатин хром;
-Ручка: Раздельная, нажимная; цвет - сатин хром;
-Независимая ночная задвижка;
+Накладки: квадратные с защитой от сквозняка;
+Ручка: Раздельная, нажимная;
 Регулировка притвора: металлический эксцентрик защёлки основного замка;
 Противосъёмные штыри: 2 шт.;
 Размеры: 860х2050 мм, 960х2050 мм;
@@ -1928,7 +1907,7 @@
     <t>115.jpeg</t>
   </si>
   <si>
-    <t>Высота порога, мм:52;
+    <t>Высота порога,мм:52;
 Наличник перекрывает, мм:50;
 Вес, кг:39 (41,5);
 Габариты наружные (В/Ш/Г, мм):2100 / 960 (1060) / 93;
@@ -1963,7 +1942,7 @@
     <t>116.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">Толщина полотна: 65мм;
+    <t>Толщина полотна: 65мм;
 Наполнение полотна:Базальтовая плитка;
 Внешняя отделка:Антик медный;
 внутренняя отделка:антик медный;
@@ -1974,8 +1953,7 @@
 Глубина короба:85мм.;
 Тип короба:Открытый;
 Уплотнитель на коробе: 1шт;
-Размеры: 860*2050, 960*2050;
-</t>
+Размеры: 860*2050, 960*2050;</t>
   </si>
   <si>
     <t>Метал 2</t>
@@ -2000,16 +1978,16 @@
     <t>118.jpeg</t>
   </si>
   <si>
-    <t>Металл :1.8мм;
+    <t>Металл:1.8мм;
 Наружная отделка:антик серебро;
-Внутренняя отделка :ламинированная панель с зеркалом, цвет - дуб беленый;
-Коробка двери :сложный гнутый замкнутый профиль.;
-Полотно двери :сложный профиль, толщина 100 мм;
-Карман под замки :из листа 1.5 мм, с двух сторон;
-Противосъемные штыри :3шт, цвет хром;
-Петли на подшипниках: 3 шт;
-Замок верхний: Гардиан 30.01 с магнитной накладкой Крит;
-Замок нижний: Гардиан 32.11 с броне накладкой;
+Внутренняя отделка:ламинированная панель с зеркалом; цвет:дуб беленый;
+Коробка двери:сложный гнутый замкнутый профиль;
+Полотно двери:сложный профиль, толщина 100 мм;
+Карман под замки:из листа 1.5 мм, с двух сторон;
+Противосъемные штыри:3шт, цвет хром;
+Петли на подшипниках:3 шт;
+Замок верхний:Гардиан 30.01 с магнитной накладкой Крит;
+Замок нижний:Гардиан 32.11 с броне накладкой;
 Ручка на розетке: цвет хром;
 Утепление полотна: минеральная плита KNAUF, утепленный короб;
 Глазок:200 градусов, цвет хром;
@@ -2048,16 +2026,15 @@
     <t>120.png</t>
   </si>
   <si>
-    <t>Контур уплотнители - 3 контура;
-Толщина полотна - 107мм;
-Внешнее покрытие - грунт + муар серый 7024;
-Внутреннее покрытие - муар белый;
-Внутренняя панель МДФ 16мм с Фрезеровкой, Белый матовый;
-Стеклопакет с тонировкой + Английская решетка;
-Основной замок - Гардиан 3001;
-Дополнительный замок - Гардиан 3001 ;
-Цилиндр - Гардиан Basic Термо со штоком , хром;
-Ночник - Фуаро Тор , хром;
+    <t>Контур уплотнители:3 контура;
+Толщина полотна:107мм;
+Внешнее покрытие:грунт + муар серый 7024;
+Внутреннее покрытие:муар белый;
+Внутренняя панель: МДФ 16мм с Фрезеровкой, Белый матовый;
+Основной замок:Гардиан 3001;
+Дополнительный замок:Гардиан 3001;
+Цилиндр:Гардиан Basic Термо со штоком , хром;
+Ночник:Фуаро Тор , хром;
 Ручка - Фуаро Тор, хром;
 Заполнение Двери - Пенополистирол+мин плита;
 Размер - 860х2050мм,960х2050м;</t>
@@ -3580,7 +3557,7 @@
 Вес (кг):19.7;</t>
   </si>
   <si>
-    <t>Carda К-1 Белый софт</t>
+    <t>К-1 Белый софт</t>
   </si>
   <si>
     <t>karda-belyi-soft.jpeg</t>
@@ -3597,181 +3574,181 @@
 Серия:К;</t>
   </si>
   <si>
-    <t>Carda К-1 шале серый</t>
+    <t>К-1 шале серый</t>
   </si>
   <si>
     <t>k1-shale-seryi.jpeg</t>
   </si>
   <si>
-    <t>Carda К-1 серый софт</t>
+    <t>К-1 серый софт</t>
   </si>
   <si>
     <t>k1-seryi-soft.png</t>
   </si>
   <si>
-    <t>Carda К-1 шале золотой</t>
+    <t>К-1 шале золотой</t>
   </si>
   <si>
     <t>k1-shale-zolotoi.jpeg</t>
   </si>
   <si>
-    <t>Carda К-1 шале мареный</t>
+    <t>К-1 шале мареный</t>
   </si>
   <si>
     <t>k1-shale-morenyi.jpeg</t>
   </si>
   <si>
-    <t>Carda К-1 магнолия</t>
+    <t>К-1 магнолия</t>
   </si>
   <si>
     <t>k1-magnoliya.png</t>
   </si>
   <si>
-    <t>Carda К-20 Ясень белый</t>
+    <t>К-20 Ясень белый</t>
   </si>
   <si>
     <t>carda-k-20-zsen-belyi.png</t>
   </si>
   <si>
-    <t>Carda К-20 белый софт</t>
+    <t>К-20 белый софт</t>
   </si>
   <si>
     <t>carda-k-20-soft-belyi.jpeg</t>
   </si>
   <si>
-    <t>Carda К-20 графит софт</t>
+    <t>К-20 графит софт</t>
   </si>
   <si>
     <t>carda-k-20-soft-grafit.jpeg</t>
   </si>
   <si>
-    <t>Carda К-20 магнолия</t>
+    <t>К-20 магнолия</t>
   </si>
   <si>
     <t>carda-k-20-magnoliya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-20 серый софт</t>
+    <t>К-20 серый софт</t>
   </si>
   <si>
     <t>carda-k-20-soft-seryi.jpeg</t>
   </si>
   <si>
-    <t>Carda К-21 белый софт</t>
+    <t>К-21 белый софт</t>
   </si>
   <si>
     <t>dver-k1-belyi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-21 графит софт</t>
+    <t>К-21 графит софт</t>
   </si>
   <si>
     <t>dver-k1-grafit.jpeg</t>
   </si>
   <si>
-    <t>Carda К-21 серый софт</t>
+    <t>К-21 серый софт</t>
   </si>
   <si>
     <t>dver-k1-yasen-seryi.jpeg</t>
   </si>
   <si>
-    <t>Carda К-21 магнолия</t>
+    <t>К-21 магнолия</t>
   </si>
   <si>
     <t>dver-k1-magnoliya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-60 Ясень белый</t>
+    <t>К-60 Ясень белый</t>
   </si>
   <si>
     <t>carda-k60-yasen-belyi.png</t>
   </si>
   <si>
-    <t>Carda К-60 белый софт</t>
+    <t>К-60 белый софт</t>
   </si>
   <si>
     <t>carda-k60-belyi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-60 дуб натуральный</t>
+    <t>К-60 дуб натуральный</t>
   </si>
   <si>
     <t>carda-k60-dub.jpeg</t>
   </si>
   <si>
-    <t>Carda К-60 магнолия</t>
+    <t>К-60 магнолия</t>
   </si>
   <si>
     <t>carda-k60-magnoliya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-60 орех макадамия</t>
+    <t>К-60 орех макадамия</t>
   </si>
   <si>
     <t>carda-k60-makadamiya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-60 серый софт</t>
+    <t>К-60 серый софт</t>
   </si>
   <si>
     <t>carda-k60-seryi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-70 серый софт</t>
+    <t>К-70 серый софт</t>
   </si>
   <si>
     <t>karda-k70-seryi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-70 макадамия</t>
+    <t>К-70 макадамия</t>
   </si>
   <si>
     <t>karda-k70-makadamiya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-70 магнолия</t>
+    <t>К-70 магнолия</t>
   </si>
   <si>
     <t>karda-k70-magnoliya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-70 дуб натуральный</t>
+    <t>К-70 дуб натуральный</t>
   </si>
   <si>
     <t>karda-k70-dub-naturalnyi.jpeg</t>
   </si>
   <si>
-    <t>Carda К-70 белый ясень</t>
+    <t>К-70 белый ясень</t>
   </si>
   <si>
     <t>karda-k70-belyi-yasen.png</t>
   </si>
   <si>
-    <t>Carda К-70 белый софт</t>
+    <t>К-70 белый софт</t>
   </si>
   <si>
     <t>karda-k70-belyi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-2 Шале золотой</t>
+    <t>К-2 Шале золотой</t>
   </si>
   <si>
     <t>carda-k2-shale-zolotoi.png.jpeg</t>
   </si>
   <si>
-    <t>Carda К-2 Шале мореный</t>
+    <t>К-2 Шале мореный</t>
   </si>
   <si>
     <t>carda-k2-shale-morenyi.jpeg</t>
   </si>
   <si>
-    <t>Carda К-2 Шале серый</t>
+    <t>К-2 Шале серый</t>
   </si>
   <si>
     <t>carda-k2-shale-seryi.jpeg</t>
   </si>
   <si>
-    <t>Carda К-2 серый софт</t>
+    <t>К-2 серый софт</t>
   </si>
   <si>
     <t>carda-k2-seriy--soft.png</t>
@@ -3783,289 +3760,289 @@
     <t>carda-k2-magnoliya.png</t>
   </si>
   <si>
-    <t>Carda К-2 белый ясень</t>
+    <t>К-2 белый ясень</t>
   </si>
   <si>
     <t>carda-k2-belyi-yasen.png</t>
   </si>
   <si>
-    <t>Carda К-2 белый софт</t>
+    <t>К-2 белый софт</t>
   </si>
   <si>
     <t>carda-k2-belyi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-30 Серый софт</t>
+    <t>К-30 Серый софт</t>
   </si>
   <si>
     <t>carda-k30-seryi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-30 макодамия</t>
+    <t>К-30 макодамия</t>
   </si>
   <si>
     <t>carda-k30-makodamiya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-30 магнолия</t>
+    <t>К-30 магнолия</t>
   </si>
   <si>
     <t>carda-k30-magnoliya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-30 дуб натуральный</t>
+    <t>К-30 дуб натуральный</t>
   </si>
   <si>
     <t>carda-k30-dub.jpeg</t>
   </si>
   <si>
-    <t>Carda К-30 графит софт</t>
+    <t>К-30 графит софт</t>
   </si>
   <si>
     <t>carda-k30-grafit-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-30 белый софт</t>
+    <t>К-30 белый софт</t>
   </si>
   <si>
     <t>carda-k30-belyi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-31 Серый софт</t>
+    <t>К-31 Серый софт</t>
   </si>
   <si>
     <t>carda-k31-seryi-soft-vitrazh.png</t>
   </si>
   <si>
-    <t>Carda К-31 макодамия</t>
+    <t>К-31 макодамия</t>
   </si>
   <si>
     <t>carda-k31-makodamiya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-31 белый софт</t>
+    <t>К-31 белый софт</t>
   </si>
   <si>
     <t>carda-k31-belyi-soft.png</t>
   </si>
   <si>
-    <t>Carda К-31 дуб натуральный</t>
+    <t>К-31 дуб натуральный</t>
   </si>
   <si>
     <t>carda-k31-dub.jpeg</t>
   </si>
   <si>
-    <t>Carda К-31 магнолия</t>
+    <t>К-31 магнолия</t>
   </si>
   <si>
     <t>carda-k31-magnoliya.png</t>
   </si>
   <si>
-    <t>Carda К-32 Серый софт</t>
+    <t>К-32 Серый софт</t>
   </si>
   <si>
     <t>carda-k32-seryi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-32 магнолия</t>
+    <t>К-32 магнолия</t>
   </si>
   <si>
     <t>carda-k32-magnoliya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-32 белый софт</t>
+    <t>К-32 белый софт</t>
   </si>
   <si>
     <t>carda-k32-belyi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-40 Графит софт</t>
+    <t>К-40 Графит софт</t>
   </si>
   <si>
     <t>carda-k40-grafit-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-40 белый софт</t>
+    <t>К-40 белый софт</t>
   </si>
   <si>
     <t>carda-k40-belyi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-40 серый софт</t>
+    <t>К-40 серый софт</t>
   </si>
   <si>
     <t>carda-k40-selyi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-40 дуб натуральный</t>
+    <t>К-40 дуб натуральный</t>
   </si>
   <si>
     <t>carda-k40-dub.jpeg</t>
   </si>
   <si>
-    <t>Carda К-40 магнолия</t>
+    <t>К-40 магнолия</t>
   </si>
   <si>
     <t>carda-k40-magnoliya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-40 макодамия</t>
+    <t>К-40 макодамия</t>
   </si>
   <si>
     <t>carda-k40-makodamiya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-41 Серый софт</t>
+    <t>К-41 Серый софт</t>
   </si>
   <si>
     <t>carda-k41-seryi-soft.png</t>
   </si>
   <si>
-    <t>Carda К-41 макодамия</t>
+    <t>К-41 макодамия</t>
   </si>
   <si>
     <t>carda-k41-makodamiya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-41 магнолия</t>
+    <t>К-41 магнолия</t>
   </si>
   <si>
     <t>carda-k41-magnoliya.png</t>
   </si>
   <si>
-    <t>Carda К-41 натуральный дуб</t>
+    <t>К-41 натуральный дуб</t>
   </si>
   <si>
     <t>carda-k41-dub-naturalnyi.jpeg</t>
   </si>
   <si>
-    <t>Carda К-41 белый софт</t>
+    <t>К-41 белый софт</t>
   </si>
   <si>
     <t>carda-k41-belyi.png</t>
   </si>
   <si>
-    <t>Carda К-42 белый софт</t>
+    <t>К-42 белый софт</t>
   </si>
   <si>
     <t>karda-k42-belyi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-42 магнолия</t>
+    <t>К-42 магнолия</t>
   </si>
   <si>
     <t>karda-k42-magnoliya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-42 серый софт</t>
+    <t>К-42 серый софт</t>
   </si>
   <si>
     <t>karda-k42-seryi.jpeg</t>
   </si>
   <si>
-    <t>Carda К-50 графит софт</t>
+    <t>К-50 графит софт</t>
   </si>
   <si>
     <t>carda-k50-grafit-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-50 белый софт</t>
+    <t>К-50 белый софт</t>
   </si>
   <si>
     <t>carda-k50-belyi-soft.jpeg.jpeg</t>
   </si>
   <si>
-    <t>Carda К-50 серый софт</t>
+    <t>К-50 серый софт</t>
   </si>
   <si>
     <t>carda-k50-seryi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-50 магнолия</t>
+    <t>К-50 магнолия</t>
   </si>
   <si>
     <t>carda-k50-magnoliya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-51 графит софт</t>
+    <t>К-51 графит софт</t>
   </si>
   <si>
     <t>carda-51-grafit-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-51 белый софт</t>
+    <t>К-51 белый софт</t>
   </si>
   <si>
     <t>carda-51-belyi-soft.png</t>
   </si>
   <si>
-    <t>Carda К-51 серый софт</t>
+    <t>К-51 серый софт</t>
   </si>
   <si>
     <t>carda-51-seryi-soft.png</t>
   </si>
   <si>
-    <t>Carda К-51 магнолия</t>
+    <t>К-51 магнолия</t>
   </si>
   <si>
     <t>carda-51-magnoliya.png</t>
   </si>
   <si>
-    <t>Carda К-52 белый софт</t>
+    <t>К-52 белый софт</t>
   </si>
   <si>
     <t>carda-52-belyi-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-52 серый софт</t>
+    <t>К-52 серый софт</t>
   </si>
   <si>
     <t>carda-52-s-soft.jpeg</t>
   </si>
   <si>
-    <t>Carda К-52 магнолия</t>
+    <t>К-52 магнолия</t>
   </si>
   <si>
     <t>carda-52-magnoliya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-61 белый софт</t>
+    <t>К-61 белый софт</t>
   </si>
   <si>
     <t>carda-k61-belyi.jpeg</t>
   </si>
   <si>
-    <t>Carda К-61 серый софт</t>
+    <t>К-61 серый софт</t>
   </si>
   <si>
     <t>carda-k61-seryi.jpeg</t>
   </si>
   <si>
-    <t>Carda К-61 магнолия</t>
+    <t>К-61 магнолия</t>
   </si>
   <si>
     <t>carda-k61-magnoliya.jpeg</t>
   </si>
   <si>
-    <t>Carda К-80</t>
+    <t>К-80</t>
   </si>
   <si>
     <t>karda-k80-seryi-cvet.jpeg</t>
   </si>
   <si>
-    <t>Carda К-90</t>
+    <t>К-90</t>
   </si>
   <si>
     <t>carda-k90.jpeg</t>
   </si>
   <si>
-    <t>Carda К-91</t>
+    <t>К-91</t>
   </si>
   <si>
     <t>carda-k91.png</t>
   </si>
   <si>
-    <t>Carda К-81</t>
+    <t>К-81</t>
   </si>
   <si>
     <t>carda-k81-grafit.png</t>
@@ -5271,7 +5248,7 @@
     <col customWidth="1" min="7" max="7" width="35.0"/>
     <col customWidth="1" min="8" max="8" width="8.75"/>
     <col customWidth="1" min="9" max="9" width="8.0"/>
-    <col customWidth="1" min="10" max="10" width="9.13"/>
+    <col customWidth="1" min="10" max="10" width="30.63"/>
     <col customWidth="1" min="11" max="11" width="80.13"/>
     <col customWidth="1" min="12" max="12" width="42.0"/>
     <col customWidth="1" min="13" max="13" width="19.0"/>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -2885,7 +2885,7 @@
     <t>Прадо ваниль глухое</t>
   </si>
   <si>
-    <t>prado-vanil..jpg</t>
+    <t>prado-vanil.jpg</t>
   </si>
   <si>
     <t>Ширина полотна (мм):800;
@@ -4312,7 +4312,7 @@
     <t>кн20 белый софт</t>
   </si>
   <si>
-    <t>kn20-belyi-soft.png.png</t>
+    <t>kn20-belyi-soft.png</t>
   </si>
   <si>
     <t>кн20 магнолия</t>
@@ -4384,19 +4384,19 @@
     <t>Тоскана 1 бетон снежный</t>
   </si>
   <si>
-    <t>tos-1-beton-snezhnyi.png</t>
+    <t>tos-1-beton-snezhnyi.jpeg</t>
   </si>
   <si>
     <t>Тоскана 1 бетон серый</t>
   </si>
   <si>
-    <t>tos-1-beton-seryi.png</t>
+    <t>tos-1-beton-seryi.jpeg</t>
   </si>
   <si>
     <t>Тоскана 1 бетон графит</t>
   </si>
   <si>
-    <t>tos-1-beton-graphit.png</t>
+    <t>tos-1-beton-graphit.jpeg</t>
   </si>
   <si>
     <t>Тоскана 2 эмалит белый</t>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -2885,7 +2885,7 @@
     <t>Прадо ваниль глухое</t>
   </si>
   <si>
-    <t>prado-vanil.jpg</t>
+    <t>pr-van.jpg</t>
   </si>
   <si>
     <t>Ширина полотна (мм):800;

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="1080">
   <si>
     <t>article</t>
   </si>
@@ -2040,6 +2040,72 @@
 Размер - 860х2050мм,960х2050м;</t>
   </si>
   <si>
+    <t>Арабика</t>
+  </si>
+  <si>
+    <t>arabika.jpeg</t>
+  </si>
+  <si>
+    <t>Вега</t>
+  </si>
+  <si>
+    <t>vega.png</t>
+  </si>
+  <si>
+    <t>Верона</t>
+  </si>
+  <si>
+    <t>verona.jpeg</t>
+  </si>
+  <si>
+    <t>Марсель</t>
+  </si>
+  <si>
+    <t>marcel.png</t>
+  </si>
+  <si>
+    <t>Некст</t>
+  </si>
+  <si>
+    <t>next.png</t>
+  </si>
+  <si>
+    <t>7,5 флорида эмалит белый</t>
+  </si>
+  <si>
+    <t>75-florida.jpeg</t>
+  </si>
+  <si>
+    <t>Прораб линии 55мм</t>
+  </si>
+  <si>
+    <t>prorab-linii-55.png</t>
+  </si>
+  <si>
+    <t>Рона</t>
+  </si>
+  <si>
+    <t>rona.jpeg</t>
+  </si>
+  <si>
+    <t>Титан</t>
+  </si>
+  <si>
+    <t>titan-8800.jpeg</t>
+  </si>
+  <si>
+    <t>Фаворит</t>
+  </si>
+  <si>
+    <t>favorit-76-43.png</t>
+  </si>
+  <si>
+    <t>Черное зеркало</t>
+  </si>
+  <si>
+    <t>chernoe-zoloto.jpeg</t>
+  </si>
+  <si>
     <t>Вена Лиственница Мокко</t>
   </si>
   <si>
@@ -2049,7 +2115,7 @@
     <t>vena-listvenica-mokko.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм): 700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло: Стекло мателюкс;
@@ -2066,7 +2132,7 @@
     <t>vena-temnyi-keparis.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло черное;
@@ -2083,7 +2149,7 @@
     <t>vena-belyi-kiparis.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло белое;
@@ -2100,7 +2166,7 @@
     <t>vena-pg-plotnoe.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2117,7 +2183,7 @@
     <t>vena-pg-plotnoe-dub.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2134,7 +2200,7 @@
     <t>vena-beton-temnyi.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37
 Стекло:Стекло графитовое;
@@ -2151,7 +2217,7 @@
     <t>vena-belyi-steklo-matovoe.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс;
@@ -2162,13 +2228,13 @@
 Вес (кг):19;</t>
   </si>
   <si>
-    <t>Вена белый</t>
+    <t>Вена белый глянец</t>
   </si>
   <si>
     <t>vena-steklo-matovoe.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс;
@@ -2185,7 +2251,7 @@
     <t>munhen-kedr-snezhnyi.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2202,7 +2268,7 @@
     <t>munhen-el-alpiyskaya.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2219,7 +2285,7 @@
     <t>praga-belyi-kiparis.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):900;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло черное;
@@ -2236,7 +2302,7 @@
     <t>praga-listvenica-mokko.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):900;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс;
@@ -2253,7 +2319,7 @@
     <t>praga-temnyi-kiparis.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):900;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло черное;
@@ -2264,13 +2330,13 @@
 Вес (кг):24;</t>
   </si>
   <si>
-    <t>Прага Мокко</t>
+    <t>Прага Мокко глянец</t>
   </si>
   <si>
     <t>praga-mokko-glyanec.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс бронза;
@@ -2287,7 +2353,7 @@
     <t>dublin-kedr-snezhnyi.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):900;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Зеркало;
@@ -2304,7 +2370,7 @@
     <t>dublin-dub-nordik.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Зеркало;
@@ -2321,7 +2387,7 @@
     <t>dublin-steklo-chernoe.jpeg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло черное;
@@ -2338,7 +2404,7 @@
     <t>keln-belyi-kiparis.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс;
@@ -2355,7 +2421,7 @@
     <t>keln-seryi-kedr.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло черное;
@@ -2372,7 +2438,7 @@
     <t>madrid-listvenica-mokko.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):900;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс;
@@ -2389,7 +2455,7 @@
     <t>seveliya-nordik-chernoe-steklo.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло черное;
@@ -2406,7 +2472,7 @@
     <t>drezden-dub-nordik-chernoe-steklo.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм): 800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло черное;
@@ -2423,7 +2489,7 @@
     <t>drezden-belyi-kiparis.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Зеркало;
@@ -2440,7 +2506,7 @@
     <t>drezden-beton-temnyi.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):900;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло черное;
@@ -2457,7 +2523,7 @@
     <t>seul-kedr-snezhnyi.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс;
@@ -2474,7 +2540,7 @@
     <t>seul-dub-nordik.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс;
@@ -2491,7 +2557,7 @@
     <t>seul-steklo-matovoe.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс;
@@ -2508,7 +2574,7 @@
     <t>seul-platina-steklo-grafitovoe.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Зеркало;
@@ -2525,7 +2591,7 @@
     <t>valensiya-el-alpiyskaya.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс;
@@ -2542,7 +2608,7 @@
     <t>nevada-grafit-chernoe-steklo.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло черное;
@@ -2559,7 +2625,7 @@
     <t>texas-zhemchuzhnyi-steklo-chernoe.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло черное;
@@ -2576,7 +2642,7 @@
     <t>ermitazh-2-belyi.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2593,7 +2659,7 @@
     <t>ermitazh-3-steklo-romb-belyi.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):900;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Мателюкс с алмазной гравировкой "Ромб";
@@ -2610,7 +2676,7 @@
     <t>ermitazh-4-gluhoe.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2627,7 +2693,7 @@
     <t>ermitazh-4-belyi-kvadrogravirovka.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Мателюкс с алмазной гравировкой "Квадро";
@@ -2644,7 +2710,7 @@
     <t>ermitazh-2-platina-gluhoe.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):900;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2667,7 +2733,7 @@
     <t>rim-belyi-gluhoe.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2684,7 +2750,7 @@
     <t>rim-belyi-steklo-grad.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс "Гранд";
@@ -2701,7 +2767,7 @@
     <t>rim-vanil-gluhoe.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2715,7 +2781,7 @@
     <t>rim-steklo-grad-2.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс "Гранд";
@@ -2732,7 +2798,7 @@
     <t>rim-platina-1.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2746,7 +2812,7 @@
     <t>rim-steklo-grad-3.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс "Гранд";
@@ -2763,7 +2829,7 @@
     <t>kioto-belyi-kvadrat.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс;
@@ -2780,7 +2846,7 @@
     <t>kioto-vanil-1.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс;
@@ -2797,7 +2863,7 @@
     <t>olimpiya-seryi.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2814,7 +2880,7 @@
     <t>olimpiya-belyi-gluhoe.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2831,7 +2897,7 @@
     <t>olimpiya-vanil.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2854,7 +2920,7 @@
     <t>prado-belyi-gluhoe.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2871,7 +2937,7 @@
     <t>prado-steklo-grand.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс "Гранд";
@@ -2888,7 +2954,7 @@
     <t>pr-van.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2905,7 +2971,7 @@
     <t>prado-vanil-steklo-grad.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс "Гранд";
@@ -2922,7 +2988,7 @@
     <t>afina-belyi-steklo-matovoe.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс;
@@ -2939,7 +3005,7 @@
     <t>afina-2-zerkalo.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Зеркало грей;
@@ -2956,7 +3022,7 @@
     <t>klasika-1-slonovaya-kost.tif</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2973,7 +3039,7 @@
     <t>klasika-1-belyi.tif</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -2990,7 +3056,7 @@
     <t>klasika-2-belyi.tif</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):900;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3007,7 +3073,7 @@
     <t>klasika-3-belyi.tif</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3024,7 +3090,7 @@
     <t>klasika-5-belyi.tif</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс;
@@ -3041,7 +3107,7 @@
     <t>klasika-5-slonovaya-kost.tif</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс;
@@ -3058,7 +3124,7 @@
     <t>neoklassika-2-pro-seryi.tif</t>
   </si>
   <si>
-    <t xml:space="preserve">Ширина полотна (мм):900;
+    <t xml:space="preserve">Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3076,7 +3142,7 @@
     <t>neoklassika-2-pro-slonovaya-kost.tif</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):900;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3093,7 +3159,7 @@
     <t>neoklassika-pro-1-latte.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3110,7 +3176,7 @@
     <t>neoklassika-pro-1-slonovaya-kost.tif</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3127,7 +3193,7 @@
     <t>neo-klassika-pro-1-bely.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3150,7 +3216,7 @@
     <t>lain-2-belyi.tif</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3167,7 +3233,7 @@
     <t>lain-2-seryi..tif</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3184,7 +3250,7 @@
     <t>lain-3-belyi.tif</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3201,7 +3267,7 @@
     <t>lain-4-belyi.tif</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):600;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3218,7 +3284,7 @@
     <t>stil-2-belyi.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3235,7 +3301,7 @@
     <t>stil-2-belyi-steklo-rubin.jpeg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс "Рубин";
@@ -3252,7 +3318,7 @@
     <t>stil-2-seryi-gluhoe.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3269,7 +3335,7 @@
     <t>stl-2-steklo-rubin.jpeg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло мателюкс "Рубин";
@@ -3286,7 +3352,7 @@
     <t>stil-2-latte-gluhoe.png</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3300,7 +3366,7 @@
     <t>stil-2-latte-steklo-rubin.jpeg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):800;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло Рубин;
@@ -3317,7 +3383,7 @@
     <t>stil-1-belyi-gluhoi.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Ширина полотна (мм):900;
+    <t xml:space="preserve">Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3335,7 +3401,7 @@
     <t>stil-1-steklo-topaz.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">Ширина полотна (мм):900;
+    <t xml:space="preserve">Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло "Топаз";
@@ -3353,7 +3419,7 @@
     <t>stil-1-seryi-gluhoe.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Ширина полотна (мм):900;
+    <t xml:space="preserve">Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3371,7 +3437,7 @@
     <t>stil-1-seryi=steklo-topaz.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">Ширина полотна (мм):900;
+    <t xml:space="preserve">Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло "Топаз";
@@ -3389,7 +3455,7 @@
     <t>stil-1-latte-gluhoe.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Ширина полотна (мм):900;
+    <t xml:space="preserve">Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3407,7 +3473,7 @@
     <t>stil-1-latte-steklo-topaz.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">Ширина полотна (мм):900;
+    <t xml:space="preserve">Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло "Топаз";
@@ -3425,7 +3491,7 @@
     <t>stil-1-slonovaya-kost-gluhoe.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">Ширина полотна (мм):900;
+    <t xml:space="preserve">Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3443,7 +3509,7 @@
     <t>stil-1-slonovaya-kost-steklo-topaz.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">Ширина полотна (мм):900;
+    <t xml:space="preserve">Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:Стекло "Топаз";
@@ -3461,7 +3527,7 @@
     <t>stil-neo-2-beloe-gluhoe.webp</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3478,7 +3544,7 @@
     <t>stil-neo-2-latte-gluhoe.webp</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3495,7 +3561,7 @@
     <t>stil-neo-2-seryi-gluhoe.webp</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3512,7 +3578,7 @@
     <t>stil-flet.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3529,7 +3595,7 @@
     <t>stil-flat-seryi.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -3546,7 +3612,7 @@
     <t>stil-flat-latte.jpg</t>
   </si>
   <si>
-    <t>Ширина полотна (мм):700;
+    <t>Ширина полотна (мм): 600,700, 800,900;
 Высота полотна (мм):2000;
 Толщина полотна (мм):37;
 Стекло:ПГ;
@@ -4379,24 +4445,6 @@
   </si>
   <si>
     <t>tos-1-emalit-kremovyei.png</t>
-  </si>
-  <si>
-    <t>Тоскана 1 бетон снежный</t>
-  </si>
-  <si>
-    <t>tos-1-beton-snezhnyi.jpeg</t>
-  </si>
-  <si>
-    <t>Тоскана 1 бетон серый</t>
-  </si>
-  <si>
-    <t>tos-1-beton-seryi.jpeg</t>
-  </si>
-  <si>
-    <t>Тоскана 1 бетон графит</t>
-  </si>
-  <si>
-    <t>tos-1-beton-graphit.jpeg</t>
   </si>
   <si>
     <t>Тоскана 2 эмалит белый</t>
@@ -4935,12 +4983,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4955,7 +5009,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5006,6 +5060,16 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5247,7 +5311,7 @@
     <col customWidth="1" min="6" max="6" width="13.63"/>
     <col customWidth="1" min="7" max="7" width="35.0"/>
     <col customWidth="1" min="8" max="8" width="8.75"/>
-    <col customWidth="1" min="9" max="9" width="8.0"/>
+    <col customWidth="1" min="9" max="9" width="20.88"/>
     <col customWidth="1" min="10" max="10" width="30.63"/>
     <col customWidth="1" min="11" max="11" width="80.13"/>
     <col customWidth="1" min="12" max="12" width="42.0"/>
@@ -8458,2230 +8522,2457 @@
         <v>350</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="3" t="s">
+    <row r="122" ht="18.0" customHeight="1">
+      <c r="A122" s="20"/>
+      <c r="B122" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" s="5"/>
-      <c r="G122" s="3" t="s">
+      <c r="H122" s="21">
+        <v>8783.0</v>
+      </c>
+      <c r="I122" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" s="20"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="20"/>
+      <c r="O122" s="20"/>
+      <c r="P122" s="20"/>
+      <c r="Q122" s="20"/>
+      <c r="R122" s="20"/>
+      <c r="S122" s="20"/>
+      <c r="T122" s="20"/>
+      <c r="U122" s="20"/>
+      <c r="V122" s="20"/>
+      <c r="W122" s="20"/>
+      <c r="X122" s="20"/>
+      <c r="Y122" s="20"/>
+      <c r="Z122" s="20"/>
+    </row>
+    <row r="123" ht="18.0" customHeight="1">
+      <c r="A123" s="20"/>
+      <c r="B123" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="H122" s="3">
-        <v>4800.0</v>
-      </c>
-      <c r="I122" s="6"/>
-      <c r="K122" s="3" t="s">
+      <c r="C123" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="21" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="3" t="s">
+      <c r="H123" s="21">
+        <v>9050.0</v>
+      </c>
+      <c r="I123" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" s="20"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="20"/>
+      <c r="N123" s="20"/>
+      <c r="O123" s="20"/>
+      <c r="P123" s="20"/>
+      <c r="Q123" s="20"/>
+      <c r="R123" s="20"/>
+      <c r="S123" s="20"/>
+      <c r="T123" s="20"/>
+      <c r="U123" s="20"/>
+      <c r="V123" s="20"/>
+      <c r="W123" s="20"/>
+      <c r="X123" s="20"/>
+      <c r="Y123" s="20"/>
+      <c r="Z123" s="20"/>
+    </row>
+    <row r="124" ht="18.0" customHeight="1">
+      <c r="A124" s="20"/>
+      <c r="B124" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F123" s="5"/>
-      <c r="G123" s="3" t="s">
+      <c r="C124" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="H123" s="3">
-        <v>4800.0</v>
-      </c>
-      <c r="I123" s="6"/>
-      <c r="K123" s="3" t="s">
+      <c r="H124" s="21">
+        <v>8684.0</v>
+      </c>
+      <c r="I124" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" s="20"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="20"/>
+      <c r="M124" s="20"/>
+      <c r="N124" s="20"/>
+      <c r="O124" s="20"/>
+      <c r="P124" s="20"/>
+      <c r="Q124" s="20"/>
+      <c r="R124" s="20"/>
+      <c r="S124" s="20"/>
+      <c r="T124" s="20"/>
+      <c r="U124" s="20"/>
+      <c r="V124" s="20"/>
+      <c r="W124" s="20"/>
+      <c r="X124" s="20"/>
+      <c r="Y124" s="20"/>
+      <c r="Z124" s="20"/>
+    </row>
+    <row r="125" ht="18.0" customHeight="1">
+      <c r="A125" s="20"/>
+      <c r="B125" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="L123" s="5"/>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="3" t="s">
+      <c r="C125" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F124" s="5"/>
-      <c r="G124" s="3" t="s">
+      <c r="H125" s="21">
+        <v>9417.0</v>
+      </c>
+      <c r="I125" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" s="20"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="20"/>
+      <c r="M125" s="20"/>
+      <c r="N125" s="20"/>
+      <c r="O125" s="20"/>
+      <c r="P125" s="20"/>
+      <c r="Q125" s="20"/>
+      <c r="R125" s="20"/>
+      <c r="S125" s="20"/>
+      <c r="T125" s="20"/>
+      <c r="U125" s="20"/>
+      <c r="V125" s="20"/>
+      <c r="W125" s="20"/>
+      <c r="X125" s="20"/>
+      <c r="Y125" s="20"/>
+      <c r="Z125" s="20"/>
+    </row>
+    <row r="126" ht="18.0" customHeight="1">
+      <c r="A126" s="20"/>
+      <c r="B126" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="H124" s="3">
-        <v>4800.0</v>
-      </c>
-      <c r="I124" s="6"/>
-      <c r="K124" s="3" t="s">
+      <c r="C126" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="L124" s="5"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="3" t="s">
+      <c r="H126" s="21">
+        <v>8634.0</v>
+      </c>
+      <c r="I126" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" s="20"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="20"/>
+      <c r="M126" s="20"/>
+      <c r="N126" s="20"/>
+      <c r="O126" s="20"/>
+      <c r="P126" s="20"/>
+      <c r="Q126" s="20"/>
+      <c r="R126" s="20"/>
+      <c r="S126" s="20"/>
+      <c r="T126" s="20"/>
+      <c r="U126" s="20"/>
+      <c r="V126" s="20"/>
+      <c r="W126" s="20"/>
+      <c r="X126" s="20"/>
+      <c r="Y126" s="20"/>
+      <c r="Z126" s="20"/>
+    </row>
+    <row r="127" ht="18.0" customHeight="1">
+      <c r="A127" s="20"/>
+      <c r="B127" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F125" s="5"/>
-      <c r="G125" s="3" t="s">
+      <c r="C127" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="H125" s="3">
-        <v>4800.0</v>
-      </c>
-      <c r="I125" s="6"/>
-      <c r="K125" s="3" t="s">
+      <c r="H127" s="21">
+        <v>5984.0</v>
+      </c>
+      <c r="I127" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" s="20"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="20"/>
+      <c r="M127" s="20"/>
+      <c r="N127" s="20"/>
+      <c r="O127" s="20"/>
+      <c r="P127" s="20"/>
+      <c r="Q127" s="20"/>
+      <c r="R127" s="20"/>
+      <c r="S127" s="20"/>
+      <c r="T127" s="20"/>
+      <c r="U127" s="20"/>
+      <c r="V127" s="20"/>
+      <c r="W127" s="20"/>
+      <c r="X127" s="20"/>
+      <c r="Y127" s="20"/>
+      <c r="Z127" s="20"/>
+    </row>
+    <row r="128" ht="18.0" customHeight="1">
+      <c r="A128" s="20"/>
+      <c r="B128" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="L125" s="5"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="3" t="s">
+      <c r="C128" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126" s="5"/>
-      <c r="G126" s="3" t="s">
+      <c r="H128" s="21">
+        <v>3817.0</v>
+      </c>
+      <c r="I128" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="20"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="20"/>
+      <c r="M128" s="20"/>
+      <c r="N128" s="20"/>
+      <c r="O128" s="20"/>
+      <c r="P128" s="20"/>
+      <c r="Q128" s="20"/>
+      <c r="R128" s="20"/>
+      <c r="S128" s="20"/>
+      <c r="T128" s="20"/>
+      <c r="U128" s="20"/>
+      <c r="V128" s="20"/>
+      <c r="W128" s="20"/>
+      <c r="X128" s="20"/>
+      <c r="Y128" s="20"/>
+      <c r="Z128" s="20"/>
+    </row>
+    <row r="129" ht="18.0" customHeight="1">
+      <c r="A129" s="20"/>
+      <c r="B129" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="H126" s="3">
-        <v>5000.0</v>
-      </c>
-      <c r="I126" s="6"/>
-      <c r="K126" s="3" t="s">
+      <c r="C129" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="L126" s="5"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="3" t="s">
+      <c r="H129" s="21">
+        <v>5917.0</v>
+      </c>
+      <c r="I129" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" s="20"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="20"/>
+      <c r="M129" s="20"/>
+      <c r="N129" s="20"/>
+      <c r="O129" s="20"/>
+      <c r="P129" s="20"/>
+      <c r="Q129" s="20"/>
+      <c r="R129" s="20"/>
+      <c r="S129" s="20"/>
+      <c r="T129" s="20"/>
+      <c r="U129" s="20"/>
+      <c r="V129" s="20"/>
+      <c r="W129" s="20"/>
+      <c r="X129" s="20"/>
+      <c r="Y129" s="20"/>
+      <c r="Z129" s="20"/>
+    </row>
+    <row r="130" ht="18.0" customHeight="1">
+      <c r="A130" s="20"/>
+      <c r="B130" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" s="5"/>
-      <c r="G127" s="3" t="s">
+      <c r="C130" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="H127" s="3">
-        <v>5300.0</v>
-      </c>
-      <c r="I127" s="6"/>
-      <c r="K127" s="3" t="s">
+      <c r="H130" s="21">
+        <v>8800.0</v>
+      </c>
+      <c r="I130" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" s="20"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="20"/>
+      <c r="M130" s="20"/>
+      <c r="N130" s="20"/>
+      <c r="O130" s="20"/>
+      <c r="P130" s="20"/>
+      <c r="Q130" s="20"/>
+      <c r="R130" s="20"/>
+      <c r="S130" s="20"/>
+      <c r="T130" s="20"/>
+      <c r="U130" s="20"/>
+      <c r="V130" s="20"/>
+      <c r="W130" s="20"/>
+      <c r="X130" s="20"/>
+      <c r="Y130" s="20"/>
+      <c r="Z130" s="20"/>
+    </row>
+    <row r="131" ht="18.0" customHeight="1">
+      <c r="A131" s="20"/>
+      <c r="B131" s="21" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="3" t="s">
+      <c r="C131" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F128" s="5"/>
-      <c r="G128" s="3" t="s">
+      <c r="H131" s="21">
+        <v>7634.0</v>
+      </c>
+      <c r="I131" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" s="20"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="20"/>
+      <c r="O131" s="20"/>
+      <c r="P131" s="20"/>
+      <c r="Q131" s="20"/>
+      <c r="R131" s="20"/>
+      <c r="S131" s="20"/>
+      <c r="T131" s="20"/>
+      <c r="U131" s="20"/>
+      <c r="V131" s="20"/>
+      <c r="W131" s="20"/>
+      <c r="X131" s="20"/>
+      <c r="Y131" s="20"/>
+      <c r="Z131" s="20"/>
+    </row>
+    <row r="132" ht="18.0" customHeight="1">
+      <c r="A132" s="20"/>
+      <c r="B132" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="H128" s="3">
-        <v>9900.0</v>
-      </c>
-      <c r="I128" s="6"/>
-      <c r="K128" s="3" t="s">
+      <c r="C132" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="L128" s="5"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="H129" s="16">
-        <v>7300.0</v>
-      </c>
-      <c r="I129" s="6"/>
-      <c r="K129" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F130" s="5"/>
-      <c r="G130" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="H130" s="3">
-        <v>5300.0</v>
-      </c>
-      <c r="I130" s="6"/>
-      <c r="K130" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="L130" s="5"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F131" s="5"/>
-      <c r="G131" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="H131" s="3">
-        <v>3850.0</v>
-      </c>
-      <c r="I131" s="6"/>
-      <c r="K131" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="L131" s="5"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F132" s="5"/>
-      <c r="G132" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="H132" s="3">
-        <v>5200.0</v>
-      </c>
-      <c r="I132" s="6"/>
-      <c r="K132" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="L132" s="5"/>
+      <c r="H132" s="21">
+        <v>6066.0</v>
+      </c>
+      <c r="I132" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" s="20"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="20"/>
+      <c r="M132" s="20"/>
+      <c r="N132" s="20"/>
+      <c r="O132" s="20"/>
+      <c r="P132" s="20"/>
+      <c r="Q132" s="20"/>
+      <c r="R132" s="20"/>
+      <c r="S132" s="20"/>
+      <c r="T132" s="20"/>
+      <c r="U132" s="20"/>
+      <c r="V132" s="20"/>
+      <c r="W132" s="20"/>
+      <c r="X132" s="20"/>
+      <c r="Y132" s="20"/>
+      <c r="Z132" s="20"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="B133" s="3" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="3" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="H133" s="3">
-        <v>4900.0</v>
+        <v>4800.0</v>
       </c>
       <c r="I133" s="6"/>
       <c r="K133" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="L133" s="5"/>
+        <v>376</v>
+      </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="B134" s="3" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="3" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="H134" s="3">
-        <v>4900.0</v>
+        <v>4800.0</v>
       </c>
       <c r="I134" s="6"/>
       <c r="K134" s="3" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="L134" s="5"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="B135" s="3" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="3" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H135" s="3">
-        <v>11100.0</v>
+        <v>4800.0</v>
       </c>
       <c r="I135" s="6"/>
       <c r="K135" s="3" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="L135" s="5"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="B136" s="3" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="3" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H136" s="3">
-        <v>5300.0</v>
+        <v>4800.0</v>
       </c>
       <c r="I136" s="6"/>
       <c r="K136" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="L136" s="5"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="B137" s="3" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="3" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="H137" s="3">
-        <v>5300.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I137" s="6"/>
       <c r="K137" s="3" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="L137" s="5"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="B138" s="3" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="3" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="H138" s="3">
-        <v>5000.0</v>
+        <v>5300.0</v>
       </c>
       <c r="I138" s="6"/>
       <c r="K138" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="L138" s="5"/>
+        <v>391</v>
+      </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="B139" s="3" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="H139" s="3">
-        <v>5300.0</v>
+        <v>9900.0</v>
       </c>
       <c r="I139" s="6"/>
       <c r="K139" s="3" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="L139" s="5"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="3" t="s">
-        <v>406</v>
+      <c r="B140" s="16" t="s">
+        <v>395</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F140" s="5"/>
-      <c r="G140" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="H140" s="3">
-        <v>5900.0</v>
+      <c r="G140" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="H140" s="16">
+        <v>7300.0</v>
       </c>
       <c r="I140" s="6"/>
-      <c r="K140" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="L140" s="5"/>
+      <c r="K140" s="16" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="B141" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="3" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="H141" s="3">
         <v>5300.0</v>
       </c>
       <c r="I141" s="6"/>
       <c r="K141" s="3" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L141" s="5"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="B142" s="3" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="3" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H142" s="3">
-        <v>5900.0</v>
+        <v>3850.0</v>
       </c>
       <c r="I142" s="6"/>
       <c r="K142" s="3" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L142" s="5"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="3" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="H143" s="3">
         <v>5200.0</v>
       </c>
       <c r="I143" s="6"/>
       <c r="K143" s="3" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="L143" s="5"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="3" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H144" s="3">
-        <v>5500.0</v>
+        <v>4900.0</v>
       </c>
       <c r="I144" s="6"/>
       <c r="K144" s="3" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L144" s="5"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="3" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="H145" s="3">
-        <v>5550.0</v>
+        <v>4900.0</v>
       </c>
       <c r="I145" s="6"/>
       <c r="K145" s="3" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="L145" s="5"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="3" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="H146" s="3">
-        <v>4800.0</v>
+        <v>11100.0</v>
       </c>
       <c r="I146" s="6"/>
       <c r="K146" s="3" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="L146" s="5"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="3" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="H147" s="3">
-        <v>4800.0</v>
+        <v>5300.0</v>
       </c>
       <c r="I147" s="6"/>
       <c r="K147" s="3" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="L147" s="5"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="B148" s="3" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F148" s="5"/>
-      <c r="G148" s="20" t="s">
-        <v>431</v>
+      <c r="G148" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="H148" s="3">
         <v>5300.0</v>
       </c>
       <c r="I148" s="6"/>
       <c r="K148" s="3" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L148" s="5"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="16" t="s">
-        <v>433</v>
+      <c r="B149" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G149" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="H149" s="16">
-        <v>7300.0</v>
+      <c r="F149" s="5"/>
+      <c r="G149" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H149" s="3">
+        <v>5000.0</v>
       </c>
       <c r="I149" s="6"/>
-      <c r="K149" s="16" t="s">
-        <v>435</v>
-      </c>
+      <c r="K149" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="L149" s="5"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="B150" s="3" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="3" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="H150" s="3">
-        <v>3850.0</v>
+        <v>5300.0</v>
       </c>
       <c r="I150" s="6"/>
       <c r="K150" s="3" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="L150" s="5"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="B151" s="3" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="3" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="H151" s="3">
-        <v>6400.0</v>
+        <v>5900.0</v>
       </c>
       <c r="I151" s="6"/>
       <c r="K151" s="3" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="L151" s="5"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="B152" s="3" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="3" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="H152" s="3">
-        <v>5500.0</v>
+        <v>5300.0</v>
       </c>
       <c r="I152" s="6"/>
       <c r="K152" s="3" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="L152" s="5"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="B153" s="3" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="3" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="H153" s="3">
-        <v>12000.0</v>
+        <v>5900.0</v>
       </c>
       <c r="I153" s="6"/>
       <c r="K153" s="3" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="L153" s="5"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="B154" s="3" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="H154" s="3">
-        <v>12000.0</v>
+        <v>5200.0</v>
       </c>
       <c r="I154" s="6"/>
       <c r="K154" s="3" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="L154" s="5"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="B155" s="3" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="3" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="H155" s="3">
-        <v>12000.0</v>
+        <v>5500.0</v>
       </c>
       <c r="I155" s="6"/>
       <c r="K155" s="3" t="s">
-        <v>453</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="L155" s="5"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="B156" s="3" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="3" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="H156" s="3">
-        <v>12000.0</v>
+        <v>5550.0</v>
       </c>
       <c r="I156" s="6"/>
       <c r="K156" s="3" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="L156" s="5"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="B157" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="3" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H157" s="3">
-        <v>12000.0</v>
+        <v>4800.0</v>
       </c>
       <c r="I157" s="6"/>
       <c r="K157" s="3" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="L157" s="5"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="B158" s="3" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="3" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="H158" s="3">
-        <v>12000.0</v>
+        <v>4800.0</v>
       </c>
       <c r="I158" s="6"/>
       <c r="K158" s="3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="L158" s="5"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="B159" s="3" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F159" s="5"/>
-      <c r="G159" s="3" t="s">
-        <v>463</v>
+      <c r="G159" s="24" t="s">
+        <v>453</v>
       </c>
       <c r="H159" s="3">
-        <v>8500.0</v>
+        <v>5300.0</v>
       </c>
       <c r="I159" s="6"/>
       <c r="K159" s="3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="L159" s="5"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="3" t="s">
-        <v>465</v>
+      <c r="B160" s="16" t="s">
+        <v>455</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F160" s="5"/>
-      <c r="G160" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="H160" s="3">
-        <v>8950.0</v>
+      <c r="G160" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="H160" s="16">
+        <v>7300.0</v>
       </c>
       <c r="I160" s="6"/>
-      <c r="K160" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="L160" s="5"/>
+      <c r="K160" s="16" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="B161" s="3" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="3" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="H161" s="3">
-        <v>8500.0</v>
+        <v>3850.0</v>
       </c>
       <c r="I161" s="6"/>
       <c r="K161" s="3" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="L161" s="5"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="B162" s="3" t="s">
-        <v>48</v>
+        <v>461</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="3" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="H162" s="3">
-        <v>8950.0</v>
+        <v>6400.0</v>
       </c>
       <c r="I162" s="6"/>
       <c r="K162" s="3" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="L162" s="5"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="B163" s="3" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="3" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H163" s="3">
-        <v>8500.0</v>
+        <v>5500.0</v>
       </c>
       <c r="I163" s="6"/>
       <c r="K163" s="3" t="s">
-        <v>475</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="L163" s="5"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="B164" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="3" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H164" s="3">
-        <v>8950.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I164" s="6"/>
       <c r="K164" s="3" t="s">
-        <v>477</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="L164" s="5"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="B165" s="3" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="3" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H165" s="3">
-        <v>9400.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I165" s="6"/>
       <c r="K165" s="3" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="L165" s="5"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="B166" s="3" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H166" s="3">
-        <v>9400.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I166" s="6"/>
       <c r="K166" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="B167" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" s="5"/>
+      <c r="G167" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="H167" s="3">
+        <v>12000.0</v>
+      </c>
+      <c r="I167" s="6"/>
+      <c r="K167" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="L167" s="5"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="B168" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" s="5"/>
+      <c r="G168" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H168" s="3">
+        <v>12000.0</v>
+      </c>
+      <c r="I168" s="6"/>
+      <c r="K168" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="L168" s="5"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="B169" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" s="5"/>
+      <c r="G169" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="L166" s="5"/>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="16" t="s">
+      <c r="H169" s="3">
+        <v>12000.0</v>
+      </c>
+      <c r="I169" s="6"/>
+      <c r="K169" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="L169" s="5"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="B170" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C167" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G167" s="16" t="s">
+      <c r="C170" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" s="5"/>
+      <c r="G170" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="H167" s="16">
-        <v>7850.0</v>
-      </c>
-      <c r="I167" s="6"/>
-      <c r="K167" s="16" t="s">
+      <c r="H170" s="3">
+        <v>8500.0</v>
+      </c>
+      <c r="I170" s="6"/>
+      <c r="K170" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="16" t="s">
+      <c r="L170" s="5"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="B171" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C168" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" s="16" t="s">
+      <c r="C171" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" s="5"/>
+      <c r="G171" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="H168" s="16">
-        <v>7850.0</v>
-      </c>
-      <c r="I168" s="6"/>
-      <c r="K168" s="16" t="s">
+      <c r="H171" s="3">
+        <v>8950.0</v>
+      </c>
+      <c r="I171" s="6"/>
+      <c r="K171" s="3" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="16" t="s">
+      <c r="L171" s="5"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="B172" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" s="16" t="s">
+      <c r="C172" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" s="5"/>
+      <c r="G172" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="H169" s="16">
-        <v>7850.0</v>
-      </c>
-      <c r="I169" s="6"/>
-      <c r="K169" s="16" t="s">
+      <c r="H172" s="3">
+        <v>8500.0</v>
+      </c>
+      <c r="I172" s="6"/>
+      <c r="K172" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="16" t="s">
+      <c r="L172" s="5"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="B173" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" s="5"/>
+      <c r="G173" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G170" s="16" t="s">
+      <c r="H173" s="3">
+        <v>8950.0</v>
+      </c>
+      <c r="I173" s="6"/>
+      <c r="K173" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="H170" s="16">
-        <v>7850.0</v>
-      </c>
-      <c r="I170" s="6"/>
-      <c r="K170" s="16" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="16" t="s">
+      <c r="L173" s="5"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="B174" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G171" s="16" t="s">
+      <c r="C174" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" s="5"/>
+      <c r="G174" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="H171" s="16">
-        <v>10600.0</v>
-      </c>
-      <c r="I171" s="6"/>
-      <c r="K171" s="16" t="s">
+      <c r="H174" s="3">
+        <v>8500.0</v>
+      </c>
+      <c r="I174" s="6"/>
+      <c r="K174" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="16" t="s">
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="B175" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" s="5"/>
+      <c r="G175" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G172" s="16" t="s">
+      <c r="H175" s="3">
+        <v>8950.0</v>
+      </c>
+      <c r="I175" s="6"/>
+      <c r="K175" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="H172" s="16">
-        <v>10850.0</v>
-      </c>
-      <c r="I172" s="6"/>
-      <c r="K172" s="16" t="s">
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="B176" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="16" t="s">
+      <c r="C176" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F176" s="5"/>
+      <c r="G176" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G173" s="16" t="s">
+      <c r="H176" s="3">
+        <v>9400.0</v>
+      </c>
+      <c r="I176" s="6"/>
+      <c r="K176" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="H173" s="16">
-        <v>10600.0</v>
-      </c>
-      <c r="I173" s="6"/>
-      <c r="K173" s="16" t="s">
+      <c r="L176" s="5"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="B177" s="3" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="16" t="s">
+      <c r="C177" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" s="5"/>
+      <c r="G177" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C174" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G174" s="16" t="s">
+      <c r="H177" s="3">
+        <v>9400.0</v>
+      </c>
+      <c r="I177" s="6"/>
+      <c r="K177" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="H174" s="16">
-        <v>10850.0</v>
-      </c>
-      <c r="I174" s="6"/>
-      <c r="K174" s="16" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G175" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="H175" s="16">
-        <v>13500.0</v>
-      </c>
-      <c r="I175" s="6"/>
-      <c r="K175" s="16" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G176" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="H176" s="16">
-        <v>16600.0</v>
-      </c>
-      <c r="I176" s="6"/>
-      <c r="K176" s="16" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G177" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="H177" s="16">
-        <v>19900.0</v>
-      </c>
-      <c r="I177" s="6"/>
-      <c r="K177" s="16" t="s">
-        <v>515</v>
-      </c>
+      <c r="L177" s="5"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="B178" s="16" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G178" s="16" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="H178" s="16">
-        <v>19900.0</v>
+        <v>7850.0</v>
       </c>
       <c r="I178" s="6"/>
       <c r="K178" s="16" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="B179" s="16" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H179" s="16">
-        <v>19900.0</v>
+        <v>7850.0</v>
       </c>
       <c r="I179" s="6"/>
       <c r="K179" s="16" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="B180" s="16" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G180" s="16" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="H180" s="16">
-        <v>19900.0</v>
+        <v>7850.0</v>
       </c>
       <c r="I180" s="6"/>
       <c r="K180" s="16" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="B181" s="16" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="H181" s="16">
-        <v>27300.0</v>
+        <v>7850.0</v>
       </c>
       <c r="I181" s="6"/>
       <c r="K181" s="16" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="B182" s="16" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G182" s="16" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="H182" s="16">
-        <v>27300.0</v>
+        <v>10600.0</v>
       </c>
       <c r="I182" s="6"/>
       <c r="K182" s="16" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="B183" s="16" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="H183" s="16">
-        <v>12800.0</v>
+        <v>10850.0</v>
       </c>
       <c r="I183" s="6"/>
       <c r="K183" s="16" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="B184" s="16" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G184" s="16" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="H184" s="16">
-        <v>12800.0</v>
+        <v>10600.0</v>
       </c>
       <c r="I184" s="6"/>
       <c r="K184" s="16" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="B185" s="16" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G185" s="16" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="H185" s="16">
-        <v>12800.0</v>
+        <v>10850.0</v>
       </c>
       <c r="I185" s="6"/>
       <c r="K185" s="16" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="B186" s="16" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G186" s="16" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="H186" s="16">
-        <v>12800.0</v>
+        <v>13500.0</v>
       </c>
       <c r="I186" s="6"/>
       <c r="K186" s="16" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="B187" s="16" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="H187" s="16">
-        <v>12800.0</v>
+        <v>16600.0</v>
       </c>
       <c r="I187" s="6"/>
       <c r="K187" s="16" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="B188" s="16" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G188" s="16" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="H188" s="16">
-        <v>12800.0</v>
+        <v>19900.0</v>
       </c>
       <c r="I188" s="6"/>
       <c r="K188" s="16" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="B189" s="16" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G189" s="16" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="H189" s="16">
-        <v>16200.0</v>
+        <v>19900.0</v>
       </c>
       <c r="I189" s="6"/>
       <c r="K189" s="16" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="B190" s="16" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G190" s="16" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H190" s="16">
-        <v>16200.0</v>
+        <v>19900.0</v>
       </c>
       <c r="I190" s="6"/>
       <c r="K190" s="16" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="B191" s="16" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G191" s="16" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="H191" s="16">
-        <v>17300.0</v>
+        <v>19900.0</v>
       </c>
       <c r="I191" s="6"/>
       <c r="K191" s="16" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="B192" s="16" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G192" s="16" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="H192" s="16">
-        <v>17300.0</v>
+        <v>27300.0</v>
       </c>
       <c r="I192" s="6"/>
       <c r="K192" s="16" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="B193" s="16" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G193" s="16" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="H193" s="16">
-        <v>7800.0</v>
+        <v>27300.0</v>
       </c>
       <c r="I193" s="6"/>
       <c r="K193" s="16" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="B194" s="16" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G194" s="16" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="H194" s="16">
-        <v>11400.0</v>
+        <v>12800.0</v>
       </c>
       <c r="I194" s="6"/>
       <c r="K194" s="16" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="B195" s="16" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G195" s="16" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="H195" s="16">
-        <v>7800.0</v>
+        <v>12800.0</v>
       </c>
       <c r="I195" s="6"/>
       <c r="K195" s="16" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="B196" s="16" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G196" s="16" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="H196" s="16">
-        <v>11400.0</v>
+        <v>12800.0</v>
       </c>
       <c r="I196" s="6"/>
       <c r="K196" s="16" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="B197" s="16" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G197" s="16" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H197" s="16">
-        <v>7800.0</v>
+        <v>12800.0</v>
       </c>
       <c r="I197" s="6"/>
       <c r="K197" s="16" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="B198" s="16" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G198" s="16" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H198" s="16">
-        <v>11400.0</v>
+        <v>12800.0</v>
       </c>
       <c r="I198" s="6"/>
       <c r="K198" s="16" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="B199" s="16" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G199" s="16" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="H199" s="16">
-        <v>7800.0</v>
+        <v>12800.0</v>
       </c>
       <c r="I199" s="6"/>
       <c r="K199" s="16" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="B200" s="16" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G200" s="16" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="H200" s="16">
-        <v>11400.0</v>
+        <v>16200.0</v>
       </c>
       <c r="I200" s="6"/>
       <c r="K200" s="16" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="B201" s="16" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G201" s="16" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H201" s="16">
-        <v>7800.0</v>
+        <v>16200.0</v>
       </c>
       <c r="I201" s="6"/>
       <c r="K201" s="16" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="B202" s="16" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="H202" s="16">
-        <v>11400.0</v>
+        <v>17300.0</v>
       </c>
       <c r="I202" s="6"/>
       <c r="K202" s="16" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="B203" s="16" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G203" s="16" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="H203" s="16">
-        <v>7800.0</v>
+        <v>17300.0</v>
       </c>
       <c r="I203" s="6"/>
       <c r="K203" s="16" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="B204" s="16" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G204" s="16" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="H204" s="16">
-        <v>11400.0</v>
+        <v>7800.0</v>
       </c>
       <c r="I204" s="6"/>
       <c r="K204" s="16" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="B205" s="16" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G205" s="16" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="H205" s="16">
-        <v>7800.0</v>
+        <v>11400.0</v>
       </c>
       <c r="I205" s="6"/>
       <c r="K205" s="16" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="B206" s="16" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G206" s="16" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="H206" s="16">
-        <v>11400.0</v>
+        <v>7800.0</v>
       </c>
       <c r="I206" s="6"/>
       <c r="K206" s="16" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="B207" s="16" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G207" s="16" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="H207" s="16">
-        <v>8950.0</v>
+        <v>11400.0</v>
       </c>
       <c r="I207" s="6"/>
       <c r="K207" s="16" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="B208" s="16" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G208" s="16" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="H208" s="16">
-        <v>8950.0</v>
+        <v>7800.0</v>
       </c>
       <c r="I208" s="6"/>
       <c r="K208" s="16" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="B209" s="16" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G209" s="16" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="H209" s="16">
-        <v>8950.0</v>
+        <v>11400.0</v>
       </c>
       <c r="I209" s="6"/>
       <c r="K209" s="16" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="B210" s="16" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G210" s="16" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="H210" s="16">
         <v>7800.0</v>
       </c>
       <c r="I210" s="6"/>
       <c r="K210" s="16" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="B211" s="16" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G211" s="16" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="H211" s="16">
-        <v>7800.0</v>
+        <v>11400.0</v>
       </c>
       <c r="I211" s="6"/>
       <c r="K211" s="16" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="B212" s="16" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G212" s="16" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="H212" s="16">
         <v>7800.0</v>
       </c>
       <c r="I212" s="6"/>
       <c r="K212" s="16" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="B213" s="16" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F213" s="16"/>
       <c r="G213" s="16" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="H213" s="16">
-        <v>7400.0</v>
-      </c>
+        <v>11400.0</v>
+      </c>
+      <c r="I213" s="6"/>
       <c r="K213" s="16" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="B214" s="16" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F214" s="16"/>
       <c r="G214" s="16" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="H214" s="16">
-        <v>7400.0</v>
-      </c>
+        <v>7800.0</v>
+      </c>
+      <c r="I214" s="6"/>
       <c r="K214" s="16" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="B215" s="16" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F215" s="16"/>
       <c r="G215" s="16" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="H215" s="16">
-        <v>7400.0</v>
-      </c>
+        <v>11400.0</v>
+      </c>
+      <c r="I215" s="6"/>
       <c r="K215" s="16" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="B216" s="16" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F216" s="16"/>
       <c r="G216" s="16" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="H216" s="16">
-        <v>7400.0</v>
-      </c>
+        <v>7800.0</v>
+      </c>
+      <c r="I216" s="6"/>
       <c r="K216" s="16" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="B217" s="16" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F217" s="16"/>
       <c r="G217" s="16" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="H217" s="16">
-        <v>7400.0</v>
-      </c>
+        <v>11400.0</v>
+      </c>
+      <c r="I217" s="6"/>
       <c r="K217" s="16" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="B218" s="16" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F218" s="16"/>
       <c r="G218" s="16" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="H218" s="16">
-        <v>7400.0</v>
-      </c>
+        <v>8950.0</v>
+      </c>
+      <c r="I218" s="6"/>
       <c r="K218" s="16" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="B219" s="16" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F219" s="16"/>
       <c r="G219" s="16" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H219" s="16">
-        <v>10010.0</v>
+        <v>8950.0</v>
+      </c>
+      <c r="I219" s="6"/>
+      <c r="K219" s="16" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="B220" s="16" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F220" s="16"/>
       <c r="G220" s="16" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="H220" s="16">
-        <v>10010.0</v>
+        <v>8950.0</v>
+      </c>
+      <c r="I220" s="6"/>
+      <c r="K220" s="16" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="B221" s="16" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F221" s="16"/>
       <c r="G221" s="16" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H221" s="16">
-        <v>10010.0</v>
+        <v>7800.0</v>
+      </c>
+      <c r="I221" s="6"/>
+      <c r="K221" s="16" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="B222" s="16" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F222" s="16"/>
       <c r="G222" s="16" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H222" s="16">
-        <v>10010.0</v>
+        <v>7800.0</v>
+      </c>
+      <c r="I222" s="6"/>
+      <c r="K222" s="16" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="B223" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G223" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="H223" s="16">
+        <v>7800.0</v>
+      </c>
+      <c r="I223" s="6"/>
+      <c r="K223" s="16" t="s">
         <v>640</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F223" s="16"/>
-      <c r="G223" s="16" t="s">
-        <v>641</v>
-      </c>
-      <c r="H223" s="16">
-        <v>10010.0</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="B224" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F224" s="16"/>
       <c r="G224" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="H224" s="16">
+        <v>7400.0</v>
+      </c>
+      <c r="K224" s="16" t="s">
         <v>643</v>
-      </c>
-      <c r="H224" s="16">
-        <v>9310.0</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
@@ -10689,7 +10980,7 @@
         <v>644</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>15</v>
@@ -10699,7 +10990,10 @@
         <v>645</v>
       </c>
       <c r="H225" s="16">
-        <v>9310.0</v>
+        <v>7400.0</v>
+      </c>
+      <c r="K225" s="16" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
@@ -10707,7 +11001,7 @@
         <v>646</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>15</v>
@@ -10717,7 +11011,10 @@
         <v>647</v>
       </c>
       <c r="H226" s="16">
-        <v>9310.0</v>
+        <v>7400.0</v>
+      </c>
+      <c r="K226" s="16" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
@@ -10725,7 +11022,7 @@
         <v>648</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>15</v>
@@ -10735,7 +11032,10 @@
         <v>649</v>
       </c>
       <c r="H227" s="16">
-        <v>9310.0</v>
+        <v>7400.0</v>
+      </c>
+      <c r="K227" s="16" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
@@ -10743,7 +11043,7 @@
         <v>650</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>15</v>
@@ -10753,7 +11053,10 @@
         <v>651</v>
       </c>
       <c r="H228" s="16">
-        <v>7170.0</v>
+        <v>7400.0</v>
+      </c>
+      <c r="K228" s="16" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
@@ -10761,7 +11064,7 @@
         <v>652</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>15</v>
@@ -10771,7 +11074,10 @@
         <v>653</v>
       </c>
       <c r="H229" s="16">
-        <v>7170.0</v>
+        <v>7400.0</v>
+      </c>
+      <c r="K229" s="16" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
@@ -10779,7 +11085,7 @@
         <v>654</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>15</v>
@@ -10789,7 +11095,7 @@
         <v>655</v>
       </c>
       <c r="H230" s="16">
-        <v>7170.0</v>
+        <v>10010.0</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
@@ -10797,7 +11103,7 @@
         <v>656</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>15</v>
@@ -10807,7 +11113,7 @@
         <v>657</v>
       </c>
       <c r="H231" s="16">
-        <v>7170.0</v>
+        <v>10010.0</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
@@ -10815,7 +11121,7 @@
         <v>658</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>15</v>
@@ -10825,7 +11131,7 @@
         <v>659</v>
       </c>
       <c r="H232" s="16">
-        <v>7170.0</v>
+        <v>10010.0</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
@@ -10833,7 +11139,7 @@
         <v>660</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>15</v>
@@ -10843,7 +11149,7 @@
         <v>661</v>
       </c>
       <c r="H233" s="16">
-        <v>7170.0</v>
+        <v>10010.0</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
@@ -10851,7 +11157,7 @@
         <v>662</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>15</v>
@@ -10861,7 +11167,7 @@
         <v>663</v>
       </c>
       <c r="H234" s="16">
-        <v>7400.0</v>
+        <v>10010.0</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
@@ -10869,7 +11175,7 @@
         <v>664</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>15</v>
@@ -10879,7 +11185,7 @@
         <v>665</v>
       </c>
       <c r="H235" s="16">
-        <v>7400.0</v>
+        <v>9310.0</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
@@ -10887,7 +11193,7 @@
         <v>666</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>15</v>
@@ -10897,7 +11203,7 @@
         <v>667</v>
       </c>
       <c r="H236" s="16">
-        <v>7400.0</v>
+        <v>9310.0</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
@@ -10905,7 +11211,7 @@
         <v>668</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>15</v>
@@ -10915,7 +11221,7 @@
         <v>669</v>
       </c>
       <c r="H237" s="16">
-        <v>7400.0</v>
+        <v>9310.0</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
@@ -10923,7 +11229,7 @@
         <v>670</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>15</v>
@@ -10933,7 +11239,7 @@
         <v>671</v>
       </c>
       <c r="H238" s="16">
-        <v>7400.0</v>
+        <v>9310.0</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
@@ -10941,7 +11247,7 @@
         <v>672</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>15</v>
@@ -10951,7 +11257,7 @@
         <v>673</v>
       </c>
       <c r="H239" s="16">
-        <v>7400.0</v>
+        <v>7170.0</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
@@ -10959,7 +11265,7 @@
         <v>674</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>15</v>
@@ -10969,7 +11275,7 @@
         <v>675</v>
       </c>
       <c r="H240" s="16">
-        <v>8330.0</v>
+        <v>7170.0</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
@@ -10977,7 +11283,7 @@
         <v>676</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>15</v>
@@ -10987,7 +11293,7 @@
         <v>677</v>
       </c>
       <c r="H241" s="16">
-        <v>8330.0</v>
+        <v>7170.0</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
@@ -10995,7 +11301,7 @@
         <v>678</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>15</v>
@@ -11005,7 +11311,7 @@
         <v>679</v>
       </c>
       <c r="H242" s="16">
-        <v>8330.0</v>
+        <v>7170.0</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
@@ -11013,7 +11319,7 @@
         <v>680</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>15</v>
@@ -11023,7 +11329,7 @@
         <v>681</v>
       </c>
       <c r="H243" s="16">
-        <v>8330.0</v>
+        <v>7170.0</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
@@ -11031,7 +11337,7 @@
         <v>682</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>15</v>
@@ -11041,7 +11347,7 @@
         <v>683</v>
       </c>
       <c r="H244" s="16">
-        <v>8330.0</v>
+        <v>7170.0</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
@@ -11049,7 +11355,7 @@
         <v>684</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>15</v>
@@ -11059,7 +11365,7 @@
         <v>685</v>
       </c>
       <c r="H245" s="16">
-        <v>8330.0</v>
+        <v>7400.0</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
@@ -11067,7 +11373,7 @@
         <v>686</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>15</v>
@@ -11077,205 +11383,205 @@
         <v>687</v>
       </c>
       <c r="H246" s="16">
-        <v>8330.0</v>
+        <v>7400.0</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="B247" s="16" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F247" s="16"/>
       <c r="G247" s="16" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H247" s="16">
-        <v>8330.0</v>
+        <v>7400.0</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="B248" s="16" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F248" s="16"/>
       <c r="G248" s="16" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H248" s="16">
-        <v>9310.0</v>
+        <v>7400.0</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="B249" s="16" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F249" s="16"/>
       <c r="G249" s="16" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H249" s="16">
-        <v>9310.0</v>
+        <v>7400.0</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="B250" s="16" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F250" s="16"/>
       <c r="G250" s="16" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H250" s="16">
-        <v>9310.0</v>
+        <v>7400.0</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="B251" s="16" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F251" s="16"/>
       <c r="G251" s="16" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H251" s="16">
-        <v>9310.0</v>
+        <v>8330.0</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="B252" s="16" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F252" s="16"/>
       <c r="G252" s="16" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H252" s="16">
-        <v>9310.0</v>
+        <v>8330.0</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="B253" s="16" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F253" s="16"/>
       <c r="G253" s="16" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H253" s="16">
-        <v>9310.0</v>
+        <v>8330.0</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="B254" s="16" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F254" s="16"/>
       <c r="G254" s="16" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H254" s="16">
-        <v>9810.0</v>
+        <v>8330.0</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="B255" s="16" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F255" s="16"/>
       <c r="G255" s="16" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H255" s="16">
-        <v>9810.0</v>
+        <v>8330.0</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="B256" s="16" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F256" s="16"/>
       <c r="G256" s="16" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H256" s="16">
-        <v>9810.0</v>
+        <v>8330.0</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="B257" s="16" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F257" s="16"/>
       <c r="G257" s="16" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H257" s="16">
-        <v>9810.0</v>
+        <v>8330.0</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
@@ -11283,7 +11589,7 @@
         <v>708</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>15</v>
@@ -11293,7 +11599,7 @@
         <v>709</v>
       </c>
       <c r="H258" s="16">
-        <v>9810.0</v>
+        <v>8330.0</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
@@ -11301,7 +11607,7 @@
         <v>710</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>15</v>
@@ -11311,7 +11617,7 @@
         <v>711</v>
       </c>
       <c r="H259" s="16">
-        <v>10950.0</v>
+        <v>9310.0</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
@@ -11319,7 +11625,7 @@
         <v>712</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>15</v>
@@ -11329,7 +11635,7 @@
         <v>713</v>
       </c>
       <c r="H260" s="16">
-        <v>10950.0</v>
+        <v>9310.0</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
@@ -11337,7 +11643,7 @@
         <v>714</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>15</v>
@@ -11347,7 +11653,7 @@
         <v>715</v>
       </c>
       <c r="H261" s="16">
-        <v>10950.0</v>
+        <v>9310.0</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
@@ -11355,7 +11661,7 @@
         <v>716</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>15</v>
@@ -11365,7 +11671,7 @@
         <v>717</v>
       </c>
       <c r="H262" s="16">
-        <v>9240.0</v>
+        <v>9310.0</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
@@ -11373,7 +11679,7 @@
         <v>718</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>15</v>
@@ -11383,7 +11689,7 @@
         <v>719</v>
       </c>
       <c r="H263" s="16">
-        <v>9240.0</v>
+        <v>9310.0</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
@@ -11391,7 +11697,7 @@
         <v>720</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>15</v>
@@ -11401,7 +11707,7 @@
         <v>721</v>
       </c>
       <c r="H264" s="16">
-        <v>9240.0</v>
+        <v>9310.0</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
@@ -11409,7 +11715,7 @@
         <v>722</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>15</v>
@@ -11419,7 +11725,7 @@
         <v>723</v>
       </c>
       <c r="H265" s="16">
-        <v>9240.0</v>
+        <v>9810.0</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
@@ -11427,7 +11733,7 @@
         <v>724</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>15</v>
@@ -11437,7 +11743,7 @@
         <v>725</v>
       </c>
       <c r="H266" s="16">
-        <v>9240.0</v>
+        <v>9810.0</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
@@ -11445,7 +11751,7 @@
         <v>726</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>15</v>
@@ -11455,7 +11761,7 @@
         <v>727</v>
       </c>
       <c r="H267" s="16">
-        <v>9240.0</v>
+        <v>9810.0</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
@@ -11463,7 +11769,7 @@
         <v>728</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>15</v>
@@ -11473,7 +11779,7 @@
         <v>729</v>
       </c>
       <c r="H268" s="16">
-        <v>9240.0</v>
+        <v>9810.0</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
@@ -11481,7 +11787,7 @@
         <v>730</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>15</v>
@@ -11491,7 +11797,7 @@
         <v>731</v>
       </c>
       <c r="H269" s="16">
-        <v>9240.0</v>
+        <v>9810.0</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
@@ -11499,7 +11805,7 @@
         <v>732</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>15</v>
@@ -11509,7 +11815,7 @@
         <v>733</v>
       </c>
       <c r="H270" s="16">
-        <v>9240.0</v>
+        <v>10950.0</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
@@ -11517,7 +11823,7 @@
         <v>734</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>15</v>
@@ -11527,7 +11833,7 @@
         <v>735</v>
       </c>
       <c r="H271" s="16">
-        <v>9240.0</v>
+        <v>10950.0</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
@@ -11535,7 +11841,7 @@
         <v>736</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>15</v>
@@ -11545,7 +11851,7 @@
         <v>737</v>
       </c>
       <c r="H272" s="16">
-        <v>9240.0</v>
+        <v>10950.0</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
@@ -11553,7 +11859,7 @@
         <v>738</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>15</v>
@@ -11563,7 +11869,7 @@
         <v>739</v>
       </c>
       <c r="H273" s="16">
-        <v>10490.0</v>
+        <v>9240.0</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
@@ -11571,7 +11877,7 @@
         <v>740</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>15</v>
@@ -11581,7 +11887,7 @@
         <v>741</v>
       </c>
       <c r="H274" s="16">
-        <v>10490.0</v>
+        <v>9240.0</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
@@ -11589,7 +11895,7 @@
         <v>742</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>15</v>
@@ -11599,7 +11905,7 @@
         <v>743</v>
       </c>
       <c r="H275" s="16">
-        <v>10490.0</v>
+        <v>9240.0</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
@@ -11607,7 +11913,7 @@
         <v>744</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>15</v>
@@ -11617,7 +11923,7 @@
         <v>745</v>
       </c>
       <c r="H276" s="16">
-        <v>9130.0</v>
+        <v>9240.0</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
@@ -11625,7 +11931,7 @@
         <v>746</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>15</v>
@@ -11635,7 +11941,7 @@
         <v>747</v>
       </c>
       <c r="H277" s="16">
-        <v>9130.0</v>
+        <v>9240.0</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
@@ -11643,7 +11949,7 @@
         <v>748</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>15</v>
@@ -11653,7 +11959,7 @@
         <v>749</v>
       </c>
       <c r="H278" s="16">
-        <v>9130.0</v>
+        <v>9240.0</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
@@ -11661,7 +11967,7 @@
         <v>750</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>15</v>
@@ -11671,7 +11977,7 @@
         <v>751</v>
       </c>
       <c r="H279" s="16">
-        <v>9130.0</v>
+        <v>9240.0</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
@@ -11679,7 +11985,7 @@
         <v>752</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>15</v>
@@ -11697,7 +12003,7 @@
         <v>754</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>15</v>
@@ -11715,7 +12021,7 @@
         <v>756</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>15</v>
@@ -11733,7 +12039,7 @@
         <v>758</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>15</v>
@@ -11751,7 +12057,7 @@
         <v>760</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>15</v>
@@ -11761,7 +12067,7 @@
         <v>761</v>
       </c>
       <c r="H284" s="16">
-        <v>10950.0</v>
+        <v>10490.0</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
@@ -11769,7 +12075,7 @@
         <v>762</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>15</v>
@@ -11779,7 +12085,7 @@
         <v>763</v>
       </c>
       <c r="H285" s="16">
-        <v>10950.0</v>
+        <v>10490.0</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
@@ -11787,7 +12093,7 @@
         <v>764</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>15</v>
@@ -11797,7 +12103,7 @@
         <v>765</v>
       </c>
       <c r="H286" s="16">
-        <v>10950.0</v>
+        <v>10490.0</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
@@ -11805,7 +12111,7 @@
         <v>766</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>15</v>
@@ -11815,7 +12121,7 @@
         <v>767</v>
       </c>
       <c r="H287" s="16">
-        <v>8130.0</v>
+        <v>9130.0</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
@@ -11823,7 +12129,7 @@
         <v>768</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>15</v>
@@ -11833,7 +12139,7 @@
         <v>769</v>
       </c>
       <c r="H288" s="16">
-        <v>8130.0</v>
+        <v>9130.0</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
@@ -11841,7 +12147,7 @@
         <v>770</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>15</v>
@@ -11851,7 +12157,7 @@
         <v>771</v>
       </c>
       <c r="H289" s="16">
-        <v>8130.0</v>
+        <v>9130.0</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
@@ -11859,7 +12165,7 @@
         <v>772</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>15</v>
@@ -11869,7 +12175,7 @@
         <v>773</v>
       </c>
       <c r="H290" s="16">
-        <v>10450.0</v>
+        <v>9130.0</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
@@ -11877,7 +12183,7 @@
         <v>774</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>15</v>
@@ -11887,7 +12193,7 @@
         <v>775</v>
       </c>
       <c r="H291" s="16">
-        <v>10340.0</v>
+        <v>9240.0</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
@@ -11895,7 +12201,7 @@
         <v>776</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>15</v>
@@ -11905,7 +12211,7 @@
         <v>777</v>
       </c>
       <c r="H292" s="16">
-        <v>10520.0</v>
+        <v>9240.0</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
@@ -11913,7 +12219,7 @@
         <v>778</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>15</v>
@@ -11923,7 +12229,7 @@
         <v>779</v>
       </c>
       <c r="H293" s="16">
-        <v>9950.0</v>
+        <v>9240.0</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
@@ -11931,7 +12237,7 @@
         <v>780</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>15</v>
@@ -11941,7 +12247,7 @@
         <v>781</v>
       </c>
       <c r="H294" s="16">
-        <v>4480.0</v>
+        <v>9240.0</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
@@ -11949,7 +12255,7 @@
         <v>782</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>15</v>
@@ -11959,7 +12265,7 @@
         <v>783</v>
       </c>
       <c r="H295" s="16">
-        <v>4480.0</v>
+        <v>10950.0</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
@@ -11967,7 +12273,7 @@
         <v>784</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>15</v>
@@ -11977,7 +12283,7 @@
         <v>785</v>
       </c>
       <c r="H296" s="16">
-        <v>4480.0</v>
+        <v>10950.0</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
@@ -11985,7 +12291,7 @@
         <v>786</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>15</v>
@@ -11995,7 +12301,7 @@
         <v>787</v>
       </c>
       <c r="H297" s="16">
-        <v>4480.0</v>
+        <v>10950.0</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
@@ -12003,7 +12309,7 @@
         <v>788</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>15</v>
@@ -12013,7 +12319,7 @@
         <v>789</v>
       </c>
       <c r="H298" s="16">
-        <v>4480.0</v>
+        <v>8130.0</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
@@ -12021,7 +12327,7 @@
         <v>790</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>15</v>
@@ -12031,7 +12337,7 @@
         <v>791</v>
       </c>
       <c r="H299" s="16">
-        <v>4480.0</v>
+        <v>8130.0</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
@@ -12039,7 +12345,7 @@
         <v>792</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>15</v>
@@ -12049,7 +12355,7 @@
         <v>793</v>
       </c>
       <c r="H300" s="16">
-        <v>4480.0</v>
+        <v>8130.0</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
@@ -12057,7 +12363,7 @@
         <v>794</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>15</v>
@@ -12067,7 +12373,7 @@
         <v>795</v>
       </c>
       <c r="H301" s="16">
-        <v>4480.0</v>
+        <v>10450.0</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
@@ -12075,7 +12381,7 @@
         <v>796</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>15</v>
@@ -12085,7 +12391,7 @@
         <v>797</v>
       </c>
       <c r="H302" s="16">
-        <v>4480.0</v>
+        <v>10340.0</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
@@ -12093,7 +12399,7 @@
         <v>798</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>15</v>
@@ -12103,7 +12409,7 @@
         <v>799</v>
       </c>
       <c r="H303" s="16">
-        <v>10250.0</v>
+        <v>10520.0</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
@@ -12111,7 +12417,7 @@
         <v>800</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>15</v>
@@ -12121,7 +12427,7 @@
         <v>801</v>
       </c>
       <c r="H304" s="16">
-        <v>10250.0</v>
+        <v>9950.0</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
@@ -12129,7 +12435,7 @@
         <v>802</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>15</v>
@@ -12139,7 +12445,7 @@
         <v>803</v>
       </c>
       <c r="H305" s="16">
-        <v>10250.0</v>
+        <v>4480.0</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
@@ -12147,7 +12453,7 @@
         <v>804</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>15</v>
@@ -12157,7 +12463,7 @@
         <v>805</v>
       </c>
       <c r="H306" s="16">
-        <v>10250.0</v>
+        <v>4480.0</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
@@ -12165,7 +12471,7 @@
         <v>806</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>15</v>
@@ -12175,7 +12481,7 @@
         <v>807</v>
       </c>
       <c r="H307" s="16">
-        <v>12000.0</v>
+        <v>4480.0</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
@@ -12183,7 +12489,7 @@
         <v>808</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>15</v>
@@ -12193,7 +12499,7 @@
         <v>809</v>
       </c>
       <c r="H308" s="16">
-        <v>12000.0</v>
+        <v>4480.0</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
@@ -12201,7 +12507,7 @@
         <v>810</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>15</v>
@@ -12211,7 +12517,7 @@
         <v>811</v>
       </c>
       <c r="H309" s="16">
-        <v>5200.0</v>
+        <v>4480.0</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
@@ -12219,7 +12525,7 @@
         <v>812</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>15</v>
@@ -12229,7 +12535,7 @@
         <v>813</v>
       </c>
       <c r="H310" s="16">
-        <v>5200.0</v>
+        <v>4480.0</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
@@ -12237,7 +12543,7 @@
         <v>814</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>15</v>
@@ -12247,7 +12553,7 @@
         <v>815</v>
       </c>
       <c r="H311" s="16">
-        <v>5200.0</v>
+        <v>4480.0</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
@@ -12255,7 +12561,7 @@
         <v>816</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>15</v>
@@ -12265,7 +12571,7 @@
         <v>817</v>
       </c>
       <c r="H312" s="16">
-        <v>4960.0</v>
+        <v>4480.0</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
@@ -12273,7 +12579,7 @@
         <v>818</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>15</v>
@@ -12283,7 +12589,7 @@
         <v>819</v>
       </c>
       <c r="H313" s="16">
-        <v>5400.0</v>
+        <v>4480.0</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
@@ -12291,7 +12597,7 @@
         <v>820</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>15</v>
@@ -12301,7 +12607,7 @@
         <v>821</v>
       </c>
       <c r="H314" s="16">
-        <v>5700.0</v>
+        <v>10250.0</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
@@ -12309,7 +12615,7 @@
         <v>822</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>15</v>
@@ -12319,7 +12625,7 @@
         <v>823</v>
       </c>
       <c r="H315" s="16">
-        <v>5700.0</v>
+        <v>10250.0</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
@@ -12327,7 +12633,7 @@
         <v>824</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>15</v>
@@ -12337,7 +12643,7 @@
         <v>825</v>
       </c>
       <c r="H316" s="16">
-        <v>5700.0</v>
+        <v>10250.0</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
@@ -12345,7 +12651,7 @@
         <v>826</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>15</v>
@@ -12355,7 +12661,7 @@
         <v>827</v>
       </c>
       <c r="H317" s="16">
-        <v>5700.0</v>
+        <v>10250.0</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
@@ -12363,7 +12669,7 @@
         <v>828</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>15</v>
@@ -12373,7 +12679,7 @@
         <v>829</v>
       </c>
       <c r="H318" s="16">
-        <v>9540.0</v>
+        <v>12000.0</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
@@ -12381,7 +12687,7 @@
         <v>830</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>15</v>
@@ -12391,7 +12697,7 @@
         <v>831</v>
       </c>
       <c r="H319" s="16">
-        <v>9540.0</v>
+        <v>12000.0</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
@@ -12399,7 +12705,7 @@
         <v>832</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>15</v>
@@ -12409,7 +12715,7 @@
         <v>833</v>
       </c>
       <c r="H320" s="16">
-        <v>8150.0</v>
+        <v>5200.0</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
@@ -12417,7 +12723,7 @@
         <v>834</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>15</v>
@@ -12427,7 +12733,7 @@
         <v>835</v>
       </c>
       <c r="H321" s="16">
-        <v>8150.0</v>
+        <v>5200.0</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
@@ -12435,7 +12741,7 @@
         <v>836</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>15</v>
@@ -12445,7 +12751,7 @@
         <v>837</v>
       </c>
       <c r="H322" s="16">
-        <v>8150.0</v>
+        <v>5200.0</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
@@ -12453,7 +12759,7 @@
         <v>838</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>15</v>
@@ -12463,7 +12769,7 @@
         <v>839</v>
       </c>
       <c r="H323" s="16">
-        <v>8150.0</v>
+        <v>4960.0</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
@@ -12471,7 +12777,7 @@
         <v>840</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>15</v>
@@ -12481,7 +12787,7 @@
         <v>841</v>
       </c>
       <c r="H324" s="16">
-        <v>8150.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
@@ -12489,7 +12795,7 @@
         <v>842</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>15</v>
@@ -12499,7 +12805,7 @@
         <v>843</v>
       </c>
       <c r="H325" s="16">
-        <v>8650.0</v>
+        <v>5700.0</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
@@ -12507,7 +12813,7 @@
         <v>844</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>15</v>
@@ -12517,7 +12823,7 @@
         <v>845</v>
       </c>
       <c r="H326" s="16">
-        <v>8650.0</v>
+        <v>5700.0</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
@@ -12525,7 +12831,7 @@
         <v>846</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>15</v>
@@ -12535,7 +12841,7 @@
         <v>847</v>
       </c>
       <c r="H327" s="16">
-        <v>8750.0</v>
+        <v>5700.0</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
@@ -12543,7 +12849,7 @@
         <v>848</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>15</v>
@@ -12553,7 +12859,7 @@
         <v>849</v>
       </c>
       <c r="H328" s="16">
-        <v>8750.0</v>
+        <v>5700.0</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
@@ -12561,7 +12867,7 @@
         <v>850</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>15</v>
@@ -12571,213 +12877,213 @@
         <v>851</v>
       </c>
       <c r="H329" s="16">
-        <v>8750.0</v>
+        <v>9540.0</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="B330" s="16" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F330" s="16"/>
       <c r="G330" s="16" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H330" s="16">
-        <v>8750.0</v>
+        <v>9540.0</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="B331" s="16" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F331" s="16"/>
       <c r="G331" s="16" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H331" s="16">
-        <v>9160.0</v>
+        <v>8150.0</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="B332" s="16" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F332" s="16"/>
       <c r="G332" s="16" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H332" s="16">
-        <v>9160.0</v>
+        <v>8150.0</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="B333" s="16" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F333" s="16"/>
       <c r="G333" s="16" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H333" s="16">
-        <v>9160.0</v>
+        <v>8150.0</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="B334" s="16" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F334" s="16"/>
       <c r="G334" s="16" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H334" s="16">
-        <v>9390.0</v>
+        <v>8150.0</v>
       </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="B335" s="16" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F335" s="16"/>
       <c r="G335" s="16" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H335" s="16">
-        <v>9390.0</v>
+        <v>8150.0</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="B336" s="16" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F336" s="16"/>
       <c r="G336" s="16" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H336" s="16">
-        <v>9390.0</v>
+        <v>8650.0</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="B337" s="16" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F337" s="16"/>
       <c r="G337" s="16" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H337" s="16">
-        <v>9260.0</v>
+        <v>8650.0</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="B338" s="16" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F338" s="16"/>
       <c r="G338" s="16" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H338" s="16">
-        <v>9260.0</v>
+        <v>8750.0</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="B339" s="16" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F339" s="16"/>
       <c r="G339" s="16" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H339" s="16">
-        <v>9260.0</v>
+        <v>8750.0</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="B340" s="16" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F340" s="16"/>
       <c r="G340" s="16" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H340" s="16">
-        <v>9490.0</v>
+        <v>8750.0</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="B341" s="16" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>15</v>
@@ -12787,7 +13093,7 @@
         <v>874</v>
       </c>
       <c r="H341" s="16">
-        <v>9490.0</v>
+        <v>8750.0</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
@@ -12795,7 +13101,7 @@
         <v>875</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>15</v>
@@ -12805,7 +13111,7 @@
         <v>876</v>
       </c>
       <c r="H342" s="16">
-        <v>9490.0</v>
+        <v>9160.0</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
@@ -12813,7 +13119,7 @@
         <v>877</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>15</v>
@@ -12823,15 +13129,15 @@
         <v>878</v>
       </c>
       <c r="H343" s="16">
-        <v>5300.0</v>
-      </c>
-    </row>
-    <row r="344" ht="17.25" customHeight="1">
+        <v>9160.0</v>
+      </c>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
       <c r="B344" s="16" t="s">
         <v>879</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>15</v>
@@ -12841,15 +13147,15 @@
         <v>880</v>
       </c>
       <c r="H344" s="16">
-        <v>5300.0</v>
-      </c>
-    </row>
-    <row r="345" ht="15.0" customHeight="1">
+        <v>9160.0</v>
+      </c>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
       <c r="B345" s="16" t="s">
         <v>881</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>15</v>
@@ -12859,7 +13165,7 @@
         <v>882</v>
       </c>
       <c r="H345" s="16">
-        <v>5300.0</v>
+        <v>9390.0</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
@@ -12867,7 +13173,7 @@
         <v>883</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>15</v>
@@ -12877,15 +13183,15 @@
         <v>884</v>
       </c>
       <c r="H346" s="16">
-        <v>5300.0</v>
-      </c>
-    </row>
-    <row r="347" ht="17.25" customHeight="1">
+        <v>9390.0</v>
+      </c>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
       <c r="B347" s="16" t="s">
         <v>885</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>15</v>
@@ -12895,7 +13201,7 @@
         <v>886</v>
       </c>
       <c r="H347" s="16">
-        <v>5300.0</v>
+        <v>9390.0</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
@@ -12903,7 +13209,7 @@
         <v>887</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>15</v>
@@ -12913,15 +13219,15 @@
         <v>888</v>
       </c>
       <c r="H348" s="16">
-        <v>5300.0</v>
-      </c>
-    </row>
-    <row r="349" ht="17.25" customHeight="1">
+        <v>9260.0</v>
+      </c>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
       <c r="B349" s="16" t="s">
         <v>889</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>15</v>
@@ -12931,15 +13237,15 @@
         <v>890</v>
       </c>
       <c r="H349" s="16">
-        <v>5300.0</v>
-      </c>
-    </row>
-    <row r="350" ht="15.0" customHeight="1">
+        <v>9260.0</v>
+      </c>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
       <c r="B350" s="16" t="s">
         <v>891</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>15</v>
@@ -12949,7 +13255,7 @@
         <v>892</v>
       </c>
       <c r="H350" s="16">
-        <v>5300.0</v>
+        <v>9260.0</v>
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1">
@@ -12957,7 +13263,7 @@
         <v>893</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>15</v>
@@ -12967,15 +13273,15 @@
         <v>894</v>
       </c>
       <c r="H351" s="16">
-        <v>5300.0</v>
-      </c>
-    </row>
-    <row r="352" ht="17.25" customHeight="1">
+        <v>9490.0</v>
+      </c>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
       <c r="B352" s="16" t="s">
         <v>895</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>15</v>
@@ -12985,7 +13291,7 @@
         <v>896</v>
       </c>
       <c r="H352" s="16">
-        <v>5300.0</v>
+        <v>9490.0</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
@@ -12993,7 +13299,7 @@
         <v>897</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>15</v>
@@ -13003,15 +13309,15 @@
         <v>898</v>
       </c>
       <c r="H353" s="16">
-        <v>5300.0</v>
-      </c>
-    </row>
-    <row r="354" ht="17.25" customHeight="1">
+        <v>9490.0</v>
+      </c>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
       <c r="B354" s="16" t="s">
         <v>899</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>15</v>
@@ -13024,12 +13330,12 @@
         <v>5300.0</v>
       </c>
     </row>
-    <row r="355" ht="15.0" customHeight="1">
+    <row r="355" ht="17.25" customHeight="1">
       <c r="B355" s="16" t="s">
         <v>901</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>15</v>
@@ -13042,12 +13348,12 @@
         <v>5300.0</v>
       </c>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" ht="15.0" customHeight="1">
       <c r="B356" s="16" t="s">
         <v>903</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>15</v>
@@ -13060,12 +13366,12 @@
         <v>5300.0</v>
       </c>
     </row>
-    <row r="357" ht="17.25" customHeight="1">
+    <row r="357" ht="15.75" customHeight="1">
       <c r="B357" s="16" t="s">
         <v>905</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>15</v>
@@ -13078,12 +13384,12 @@
         <v>5300.0</v>
       </c>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" ht="17.25" customHeight="1">
       <c r="B358" s="16" t="s">
         <v>907</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>15</v>
@@ -13096,12 +13402,12 @@
         <v>5300.0</v>
       </c>
     </row>
-    <row r="359" ht="17.25" customHeight="1">
+    <row r="359" ht="15.75" customHeight="1">
       <c r="B359" s="16" t="s">
         <v>909</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>15</v>
@@ -13114,12 +13420,12 @@
         <v>5300.0</v>
       </c>
     </row>
-    <row r="360" ht="15.0" customHeight="1">
+    <row r="360" ht="17.25" customHeight="1">
       <c r="B360" s="16" t="s">
         <v>911</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>15</v>
@@ -13137,7 +13443,7 @@
         <v>913</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>15</v>
@@ -13155,7 +13461,7 @@
         <v>915</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>15</v>
@@ -13168,12 +13474,12 @@
         <v>5300.0</v>
       </c>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" ht="15.0" customHeight="1">
       <c r="B363" s="16" t="s">
         <v>917</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>15</v>
@@ -13186,12 +13492,12 @@
         <v>5300.0</v>
       </c>
     </row>
-    <row r="364" ht="17.25" customHeight="1">
+    <row r="364" ht="15.75" customHeight="1">
       <c r="B364" s="16" t="s">
         <v>919</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>15</v>
@@ -13204,12 +13510,12 @@
         <v>5300.0</v>
       </c>
     </row>
-    <row r="365" ht="15.0" customHeight="1">
+    <row r="365" ht="17.25" customHeight="1">
       <c r="B365" s="16" t="s">
         <v>921</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>15</v>
@@ -13227,7 +13533,7 @@
         <v>923</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>15</v>
@@ -13245,7 +13551,7 @@
         <v>925</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>15</v>
@@ -13258,12 +13564,12 @@
         <v>5300.0</v>
       </c>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" ht="15.0" customHeight="1">
       <c r="B368" s="16" t="s">
         <v>927</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>15</v>
@@ -13273,7 +13579,7 @@
         <v>928</v>
       </c>
       <c r="H368" s="16">
-        <v>4980.0</v>
+        <v>5300.0</v>
       </c>
     </row>
     <row r="369" ht="15.75" customHeight="1">
@@ -13281,7 +13587,7 @@
         <v>929</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>15</v>
@@ -13291,15 +13597,15 @@
         <v>930</v>
       </c>
       <c r="H369" s="16">
-        <v>4980.0</v>
-      </c>
-    </row>
-    <row r="370" ht="15.75" customHeight="1">
+        <v>5300.0</v>
+      </c>
+    </row>
+    <row r="370" ht="17.25" customHeight="1">
       <c r="B370" s="16" t="s">
         <v>931</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D370" s="3" t="s">
         <v>15</v>
@@ -13309,7 +13615,7 @@
         <v>932</v>
       </c>
       <c r="H370" s="16">
-        <v>4980.0</v>
+        <v>5300.0</v>
       </c>
     </row>
     <row r="371" ht="15.75" customHeight="1">
@@ -13317,7 +13623,7 @@
         <v>933</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>15</v>
@@ -13327,15 +13633,15 @@
         <v>934</v>
       </c>
       <c r="H371" s="16">
-        <v>7640.0</v>
-      </c>
-    </row>
-    <row r="372" ht="15.75" customHeight="1">
+        <v>5300.0</v>
+      </c>
+    </row>
+    <row r="372" ht="17.25" customHeight="1">
       <c r="B372" s="16" t="s">
         <v>935</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>15</v>
@@ -13345,15 +13651,15 @@
         <v>936</v>
       </c>
       <c r="H372" s="16">
-        <v>7640.0</v>
-      </c>
-    </row>
-    <row r="373" ht="15.75" customHeight="1">
+        <v>5300.0</v>
+      </c>
+    </row>
+    <row r="373" ht="15.0" customHeight="1">
       <c r="B373" s="16" t="s">
         <v>937</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>15</v>
@@ -13363,7 +13669,7 @@
         <v>938</v>
       </c>
       <c r="H373" s="16">
-        <v>7640.0</v>
+        <v>5300.0</v>
       </c>
     </row>
     <row r="374" ht="15.75" customHeight="1">
@@ -13371,7 +13677,7 @@
         <v>939</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D374" s="3" t="s">
         <v>15</v>
@@ -13381,15 +13687,15 @@
         <v>940</v>
       </c>
       <c r="H374" s="16">
-        <v>7640.0</v>
-      </c>
-    </row>
-    <row r="375" ht="15.75" customHeight="1">
+        <v>5300.0</v>
+      </c>
+    </row>
+    <row r="375" ht="17.25" customHeight="1">
       <c r="B375" s="16" t="s">
         <v>941</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>15</v>
@@ -13399,7 +13705,7 @@
         <v>942</v>
       </c>
       <c r="H375" s="16">
-        <v>7640.0</v>
+        <v>5300.0</v>
       </c>
     </row>
     <row r="376" ht="15.75" customHeight="1">
@@ -13407,7 +13713,7 @@
         <v>943</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>15</v>
@@ -13417,7 +13723,7 @@
         <v>944</v>
       </c>
       <c r="H376" s="16">
-        <v>7640.0</v>
+        <v>4980.0</v>
       </c>
     </row>
     <row r="377" ht="15.75" customHeight="1">
@@ -13425,7 +13731,7 @@
         <v>945</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>15</v>
@@ -13435,7 +13741,7 @@
         <v>946</v>
       </c>
       <c r="H377" s="16">
-        <v>5990.0</v>
+        <v>4980.0</v>
       </c>
     </row>
     <row r="378" ht="15.75" customHeight="1">
@@ -13443,7 +13749,7 @@
         <v>947</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>15</v>
@@ -13453,7 +13759,7 @@
         <v>948</v>
       </c>
       <c r="H378" s="16">
-        <v>5990.0</v>
+        <v>4980.0</v>
       </c>
     </row>
     <row r="379" ht="15.75" customHeight="1">
@@ -13461,7 +13767,7 @@
         <v>949</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>15</v>
@@ -13471,7 +13777,7 @@
         <v>950</v>
       </c>
       <c r="H379" s="16">
-        <v>5990.0</v>
+        <v>7640.0</v>
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1">
@@ -13479,7 +13785,7 @@
         <v>951</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>15</v>
@@ -13489,7 +13795,7 @@
         <v>952</v>
       </c>
       <c r="H380" s="16">
-        <v>5990.0</v>
+        <v>7640.0</v>
       </c>
     </row>
     <row r="381" ht="15.75" customHeight="1">
@@ -13497,7 +13803,7 @@
         <v>953</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>15</v>
@@ -13507,7 +13813,7 @@
         <v>954</v>
       </c>
       <c r="H381" s="16">
-        <v>5990.0</v>
+        <v>7640.0</v>
       </c>
     </row>
     <row r="382" ht="15.75" customHeight="1">
@@ -13515,7 +13821,7 @@
         <v>955</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>15</v>
@@ -13525,7 +13831,7 @@
         <v>956</v>
       </c>
       <c r="H382" s="16">
-        <v>5990.0</v>
+        <v>7640.0</v>
       </c>
     </row>
     <row r="383" ht="15.75" customHeight="1">
@@ -13533,7 +13839,7 @@
         <v>957</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>15</v>
@@ -13543,7 +13849,7 @@
         <v>958</v>
       </c>
       <c r="H383" s="16">
-        <v>6390.0</v>
+        <v>7640.0</v>
       </c>
     </row>
     <row r="384" ht="15.75" customHeight="1">
@@ -13551,7 +13857,7 @@
         <v>959</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>15</v>
@@ -13561,7 +13867,7 @@
         <v>960</v>
       </c>
       <c r="H384" s="16">
-        <v>8870.0</v>
+        <v>7640.0</v>
       </c>
     </row>
     <row r="385" ht="15.75" customHeight="1">
@@ -13569,7 +13875,7 @@
         <v>961</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>15</v>
@@ -13579,7 +13885,7 @@
         <v>962</v>
       </c>
       <c r="H385" s="16">
-        <v>6390.0</v>
+        <v>5990.0</v>
       </c>
     </row>
     <row r="386" ht="15.75" customHeight="1">
@@ -13587,7 +13893,7 @@
         <v>963</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>15</v>
@@ -13597,7 +13903,7 @@
         <v>964</v>
       </c>
       <c r="H386" s="16">
-        <v>8870.0</v>
+        <v>5990.0</v>
       </c>
     </row>
     <row r="387" ht="15.75" customHeight="1">
@@ -13605,7 +13911,7 @@
         <v>965</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>15</v>
@@ -13615,7 +13921,7 @@
         <v>966</v>
       </c>
       <c r="H387" s="16">
-        <v>5220.0</v>
+        <v>5990.0</v>
       </c>
     </row>
     <row r="388" ht="15.75" customHeight="1">
@@ -13623,7 +13929,7 @@
         <v>967</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>15</v>
@@ -13633,7 +13939,7 @@
         <v>968</v>
       </c>
       <c r="H388" s="16">
-        <v>9200.0</v>
+        <v>5990.0</v>
       </c>
     </row>
     <row r="389" ht="15.75" customHeight="1">
@@ -13641,7 +13947,7 @@
         <v>969</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>15</v>
@@ -13651,7 +13957,7 @@
         <v>970</v>
       </c>
       <c r="H389" s="16">
-        <v>9200.0</v>
+        <v>5990.0</v>
       </c>
     </row>
     <row r="390" ht="15.75" customHeight="1">
@@ -13659,7 +13965,7 @@
         <v>971</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>15</v>
@@ -13669,7 +13975,7 @@
         <v>972</v>
       </c>
       <c r="H390" s="16">
-        <v>9200.0</v>
+        <v>5990.0</v>
       </c>
     </row>
     <row r="391" ht="15.75" customHeight="1">
@@ -13677,7 +13983,7 @@
         <v>973</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>15</v>
@@ -13687,7 +13993,7 @@
         <v>974</v>
       </c>
       <c r="H391" s="16">
-        <v>9200.0</v>
+        <v>6390.0</v>
       </c>
     </row>
     <row r="392" ht="15.75" customHeight="1">
@@ -13695,7 +14001,7 @@
         <v>975</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>15</v>
@@ -13705,7 +14011,7 @@
         <v>976</v>
       </c>
       <c r="H392" s="16">
-        <v>9200.0</v>
+        <v>8870.0</v>
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1">
@@ -13713,7 +14019,7 @@
         <v>977</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>15</v>
@@ -13723,7 +14029,7 @@
         <v>978</v>
       </c>
       <c r="H393" s="16">
-        <v>9200.0</v>
+        <v>6390.0</v>
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1">
@@ -13731,7 +14037,7 @@
         <v>979</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>15</v>
@@ -13741,7 +14047,7 @@
         <v>980</v>
       </c>
       <c r="H394" s="16">
-        <v>7640.0</v>
+        <v>8870.0</v>
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1">
@@ -13749,7 +14055,7 @@
         <v>981</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D395" s="3" t="s">
         <v>15</v>
@@ -13759,7 +14065,7 @@
         <v>982</v>
       </c>
       <c r="H395" s="16">
-        <v>9200.0</v>
+        <v>5220.0</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1">
@@ -13767,7 +14073,7 @@
         <v>983</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>15</v>
@@ -13785,7 +14091,7 @@
         <v>985</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>15</v>
@@ -13803,7 +14109,7 @@
         <v>987</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>15</v>
@@ -13821,7 +14127,7 @@
         <v>989</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>15</v>
@@ -13834,12 +14140,12 @@
         <v>9200.0</v>
       </c>
     </row>
-    <row r="400" ht="16.5" customHeight="1">
+    <row r="400" ht="15.75" customHeight="1">
       <c r="B400" s="16" t="s">
         <v>991</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>15</v>
@@ -13849,7 +14155,7 @@
         <v>992</v>
       </c>
       <c r="H400" s="16">
-        <v>4980.0</v>
+        <v>9200.0</v>
       </c>
     </row>
     <row r="401" ht="15.75" customHeight="1">
@@ -13857,7 +14163,7 @@
         <v>993</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D401" s="3" t="s">
         <v>15</v>
@@ -13867,15 +14173,15 @@
         <v>994</v>
       </c>
       <c r="H401" s="16">
-        <v>4980.0</v>
-      </c>
-    </row>
-    <row r="402" ht="14.25" customHeight="1">
+        <v>9200.0</v>
+      </c>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
       <c r="B402" s="16" t="s">
         <v>995</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D402" s="3" t="s">
         <v>15</v>
@@ -13885,7 +14191,7 @@
         <v>996</v>
       </c>
       <c r="H402" s="16">
-        <v>4980.0</v>
+        <v>7640.0</v>
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1">
@@ -13893,7 +14199,7 @@
         <v>997</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>15</v>
@@ -13903,7 +14209,7 @@
         <v>998</v>
       </c>
       <c r="H403" s="16">
-        <v>4980.0</v>
+        <v>9200.0</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1">
@@ -13911,7 +14217,7 @@
         <v>999</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>15</v>
@@ -13921,7 +14227,7 @@
         <v>1000</v>
       </c>
       <c r="H404" s="16">
-        <v>4980.0</v>
+        <v>9200.0</v>
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1">
@@ -13929,7 +14235,7 @@
         <v>1001</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>15</v>
@@ -13939,7 +14245,7 @@
         <v>1002</v>
       </c>
       <c r="H405" s="16">
-        <v>4980.0</v>
+        <v>9200.0</v>
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1">
@@ -13947,7 +14253,7 @@
         <v>1003</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>15</v>
@@ -13957,7 +14263,7 @@
         <v>1004</v>
       </c>
       <c r="H406" s="16">
-        <v>4980.0</v>
+        <v>9200.0</v>
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1">
@@ -13965,7 +14271,7 @@
         <v>1005</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>15</v>
@@ -13975,15 +14281,15 @@
         <v>1006</v>
       </c>
       <c r="H407" s="16">
-        <v>4980.0</v>
-      </c>
-    </row>
-    <row r="408" ht="15.75" customHeight="1">
+        <v>9200.0</v>
+      </c>
+    </row>
+    <row r="408" ht="16.5" customHeight="1">
       <c r="B408" s="16" t="s">
         <v>1007</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>15</v>
@@ -14001,7 +14307,7 @@
         <v>1009</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>15</v>
@@ -14014,12 +14320,12 @@
         <v>4980.0</v>
       </c>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" ht="14.25" customHeight="1">
       <c r="B410" s="16" t="s">
         <v>1011</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>15</v>
@@ -14034,161 +14340,161 @@
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="B411" s="16" t="s">
-        <v>616</v>
+        <v>1013</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F411" s="16"/>
       <c r="G411" s="16" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H411" s="16">
-        <v>7800.0</v>
+        <v>4980.0</v>
       </c>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="B412" s="16" t="s">
-        <v>613</v>
+        <v>1015</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F412" s="16"/>
       <c r="G412" s="16" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="H412" s="16">
-        <v>7800.0</v>
+        <v>4980.0</v>
       </c>
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="B413" s="16" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F413" s="16"/>
       <c r="G413" s="16" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="H413" s="16">
-        <v>7800.0</v>
+        <v>4980.0</v>
       </c>
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="B414" s="16" t="s">
-        <v>566</v>
+        <v>1019</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F414" s="16"/>
       <c r="G414" s="16" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="H414" s="16">
-        <v>11400.0</v>
+        <v>4980.0</v>
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="B415" s="16" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F415" s="16"/>
       <c r="G415" s="16" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="H415" s="16">
-        <v>11400.0</v>
+        <v>4980.0</v>
       </c>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="B416" s="16" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F416" s="16"/>
       <c r="G416" s="16" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="H416" s="16">
-        <v>11400.0</v>
+        <v>4980.0</v>
       </c>
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="B417" s="16" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F417" s="16"/>
       <c r="G417" s="16" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="H417" s="16">
-        <v>7800.0</v>
+        <v>4980.0</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="B418" s="16" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F418" s="16"/>
       <c r="G418" s="16" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="H418" s="16">
-        <v>11400.0</v>
+        <v>4980.0</v>
       </c>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="B419" s="16" t="s">
-        <v>1026</v>
+        <v>638</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F419" s="16"/>
       <c r="G419" s="16" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="H419" s="16">
         <v>7800.0</v>
@@ -14196,46 +14502,46 @@
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="B420" s="16" t="s">
-        <v>1028</v>
+        <v>635</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F420" s="16"/>
       <c r="G420" s="16" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H420" s="16">
-        <v>8950.0</v>
+        <v>7800.0</v>
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="B421" s="16" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F421" s="16"/>
       <c r="G421" s="16" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H421" s="16">
-        <v>8950.0</v>
+        <v>7800.0</v>
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="B422" s="16" t="s">
-        <v>1032</v>
+        <v>588</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>15</v>
@@ -14245,22 +14551,22 @@
         <v>1033</v>
       </c>
       <c r="H422" s="16">
-        <v>8950.0</v>
+        <v>11400.0</v>
       </c>
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="B423" s="16" t="s">
-        <v>595</v>
+        <v>1034</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F423" s="16"/>
       <c r="G423" s="16" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H423" s="16">
         <v>11400.0</v>
@@ -14268,17 +14574,17 @@
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="B424" s="16" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F424" s="16"/>
       <c r="G424" s="16" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H424" s="16">
         <v>11400.0</v>
@@ -14286,35 +14592,35 @@
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="B425" s="16" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F425" s="16"/>
       <c r="G425" s="16" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H425" s="16">
-        <v>11400.0</v>
+        <v>7800.0</v>
       </c>
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="B426" s="16" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D426" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F426" s="16"/>
       <c r="G426" s="16" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H426" s="16">
         <v>11400.0</v>
@@ -14322,164 +14628,164 @@
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="B427" s="16" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D427" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F427" s="16"/>
       <c r="G427" s="16" t="s">
-        <v>593</v>
+        <v>1043</v>
       </c>
       <c r="H427" s="16">
-        <v>11400.0</v>
+        <v>7800.0</v>
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="B428" s="16" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F428" s="16"/>
       <c r="G428" s="16" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="H428" s="16">
-        <v>7800.0</v>
+        <v>8950.0</v>
       </c>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="B429" s="16" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D429" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F429" s="16"/>
       <c r="G429" s="16" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="H429" s="16">
-        <v>7800.0</v>
+        <v>8950.0</v>
       </c>
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="B430" s="16" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F430" s="16"/>
       <c r="G430" s="16" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="H430" s="16">
-        <v>7800.0</v>
+        <v>8950.0</v>
       </c>
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="B431" s="16" t="s">
-        <v>1048</v>
+        <v>617</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F431" s="16"/>
       <c r="G431" s="16" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H431" s="16">
-        <v>5220.0</v>
+        <v>11400.0</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="B432" s="16" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F432" s="16"/>
       <c r="G432" s="16" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H432" s="16">
-        <v>5220.0</v>
+        <v>11400.0</v>
       </c>
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="B433" s="16" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D433" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F433" s="16"/>
       <c r="G433" s="16" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H433" s="16">
-        <v>5220.0</v>
+        <v>11400.0</v>
       </c>
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="B434" s="16" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D434" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F434" s="16"/>
       <c r="G434" s="16" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H434" s="16">
-        <v>8820.0</v>
+        <v>11400.0</v>
       </c>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="B435" s="16" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D435" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F435" s="16"/>
       <c r="G435" s="16" t="s">
-        <v>1057</v>
+        <v>615</v>
       </c>
       <c r="H435" s="16">
-        <v>9010.0</v>
+        <v>11400.0</v>
       </c>
     </row>
     <row r="436" ht="15.75" customHeight="1">
@@ -14487,16 +14793,17 @@
         <v>1058</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="F436" s="16"/>
       <c r="G436" s="16" t="s">
         <v>1059</v>
       </c>
       <c r="H436" s="16">
-        <v>8820.0</v>
+        <v>7800.0</v>
       </c>
     </row>
     <row r="437" ht="15.75" customHeight="1">
@@ -14504,16 +14811,17 @@
         <v>1060</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D437" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="F437" s="16"/>
       <c r="G437" s="16" t="s">
         <v>1061</v>
       </c>
       <c r="H437" s="16">
-        <v>8820.0</v>
+        <v>7800.0</v>
       </c>
     </row>
     <row r="438" ht="15.75" customHeight="1">
@@ -14521,26 +14829,160 @@
         <v>1062</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="F438" s="16"/>
       <c r="G438" s="16" t="s">
         <v>1063</v>
       </c>
       <c r="H438" s="16">
+        <v>7800.0</v>
+      </c>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="B439" s="16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F439" s="16"/>
+      <c r="G439" s="16" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H439" s="16">
+        <v>5220.0</v>
+      </c>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="B440" s="16" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F440" s="16"/>
+      <c r="G440" s="16" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H440" s="16">
+        <v>5220.0</v>
+      </c>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="B441" s="16" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F441" s="16"/>
+      <c r="G441" s="16" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H441" s="16">
+        <v>5220.0</v>
+      </c>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="B442" s="16" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F442" s="16"/>
+      <c r="G442" s="16" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H442" s="16">
+        <v>8820.0</v>
+      </c>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="B443" s="16" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F443" s="16"/>
+      <c r="G443" s="16" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H443" s="16">
+        <v>9010.0</v>
+      </c>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="B444" s="16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G444" s="16" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H444" s="16">
+        <v>8820.0</v>
+      </c>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="B445" s="16" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G445" s="16" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H445" s="16">
+        <v>8820.0</v>
+      </c>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="B446" s="16" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G446" s="16" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H446" s="16">
         <v>25000.0</v>
       </c>
     </row>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
     <row r="447" ht="15.75" customHeight="1"/>
     <row r="448" ht="15.75" customHeight="1"/>
     <row r="449" ht="15.75" customHeight="1"/>
@@ -15067,8 +15509,16 @@
     <row r="970" ht="15.75" customHeight="1"/>
     <row r="971" ht="15.75" customHeight="1"/>
     <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="K1:K33 K35:K972">
+  <conditionalFormatting sqref="K1:K33 K35:K980">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -2049,7 +2049,7 @@
     <t>Вега</t>
   </si>
   <si>
-    <t>vega.png</t>
+    <t>vega-11.png</t>
   </si>
   <si>
     <t>Верона</t>
@@ -4983,18 +4983,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -5009,7 +5003,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5060,16 +5054,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8523,444 +8507,235 @@
       </c>
     </row>
     <row r="122" ht="18.0" customHeight="1">
-      <c r="A122" s="20"/>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C122" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D122" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="21" t="s">
+      <c r="D122" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="H122" s="21">
+      <c r="H122" s="16">
         <v>8783.0</v>
       </c>
-      <c r="I122" s="21" t="s">
+      <c r="I122" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J122" s="20"/>
-      <c r="K122" s="21"/>
-      <c r="L122" s="20"/>
-      <c r="M122" s="20"/>
-      <c r="N122" s="20"/>
-      <c r="O122" s="20"/>
-      <c r="P122" s="20"/>
-      <c r="Q122" s="20"/>
-      <c r="R122" s="20"/>
-      <c r="S122" s="20"/>
-      <c r="T122" s="20"/>
-      <c r="U122" s="20"/>
-      <c r="V122" s="20"/>
-      <c r="W122" s="20"/>
-      <c r="X122" s="20"/>
-      <c r="Y122" s="20"/>
-      <c r="Z122" s="20"/>
+      <c r="K122" s="16"/>
     </row>
     <row r="123" ht="18.0" customHeight="1">
-      <c r="A123" s="20"/>
-      <c r="B123" s="21" t="s">
+      <c r="B123" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C123" s="22" t="s">
+      <c r="C123" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D123" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="21" t="s">
+      <c r="D123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="H123" s="21">
+      <c r="H123" s="16">
         <v>9050.0</v>
       </c>
-      <c r="I123" s="21" t="s">
+      <c r="I123" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J123" s="20"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="20"/>
-      <c r="M123" s="20"/>
-      <c r="N123" s="20"/>
-      <c r="O123" s="20"/>
-      <c r="P123" s="20"/>
-      <c r="Q123" s="20"/>
-      <c r="R123" s="20"/>
-      <c r="S123" s="20"/>
-      <c r="T123" s="20"/>
-      <c r="U123" s="20"/>
-      <c r="V123" s="20"/>
-      <c r="W123" s="20"/>
-      <c r="X123" s="20"/>
-      <c r="Y123" s="20"/>
-      <c r="Z123" s="20"/>
+      <c r="K123" s="16"/>
     </row>
     <row r="124" ht="18.0" customHeight="1">
-      <c r="A124" s="20"/>
-      <c r="B124" s="21" t="s">
+      <c r="B124" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="C124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="21" t="s">
+      <c r="D124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="H124" s="21">
+      <c r="H124" s="16">
         <v>8684.0</v>
       </c>
-      <c r="I124" s="21" t="s">
+      <c r="I124" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J124" s="20"/>
-      <c r="K124" s="21"/>
-      <c r="L124" s="20"/>
-      <c r="M124" s="20"/>
-      <c r="N124" s="20"/>
-      <c r="O124" s="20"/>
-      <c r="P124" s="20"/>
-      <c r="Q124" s="20"/>
-      <c r="R124" s="20"/>
-      <c r="S124" s="20"/>
-      <c r="T124" s="20"/>
-      <c r="U124" s="20"/>
-      <c r="V124" s="20"/>
-      <c r="W124" s="20"/>
-      <c r="X124" s="20"/>
-      <c r="Y124" s="20"/>
-      <c r="Z124" s="20"/>
+      <c r="K124" s="16"/>
     </row>
     <row r="125" ht="18.0" customHeight="1">
-      <c r="A125" s="20"/>
-      <c r="B125" s="21" t="s">
+      <c r="B125" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="C125" s="22" t="s">
+      <c r="C125" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="21" t="s">
+      <c r="D125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="H125" s="21">
+      <c r="H125" s="16">
         <v>9417.0</v>
       </c>
-      <c r="I125" s="21" t="s">
+      <c r="I125" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J125" s="20"/>
-      <c r="K125" s="21"/>
-      <c r="L125" s="20"/>
-      <c r="M125" s="20"/>
-      <c r="N125" s="20"/>
-      <c r="O125" s="20"/>
-      <c r="P125" s="20"/>
-      <c r="Q125" s="20"/>
-      <c r="R125" s="20"/>
-      <c r="S125" s="20"/>
-      <c r="T125" s="20"/>
-      <c r="U125" s="20"/>
-      <c r="V125" s="20"/>
-      <c r="W125" s="20"/>
-      <c r="X125" s="20"/>
-      <c r="Y125" s="20"/>
-      <c r="Z125" s="20"/>
+      <c r="K125" s="16"/>
     </row>
     <row r="126" ht="18.0" customHeight="1">
-      <c r="A126" s="20"/>
-      <c r="B126" s="21" t="s">
+      <c r="B126" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="C126" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D126" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="21" t="s">
+      <c r="D126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="H126" s="21">
+      <c r="H126" s="16">
         <v>8634.0</v>
       </c>
-      <c r="I126" s="21" t="s">
+      <c r="I126" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J126" s="20"/>
-      <c r="K126" s="21"/>
-      <c r="L126" s="20"/>
-      <c r="M126" s="20"/>
-      <c r="N126" s="20"/>
-      <c r="O126" s="20"/>
-      <c r="P126" s="20"/>
-      <c r="Q126" s="20"/>
-      <c r="R126" s="20"/>
-      <c r="S126" s="20"/>
-      <c r="T126" s="20"/>
-      <c r="U126" s="20"/>
-      <c r="V126" s="20"/>
-      <c r="W126" s="20"/>
-      <c r="X126" s="20"/>
-      <c r="Y126" s="20"/>
-      <c r="Z126" s="20"/>
+      <c r="K126" s="16"/>
     </row>
     <row r="127" ht="18.0" customHeight="1">
-      <c r="A127" s="20"/>
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C127" s="22" t="s">
+      <c r="C127" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D127" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127" s="20"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="21" t="s">
+      <c r="D127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="H127" s="21">
+      <c r="H127" s="16">
         <v>5984.0</v>
       </c>
-      <c r="I127" s="21" t="s">
+      <c r="I127" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J127" s="20"/>
-      <c r="K127" s="21"/>
-      <c r="L127" s="20"/>
-      <c r="M127" s="20"/>
-      <c r="N127" s="20"/>
-      <c r="O127" s="20"/>
-      <c r="P127" s="20"/>
-      <c r="Q127" s="20"/>
-      <c r="R127" s="20"/>
-      <c r="S127" s="20"/>
-      <c r="T127" s="20"/>
-      <c r="U127" s="20"/>
-      <c r="V127" s="20"/>
-      <c r="W127" s="20"/>
-      <c r="X127" s="20"/>
-      <c r="Y127" s="20"/>
-      <c r="Z127" s="20"/>
+      <c r="K127" s="16"/>
     </row>
     <row r="128" ht="18.0" customHeight="1">
-      <c r="A128" s="20"/>
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="C128" s="22" t="s">
+      <c r="C128" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D128" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="20"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="21" t="s">
+      <c r="D128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="H128" s="21">
+      <c r="H128" s="16">
         <v>3817.0</v>
       </c>
-      <c r="I128" s="21" t="s">
+      <c r="I128" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J128" s="20"/>
-      <c r="K128" s="21"/>
-      <c r="L128" s="20"/>
-      <c r="M128" s="20"/>
-      <c r="N128" s="20"/>
-      <c r="O128" s="20"/>
-      <c r="P128" s="20"/>
-      <c r="Q128" s="20"/>
-      <c r="R128" s="20"/>
-      <c r="S128" s="20"/>
-      <c r="T128" s="20"/>
-      <c r="U128" s="20"/>
-      <c r="V128" s="20"/>
-      <c r="W128" s="20"/>
-      <c r="X128" s="20"/>
-      <c r="Y128" s="20"/>
-      <c r="Z128" s="20"/>
+      <c r="K128" s="16"/>
     </row>
     <row r="129" ht="18.0" customHeight="1">
-      <c r="A129" s="20"/>
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C129" s="22" t="s">
+      <c r="C129" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D129" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="21" t="s">
+      <c r="D129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="H129" s="21">
+      <c r="H129" s="16">
         <v>5917.0</v>
       </c>
-      <c r="I129" s="21" t="s">
+      <c r="I129" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J129" s="20"/>
-      <c r="K129" s="21"/>
-      <c r="L129" s="20"/>
-      <c r="M129" s="20"/>
-      <c r="N129" s="20"/>
-      <c r="O129" s="20"/>
-      <c r="P129" s="20"/>
-      <c r="Q129" s="20"/>
-      <c r="R129" s="20"/>
-      <c r="S129" s="20"/>
-      <c r="T129" s="20"/>
-      <c r="U129" s="20"/>
-      <c r="V129" s="20"/>
-      <c r="W129" s="20"/>
-      <c r="X129" s="20"/>
-      <c r="Y129" s="20"/>
-      <c r="Z129" s="20"/>
+      <c r="K129" s="16"/>
     </row>
     <row r="130" ht="18.0" customHeight="1">
-      <c r="A130" s="20"/>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="C130" s="22" t="s">
+      <c r="C130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D130" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130" s="20"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="21" t="s">
+      <c r="D130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="H130" s="21">
+      <c r="H130" s="16">
         <v>8800.0</v>
       </c>
-      <c r="I130" s="21" t="s">
+      <c r="I130" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J130" s="20"/>
-      <c r="K130" s="21"/>
-      <c r="L130" s="20"/>
-      <c r="M130" s="20"/>
-      <c r="N130" s="20"/>
-      <c r="O130" s="20"/>
-      <c r="P130" s="20"/>
-      <c r="Q130" s="20"/>
-      <c r="R130" s="20"/>
-      <c r="S130" s="20"/>
-      <c r="T130" s="20"/>
-      <c r="U130" s="20"/>
-      <c r="V130" s="20"/>
-      <c r="W130" s="20"/>
-      <c r="X130" s="20"/>
-      <c r="Y130" s="20"/>
-      <c r="Z130" s="20"/>
+      <c r="K130" s="16"/>
     </row>
     <row r="131" ht="18.0" customHeight="1">
-      <c r="A131" s="20"/>
-      <c r="B131" s="21" t="s">
+      <c r="B131" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="C131" s="22" t="s">
+      <c r="C131" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D131" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="21" t="s">
+      <c r="D131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="H131" s="21">
+      <c r="H131" s="16">
         <v>7634.0</v>
       </c>
-      <c r="I131" s="21" t="s">
+      <c r="I131" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J131" s="20"/>
-      <c r="K131" s="21"/>
-      <c r="L131" s="20"/>
-      <c r="M131" s="20"/>
-      <c r="N131" s="20"/>
-      <c r="O131" s="20"/>
-      <c r="P131" s="20"/>
-      <c r="Q131" s="20"/>
-      <c r="R131" s="20"/>
-      <c r="S131" s="20"/>
-      <c r="T131" s="20"/>
-      <c r="U131" s="20"/>
-      <c r="V131" s="20"/>
-      <c r="W131" s="20"/>
-      <c r="X131" s="20"/>
-      <c r="Y131" s="20"/>
-      <c r="Z131" s="20"/>
+      <c r="K131" s="16"/>
     </row>
     <row r="132" ht="18.0" customHeight="1">
-      <c r="A132" s="20"/>
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C132" s="22" t="s">
+      <c r="C132" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D132" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="21" t="s">
+      <c r="D132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="H132" s="21">
+      <c r="H132" s="16">
         <v>6066.0</v>
       </c>
-      <c r="I132" s="21" t="s">
+      <c r="I132" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J132" s="20"/>
-      <c r="K132" s="21"/>
-      <c r="L132" s="20"/>
-      <c r="M132" s="20"/>
-      <c r="N132" s="20"/>
-      <c r="O132" s="20"/>
-      <c r="P132" s="20"/>
-      <c r="Q132" s="20"/>
-      <c r="R132" s="20"/>
-      <c r="S132" s="20"/>
-      <c r="T132" s="20"/>
-      <c r="U132" s="20"/>
-      <c r="V132" s="20"/>
-      <c r="W132" s="20"/>
-      <c r="X132" s="20"/>
-      <c r="Y132" s="20"/>
-      <c r="Z132" s="20"/>
+      <c r="K132" s="16"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="B133" s="3" t="s">
@@ -9567,7 +9342,7 @@
         <v>15</v>
       </c>
       <c r="F159" s="5"/>
-      <c r="G159" s="24" t="s">
+      <c r="G159" s="20" t="s">
         <v>453</v>
       </c>
       <c r="H159" s="3">

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="1080">
   <si>
     <t>article</t>
   </si>
@@ -1432,7 +1432,7 @@
     <t>91.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Внешняя накладка: Фрезерованная МДФ-панель 10 мм. Пленка Винорит, цвет грецкий орех с патиной;
+    <t xml:space="preserve">Внешняя накладка: Фрезерованная МДФ-панель 10 мм.Пленка: Винорит, цвет грецкий орех с патиной;
 Внутренняя накладка: Фрезерованная МДФ-панель 10 мм. Пленка с вертикальным рельефом, цвет белый;                                                              
 Основной замок : сувальдный KALE, ригели 16 мм.; 
 Дополнительный замок: сувальдный KALE, ригели 16 мм;
@@ -2046,64 +2046,216 @@
     <t>arabika.jpeg</t>
   </si>
   <si>
+    <t>Замки: 2 шт.; 
+Гардиан Панель: МДФ 16/10 мм; 
+Ночник:Да; Петли:3шт.; 
+Утеплитель полотна: базальт плита; 
+Утеплитель коробки: мин.; 
+Плита:  3 контура, полотно 90мм;</t>
+  </si>
+  <si>
     <t>Вега</t>
   </si>
   <si>
     <t>vega-11.png</t>
   </si>
   <si>
+    <t>полотно: 100мм;
+Замки: Гардиан;
+Ночник: Есть ;
+Панель: МДФ 10/12мм; 
+Петли:3 шт;
+Утеплитель полотна: базальт плита;
+Утеплитель коробки:мин. Плита;</t>
+  </si>
+  <si>
     <t>Верона</t>
   </si>
   <si>
     <t>verona.jpeg</t>
   </si>
   <si>
+    <t>Металл: 1,8мм; 
+Наружная отделка: ламинированная панель12мм, цвет графит;
+Внутрення отделка: ламинированная панель 12мм, цвет белый матовый;
+Коробка двери: сложный гнутый замкнутый профиль, черная шагрень;
+Утеплитель: короб; 
+Полотно двери: сложный профиль, толщина 100мм 3контура уплотнения+1 магнитный;
+Карман под замки: из листа 1,5мм, с двух сторон;
+Противосьмные штыри:3шт, цвет хром;
+Петли на подшипниках:3шт;
+Замок верхний: Гардиан 32.11 с броне накладкой Эксцентрик Цилиндр ключ,вертух с перфокартой;
+Декаративные накладки на замок: цвет черный Ручка на розетке: цвет черный;
+Утеплитель полотна: минеральная плита KNAUF, утепленный короб;
+Глазок: 200 градусов, цвет черный;</t>
+  </si>
+  <si>
     <t>Марсель</t>
   </si>
   <si>
     <t>marcel.png</t>
   </si>
   <si>
+    <t>3контура, полотно 100мм;
+Замки: Гардиан, Ночник;
+Панель:МДФ 10/16мм;
+Петли:2 шт. БАРК;
+Утеплитель полотна: базальт плита;
+Короб: закрытый, утепленный;</t>
+  </si>
+  <si>
     <t>Некст</t>
   </si>
   <si>
     <t>next.png</t>
   </si>
   <si>
+    <t>3 контура;
+полотно 90мм; 
+Замки:Гардиан;
+Фурнитура: Фуаро lop черн. мат.;
+Петли 3шт;
+Утеплитель полотна: базальт плита;
+Короб: закрытый утепленный;</t>
+  </si>
+  <si>
     <t>7,5 флорида эмалит белый</t>
   </si>
   <si>
     <t>75-florida.jpeg</t>
   </si>
   <si>
+    <t>Внешнее покрытие: фрезерованная МДФ панель 10мм, цвет черный кварц;
+Внутреннее покрытие: МДФ-панель 10мм, накладное зеркало с защитной пленкой с декоративной обработкой внешней кромки (фацет), цвет Эмалит белый;
+Толщина дверного полотна:90мм;
+Толщина дверной коробки: 105мм;
+Наполнитель: пенополистирол;
+Уплотнитель: 2 контура уплотнения из вспененной резины;
+Основной замок: цилиндровый КАРАТ наивысший класс взломостойкости;
+Дополнительный замок: сувальдный Карат наивысший класс взломостойкости;
+Независимая ночная задвижка;
+Размеры: 2050*860 мм, 2050*960мм;</t>
+  </si>
+  <si>
     <t>Прораб линии 55мм</t>
   </si>
   <si>
     <t>prorab-linii-55.png</t>
   </si>
   <si>
+    <t>Толщина короба:
+52 мм
+Отделка внутри:
+МДФ-панель
+Отделка снаружи:
+С МДФ- панелью
+Глазок:
+Глазок со шторкой
+Цилиндр:
+нет
+Основной замок:
+НТО-ЛУЧ (цилиндровый)
+Дополнительный замок:
+НТО-луч сувальдный
+Толщина полотна:
+45 мм 
+Открывание:
+180˚
+Крепление при монтаже:
+Через уши анкерными болтами
+Наименование краски:
+Антик серебро
+Количество замков:
+2</t>
+  </si>
+  <si>
     <t>Рона</t>
   </si>
   <si>
     <t>rona.jpeg</t>
   </si>
   <si>
+    <t>Внешнее покрытие: Черный муар, бетон графит;
+Вутреннее покрытие: Бетон снежный;
+Толщина дверного полотна:91 мм;
+Кол-во контуров уплотнения: 3шт.;
+Наполнитель: Пенополистирол;
+Размеры:2050*860мм, 2050*960мм;</t>
+  </si>
+  <si>
     <t>Титан</t>
   </si>
   <si>
     <t>titan-8800.jpeg</t>
   </si>
   <si>
+    <t>Металл: 1,8мм;
+Наружная отделка: ламинированная панель -10мм, цвет бетон темный;
+Внутрення отделка: ламинированная панель с зеркалом, цвет белый ясень;
+Коробка двери: сложный гнутый замкнутый профиль, черная шагрень;
+Утеплитель: короб;
+Полотно двери: сложный профиль, толщина 100мм 3контура уплотнения+1 магнитный;
+Карман под замки: из листа 1,5мм, с двух сторон;
+Противосьмные штыри:3шт, цвет хром;
+Петли на подшипниках:3шт;
+Замок верхний: Гардиан 30.01 с магнитной наклодной Крит;
+Замок нижний: Гардиан 32.11 с броне накладкой Эксцентрик;
+Цилиндр ключ,вертух с перфокартой;
+Декаративные накладки на замок: цвет черный;
+Ручка на розетке: цвет черный;
+Утеплитель полотна: минеральная плита KNAUF, утепленный короб;
+Глазок: 200 градусов, цвет хром;
+Размеры: 2050*860мм, 2050*960мм;</t>
+  </si>
+  <si>
     <t>Фаворит</t>
   </si>
   <si>
     <t>favorit-76-43.png</t>
   </si>
   <si>
+    <t>Полотно: 90мм;
+Замки: Гардиан;
+Петли: 3шт;
+Утеплитель полотна: базальт плита;
+Короб: закрытый, утепленный;</t>
+  </si>
+  <si>
     <t>Черное зеркало</t>
   </si>
   <si>
     <t>chernoe-zoloto.jpeg</t>
+  </si>
+  <si>
+    <t>Внешнее покрытие: фрезерованная МДФ панель;
+Цвет: Сатин черный;
+Внутреннее покрытие: МДФ-панель, цвет сатин черный, накладное зеркало с защитной пленкой;
+Толщина дверного полотна:90мм;
+Глубина дверного короба:105мм;
+Наполнитель: пенополистирол;
+Уплотнилеь: 2 контура уплотнителя из вспененной резины;
+Основной замок: цилиндровый;
+Дополнительный замок: сувальдный;
+Независимая ночная задвижка;
+Размеры: 860*2050мм, 960*2050мм;</t>
+  </si>
+  <si>
+    <t>New классик</t>
+  </si>
+  <si>
+    <t>new_classik.jpg</t>
+  </si>
+  <si>
+    <t>Толщина полотна: 90мм;
+Наполнитель полотна: Базальтовая плита;
+Внешняя отдела: МДФ, кварц черный;
+Внутренняя отделка: МДФ, белый матовый; 
+Покрытие: металл Муар черный; 
+Основной замок: Галеон 3 серии, цилиндровый; 
+Дополнительный замок: Галеон 3 серии, сувальдный Фурнитура Черная, ручки раздельные;
+Уплотнитель на полотне: 2шт.; Глубина короба: 115мм; Тип короба: Открытый Уплотнитель на коробе 1шт;
+Дополнительно: Эксцентрик для регулировки;
+Размеры: 860*2050, 960+2050;</t>
   </si>
   <si>
     <t>Вена Лиственница Мокко</t>
@@ -4856,48 +5008,6 @@
   </si>
   <si>
     <t>stil-neo-2-latte.png</t>
-  </si>
-  <si>
-    <t>stil-1-slonovaya-kost.tif</t>
-  </si>
-  <si>
-    <t>Стиль 1 слоновая кость топаз</t>
-  </si>
-  <si>
-    <t>stil-1-slonovaya-kost-topaz.tif</t>
-  </si>
-  <si>
-    <t>Стиль 1 серый топаз</t>
-  </si>
-  <si>
-    <t>stil-1-seryi-topaz.tif</t>
-  </si>
-  <si>
-    <t>Стиль 1 белый топаз</t>
-  </si>
-  <si>
-    <t>stil-1-belyi-topaz.tif</t>
-  </si>
-  <si>
-    <t>Стиль 1 латте топаз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стиль 1 серый  </t>
-  </si>
-  <si>
-    <t>stil-1seryi.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стиль 1 латте  </t>
-  </si>
-  <si>
-    <t>stil-latte.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стиль 1 белый  </t>
-  </si>
-  <si>
-    <t>stil-belyi.tif</t>
   </si>
   <si>
     <t>Н22 ясень белый</t>
@@ -8525,11 +8635,13 @@
       <c r="I122" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K122" s="16"/>
+      <c r="K122" s="16" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="123" ht="18.0" customHeight="1">
       <c r="B123" s="16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>14</v>
@@ -8538,7 +8650,7 @@
         <v>15</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H123" s="16">
         <v>9050.0</v>
@@ -8546,11 +8658,13 @@
       <c r="I123" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K123" s="16"/>
+      <c r="K123" s="16" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="124" ht="18.0" customHeight="1">
       <c r="B124" s="16" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>14</v>
@@ -8559,7 +8673,7 @@
         <v>15</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H124" s="16">
         <v>8684.0</v>
@@ -8567,11 +8681,13 @@
       <c r="I124" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K124" s="16"/>
+      <c r="K124" s="16" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="125" ht="18.0" customHeight="1">
       <c r="B125" s="16" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>14</v>
@@ -8580,7 +8696,7 @@
         <v>15</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H125" s="16">
         <v>9417.0</v>
@@ -8588,11 +8704,13 @@
       <c r="I125" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K125" s="16"/>
+      <c r="K125" s="16" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="126" ht="18.0" customHeight="1">
       <c r="B126" s="16" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>14</v>
@@ -8601,7 +8719,7 @@
         <v>15</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H126" s="16">
         <v>8634.0</v>
@@ -8609,11 +8727,13 @@
       <c r="I126" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K126" s="16"/>
+      <c r="K126" s="16" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="127" ht="18.0" customHeight="1">
       <c r="B127" s="16" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>14</v>
@@ -8622,7 +8742,7 @@
         <v>15</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H127" s="16">
         <v>5984.0</v>
@@ -8630,11 +8750,13 @@
       <c r="I127" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K127" s="16"/>
+      <c r="K127" s="16" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="128" ht="18.0" customHeight="1">
       <c r="B128" s="16" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>14</v>
@@ -8643,7 +8765,7 @@
         <v>15</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="H128" s="16">
         <v>3817.0</v>
@@ -8651,11 +8773,13 @@
       <c r="I128" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K128" s="16"/>
+      <c r="K128" s="16" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="129" ht="18.0" customHeight="1">
       <c r="B129" s="16" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>14</v>
@@ -8664,7 +8788,7 @@
         <v>15</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H129" s="16">
         <v>5917.0</v>
@@ -8672,11 +8796,13 @@
       <c r="I129" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K129" s="16"/>
+      <c r="K129" s="16" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="130" ht="18.0" customHeight="1">
       <c r="B130" s="16" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>14</v>
@@ -8685,7 +8811,7 @@
         <v>15</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="H130" s="16">
         <v>8800.0</v>
@@ -8693,11 +8819,13 @@
       <c r="I130" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K130" s="16"/>
+      <c r="K130" s="16" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="131" ht="18.0" customHeight="1">
       <c r="B131" s="16" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>14</v>
@@ -8706,7 +8834,7 @@
         <v>15</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="H131" s="16">
         <v>7634.0</v>
@@ -8714,11 +8842,13 @@
       <c r="I131" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K131" s="16"/>
+      <c r="K131" s="16" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="132" ht="18.0" customHeight="1">
       <c r="B132" s="16" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>14</v>
@@ -8727,7 +8857,7 @@
         <v>15</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="H132" s="16">
         <v>6066.0</v>
@@ -8735,2157 +8865,2164 @@
       <c r="I132" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K132" s="16"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>374</v>
+      <c r="K132" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="133" ht="18.0" customHeight="1">
+      <c r="B133" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F133" s="5"/>
-      <c r="G133" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="H133" s="3">
-        <v>4800.0</v>
-      </c>
-      <c r="I133" s="6"/>
-      <c r="K133" s="3" t="s">
-        <v>376</v>
+      <c r="G133" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="H133" s="16">
+        <v>6534.0</v>
+      </c>
+      <c r="I133" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K133" s="16" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="B134" s="3" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="3" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="H134" s="3">
         <v>4800.0</v>
       </c>
       <c r="I134" s="6"/>
       <c r="K134" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="L134" s="5"/>
+        <v>390</v>
+      </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="B135" s="3" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="3" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="H135" s="3">
         <v>4800.0</v>
       </c>
       <c r="I135" s="6"/>
       <c r="K135" s="3" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="L135" s="5"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="B136" s="3" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="3" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="H136" s="3">
         <v>4800.0</v>
       </c>
       <c r="I136" s="6"/>
       <c r="K136" s="3" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="L136" s="5"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="B137" s="3" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="3" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="H137" s="3">
-        <v>5000.0</v>
+        <v>4800.0</v>
       </c>
       <c r="I137" s="6"/>
       <c r="K137" s="3" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="L137" s="5"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="B138" s="3" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="3" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H138" s="3">
-        <v>5300.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I138" s="6"/>
       <c r="K138" s="3" t="s">
-        <v>391</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="L138" s="5"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="B139" s="3" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="3" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="H139" s="3">
-        <v>9900.0</v>
+        <v>5300.0</v>
       </c>
       <c r="I139" s="6"/>
       <c r="K139" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="L139" s="5"/>
+        <v>405</v>
+      </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="16" t="s">
-        <v>395</v>
+      <c r="B140" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G140" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="H140" s="16">
+      <c r="F140" s="5"/>
+      <c r="G140" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H140" s="3">
+        <v>9900.0</v>
+      </c>
+      <c r="I140" s="6"/>
+      <c r="K140" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="L140" s="5"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="B141" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="H141" s="16">
         <v>7300.0</v>
       </c>
-      <c r="I140" s="6"/>
-      <c r="K140" s="16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F141" s="5"/>
-      <c r="G141" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="H141" s="3">
-        <v>5300.0</v>
-      </c>
       <c r="I141" s="6"/>
-      <c r="K141" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="L141" s="5"/>
+      <c r="K141" s="16" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="B142" s="3" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="3" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="H142" s="3">
-        <v>3850.0</v>
+        <v>5300.0</v>
       </c>
       <c r="I142" s="6"/>
       <c r="K142" s="3" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="L142" s="5"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="3" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="H143" s="3">
-        <v>5200.0</v>
+        <v>3850.0</v>
       </c>
       <c r="I143" s="6"/>
       <c r="K143" s="3" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="L143" s="5"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="3" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="H144" s="3">
-        <v>4900.0</v>
+        <v>5200.0</v>
       </c>
       <c r="I144" s="6"/>
       <c r="K144" s="3" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="L144" s="5"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="3" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="H145" s="3">
         <v>4900.0</v>
       </c>
       <c r="I145" s="6"/>
       <c r="K145" s="3" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="L145" s="5"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="3" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="H146" s="3">
-        <v>11100.0</v>
+        <v>4900.0</v>
       </c>
       <c r="I146" s="6"/>
       <c r="K146" s="3" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="L146" s="5"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="3" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="H147" s="3">
-        <v>5300.0</v>
+        <v>11100.0</v>
       </c>
       <c r="I147" s="6"/>
       <c r="K147" s="3" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="L147" s="5"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="B148" s="3" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="3" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="H148" s="3">
         <v>5300.0</v>
       </c>
       <c r="I148" s="6"/>
       <c r="K148" s="3" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="L148" s="5"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="B149" s="3" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="3" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="H149" s="3">
-        <v>5000.0</v>
+        <v>5300.0</v>
       </c>
       <c r="I149" s="6"/>
       <c r="K149" s="3" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="L149" s="5"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="B150" s="3" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="3" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="H150" s="3">
-        <v>5300.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I150" s="6"/>
       <c r="K150" s="3" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="L150" s="5"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="B151" s="3" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="3" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="H151" s="3">
-        <v>5900.0</v>
+        <v>5300.0</v>
       </c>
       <c r="I151" s="6"/>
       <c r="K151" s="3" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="L151" s="5"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="B152" s="3" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="3" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="H152" s="3">
-        <v>5300.0</v>
+        <v>5900.0</v>
       </c>
       <c r="I152" s="6"/>
       <c r="K152" s="3" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="L152" s="5"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="B153" s="3" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="3" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="H153" s="3">
-        <v>5900.0</v>
+        <v>5300.0</v>
       </c>
       <c r="I153" s="6"/>
       <c r="K153" s="3" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="L153" s="5"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="B154" s="3" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="3" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="H154" s="3">
-        <v>5200.0</v>
+        <v>5900.0</v>
       </c>
       <c r="I154" s="6"/>
       <c r="K154" s="3" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="L154" s="5"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="B155" s="3" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="3" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="H155" s="3">
-        <v>5500.0</v>
+        <v>5200.0</v>
       </c>
       <c r="I155" s="6"/>
       <c r="K155" s="3" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="L155" s="5"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="B156" s="3" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="3" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="H156" s="3">
-        <v>5550.0</v>
+        <v>5500.0</v>
       </c>
       <c r="I156" s="6"/>
       <c r="K156" s="3" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="L156" s="5"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="B157" s="3" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="3" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="H157" s="3">
-        <v>4800.0</v>
+        <v>5550.0</v>
       </c>
       <c r="I157" s="6"/>
       <c r="K157" s="3" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="L157" s="5"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="B158" s="3" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="3" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="H158" s="3">
         <v>4800.0</v>
       </c>
       <c r="I158" s="6"/>
       <c r="K158" s="3" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="L158" s="5"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="B159" s="3" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F159" s="5"/>
-      <c r="G159" s="20" t="s">
-        <v>453</v>
+      <c r="G159" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="H159" s="3">
-        <v>5300.0</v>
+        <v>4800.0</v>
       </c>
       <c r="I159" s="6"/>
       <c r="K159" s="3" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="L159" s="5"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="16" t="s">
-        <v>455</v>
+      <c r="B160" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G160" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="H160" s="16">
+      <c r="F160" s="5"/>
+      <c r="G160" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="H160" s="3">
+        <v>5300.0</v>
+      </c>
+      <c r="I160" s="6"/>
+      <c r="K160" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="L160" s="5"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="B161" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="H161" s="16">
         <v>7300.0</v>
       </c>
-      <c r="I160" s="6"/>
-      <c r="K160" s="16" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F161" s="5"/>
-      <c r="G161" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="H161" s="3">
-        <v>3850.0</v>
-      </c>
       <c r="I161" s="6"/>
-      <c r="K161" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="L161" s="5"/>
+      <c r="K161" s="16" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="B162" s="3" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="3" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="H162" s="3">
-        <v>6400.0</v>
+        <v>3850.0</v>
       </c>
       <c r="I162" s="6"/>
       <c r="K162" s="3" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="L162" s="5"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="B163" s="3" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="3" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="H163" s="3">
-        <v>5500.0</v>
+        <v>6400.0</v>
       </c>
       <c r="I163" s="6"/>
       <c r="K163" s="3" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="L163" s="5"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="B164" s="3" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="3" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="H164" s="3">
-        <v>12000.0</v>
+        <v>5500.0</v>
       </c>
       <c r="I164" s="6"/>
       <c r="K164" s="3" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="L164" s="5"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="B165" s="3" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="3" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="H165" s="3">
         <v>12000.0</v>
       </c>
       <c r="I165" s="6"/>
       <c r="K165" s="3" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="L165" s="5"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="B166" s="3" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="3" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H166" s="3">
         <v>12000.0</v>
       </c>
       <c r="I166" s="6"/>
       <c r="K166" s="3" t="s">
-        <v>475</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="L166" s="5"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="B167" s="3" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="3" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="H167" s="3">
         <v>12000.0</v>
       </c>
       <c r="I167" s="6"/>
       <c r="K167" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="L167" s="5"/>
+        <v>489</v>
+      </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="B168" s="3" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="3" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="H168" s="3">
         <v>12000.0</v>
       </c>
       <c r="I168" s="6"/>
       <c r="K168" s="3" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="L168" s="5"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="B169" s="3" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="3" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="H169" s="3">
         <v>12000.0</v>
       </c>
       <c r="I169" s="6"/>
       <c r="K169" s="3" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="L169" s="5"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="B170" s="3" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="3" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="H170" s="3">
-        <v>8500.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I170" s="6"/>
       <c r="K170" s="3" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="L170" s="5"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="B171" s="3" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="3" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="H171" s="3">
-        <v>8950.0</v>
+        <v>8500.0</v>
       </c>
       <c r="I171" s="6"/>
       <c r="K171" s="3" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="L171" s="5"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="B172" s="3" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="3" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="H172" s="3">
-        <v>8500.0</v>
+        <v>8950.0</v>
       </c>
       <c r="I172" s="6"/>
       <c r="K172" s="3" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="L172" s="5"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="B173" s="3" t="s">
-        <v>48</v>
+        <v>504</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="3" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="H173" s="3">
-        <v>8950.0</v>
+        <v>8500.0</v>
       </c>
       <c r="I173" s="6"/>
       <c r="K173" s="3" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="L173" s="5"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="B174" s="3" t="s">
-        <v>495</v>
+        <v>48</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="3" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="H174" s="3">
-        <v>8500.0</v>
+        <v>8950.0</v>
       </c>
       <c r="I174" s="6"/>
       <c r="K174" s="3" t="s">
-        <v>497</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="L174" s="5"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="B175" s="3" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="3" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="H175" s="3">
-        <v>8950.0</v>
+        <v>8500.0</v>
       </c>
       <c r="I175" s="6"/>
       <c r="K175" s="3" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="B176" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="3" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="H176" s="3">
-        <v>9400.0</v>
+        <v>8950.0</v>
       </c>
       <c r="I176" s="6"/>
       <c r="K176" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="L176" s="5"/>
+        <v>513</v>
+      </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="B177" s="3" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="3" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="H177" s="3">
         <v>9400.0</v>
       </c>
       <c r="I177" s="6"/>
       <c r="K177" s="3" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="L177" s="5"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="16" t="s">
-        <v>506</v>
+      <c r="B178" s="3" t="s">
+        <v>517</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G178" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="H178" s="16">
-        <v>7850.0</v>
+      <c r="F178" s="5"/>
+      <c r="G178" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="H178" s="3">
+        <v>9400.0</v>
       </c>
       <c r="I178" s="6"/>
-      <c r="K178" s="16" t="s">
-        <v>508</v>
-      </c>
+      <c r="K178" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="L178" s="5"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="B179" s="16" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="H179" s="16">
         <v>7850.0</v>
       </c>
       <c r="I179" s="6"/>
       <c r="K179" s="16" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="B180" s="16" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G180" s="16" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="H180" s="16">
         <v>7850.0</v>
       </c>
       <c r="I180" s="6"/>
       <c r="K180" s="16" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="B181" s="16" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="H181" s="16">
         <v>7850.0</v>
       </c>
       <c r="I181" s="6"/>
       <c r="K181" s="16" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="B182" s="16" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G182" s="16" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="H182" s="16">
-        <v>10600.0</v>
+        <v>7850.0</v>
       </c>
       <c r="I182" s="6"/>
       <c r="K182" s="16" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="B183" s="16" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="H183" s="16">
-        <v>10850.0</v>
+        <v>10600.0</v>
       </c>
       <c r="I183" s="6"/>
       <c r="K183" s="16" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="B184" s="16" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G184" s="16" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="H184" s="16">
-        <v>10600.0</v>
+        <v>10850.0</v>
       </c>
       <c r="I184" s="6"/>
       <c r="K184" s="16" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="B185" s="16" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G185" s="16" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="H185" s="16">
-        <v>10850.0</v>
+        <v>10600.0</v>
       </c>
       <c r="I185" s="6"/>
       <c r="K185" s="16" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="B186" s="16" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G186" s="16" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="H186" s="16">
-        <v>13500.0</v>
+        <v>10850.0</v>
       </c>
       <c r="I186" s="6"/>
       <c r="K186" s="16" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="B187" s="16" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="H187" s="16">
-        <v>16600.0</v>
+        <v>13500.0</v>
       </c>
       <c r="I187" s="6"/>
       <c r="K187" s="16" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="B188" s="16" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G188" s="16" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="H188" s="16">
-        <v>19900.0</v>
+        <v>16600.0</v>
       </c>
       <c r="I188" s="6"/>
       <c r="K188" s="16" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="B189" s="16" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G189" s="16" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="H189" s="16">
         <v>19900.0</v>
       </c>
       <c r="I189" s="6"/>
       <c r="K189" s="16" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="B190" s="16" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G190" s="16" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="H190" s="16">
         <v>19900.0</v>
       </c>
       <c r="I190" s="6"/>
       <c r="K190" s="16" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="B191" s="16" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G191" s="16" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="H191" s="16">
         <v>19900.0</v>
       </c>
       <c r="I191" s="6"/>
       <c r="K191" s="16" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="B192" s="16" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G192" s="16" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="H192" s="16">
-        <v>27300.0</v>
+        <v>19900.0</v>
       </c>
       <c r="I192" s="6"/>
       <c r="K192" s="16" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="B193" s="16" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G193" s="16" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="H193" s="16">
         <v>27300.0</v>
       </c>
       <c r="I193" s="6"/>
       <c r="K193" s="16" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="B194" s="16" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G194" s="16" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="H194" s="16">
-        <v>12800.0</v>
+        <v>27300.0</v>
       </c>
       <c r="I194" s="6"/>
       <c r="K194" s="16" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="B195" s="16" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G195" s="16" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="H195" s="16">
         <v>12800.0</v>
       </c>
       <c r="I195" s="6"/>
       <c r="K195" s="16" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="B196" s="16" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G196" s="16" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="H196" s="16">
         <v>12800.0</v>
       </c>
       <c r="I196" s="6"/>
       <c r="K196" s="16" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="B197" s="16" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G197" s="16" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="H197" s="16">
         <v>12800.0</v>
       </c>
       <c r="I197" s="6"/>
       <c r="K197" s="16" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="B198" s="16" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G198" s="16" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="H198" s="16">
         <v>12800.0</v>
       </c>
       <c r="I198" s="6"/>
       <c r="K198" s="16" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="B199" s="16" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G199" s="16" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="H199" s="16">
         <v>12800.0</v>
       </c>
       <c r="I199" s="6"/>
       <c r="K199" s="16" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="B200" s="16" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G200" s="16" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="H200" s="16">
-        <v>16200.0</v>
+        <v>12800.0</v>
       </c>
       <c r="I200" s="6"/>
       <c r="K200" s="16" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="B201" s="16" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G201" s="16" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="H201" s="16">
         <v>16200.0</v>
       </c>
       <c r="I201" s="6"/>
       <c r="K201" s="16" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="B202" s="16" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="H202" s="16">
-        <v>17300.0</v>
+        <v>16200.0</v>
       </c>
       <c r="I202" s="6"/>
       <c r="K202" s="16" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="B203" s="16" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G203" s="16" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="H203" s="16">
         <v>17300.0</v>
       </c>
       <c r="I203" s="6"/>
       <c r="K203" s="16" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="B204" s="16" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G204" s="16" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="H204" s="16">
-        <v>7800.0</v>
+        <v>17300.0</v>
       </c>
       <c r="I204" s="6"/>
       <c r="K204" s="16" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="B205" s="16" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G205" s="16" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="H205" s="16">
-        <v>11400.0</v>
+        <v>7800.0</v>
       </c>
       <c r="I205" s="6"/>
       <c r="K205" s="16" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="B206" s="16" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G206" s="16" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="H206" s="16">
-        <v>7800.0</v>
+        <v>11400.0</v>
       </c>
       <c r="I206" s="6"/>
       <c r="K206" s="16" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="B207" s="16" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G207" s="16" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="H207" s="16">
-        <v>11400.0</v>
+        <v>7800.0</v>
       </c>
       <c r="I207" s="6"/>
       <c r="K207" s="16" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="B208" s="16" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G208" s="16" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="H208" s="16">
-        <v>7800.0</v>
+        <v>11400.0</v>
       </c>
       <c r="I208" s="6"/>
       <c r="K208" s="16" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="B209" s="16" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G209" s="16" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="H209" s="16">
-        <v>11400.0</v>
+        <v>7800.0</v>
       </c>
       <c r="I209" s="6"/>
       <c r="K209" s="16" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="B210" s="16" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G210" s="16" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="H210" s="16">
-        <v>7800.0</v>
+        <v>11400.0</v>
       </c>
       <c r="I210" s="6"/>
       <c r="K210" s="16" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="B211" s="16" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G211" s="16" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="H211" s="16">
-        <v>11400.0</v>
+        <v>7800.0</v>
       </c>
       <c r="I211" s="6"/>
       <c r="K211" s="16" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="B212" s="16" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G212" s="16" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="H212" s="16">
-        <v>7800.0</v>
+        <v>11400.0</v>
       </c>
       <c r="I212" s="6"/>
       <c r="K212" s="16" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="B213" s="16" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G213" s="16" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="H213" s="16">
-        <v>11400.0</v>
+        <v>7800.0</v>
       </c>
       <c r="I213" s="6"/>
       <c r="K213" s="16" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="B214" s="16" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G214" s="16" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="H214" s="16">
-        <v>7800.0</v>
+        <v>11400.0</v>
       </c>
       <c r="I214" s="6"/>
       <c r="K214" s="16" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="B215" s="16" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G215" s="16" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="H215" s="16">
-        <v>11400.0</v>
+        <v>7800.0</v>
       </c>
       <c r="I215" s="6"/>
       <c r="K215" s="16" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="B216" s="16" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G216" s="16" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="H216" s="16">
-        <v>7800.0</v>
+        <v>11400.0</v>
       </c>
       <c r="I216" s="6"/>
       <c r="K216" s="16" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="B217" s="16" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G217" s="16" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="H217" s="16">
-        <v>11400.0</v>
+        <v>7800.0</v>
       </c>
       <c r="I217" s="6"/>
       <c r="K217" s="16" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="B218" s="16" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G218" s="16" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="H218" s="16">
-        <v>8950.0</v>
+        <v>11400.0</v>
       </c>
       <c r="I218" s="6"/>
       <c r="K218" s="16" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="B219" s="16" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G219" s="16" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="H219" s="16">
         <v>8950.0</v>
       </c>
       <c r="I219" s="6"/>
       <c r="K219" s="16" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="B220" s="16" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G220" s="16" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="H220" s="16">
         <v>8950.0</v>
       </c>
       <c r="I220" s="6"/>
       <c r="K220" s="16" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="B221" s="16" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G221" s="16" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="H221" s="16">
-        <v>7800.0</v>
+        <v>8950.0</v>
       </c>
       <c r="I221" s="6"/>
       <c r="K221" s="16" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="B222" s="16" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G222" s="16" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="H222" s="16">
         <v>7800.0</v>
       </c>
       <c r="I222" s="6"/>
       <c r="K222" s="16" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="B223" s="16" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G223" s="16" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="H223" s="16">
         <v>7800.0</v>
       </c>
       <c r="I223" s="6"/>
       <c r="K223" s="16" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="B224" s="16" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F224" s="16"/>
       <c r="G224" s="16" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="H224" s="16">
-        <v>7400.0</v>
-      </c>
+        <v>7800.0</v>
+      </c>
+      <c r="I224" s="6"/>
       <c r="K224" s="16" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="B225" s="16" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F225" s="16"/>
       <c r="G225" s="16" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="H225" s="16">
         <v>7400.0</v>
       </c>
       <c r="K225" s="16" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="B226" s="16" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F226" s="16"/>
       <c r="G226" s="16" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="H226" s="16">
         <v>7400.0</v>
       </c>
       <c r="K226" s="16" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="B227" s="16" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F227" s="16"/>
       <c r="G227" s="16" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="H227" s="16">
         <v>7400.0</v>
       </c>
       <c r="K227" s="16" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="B228" s="16" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F228" s="16"/>
       <c r="G228" s="16" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="H228" s="16">
         <v>7400.0</v>
       </c>
       <c r="K228" s="16" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="B229" s="16" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F229" s="16"/>
       <c r="G229" s="16" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="H229" s="16">
         <v>7400.0</v>
       </c>
       <c r="K229" s="16" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="B230" s="16" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F230" s="16"/>
       <c r="G230" s="16" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="H230" s="16">
-        <v>10010.0</v>
+        <v>7400.0</v>
+      </c>
+      <c r="K230" s="16" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="B231" s="16" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F231" s="16"/>
       <c r="G231" s="16" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="H231" s="16">
         <v>10010.0</v>
@@ -10893,17 +11030,17 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="B232" s="16" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F232" s="16"/>
       <c r="G232" s="16" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="H232" s="16">
         <v>10010.0</v>
@@ -10911,17 +11048,17 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="B233" s="16" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F233" s="16"/>
       <c r="G233" s="16" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="H233" s="16">
         <v>10010.0</v>
@@ -10929,17 +11066,17 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="B234" s="16" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F234" s="16"/>
       <c r="G234" s="16" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="H234" s="16">
         <v>10010.0</v>
@@ -10947,35 +11084,35 @@
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="B235" s="16" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F235" s="16"/>
       <c r="G235" s="16" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="H235" s="16">
-        <v>9310.0</v>
+        <v>10010.0</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="B236" s="16" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F236" s="16"/>
       <c r="G236" s="16" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="H236" s="16">
         <v>9310.0</v>
@@ -10983,17 +11120,17 @@
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="B237" s="16" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F237" s="16"/>
       <c r="G237" s="16" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="H237" s="16">
         <v>9310.0</v>
@@ -11001,17 +11138,17 @@
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="B238" s="16" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F238" s="16"/>
       <c r="G238" s="16" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="H238" s="16">
         <v>9310.0</v>
@@ -11019,35 +11156,35 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="B239" s="16" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F239" s="16"/>
       <c r="G239" s="16" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="H239" s="16">
-        <v>7170.0</v>
+        <v>9310.0</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="B240" s="16" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F240" s="16"/>
       <c r="G240" s="16" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="H240" s="16">
         <v>7170.0</v>
@@ -11055,17 +11192,17 @@
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="B241" s="16" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F241" s="16"/>
       <c r="G241" s="16" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="H241" s="16">
         <v>7170.0</v>
@@ -11073,17 +11210,17 @@
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="B242" s="16" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F242" s="16"/>
       <c r="G242" s="16" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="H242" s="16">
         <v>7170.0</v>
@@ -11091,17 +11228,17 @@
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="B243" s="16" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F243" s="16"/>
       <c r="G243" s="16" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="H243" s="16">
         <v>7170.0</v>
@@ -11109,17 +11246,17 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="B244" s="16" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F244" s="16"/>
       <c r="G244" s="16" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="H244" s="16">
         <v>7170.0</v>
@@ -11127,35 +11264,35 @@
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="B245" s="16" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F245" s="16"/>
       <c r="G245" s="16" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="H245" s="16">
-        <v>7400.0</v>
+        <v>7170.0</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="B246" s="16" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F246" s="16"/>
       <c r="G246" s="16" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="H246" s="16">
         <v>7400.0</v>
@@ -11163,17 +11300,17 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="B247" s="16" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F247" s="16"/>
       <c r="G247" s="16" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="H247" s="16">
         <v>7400.0</v>
@@ -11181,17 +11318,17 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="B248" s="16" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F248" s="16"/>
       <c r="G248" s="16" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="H248" s="16">
         <v>7400.0</v>
@@ -11199,17 +11336,17 @@
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="B249" s="16" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F249" s="16"/>
       <c r="G249" s="16" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="H249" s="16">
         <v>7400.0</v>
@@ -11217,17 +11354,17 @@
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="B250" s="16" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F250" s="16"/>
       <c r="G250" s="16" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="H250" s="16">
         <v>7400.0</v>
@@ -11235,35 +11372,35 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="B251" s="16" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F251" s="16"/>
       <c r="G251" s="16" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="H251" s="16">
-        <v>8330.0</v>
+        <v>7400.0</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="B252" s="16" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F252" s="16"/>
       <c r="G252" s="16" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="H252" s="16">
         <v>8330.0</v>
@@ -11271,17 +11408,17 @@
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="B253" s="16" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F253" s="16"/>
       <c r="G253" s="16" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="H253" s="16">
         <v>8330.0</v>
@@ -11289,17 +11426,17 @@
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="B254" s="16" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F254" s="16"/>
       <c r="G254" s="16" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="H254" s="16">
         <v>8330.0</v>
@@ -11307,17 +11444,17 @@
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="B255" s="16" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F255" s="16"/>
       <c r="G255" s="16" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="H255" s="16">
         <v>8330.0</v>
@@ -11325,17 +11462,17 @@
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="B256" s="16" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F256" s="16"/>
       <c r="G256" s="16" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="H256" s="16">
         <v>8330.0</v>
@@ -11343,17 +11480,17 @@
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="B257" s="16" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F257" s="16"/>
       <c r="G257" s="16" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="H257" s="16">
         <v>8330.0</v>
@@ -11361,17 +11498,17 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="B258" s="16" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F258" s="16"/>
       <c r="G258" s="16" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="H258" s="16">
         <v>8330.0</v>
@@ -11379,35 +11516,35 @@
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="B259" s="16" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F259" s="16"/>
       <c r="G259" s="16" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="H259" s="16">
-        <v>9310.0</v>
+        <v>8330.0</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="B260" s="16" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F260" s="16"/>
       <c r="G260" s="16" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="H260" s="16">
         <v>9310.0</v>
@@ -11415,17 +11552,17 @@
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="B261" s="16" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F261" s="16"/>
       <c r="G261" s="16" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="H261" s="16">
         <v>9310.0</v>
@@ -11433,17 +11570,17 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="B262" s="16" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F262" s="16"/>
       <c r="G262" s="16" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="H262" s="16">
         <v>9310.0</v>
@@ -11451,17 +11588,17 @@
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="B263" s="16" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F263" s="16"/>
       <c r="G263" s="16" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="H263" s="16">
         <v>9310.0</v>
@@ -11469,17 +11606,17 @@
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="B264" s="16" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F264" s="16"/>
       <c r="G264" s="16" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="H264" s="16">
         <v>9310.0</v>
@@ -11487,35 +11624,35 @@
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="B265" s="16" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F265" s="16"/>
       <c r="G265" s="16" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="H265" s="16">
-        <v>9810.0</v>
+        <v>9310.0</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="B266" s="16" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F266" s="16"/>
       <c r="G266" s="16" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="H266" s="16">
         <v>9810.0</v>
@@ -11523,17 +11660,17 @@
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="B267" s="16" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F267" s="16"/>
       <c r="G267" s="16" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="H267" s="16">
         <v>9810.0</v>
@@ -11541,17 +11678,17 @@
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="B268" s="16" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F268" s="16"/>
       <c r="G268" s="16" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="H268" s="16">
         <v>9810.0</v>
@@ -11559,17 +11696,17 @@
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="B269" s="16" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F269" s="16"/>
       <c r="G269" s="16" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="H269" s="16">
         <v>9810.0</v>
@@ -11577,35 +11714,35 @@
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="B270" s="16" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F270" s="16"/>
       <c r="G270" s="16" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="H270" s="16">
-        <v>10950.0</v>
+        <v>9810.0</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="B271" s="16" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F271" s="16"/>
       <c r="G271" s="16" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="H271" s="16">
         <v>10950.0</v>
@@ -11613,17 +11750,17 @@
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="B272" s="16" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F272" s="16"/>
       <c r="G272" s="16" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="H272" s="16">
         <v>10950.0</v>
@@ -11631,35 +11768,35 @@
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="B273" s="16" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F273" s="16"/>
       <c r="G273" s="16" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="H273" s="16">
-        <v>9240.0</v>
+        <v>10950.0</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="B274" s="16" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F274" s="16"/>
       <c r="G274" s="16" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="H274" s="16">
         <v>9240.0</v>
@@ -11667,17 +11804,17 @@
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="B275" s="16" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F275" s="16"/>
       <c r="G275" s="16" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="H275" s="16">
         <v>9240.0</v>
@@ -11685,17 +11822,17 @@
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="B276" s="16" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F276" s="16"/>
       <c r="G276" s="16" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="H276" s="16">
         <v>9240.0</v>
@@ -11703,17 +11840,17 @@
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="B277" s="16" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F277" s="16"/>
       <c r="G277" s="16" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="H277" s="16">
         <v>9240.0</v>
@@ -11721,17 +11858,17 @@
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="B278" s="16" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F278" s="16"/>
       <c r="G278" s="16" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="H278" s="16">
         <v>9240.0</v>
@@ -11739,17 +11876,17 @@
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="B279" s="16" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F279" s="16"/>
       <c r="G279" s="16" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="H279" s="16">
         <v>9240.0</v>
@@ -11757,17 +11894,17 @@
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="B280" s="16" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F280" s="16"/>
       <c r="G280" s="16" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="H280" s="16">
         <v>9240.0</v>
@@ -11775,17 +11912,17 @@
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="B281" s="16" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F281" s="16"/>
       <c r="G281" s="16" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="H281" s="16">
         <v>9240.0</v>
@@ -11793,17 +11930,17 @@
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="B282" s="16" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F282" s="16"/>
       <c r="G282" s="16" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="H282" s="16">
         <v>9240.0</v>
@@ -11811,17 +11948,17 @@
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="B283" s="16" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F283" s="16"/>
       <c r="G283" s="16" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="H283" s="16">
         <v>9240.0</v>
@@ -11829,35 +11966,35 @@
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="B284" s="16" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F284" s="16"/>
       <c r="G284" s="16" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="H284" s="16">
-        <v>10490.0</v>
+        <v>9240.0</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="B285" s="16" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F285" s="16"/>
       <c r="G285" s="16" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="H285" s="16">
         <v>10490.0</v>
@@ -11865,17 +12002,17 @@
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="B286" s="16" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F286" s="16"/>
       <c r="G286" s="16" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="H286" s="16">
         <v>10490.0</v>
@@ -11883,35 +12020,35 @@
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="B287" s="16" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F287" s="16"/>
       <c r="G287" s="16" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="H287" s="16">
-        <v>9130.0</v>
+        <v>10490.0</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="B288" s="16" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F288" s="16"/>
       <c r="G288" s="16" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="H288" s="16">
         <v>9130.0</v>
@@ -11919,17 +12056,17 @@
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="B289" s="16" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F289" s="16"/>
       <c r="G289" s="16" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="H289" s="16">
         <v>9130.0</v>
@@ -11937,17 +12074,17 @@
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="B290" s="16" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F290" s="16"/>
       <c r="G290" s="16" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="H290" s="16">
         <v>9130.0</v>
@@ -11955,35 +12092,35 @@
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="B291" s="16" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F291" s="16"/>
       <c r="G291" s="16" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="H291" s="16">
-        <v>9240.0</v>
+        <v>9130.0</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="B292" s="16" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F292" s="16"/>
       <c r="G292" s="16" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="H292" s="16">
         <v>9240.0</v>
@@ -11991,17 +12128,17 @@
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="B293" s="16" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F293" s="16"/>
       <c r="G293" s="16" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="H293" s="16">
         <v>9240.0</v>
@@ -12009,17 +12146,17 @@
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="B294" s="16" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F294" s="16"/>
       <c r="G294" s="16" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="H294" s="16">
         <v>9240.0</v>
@@ -12027,35 +12164,35 @@
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="B295" s="16" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F295" s="16"/>
       <c r="G295" s="16" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="H295" s="16">
-        <v>10950.0</v>
+        <v>9240.0</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="B296" s="16" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F296" s="16"/>
       <c r="G296" s="16" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="H296" s="16">
         <v>10950.0</v>
@@ -12063,17 +12200,17 @@
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="B297" s="16" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F297" s="16"/>
       <c r="G297" s="16" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="H297" s="16">
         <v>10950.0</v>
@@ -12081,35 +12218,35 @@
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="B298" s="16" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F298" s="16"/>
       <c r="G298" s="16" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="H298" s="16">
-        <v>8130.0</v>
+        <v>10950.0</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="B299" s="16" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F299" s="16"/>
       <c r="G299" s="16" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="H299" s="16">
         <v>8130.0</v>
@@ -12117,17 +12254,17 @@
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="B300" s="16" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F300" s="16"/>
       <c r="G300" s="16" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="H300" s="16">
         <v>8130.0</v>
@@ -12135,107 +12272,107 @@
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="B301" s="16" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F301" s="16"/>
       <c r="G301" s="16" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="H301" s="16">
-        <v>10450.0</v>
+        <v>8130.0</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="B302" s="16" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F302" s="16"/>
       <c r="G302" s="16" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="H302" s="16">
-        <v>10340.0</v>
+        <v>10450.0</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="B303" s="16" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F303" s="16"/>
       <c r="G303" s="16" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="H303" s="16">
-        <v>10520.0</v>
+        <v>10340.0</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="B304" s="16" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F304" s="16"/>
       <c r="G304" s="16" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="H304" s="16">
-        <v>9950.0</v>
+        <v>10520.0</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="B305" s="16" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F305" s="16"/>
       <c r="G305" s="16" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="H305" s="16">
-        <v>4480.0</v>
+        <v>9950.0</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="B306" s="16" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F306" s="16"/>
       <c r="G306" s="16" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="H306" s="16">
         <v>4480.0</v>
@@ -12243,17 +12380,17 @@
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="B307" s="16" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F307" s="16"/>
       <c r="G307" s="16" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="H307" s="16">
         <v>4480.0</v>
@@ -12261,17 +12398,17 @@
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="B308" s="16" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F308" s="16"/>
       <c r="G308" s="16" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="H308" s="16">
         <v>4480.0</v>
@@ -12279,17 +12416,17 @@
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="B309" s="16" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F309" s="16"/>
       <c r="G309" s="16" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="H309" s="16">
         <v>4480.0</v>
@@ -12297,17 +12434,17 @@
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="B310" s="16" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F310" s="16"/>
       <c r="G310" s="16" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="H310" s="16">
         <v>4480.0</v>
@@ -12315,17 +12452,17 @@
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="B311" s="16" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F311" s="16"/>
       <c r="G311" s="16" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="H311" s="16">
         <v>4480.0</v>
@@ -12333,17 +12470,17 @@
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="B312" s="16" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F312" s="16"/>
       <c r="G312" s="16" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="H312" s="16">
         <v>4480.0</v>
@@ -12351,17 +12488,17 @@
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="B313" s="16" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F313" s="16"/>
       <c r="G313" s="16" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="H313" s="16">
         <v>4480.0</v>
@@ -12369,35 +12506,35 @@
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="B314" s="16" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F314" s="16"/>
       <c r="G314" s="16" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="H314" s="16">
-        <v>10250.0</v>
+        <v>4480.0</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="B315" s="16" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F315" s="16"/>
       <c r="G315" s="16" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="H315" s="16">
         <v>10250.0</v>
@@ -12405,17 +12542,17 @@
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="B316" s="16" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F316" s="16"/>
       <c r="G316" s="16" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="H316" s="16">
         <v>10250.0</v>
@@ -12423,17 +12560,17 @@
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="B317" s="16" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F317" s="16"/>
       <c r="G317" s="16" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="H317" s="16">
         <v>10250.0</v>
@@ -12441,35 +12578,35 @@
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="B318" s="16" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F318" s="16"/>
       <c r="G318" s="16" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="H318" s="16">
-        <v>12000.0</v>
+        <v>10250.0</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="B319" s="16" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F319" s="16"/>
       <c r="G319" s="16" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="H319" s="16">
         <v>12000.0</v>
@@ -12477,35 +12614,35 @@
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="B320" s="16" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F320" s="16"/>
       <c r="G320" s="16" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="H320" s="16">
-        <v>5200.0</v>
+        <v>12000.0</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="B321" s="16" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F321" s="16"/>
       <c r="G321" s="16" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="H321" s="16">
         <v>5200.0</v>
@@ -12513,17 +12650,17 @@
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="B322" s="16" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F322" s="16"/>
       <c r="G322" s="16" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="H322" s="16">
         <v>5200.0</v>
@@ -12531,71 +12668,71 @@
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="B323" s="16" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F323" s="16"/>
       <c r="G323" s="16" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="H323" s="16">
-        <v>4960.0</v>
+        <v>5200.0</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="B324" s="16" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F324" s="16"/>
       <c r="G324" s="16" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="H324" s="16">
-        <v>5400.0</v>
+        <v>4960.0</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="B325" s="16" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F325" s="16"/>
       <c r="G325" s="16" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="H325" s="16">
-        <v>5700.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="B326" s="16" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F326" s="16"/>
       <c r="G326" s="16" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="H326" s="16">
         <v>5700.0</v>
@@ -12603,17 +12740,17 @@
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="B327" s="16" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F327" s="16"/>
       <c r="G327" s="16" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="H327" s="16">
         <v>5700.0</v>
@@ -12621,17 +12758,17 @@
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="B328" s="16" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F328" s="16"/>
       <c r="G328" s="16" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="H328" s="16">
         <v>5700.0</v>
@@ -12639,35 +12776,35 @@
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="B329" s="16" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F329" s="16"/>
       <c r="G329" s="16" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="H329" s="16">
-        <v>9540.0</v>
+        <v>5700.0</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="B330" s="16" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F330" s="16"/>
       <c r="G330" s="16" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="H330" s="16">
         <v>9540.0</v>
@@ -12675,35 +12812,35 @@
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="B331" s="16" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F331" s="16"/>
       <c r="G331" s="16" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="H331" s="16">
-        <v>8150.0</v>
+        <v>9540.0</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="B332" s="16" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F332" s="16"/>
       <c r="G332" s="16" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="H332" s="16">
         <v>8150.0</v>
@@ -12711,17 +12848,17 @@
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="B333" s="16" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F333" s="16"/>
       <c r="G333" s="16" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="H333" s="16">
         <v>8150.0</v>
@@ -12729,17 +12866,17 @@
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="B334" s="16" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F334" s="16"/>
       <c r="G334" s="16" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="H334" s="16">
         <v>8150.0</v>
@@ -12747,17 +12884,17 @@
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="B335" s="16" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F335" s="16"/>
       <c r="G335" s="16" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="H335" s="16">
         <v>8150.0</v>
@@ -12765,35 +12902,35 @@
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="B336" s="16" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F336" s="16"/>
       <c r="G336" s="16" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="H336" s="16">
-        <v>8650.0</v>
+        <v>8150.0</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="B337" s="16" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F337" s="16"/>
       <c r="G337" s="16" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="H337" s="16">
         <v>8650.0</v>
@@ -12801,35 +12938,35 @@
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="B338" s="16" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F338" s="16"/>
       <c r="G338" s="16" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
       <c r="H338" s="16">
-        <v>8750.0</v>
+        <v>8650.0</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="B339" s="16" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F339" s="16"/>
       <c r="G339" s="16" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="H339" s="16">
         <v>8750.0</v>
@@ -12837,17 +12974,17 @@
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="B340" s="16" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F340" s="16"/>
       <c r="G340" s="16" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="H340" s="16">
         <v>8750.0</v>
@@ -12855,17 +12992,17 @@
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="B341" s="16" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F341" s="16"/>
       <c r="G341" s="16" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
       <c r="H341" s="16">
         <v>8750.0</v>
@@ -12873,35 +13010,35 @@
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="B342" s="16" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F342" s="16"/>
       <c r="G342" s="16" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="H342" s="16">
-        <v>9160.0</v>
+        <v>8750.0</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="B343" s="16" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F343" s="16"/>
       <c r="G343" s="16" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="H343" s="16">
         <v>9160.0</v>
@@ -12909,17 +13046,17 @@
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="B344" s="16" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F344" s="16"/>
       <c r="G344" s="16" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="H344" s="16">
         <v>9160.0</v>
@@ -12927,35 +13064,35 @@
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="B345" s="16" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F345" s="16"/>
       <c r="G345" s="16" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="H345" s="16">
-        <v>9390.0</v>
+        <v>9160.0</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="B346" s="16" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F346" s="16"/>
       <c r="G346" s="16" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="H346" s="16">
         <v>9390.0</v>
@@ -12963,17 +13100,17 @@
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="B347" s="16" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F347" s="16"/>
       <c r="G347" s="16" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="H347" s="16">
         <v>9390.0</v>
@@ -12981,35 +13118,35 @@
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="B348" s="16" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F348" s="16"/>
       <c r="G348" s="16" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="H348" s="16">
-        <v>9260.0</v>
+        <v>9390.0</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="B349" s="16" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F349" s="16"/>
       <c r="G349" s="16" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="H349" s="16">
         <v>9260.0</v>
@@ -13017,17 +13154,17 @@
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="B350" s="16" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F350" s="16"/>
       <c r="G350" s="16" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="H350" s="16">
         <v>9260.0</v>
@@ -13035,35 +13172,35 @@
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="B351" s="16" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F351" s="16"/>
       <c r="G351" s="16" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="H351" s="16">
-        <v>9490.0</v>
+        <v>9260.0</v>
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="B352" s="16" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F352" s="16"/>
       <c r="G352" s="16" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="H352" s="16">
         <v>9490.0</v>
@@ -13071,17 +13208,17 @@
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="B353" s="16" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F353" s="16"/>
       <c r="G353" s="16" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="H353" s="16">
         <v>9490.0</v>
@@ -13089,431 +13226,431 @@
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="B354" s="16" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F354" s="16"/>
       <c r="G354" s="16" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="H354" s="16">
-        <v>5300.0</v>
-      </c>
-    </row>
-    <row r="355" ht="17.25" customHeight="1">
+        <v>9490.0</v>
+      </c>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
       <c r="B355" s="16" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F355" s="16"/>
       <c r="G355" s="16" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="H355" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="356" ht="15.0" customHeight="1">
+    <row r="356" ht="17.25" customHeight="1">
       <c r="B356" s="16" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F356" s="16"/>
       <c r="G356" s="16" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="H356" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" ht="15.0" customHeight="1">
       <c r="B357" s="16" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F357" s="16"/>
       <c r="G357" s="16" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="H357" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="358" ht="17.25" customHeight="1">
+    <row r="358" ht="15.75" customHeight="1">
       <c r="B358" s="16" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F358" s="16"/>
       <c r="G358" s="16" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="H358" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" ht="17.25" customHeight="1">
       <c r="B359" s="16" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F359" s="16"/>
       <c r="G359" s="16" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="H359" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="360" ht="17.25" customHeight="1">
+    <row r="360" ht="15.75" customHeight="1">
       <c r="B360" s="16" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F360" s="16"/>
       <c r="G360" s="16" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="H360" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" ht="17.25" customHeight="1">
       <c r="B361" s="16" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F361" s="16"/>
       <c r="G361" s="16" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="H361" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="362" ht="17.25" customHeight="1">
+    <row r="362" ht="15.75" customHeight="1">
       <c r="B362" s="16" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F362" s="16"/>
       <c r="G362" s="16" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="H362" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="363" ht="15.0" customHeight="1">
+    <row r="363" ht="17.25" customHeight="1">
       <c r="B363" s="16" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F363" s="16"/>
       <c r="G363" s="16" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="H363" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" ht="15.0" customHeight="1">
       <c r="B364" s="16" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F364" s="16"/>
       <c r="G364" s="16" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="H364" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="365" ht="17.25" customHeight="1">
+    <row r="365" ht="15.75" customHeight="1">
       <c r="B365" s="16" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F365" s="16"/>
       <c r="G365" s="16" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="H365" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" ht="17.25" customHeight="1">
       <c r="B366" s="16" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F366" s="16"/>
       <c r="G366" s="16" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="H366" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="367" ht="17.25" customHeight="1">
+    <row r="367" ht="15.75" customHeight="1">
       <c r="B367" s="16" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F367" s="16"/>
       <c r="G367" s="16" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="H367" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="368" ht="15.0" customHeight="1">
+    <row r="368" ht="17.25" customHeight="1">
       <c r="B368" s="16" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F368" s="16"/>
       <c r="G368" s="16" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="H368" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" ht="15.0" customHeight="1">
       <c r="B369" s="16" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F369" s="16"/>
       <c r="G369" s="16" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="H369" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="370" ht="17.25" customHeight="1">
+    <row r="370" ht="15.75" customHeight="1">
       <c r="B370" s="16" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D370" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F370" s="16"/>
       <c r="G370" s="16" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="H370" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" ht="17.25" customHeight="1">
       <c r="B371" s="16" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F371" s="16"/>
       <c r="G371" s="16" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="H371" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="372" ht="17.25" customHeight="1">
+    <row r="372" ht="15.75" customHeight="1">
       <c r="B372" s="16" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F372" s="16"/>
       <c r="G372" s="16" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="H372" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="373" ht="15.0" customHeight="1">
+    <row r="373" ht="17.25" customHeight="1">
       <c r="B373" s="16" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F373" s="16"/>
       <c r="G373" s="16" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="H373" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" ht="15.0" customHeight="1">
       <c r="B374" s="16" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D374" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F374" s="16"/>
       <c r="G374" s="16" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="H374" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="375" ht="17.25" customHeight="1">
+    <row r="375" ht="15.75" customHeight="1">
       <c r="B375" s="16" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F375" s="16"/>
       <c r="G375" s="16" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="H375" s="16">
         <v>5300.0</v>
       </c>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" ht="17.25" customHeight="1">
       <c r="B376" s="16" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F376" s="16"/>
       <c r="G376" s="16" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="H376" s="16">
-        <v>4980.0</v>
+        <v>5300.0</v>
       </c>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="B377" s="16" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F377" s="16"/>
       <c r="G377" s="16" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="H377" s="16">
         <v>4980.0</v>
@@ -13521,17 +13658,17 @@
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="B378" s="16" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F378" s="16"/>
       <c r="G378" s="16" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="H378" s="16">
         <v>4980.0</v>
@@ -13539,35 +13676,35 @@
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="B379" s="16" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F379" s="16"/>
       <c r="G379" s="16" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="H379" s="16">
-        <v>7640.0</v>
+        <v>4980.0</v>
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="B380" s="16" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F380" s="16"/>
       <c r="G380" s="16" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="H380" s="16">
         <v>7640.0</v>
@@ -13575,17 +13712,17 @@
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="B381" s="16" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F381" s="16"/>
       <c r="G381" s="16" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="H381" s="16">
         <v>7640.0</v>
@@ -13593,17 +13730,17 @@
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="B382" s="16" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F382" s="16"/>
       <c r="G382" s="16" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="H382" s="16">
         <v>7640.0</v>
@@ -13611,17 +13748,17 @@
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="B383" s="16" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F383" s="16"/>
       <c r="G383" s="16" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
       <c r="H383" s="16">
         <v>7640.0</v>
@@ -13629,17 +13766,17 @@
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="B384" s="16" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F384" s="16"/>
       <c r="G384" s="16" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="H384" s="16">
         <v>7640.0</v>
@@ -13647,35 +13784,35 @@
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="B385" s="16" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F385" s="16"/>
       <c r="G385" s="16" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="H385" s="16">
-        <v>5990.0</v>
+        <v>7640.0</v>
       </c>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="B386" s="16" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F386" s="16"/>
       <c r="G386" s="16" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="H386" s="16">
         <v>5990.0</v>
@@ -13683,17 +13820,17 @@
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="B387" s="16" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F387" s="16"/>
       <c r="G387" s="16" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="H387" s="16">
         <v>5990.0</v>
@@ -13701,17 +13838,17 @@
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="B388" s="16" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F388" s="16"/>
       <c r="G388" s="16" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="H388" s="16">
         <v>5990.0</v>
@@ -13719,17 +13856,17 @@
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="B389" s="16" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F389" s="16"/>
       <c r="G389" s="16" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="H389" s="16">
         <v>5990.0</v>
@@ -13737,17 +13874,17 @@
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="B390" s="16" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F390" s="16"/>
       <c r="G390" s="16" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="H390" s="16">
         <v>5990.0</v>
@@ -13755,125 +13892,125 @@
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="B391" s="16" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F391" s="16"/>
       <c r="G391" s="16" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="H391" s="16">
-        <v>6390.0</v>
+        <v>5990.0</v>
       </c>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="B392" s="16" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F392" s="16"/>
       <c r="G392" s="16" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="H392" s="16">
-        <v>8870.0</v>
+        <v>6390.0</v>
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="B393" s="16" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F393" s="16"/>
       <c r="G393" s="16" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="H393" s="16">
-        <v>6390.0</v>
+        <v>8870.0</v>
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="B394" s="16" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F394" s="16"/>
       <c r="G394" s="16" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="H394" s="16">
-        <v>8870.0</v>
+        <v>6390.0</v>
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="B395" s="16" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D395" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F395" s="16"/>
       <c r="G395" s="16" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="H395" s="16">
-        <v>5220.0</v>
+        <v>8870.0</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="B396" s="16" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F396" s="16"/>
       <c r="G396" s="16" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
       <c r="H396" s="16">
-        <v>9200.0</v>
+        <v>5220.0</v>
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="B397" s="16" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F397" s="16"/>
       <c r="G397" s="16" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="H397" s="16">
         <v>9200.0</v>
@@ -13881,17 +14018,17 @@
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="B398" s="16" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F398" s="16"/>
       <c r="G398" s="16" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="H398" s="16">
         <v>9200.0</v>
@@ -13899,17 +14036,17 @@
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="B399" s="16" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F399" s="16"/>
       <c r="G399" s="16" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="H399" s="16">
         <v>9200.0</v>
@@ -13917,17 +14054,17 @@
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="B400" s="16" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F400" s="16"/>
       <c r="G400" s="16" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="H400" s="16">
         <v>9200.0</v>
@@ -13935,17 +14072,17 @@
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="B401" s="16" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D401" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F401" s="16"/>
       <c r="G401" s="16" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="H401" s="16">
         <v>9200.0</v>
@@ -13953,53 +14090,53 @@
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="B402" s="16" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D402" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F402" s="16"/>
       <c r="G402" s="16" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
       <c r="H402" s="16">
-        <v>7640.0</v>
+        <v>9200.0</v>
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="B403" s="16" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F403" s="16"/>
       <c r="G403" s="16" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="H403" s="16">
-        <v>9200.0</v>
+        <v>7640.0</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="B404" s="16" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F404" s="16"/>
       <c r="G404" s="16" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="H404" s="16">
         <v>9200.0</v>
@@ -14007,17 +14144,17 @@
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="B405" s="16" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F405" s="16"/>
       <c r="G405" s="16" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
       <c r="H405" s="16">
         <v>9200.0</v>
@@ -14025,17 +14162,17 @@
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="B406" s="16" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F406" s="16"/>
       <c r="G406" s="16" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="H406" s="16">
         <v>9200.0</v>
@@ -14043,89 +14180,89 @@
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="B407" s="16" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F407" s="16"/>
       <c r="G407" s="16" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
       <c r="H407" s="16">
         <v>9200.0</v>
       </c>
     </row>
-    <row r="408" ht="16.5" customHeight="1">
+    <row r="408" ht="15.75" customHeight="1">
       <c r="B408" s="16" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F408" s="16"/>
       <c r="G408" s="16" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="H408" s="16">
-        <v>4980.0</v>
-      </c>
-    </row>
-    <row r="409" ht="15.75" customHeight="1">
+        <v>9200.0</v>
+      </c>
+    </row>
+    <row r="409" ht="16.5" customHeight="1">
       <c r="B409" s="16" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F409" s="16"/>
       <c r="G409" s="16" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="H409" s="16">
         <v>4980.0</v>
       </c>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" ht="15.75" customHeight="1">
       <c r="B410" s="16" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F410" s="16"/>
       <c r="G410" s="16" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
       <c r="H410" s="16">
         <v>4980.0</v>
       </c>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" ht="14.25" customHeight="1">
       <c r="B411" s="16" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F411" s="16"/>
       <c r="G411" s="16" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="H411" s="16">
         <v>4980.0</v>
@@ -14133,17 +14270,17 @@
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="B412" s="16" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F412" s="16"/>
       <c r="G412" s="16" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
       <c r="H412" s="16">
         <v>4980.0</v>
@@ -14151,17 +14288,17 @@
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="B413" s="16" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F413" s="16"/>
       <c r="G413" s="16" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
       <c r="H413" s="16">
         <v>4980.0</v>
@@ -14169,17 +14306,17 @@
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="B414" s="16" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F414" s="16"/>
       <c r="G414" s="16" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="H414" s="16">
         <v>4980.0</v>
@@ -14187,17 +14324,17 @@
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="B415" s="16" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F415" s="16"/>
       <c r="G415" s="16" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="H415" s="16">
         <v>4980.0</v>
@@ -14205,17 +14342,17 @@
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="B416" s="16" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F416" s="16"/>
       <c r="G416" s="16" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="H416" s="16">
         <v>4980.0</v>
@@ -14223,17 +14360,17 @@
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="B417" s="16" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F417" s="16"/>
       <c r="G417" s="16" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
       <c r="H417" s="16">
         <v>4980.0</v>
@@ -14241,17 +14378,17 @@
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="B418" s="16" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F418" s="16"/>
       <c r="G418" s="16" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="H418" s="16">
         <v>4980.0</v>
@@ -14259,35 +14396,35 @@
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="B419" s="16" t="s">
-        <v>638</v>
+        <v>1041</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F419" s="16"/>
       <c r="G419" s="16" t="s">
-        <v>1029</v>
+        <v>1042</v>
       </c>
       <c r="H419" s="16">
-        <v>7800.0</v>
+        <v>4980.0</v>
       </c>
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="B420" s="16" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F420" s="16"/>
       <c r="G420" s="16" t="s">
-        <v>1030</v>
+        <v>1043</v>
       </c>
       <c r="H420" s="16">
         <v>7800.0</v>
@@ -14295,17 +14432,17 @@
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="B421" s="16" t="s">
-        <v>1031</v>
+        <v>649</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F421" s="16"/>
       <c r="G421" s="16" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="H421" s="16">
         <v>7800.0</v>
@@ -14313,35 +14450,35 @@
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="B422" s="16" t="s">
-        <v>588</v>
+        <v>1045</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F422" s="16"/>
       <c r="G422" s="16" t="s">
-        <v>1033</v>
+        <v>1046</v>
       </c>
       <c r="H422" s="16">
-        <v>11400.0</v>
+        <v>7800.0</v>
       </c>
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="B423" s="16" t="s">
-        <v>1034</v>
+        <v>602</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F423" s="16"/>
       <c r="G423" s="16" t="s">
-        <v>1035</v>
+        <v>1047</v>
       </c>
       <c r="H423" s="16">
         <v>11400.0</v>
@@ -14349,17 +14486,17 @@
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="B424" s="16" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F424" s="16"/>
       <c r="G424" s="16" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="H424" s="16">
         <v>11400.0</v>
@@ -14367,89 +14504,89 @@
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="B425" s="16" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F425" s="16"/>
       <c r="G425" s="16" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="H425" s="16">
-        <v>7800.0</v>
+        <v>11400.0</v>
       </c>
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="B426" s="16" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D426" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F426" s="16"/>
       <c r="G426" s="16" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
       <c r="H426" s="16">
-        <v>11400.0</v>
+        <v>7800.0</v>
       </c>
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="B427" s="16" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D427" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F427" s="16"/>
       <c r="G427" s="16" t="s">
-        <v>1043</v>
+        <v>1055</v>
       </c>
       <c r="H427" s="16">
-        <v>7800.0</v>
+        <v>11400.0</v>
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="B428" s="16" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F428" s="16"/>
       <c r="G428" s="16" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="H428" s="16">
-        <v>8950.0</v>
+        <v>7800.0</v>
       </c>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="B429" s="16" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D429" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F429" s="16"/>
       <c r="G429" s="16" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="H429" s="16">
         <v>8950.0</v>
@@ -14457,17 +14594,17 @@
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="B430" s="16" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F430" s="16"/>
       <c r="G430" s="16" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
       <c r="H430" s="16">
         <v>8950.0</v>
@@ -14475,289 +14612,170 @@
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="B431" s="16" t="s">
-        <v>617</v>
+        <v>1062</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F431" s="16"/>
       <c r="G431" s="16" t="s">
-        <v>1050</v>
+        <v>1063</v>
       </c>
       <c r="H431" s="16">
-        <v>11400.0</v>
+        <v>8950.0</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="B432" s="16" t="s">
-        <v>1051</v>
+        <v>1064</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F432" s="16"/>
       <c r="G432" s="16" t="s">
-        <v>1052</v>
+        <v>1065</v>
       </c>
       <c r="H432" s="16">
-        <v>11400.0</v>
+        <v>5220.0</v>
       </c>
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="B433" s="16" t="s">
-        <v>1053</v>
+        <v>1066</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D433" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F433" s="16"/>
       <c r="G433" s="16" t="s">
-        <v>1054</v>
+        <v>1067</v>
       </c>
       <c r="H433" s="16">
-        <v>11400.0</v>
+        <v>5220.0</v>
       </c>
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="B434" s="16" t="s">
-        <v>1055</v>
+        <v>1068</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D434" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F434" s="16"/>
       <c r="G434" s="16" t="s">
-        <v>1056</v>
+        <v>1069</v>
       </c>
       <c r="H434" s="16">
-        <v>11400.0</v>
+        <v>5220.0</v>
       </c>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="B435" s="16" t="s">
-        <v>1057</v>
+        <v>1070</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D435" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F435" s="16"/>
       <c r="G435" s="16" t="s">
-        <v>615</v>
+        <v>1071</v>
       </c>
       <c r="H435" s="16">
-        <v>11400.0</v>
+        <v>8820.0</v>
       </c>
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="B436" s="16" t="s">
-        <v>1058</v>
+        <v>1072</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F436" s="16"/>
       <c r="G436" s="16" t="s">
-        <v>1059</v>
+        <v>1073</v>
       </c>
       <c r="H436" s="16">
-        <v>7800.0</v>
+        <v>9010.0</v>
       </c>
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="B437" s="16" t="s">
-        <v>1060</v>
+        <v>1074</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D437" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F437" s="16"/>
       <c r="G437" s="16" t="s">
-        <v>1061</v>
+        <v>1075</v>
       </c>
       <c r="H437" s="16">
-        <v>7800.0</v>
+        <v>8820.0</v>
       </c>
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="B438" s="16" t="s">
-        <v>1062</v>
+        <v>1076</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F438" s="16"/>
       <c r="G438" s="16" t="s">
-        <v>1063</v>
+        <v>1077</v>
       </c>
       <c r="H438" s="16">
-        <v>7800.0</v>
+        <v>8820.0</v>
       </c>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="B439" s="16" t="s">
-        <v>1064</v>
+        <v>1078</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D439" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F439" s="16"/>
       <c r="G439" s="16" t="s">
-        <v>1065</v>
+        <v>1079</v>
       </c>
       <c r="H439" s="16">
-        <v>5220.0</v>
-      </c>
-    </row>
-    <row r="440" ht="15.75" customHeight="1">
-      <c r="B440" s="16" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C440" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D440" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F440" s="16"/>
-      <c r="G440" s="16" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H440" s="16">
-        <v>5220.0</v>
-      </c>
-    </row>
-    <row r="441" ht="15.75" customHeight="1">
-      <c r="B441" s="16" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F441" s="16"/>
-      <c r="G441" s="16" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H441" s="16">
-        <v>5220.0</v>
-      </c>
-    </row>
-    <row r="442" ht="15.75" customHeight="1">
-      <c r="B442" s="16" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C442" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F442" s="16"/>
-      <c r="G442" s="16" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H442" s="16">
-        <v>8820.0</v>
-      </c>
-    </row>
-    <row r="443" ht="15.75" customHeight="1">
-      <c r="B443" s="16" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C443" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D443" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F443" s="16"/>
-      <c r="G443" s="16" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H443" s="16">
-        <v>9010.0</v>
-      </c>
-    </row>
-    <row r="444" ht="15.75" customHeight="1">
-      <c r="B444" s="16" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D444" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G444" s="16" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H444" s="16">
-        <v>8820.0</v>
-      </c>
-    </row>
-    <row r="445" ht="15.75" customHeight="1">
-      <c r="B445" s="16" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C445" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D445" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G445" s="16" t="s">
-        <v>1077</v>
-      </c>
-      <c r="H445" s="16">
-        <v>8820.0</v>
-      </c>
-    </row>
-    <row r="446" ht="15.75" customHeight="1">
-      <c r="B446" s="16" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D446" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G446" s="16" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H446" s="16">
         <v>25000.0</v>
       </c>
     </row>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
     <row r="447" ht="15.75" customHeight="1"/>
     <row r="448" ht="15.75" customHeight="1"/>
     <row r="449" ht="15.75" customHeight="1"/>
@@ -15285,15 +15303,8 @@
     <row r="971" ht="15.75" customHeight="1"/>
     <row r="972" ht="15.75" customHeight="1"/>
     <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="K1:K33 K35:K980">
+  <conditionalFormatting sqref="K1:K33 K35:K973">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>
